--- a/arquivos_trabalho/tabela/yourDelivery.xlsx
+++ b/arquivos_trabalho/tabela/yourDelivery.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="hidden" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Página2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="290">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -686,7 +686,217 @@
     <t>nome_entregador</t>
   </si>
   <si>
+    <t>entregador_cnh</t>
+  </si>
+  <si>
     <t>entregador_tel</t>
+  </si>
+  <si>
+    <t>est_entregador</t>
+  </si>
+  <si>
+    <t>cidade_entregador</t>
+  </si>
+  <si>
+    <t>bairro_entregador</t>
+  </si>
+  <si>
+    <t>rua_entregador</t>
+  </si>
+  <si>
+    <t>num_entregador</t>
+  </si>
+  <si>
+    <t>tipo_entrega</t>
+  </si>
+  <si>
+    <t>peso_entrega (uni - kg)</t>
+  </si>
+  <si>
+    <t>alt_entrega (uni - cm)</t>
+  </si>
+  <si>
+    <t>larg_entega (uni - cm)</t>
+  </si>
+  <si>
+    <t>profun_entrega (uni - cm)</t>
+  </si>
+  <si>
+    <t>qtd_entrega (uni.)</t>
+  </si>
+  <si>
+    <t>nome_prod_entrega</t>
+  </si>
+  <si>
+    <t>039936381-85</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Betim</t>
+  </si>
+  <si>
+    <t>Bairro das Cruzes</t>
+  </si>
+  <si>
+    <t>Rua José da Conceição</t>
+  </si>
+  <si>
+    <t>Eletrônico</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>004324118-82</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Passo Fundo</t>
+  </si>
+  <si>
+    <t>Bairro dos Camelos</t>
+  </si>
+  <si>
+    <t>Rua da Floresta</t>
+  </si>
+  <si>
+    <t>CELULAR</t>
+  </si>
+  <si>
+    <t>373761761-59</t>
+  </si>
+  <si>
+    <t>Bairro da Tijuca</t>
+  </si>
+  <si>
+    <t>Rua Pedra Lavrada</t>
+  </si>
+  <si>
+    <t>Granel Líquido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fardo de refri 2L</t>
+  </si>
+  <si>
+    <t>568456388-20</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Bairro do Crescimento</t>
+  </si>
+  <si>
+    <t>Acesso E</t>
+  </si>
+  <si>
+    <t>Carga Frágil</t>
+  </si>
+  <si>
+    <t>Jogo de pratos</t>
+  </si>
+  <si>
+    <t>649844314-66</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Petrolina</t>
+  </si>
+  <si>
+    <t>Bairro das Palmeiras</t>
+  </si>
+  <si>
+    <t>Rua Deputada Ana Oliveira</t>
+  </si>
+  <si>
+    <t>Congelados</t>
+  </si>
+  <si>
+    <t>Caixa Pastel congelado</t>
+  </si>
+  <si>
+    <t>022277685-14</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Porto Velho</t>
+  </si>
+  <si>
+    <t>Bairro da Santa Cruz</t>
+  </si>
+  <si>
+    <t>Avenida Miguel Chakian</t>
+  </si>
+  <si>
+    <t>317651631-92</t>
+  </si>
+  <si>
+    <t>Francisco Morato</t>
+  </si>
+  <si>
+    <t>Bairro dos Navegadores</t>
+  </si>
+  <si>
+    <t>Avenida Hostílio Soares</t>
+  </si>
+  <si>
+    <t>Jogo de copos</t>
+  </si>
+  <si>
+    <t>821928676-98</t>
+  </si>
+  <si>
+    <t>Bairro da Catedral</t>
+  </si>
+  <si>
+    <t>Rua Astor Toniolo</t>
+  </si>
+  <si>
+    <t>Carga Seca</t>
+  </si>
+  <si>
+    <t>Jogo de cadeira</t>
+  </si>
+  <si>
+    <t>070556496-67</t>
+  </si>
+  <si>
+    <t>Montes Claros</t>
+  </si>
+  <si>
+    <t>Bairro Serra City</t>
+  </si>
+  <si>
+    <t>Rua C</t>
+  </si>
+  <si>
+    <t>Fardo de cerveja</t>
+  </si>
+  <si>
+    <t>176994582-22</t>
+  </si>
+  <si>
+    <t>Jacareí</t>
+  </si>
+  <si>
+    <t>Bairro Joaninha</t>
+  </si>
+  <si>
+    <t>Rua Olímpio Catão</t>
+  </si>
+  <si>
+    <t>Perecível</t>
+  </si>
+  <si>
+    <t>Caixas de bombons</t>
   </si>
 </sst>
 </file>
@@ -698,7 +908,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -748,14 +958,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="10.0"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="5">
@@ -834,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -846,7 +1061,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -870,9 +1085,6 @@
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -892,25 +1104,16 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
@@ -924,45 +1127,52 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1617,19 +1827,19 @@
       <c r="C17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="5">
         <v>416.0</v>
       </c>
     </row>
@@ -1637,7 +1847,7 @@
       <c r="A18" s="6">
         <v>16.0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1689,25 +1899,25 @@
       <c r="A20" s="6">
         <v>18.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="5">
         <v>521.0</v>
       </c>
     </row>
@@ -1715,25 +1925,25 @@
       <c r="A21" s="6">
         <v>19.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="5">
         <v>286.0</v>
       </c>
     </row>
@@ -1741,10 +1951,10 @@
       <c r="A22" s="6">
         <v>20.0</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -1764,26 +1974,26 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1791,7 +2001,7 @@
       <c r="A27" s="6">
         <v>8.0</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="6">
@@ -1800,7 +2010,7 @@
       <c r="E27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>7.5198965014E10</v>
       </c>
     </row>
@@ -1808,7 +2018,7 @@
       <c r="A28" s="6">
         <v>9.0</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D28" s="6">
@@ -1817,7 +2027,7 @@
       <c r="E28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>4.897262402E10</v>
       </c>
     </row>
@@ -1834,7 +2044,7 @@
       <c r="E29" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>6.7941668289E10</v>
       </c>
     </row>
@@ -1851,7 +2061,7 @@
       <c r="E30" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>4.4585241787E10</v>
       </c>
     </row>
@@ -1901,7 +2111,7 @@
       <c r="A34" s="6">
         <v>18.0</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D34" s="6">
@@ -1910,7 +2120,7 @@
       <c r="E34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>5.3332686062E10</v>
       </c>
     </row>
@@ -1918,7 +2128,7 @@
       <c r="A35" s="6">
         <v>19.0</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D35" s="6">
@@ -1927,7 +2137,7 @@
       <c r="E35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>2.109728906E10</v>
       </c>
     </row>
@@ -1935,7 +2145,7 @@
       <c r="A36" s="6">
         <v>20.0</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D36" s="6">
@@ -1944,30 +2154,30 @@
       <c r="E36" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>4.983188347E10</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -1978,7 +2188,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -1989,7 +2199,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>150</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -2000,7 +2210,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -2011,7 +2221,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -2022,7 +2232,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -2033,7 +2243,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2044,44 +2254,44 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B52" s="2"/>
@@ -2091,22 +2301,22 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="5" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2114,19 +2324,19 @@
       <c r="A54" s="6">
         <v>1.0</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="5">
         <v>2.0</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="5">
         <v>3.0</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>41061.0</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="21">
         <v>41095.0</v>
       </c>
     </row>
@@ -2134,19 +2344,19 @@
       <c r="A55" s="6">
         <v>2.0</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="5">
         <v>2.0</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="5">
         <v>3.0</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>41306.0</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>41339.0</v>
       </c>
     </row>
@@ -2154,19 +2364,19 @@
       <c r="A56" s="6">
         <v>3.0</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="5">
         <v>1.0</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="5">
         <v>5.0</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="20">
         <v>43191.0</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="20">
         <v>43202.0</v>
       </c>
     </row>
@@ -2174,19 +2384,19 @@
       <c r="A57" s="6">
         <v>4.0</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="5">
         <v>14.0</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="5">
         <v>6.0</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="20">
         <v>43904.0</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="20">
         <v>43920.0</v>
       </c>
     </row>
@@ -2194,19 +2404,19 @@
       <c r="A58" s="6">
         <v>5.0</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="5">
         <v>8.0</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="5">
         <v>4.0</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="20">
         <v>44099.0</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="22">
         <v>44114.0</v>
       </c>
     </row>
@@ -2214,19 +2424,19 @@
       <c r="A59" s="6">
         <v>6.0</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="5">
         <v>8.0</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="5">
         <v>5.0</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="20">
         <v>44166.0</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="22">
         <v>44179.0</v>
       </c>
     </row>
@@ -2234,19 +2444,19 @@
       <c r="A60" s="6">
         <v>7.0</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="5">
         <v>14.0</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="5">
         <v>6.0</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="20">
         <v>44316.0</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="20">
         <v>44327.0</v>
       </c>
     </row>
@@ -2254,19 +2464,19 @@
       <c r="A61" s="6">
         <v>8.0</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="5">
         <v>14.0</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="5">
         <v>20.0</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="20">
         <v>44318.0</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="20">
         <v>44326.0</v>
       </c>
     </row>
@@ -2274,19 +2484,19 @@
       <c r="A62" s="6">
         <v>9.0</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="23">
         <v>18.0</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="5">
         <v>11.0</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="20">
         <v>44329.0</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="20">
         <v>44335.0</v>
       </c>
     </row>
@@ -2294,84 +2504,84 @@
       <c r="A63" s="6">
         <v>10.0</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="5">
         <v>19.0</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="5">
         <v>1.0</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="20">
         <v>44348.0</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="20">
         <v>44378.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="C65" s="26"/>
-      <c r="E65" s="13" t="s">
+      <c r="C65" s="4"/>
+      <c r="E65" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66">
-      <c r="C66" s="26"/>
-      <c r="E66" s="23">
+      <c r="C66" s="4"/>
+      <c r="E66" s="20">
         <v>41061.0</v>
       </c>
-      <c r="F66" s="27">
+      <c r="F66" s="21">
         <v>41095.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="C67" s="26"/>
-      <c r="E67" s="23">
+      <c r="C67" s="4"/>
+      <c r="E67" s="20">
         <v>41306.0</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="20">
         <v>41339.0</v>
       </c>
-      <c r="G67" s="26"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="28"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2379,16 +2589,16 @@
       <c r="A83" s="6">
         <v>1.0</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="5" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2396,16 +2606,16 @@
       <c r="A84" s="6">
         <v>2.0</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2413,16 +2623,16 @@
       <c r="A85" s="6">
         <v>3.0</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2430,16 +2640,16 @@
       <c r="A86" s="6">
         <v>4.0</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2447,16 +2657,16 @@
       <c r="A87" s="6">
         <v>5.0</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2464,16 +2674,16 @@
       <c r="A88" s="6">
         <v>6.0</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2481,16 +2691,16 @@
       <c r="A89" s="6">
         <v>7.0</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2498,16 +2708,16 @@
       <c r="A90" s="6">
         <v>8.0</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2515,16 +2725,16 @@
       <c r="A91" s="6">
         <v>9.0</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2532,26 +2742,26 @@
       <c r="A92" s="6">
         <v>10.0</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2559,8 +2769,8 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A52:F52"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A52:F52"/>
     <mergeCell ref="F81:F92"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -2599,7 +2809,18 @@
     <col customWidth="1" min="19" max="19" width="20.14"/>
     <col customWidth="1" min="20" max="20" width="23.57"/>
     <col customWidth="1" min="21" max="21" width="20.14"/>
-    <col customWidth="1" min="24" max="24" width="15.86"/>
+    <col customWidth="1" min="22" max="22" width="15.29"/>
+    <col customWidth="1" min="23" max="23" width="16.71"/>
+    <col customWidth="1" min="24" max="24" width="19.57"/>
+    <col customWidth="1" min="25" max="25" width="20.71"/>
+    <col customWidth="1" min="26" max="26" width="23.29"/>
+    <col customWidth="1" min="27" max="28" width="17.71"/>
+    <col customWidth="1" min="29" max="29" width="20.14"/>
+    <col customWidth="1" min="30" max="30" width="17.71"/>
+    <col customWidth="1" min="31" max="31" width="19.14"/>
+    <col customWidth="1" min="32" max="32" width="21.71"/>
+    <col customWidth="1" min="33" max="33" width="17.71"/>
+    <col customWidth="1" min="34" max="34" width="27.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2627,78 +2848,108 @@
       <c r="H1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="T1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="U1" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="W1" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>180</v>
+      <c r="V1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF1" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG1" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
       <c r="B2" s="5">
         <v>2.0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -2707,7 +2958,7 @@
       <c r="J2" s="10">
         <v>570.0</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="5">
         <v>3.0</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -2734,45 +2985,75 @@
       <c r="S2" s="10">
         <v>1367.0</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>154</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="W2" s="23">
-        <v>41061.0</v>
-      </c>
-      <c r="X2" s="27">
-        <v>41095.0</v>
+      <c r="W2" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA2" s="34">
+        <v>460.0</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>5.7</v>
+      </c>
+      <c r="AD2" s="34">
+        <v>55.9</v>
+      </c>
+      <c r="AE2" s="34">
+        <v>89.5</v>
+      </c>
+      <c r="AF2" s="35">
+        <v>8.2</v>
+      </c>
+      <c r="AG2" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="33">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
       <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -2781,7 +3062,7 @@
       <c r="J3" s="10">
         <v>570.0</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="5">
         <v>3.0</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -2808,45 +3089,75 @@
       <c r="S3" s="10">
         <v>1367.0</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>154</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="W3" s="23">
-        <v>41306.0</v>
-      </c>
-      <c r="X3" s="23">
-        <v>41339.0</v>
+      <c r="W3" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA3" s="34">
+        <v>52.0</v>
+      </c>
+      <c r="AB3" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>0.205</v>
+      </c>
+      <c r="AD3" s="34">
+        <v>16.4</v>
+      </c>
+      <c r="AE3" s="34">
+        <v>7.58</v>
+      </c>
+      <c r="AF3" s="35">
+        <v>0.89</v>
+      </c>
+      <c r="AG3" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AH3" s="34" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="33">
+      <c r="A4" s="6">
         <v>3.0</v>
       </c>
       <c r="B4" s="5">
         <v>1.0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -2855,7 +3166,7 @@
       <c r="J4" s="7">
         <v>11.0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="5">
         <v>5.0</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -2882,45 +3193,75 @@
       <c r="S4" s="10">
         <v>1231.0</v>
       </c>
-      <c r="T4" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>145</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="23">
-        <v>43191.0</v>
-      </c>
-      <c r="X4" s="23">
-        <v>43202.0</v>
+      <c r="W4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z4" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>1065.0</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>10.8</v>
+      </c>
+      <c r="AD4" s="34">
+        <v>24.5</v>
+      </c>
+      <c r="AE4" s="34">
+        <v>18.0</v>
+      </c>
+      <c r="AF4" s="35">
+        <v>27.0</v>
+      </c>
+      <c r="AG4" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="AH4" s="34" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="33">
+      <c r="A5" s="6">
         <v>4.0</v>
       </c>
       <c r="B5" s="5">
         <v>14.0</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -2929,7 +3270,7 @@
       <c r="J5" s="11">
         <v>989.0</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="5">
         <v>6.0</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -2956,45 +3297,75 @@
       <c r="S5" s="10">
         <v>1478.0</v>
       </c>
-      <c r="T5" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="U5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>163</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="W5" s="23">
-        <v>43904.0</v>
-      </c>
-      <c r="X5" s="23">
-        <v>43920.0</v>
+      <c r="W5" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z5" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>164.0</v>
+      </c>
+      <c r="AB5" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>2.4</v>
+      </c>
+      <c r="AD5" s="34">
+        <v>22.5</v>
+      </c>
+      <c r="AE5" s="34">
+        <v>9.0</v>
+      </c>
+      <c r="AF5" s="34">
+        <v>22.5</v>
+      </c>
+      <c r="AG5" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="AH5" s="34" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="33">
+      <c r="A6" s="6">
         <v>5.0</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="36">
         <v>8.0</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -3003,7 +3374,7 @@
       <c r="J6" s="11">
         <v>495.0</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="5">
         <v>4.0</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -3030,45 +3401,75 @@
       <c r="S6" s="10">
         <v>1099.0</v>
       </c>
-      <c r="T6" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="U6" s="39" t="s">
+      <c r="T6" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="V6" s="39" t="s">
+      <c r="U6" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="V6" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="W6" s="23">
-        <v>44099.0</v>
-      </c>
-      <c r="X6" s="24">
-        <v>44114.0</v>
+      <c r="W6" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z6" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA6" s="34">
+        <v>1528.0</v>
+      </c>
+      <c r="AB6" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="AD6" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="AE6" s="34">
+        <v>16.0</v>
+      </c>
+      <c r="AF6" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="AG6" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="AH6" s="34" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="33">
+      <c r="A7" s="6">
         <v>6.0</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>8.0</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -3077,7 +3478,7 @@
       <c r="J7" s="11">
         <v>495.0</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="5">
         <v>5.0</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -3104,45 +3505,75 @@
       <c r="S7" s="10">
         <v>1231.0</v>
       </c>
-      <c r="T7" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="U7" s="39" t="s">
+      <c r="T7" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="V7" s="39" t="s">
+      <c r="U7" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="V7" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="W7" s="23">
-        <v>44166.0</v>
-      </c>
-      <c r="X7" s="24">
-        <v>44179.0</v>
+      <c r="W7" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z7" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA7" s="34">
+        <v>1714.0</v>
+      </c>
+      <c r="AB7" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="AD7" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="AE7" s="34">
+        <v>16.0</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="AG7" s="34">
+        <v>30.0</v>
+      </c>
+      <c r="AH7" s="34" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="33">
+      <c r="A8" s="6">
         <v>7.0</v>
       </c>
       <c r="B8" s="5">
         <v>14.0</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -3151,7 +3582,7 @@
       <c r="J8" s="11">
         <v>989.0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="5">
         <v>6.0</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -3178,45 +3609,75 @@
       <c r="S8" s="10">
         <v>1478.0</v>
       </c>
-      <c r="T8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="U8" s="39" t="s">
+      <c r="T8" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="V8" s="39" t="s">
+      <c r="U8" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="V8" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="W8" s="23">
-        <v>44316.0</v>
-      </c>
-      <c r="X8" s="23">
-        <v>44327.0</v>
+      <c r="W8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y8" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA8" s="34">
+        <v>133.0</v>
+      </c>
+      <c r="AB8" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC8" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AD8" s="39">
+        <v>12.9</v>
+      </c>
+      <c r="AE8" s="39">
+        <v>13.6</v>
+      </c>
+      <c r="AF8" s="35">
+        <v>23.9</v>
+      </c>
+      <c r="AG8" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="AH8" s="34" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="33">
+      <c r="A9" s="6">
         <v>8.0</v>
       </c>
       <c r="B9" s="5">
         <v>14.0</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -3225,16 +3686,16 @@
       <c r="J9" s="11">
         <v>989.0</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="5">
         <v>20.0</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="5" t="s">
         <v>113</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -3252,24 +3713,54 @@
       <c r="S9" s="9">
         <v>1517.0</v>
       </c>
-      <c r="T9" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="U9" s="39" t="s">
+      <c r="T9" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="V9" s="41" t="s">
+      <c r="U9" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="V9" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="W9" s="23">
-        <v>44318.0</v>
-      </c>
-      <c r="X9" s="23">
-        <v>44326.0</v>
+      <c r="W9" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA9" s="34">
+        <v>1115.0</v>
+      </c>
+      <c r="AB9" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC9" s="41">
+        <v>2.36</v>
+      </c>
+      <c r="AD9" s="34">
+        <v>90.0</v>
+      </c>
+      <c r="AE9" s="34">
+        <v>35.0</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>44.0</v>
+      </c>
+      <c r="AG9" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AH9" s="34" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="33">
+      <c r="A10" s="6">
         <v>9.0</v>
       </c>
       <c r="B10" s="42">
@@ -3281,25 +3772,25 @@
       <c r="D10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="38">
         <v>521.0</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="38">
         <v>11.0</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -3308,45 +3799,75 @@
       <c r="M10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="R10" s="44" t="s">
+      <c r="R10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="44">
+      <c r="S10" s="43">
         <v>211.0</v>
       </c>
-      <c r="T10" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="U10" s="39" t="s">
+      <c r="T10" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="V10" s="41" t="s">
+      <c r="U10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="V10" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="W10" s="23">
-        <v>44329.0</v>
-      </c>
-      <c r="X10" s="23">
-        <v>44335.0</v>
+      <c r="W10" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y10" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA10" s="34">
+        <v>1703.0</v>
+      </c>
+      <c r="AB10" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC10" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="AD10" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="AE10" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="AF10" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="AG10" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="AH10" s="34" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="33">
+      <c r="A11" s="6">
         <v>10.0</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="38">
         <v>19.0</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3355,25 +3876,25 @@
       <c r="D11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="38">
         <v>286.0</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="38">
         <v>1.0</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -3400,54 +3921,3084 @@
       <c r="S11" s="7">
         <v>11.0</v>
       </c>
-      <c r="T11" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="U11" s="39" t="s">
+      <c r="T11" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="U11" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="V11" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA11" s="34">
+        <v>507.0</v>
+      </c>
+      <c r="AB11" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC11" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="AD11" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="AE11" s="34">
+        <v>9.3</v>
+      </c>
+      <c r="AF11" s="35">
+        <v>9.3</v>
+      </c>
+      <c r="AG11" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="AH11" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="AH12" s="44"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH13" s="44"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20">
+        <v>41061.0</v>
+      </c>
+      <c r="B14" s="21">
+        <v>41095.0</v>
+      </c>
+      <c r="AH14" s="44"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="20">
+        <v>41306.0</v>
+      </c>
+      <c r="B15" s="20">
+        <v>41339.0</v>
+      </c>
+      <c r="AH15" s="44"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="20">
+        <v>43191.0</v>
+      </c>
+      <c r="B16" s="20">
+        <v>43202.0</v>
+      </c>
+      <c r="AH16" s="44"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="20">
+        <v>43904.0</v>
+      </c>
+      <c r="B17" s="20">
+        <v>43920.0</v>
+      </c>
+      <c r="AH17" s="44"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20">
+        <v>44099.0</v>
+      </c>
+      <c r="B18" s="22">
+        <v>44114.0</v>
+      </c>
+      <c r="AH18" s="44"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20">
+        <v>44166.0</v>
+      </c>
+      <c r="B19" s="22">
+        <v>44179.0</v>
+      </c>
+      <c r="AH19" s="44"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20">
+        <v>44316.0</v>
+      </c>
+      <c r="B20" s="20">
+        <v>44327.0</v>
+      </c>
+      <c r="AH20" s="44"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20">
+        <v>44318.0</v>
+      </c>
+      <c r="B21" s="20">
+        <v>44326.0</v>
+      </c>
+      <c r="AH21" s="44"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20">
+        <v>44329.0</v>
+      </c>
+      <c r="B22" s="20">
+        <v>44335.0</v>
+      </c>
+      <c r="AH22" s="44"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20">
         <v>44348.0</v>
       </c>
-      <c r="X11" s="23">
+      <c r="B23" s="20">
         <v>44378.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="26"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="45"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="45"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="45"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="45"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="45"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="45"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="45"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="45"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="45"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="45"/>
+      <c r="AH23" s="44"/>
+    </row>
+    <row r="24">
+      <c r="AH24" s="44"/>
+    </row>
+    <row r="25">
+      <c r="AH25" s="44"/>
+    </row>
+    <row r="26">
+      <c r="AH26" s="44"/>
+    </row>
+    <row r="27">
+      <c r="AH27" s="44"/>
+    </row>
+    <row r="28">
+      <c r="AH28" s="44"/>
+    </row>
+    <row r="29">
+      <c r="AH29" s="44"/>
+    </row>
+    <row r="30">
+      <c r="AH30" s="44"/>
+    </row>
+    <row r="31">
+      <c r="AH31" s="44"/>
+    </row>
+    <row r="32">
+      <c r="AH32" s="44"/>
+    </row>
+    <row r="33">
+      <c r="AH33" s="44"/>
+    </row>
+    <row r="34">
+      <c r="AH34" s="44"/>
+    </row>
+    <row r="35">
+      <c r="AH35" s="44"/>
+    </row>
+    <row r="36">
+      <c r="AH36" s="44"/>
+    </row>
+    <row r="37">
+      <c r="AH37" s="44"/>
+    </row>
+    <row r="38">
+      <c r="AH38" s="44"/>
+    </row>
+    <row r="39">
+      <c r="AH39" s="44"/>
+    </row>
+    <row r="40">
+      <c r="AH40" s="44"/>
+    </row>
+    <row r="41">
+      <c r="AH41" s="44"/>
+    </row>
+    <row r="42">
+      <c r="AH42" s="44"/>
+    </row>
+    <row r="43">
+      <c r="AH43" s="44"/>
+    </row>
+    <row r="44">
+      <c r="AH44" s="44"/>
+    </row>
+    <row r="45">
+      <c r="AH45" s="44"/>
+    </row>
+    <row r="46">
+      <c r="AH46" s="44"/>
+    </row>
+    <row r="47">
+      <c r="AH47" s="44"/>
+    </row>
+    <row r="48">
+      <c r="AH48" s="44"/>
+    </row>
+    <row r="49">
+      <c r="AH49" s="44"/>
+    </row>
+    <row r="50">
+      <c r="AH50" s="44"/>
+    </row>
+    <row r="51">
+      <c r="AH51" s="44"/>
+    </row>
+    <row r="52">
+      <c r="AH52" s="44"/>
+    </row>
+    <row r="53">
+      <c r="AH53" s="44"/>
+    </row>
+    <row r="54">
+      <c r="AH54" s="44"/>
+    </row>
+    <row r="55">
+      <c r="AH55" s="44"/>
+    </row>
+    <row r="56">
+      <c r="AH56" s="44"/>
+    </row>
+    <row r="57">
+      <c r="AH57" s="44"/>
+    </row>
+    <row r="58">
+      <c r="AH58" s="44"/>
+    </row>
+    <row r="59">
+      <c r="AH59" s="44"/>
+    </row>
+    <row r="60">
+      <c r="AH60" s="44"/>
+    </row>
+    <row r="61">
+      <c r="AH61" s="44"/>
+    </row>
+    <row r="62">
+      <c r="AH62" s="44"/>
+    </row>
+    <row r="63">
+      <c r="AH63" s="44"/>
+    </row>
+    <row r="64">
+      <c r="AH64" s="44"/>
+    </row>
+    <row r="65">
+      <c r="AH65" s="44"/>
+    </row>
+    <row r="66">
+      <c r="AH66" s="44"/>
+    </row>
+    <row r="67">
+      <c r="AH67" s="44"/>
+    </row>
+    <row r="68">
+      <c r="AH68" s="44"/>
+    </row>
+    <row r="69">
+      <c r="AH69" s="44"/>
+    </row>
+    <row r="70">
+      <c r="AH70" s="44"/>
+    </row>
+    <row r="71">
+      <c r="AH71" s="44"/>
+    </row>
+    <row r="72">
+      <c r="AH72" s="44"/>
+    </row>
+    <row r="73">
+      <c r="AH73" s="44"/>
+    </row>
+    <row r="74">
+      <c r="AH74" s="44"/>
+    </row>
+    <row r="75">
+      <c r="AH75" s="44"/>
+    </row>
+    <row r="76">
+      <c r="AH76" s="44"/>
+    </row>
+    <row r="77">
+      <c r="AH77" s="44"/>
+    </row>
+    <row r="78">
+      <c r="AH78" s="44"/>
+    </row>
+    <row r="79">
+      <c r="AH79" s="44"/>
+    </row>
+    <row r="80">
+      <c r="AH80" s="44"/>
+    </row>
+    <row r="81">
+      <c r="AH81" s="44"/>
+    </row>
+    <row r="82">
+      <c r="AH82" s="44"/>
+    </row>
+    <row r="83">
+      <c r="AH83" s="44"/>
+    </row>
+    <row r="84">
+      <c r="AH84" s="44"/>
+    </row>
+    <row r="85">
+      <c r="AH85" s="44"/>
+    </row>
+    <row r="86">
+      <c r="AH86" s="44"/>
+    </row>
+    <row r="87">
+      <c r="AH87" s="44"/>
+    </row>
+    <row r="88">
+      <c r="AH88" s="44"/>
+    </row>
+    <row r="89">
+      <c r="AH89" s="44"/>
+    </row>
+    <row r="90">
+      <c r="AH90" s="44"/>
+    </row>
+    <row r="91">
+      <c r="AH91" s="44"/>
+    </row>
+    <row r="92">
+      <c r="AH92" s="44"/>
+    </row>
+    <row r="93">
+      <c r="AH93" s="44"/>
+    </row>
+    <row r="94">
+      <c r="AH94" s="44"/>
+    </row>
+    <row r="95">
+      <c r="AH95" s="44"/>
+    </row>
+    <row r="96">
+      <c r="AH96" s="44"/>
+    </row>
+    <row r="97">
+      <c r="AH97" s="44"/>
+    </row>
+    <row r="98">
+      <c r="AH98" s="44"/>
+    </row>
+    <row r="99">
+      <c r="AH99" s="44"/>
+    </row>
+    <row r="100">
+      <c r="AH100" s="44"/>
+    </row>
+    <row r="101">
+      <c r="AH101" s="44"/>
+    </row>
+    <row r="102">
+      <c r="AH102" s="44"/>
+    </row>
+    <row r="103">
+      <c r="AH103" s="44"/>
+    </row>
+    <row r="104">
+      <c r="AH104" s="44"/>
+    </row>
+    <row r="105">
+      <c r="AH105" s="44"/>
+    </row>
+    <row r="106">
+      <c r="AH106" s="44"/>
+    </row>
+    <row r="107">
+      <c r="AH107" s="44"/>
+    </row>
+    <row r="108">
+      <c r="AH108" s="44"/>
+    </row>
+    <row r="109">
+      <c r="AH109" s="44"/>
+    </row>
+    <row r="110">
+      <c r="AH110" s="44"/>
+    </row>
+    <row r="111">
+      <c r="AH111" s="44"/>
+    </row>
+    <row r="112">
+      <c r="AH112" s="44"/>
+    </row>
+    <row r="113">
+      <c r="AH113" s="44"/>
+    </row>
+    <row r="114">
+      <c r="AH114" s="44"/>
+    </row>
+    <row r="115">
+      <c r="AH115" s="44"/>
+    </row>
+    <row r="116">
+      <c r="AH116" s="44"/>
+    </row>
+    <row r="117">
+      <c r="AH117" s="44"/>
+    </row>
+    <row r="118">
+      <c r="AH118" s="44"/>
+    </row>
+    <row r="119">
+      <c r="AH119" s="44"/>
+    </row>
+    <row r="120">
+      <c r="AH120" s="44"/>
+    </row>
+    <row r="121">
+      <c r="AH121" s="44"/>
+    </row>
+    <row r="122">
+      <c r="AH122" s="44"/>
+    </row>
+    <row r="123">
+      <c r="AH123" s="44"/>
+    </row>
+    <row r="124">
+      <c r="AH124" s="44"/>
+    </row>
+    <row r="125">
+      <c r="AH125" s="44"/>
+    </row>
+    <row r="126">
+      <c r="AH126" s="44"/>
+    </row>
+    <row r="127">
+      <c r="AH127" s="44"/>
+    </row>
+    <row r="128">
+      <c r="AH128" s="44"/>
+    </row>
+    <row r="129">
+      <c r="AH129" s="44"/>
+    </row>
+    <row r="130">
+      <c r="AH130" s="44"/>
+    </row>
+    <row r="131">
+      <c r="AH131" s="44"/>
+    </row>
+    <row r="132">
+      <c r="AH132" s="44"/>
+    </row>
+    <row r="133">
+      <c r="AH133" s="44"/>
+    </row>
+    <row r="134">
+      <c r="AH134" s="44"/>
+    </row>
+    <row r="135">
+      <c r="AH135" s="44"/>
+    </row>
+    <row r="136">
+      <c r="AH136" s="44"/>
+    </row>
+    <row r="137">
+      <c r="AH137" s="44"/>
+    </row>
+    <row r="138">
+      <c r="AH138" s="44"/>
+    </row>
+    <row r="139">
+      <c r="AH139" s="44"/>
+    </row>
+    <row r="140">
+      <c r="AH140" s="44"/>
+    </row>
+    <row r="141">
+      <c r="AH141" s="44"/>
+    </row>
+    <row r="142">
+      <c r="AH142" s="44"/>
+    </row>
+    <row r="143">
+      <c r="AH143" s="44"/>
+    </row>
+    <row r="144">
+      <c r="AH144" s="44"/>
+    </row>
+    <row r="145">
+      <c r="AH145" s="44"/>
+    </row>
+    <row r="146">
+      <c r="AH146" s="44"/>
+    </row>
+    <row r="147">
+      <c r="AH147" s="44"/>
+    </row>
+    <row r="148">
+      <c r="AH148" s="44"/>
+    </row>
+    <row r="149">
+      <c r="AH149" s="44"/>
+    </row>
+    <row r="150">
+      <c r="AH150" s="44"/>
+    </row>
+    <row r="151">
+      <c r="AH151" s="44"/>
+    </row>
+    <row r="152">
+      <c r="AH152" s="44"/>
+    </row>
+    <row r="153">
+      <c r="AH153" s="44"/>
+    </row>
+    <row r="154">
+      <c r="AH154" s="44"/>
+    </row>
+    <row r="155">
+      <c r="AH155" s="44"/>
+    </row>
+    <row r="156">
+      <c r="AH156" s="44"/>
+    </row>
+    <row r="157">
+      <c r="AH157" s="44"/>
+    </row>
+    <row r="158">
+      <c r="AH158" s="44"/>
+    </row>
+    <row r="159">
+      <c r="AH159" s="44"/>
+    </row>
+    <row r="160">
+      <c r="AH160" s="44"/>
+    </row>
+    <row r="161">
+      <c r="AH161" s="44"/>
+    </row>
+    <row r="162">
+      <c r="AH162" s="44"/>
+    </row>
+    <row r="163">
+      <c r="AH163" s="44"/>
+    </row>
+    <row r="164">
+      <c r="AH164" s="44"/>
+    </row>
+    <row r="165">
+      <c r="AH165" s="44"/>
+    </row>
+    <row r="166">
+      <c r="AH166" s="44"/>
+    </row>
+    <row r="167">
+      <c r="AH167" s="44"/>
+    </row>
+    <row r="168">
+      <c r="AH168" s="44"/>
+    </row>
+    <row r="169">
+      <c r="AH169" s="44"/>
+    </row>
+    <row r="170">
+      <c r="AH170" s="44"/>
+    </row>
+    <row r="171">
+      <c r="AH171" s="44"/>
+    </row>
+    <row r="172">
+      <c r="AH172" s="44"/>
+    </row>
+    <row r="173">
+      <c r="AH173" s="44"/>
+    </row>
+    <row r="174">
+      <c r="AH174" s="44"/>
+    </row>
+    <row r="175">
+      <c r="AH175" s="44"/>
+    </row>
+    <row r="176">
+      <c r="AH176" s="44"/>
+    </row>
+    <row r="177">
+      <c r="AH177" s="44"/>
+    </row>
+    <row r="178">
+      <c r="AH178" s="44"/>
+    </row>
+    <row r="179">
+      <c r="AH179" s="44"/>
+    </row>
+    <row r="180">
+      <c r="AH180" s="44"/>
+    </row>
+    <row r="181">
+      <c r="AH181" s="44"/>
+    </row>
+    <row r="182">
+      <c r="AH182" s="44"/>
+    </row>
+    <row r="183">
+      <c r="AH183" s="44"/>
+    </row>
+    <row r="184">
+      <c r="AH184" s="44"/>
+    </row>
+    <row r="185">
+      <c r="AH185" s="44"/>
+    </row>
+    <row r="186">
+      <c r="AH186" s="44"/>
+    </row>
+    <row r="187">
+      <c r="AH187" s="44"/>
+    </row>
+    <row r="188">
+      <c r="AH188" s="44"/>
+    </row>
+    <row r="189">
+      <c r="AH189" s="44"/>
+    </row>
+    <row r="190">
+      <c r="AH190" s="44"/>
+    </row>
+    <row r="191">
+      <c r="AH191" s="44"/>
+    </row>
+    <row r="192">
+      <c r="AH192" s="44"/>
+    </row>
+    <row r="193">
+      <c r="AH193" s="44"/>
+    </row>
+    <row r="194">
+      <c r="AH194" s="44"/>
+    </row>
+    <row r="195">
+      <c r="AH195" s="44"/>
+    </row>
+    <row r="196">
+      <c r="AH196" s="44"/>
+    </row>
+    <row r="197">
+      <c r="AH197" s="44"/>
+    </row>
+    <row r="198">
+      <c r="AH198" s="44"/>
+    </row>
+    <row r="199">
+      <c r="AH199" s="44"/>
+    </row>
+    <row r="200">
+      <c r="AH200" s="44"/>
+    </row>
+    <row r="201">
+      <c r="AH201" s="44"/>
+    </row>
+    <row r="202">
+      <c r="AH202" s="44"/>
+    </row>
+    <row r="203">
+      <c r="AH203" s="44"/>
+    </row>
+    <row r="204">
+      <c r="AH204" s="44"/>
+    </row>
+    <row r="205">
+      <c r="AH205" s="44"/>
+    </row>
+    <row r="206">
+      <c r="AH206" s="44"/>
+    </row>
+    <row r="207">
+      <c r="AH207" s="44"/>
+    </row>
+    <row r="208">
+      <c r="AH208" s="44"/>
+    </row>
+    <row r="209">
+      <c r="AH209" s="44"/>
+    </row>
+    <row r="210">
+      <c r="AH210" s="44"/>
+    </row>
+    <row r="211">
+      <c r="AH211" s="44"/>
+    </row>
+    <row r="212">
+      <c r="AH212" s="44"/>
+    </row>
+    <row r="213">
+      <c r="AH213" s="44"/>
+    </row>
+    <row r="214">
+      <c r="AH214" s="44"/>
+    </row>
+    <row r="215">
+      <c r="AH215" s="44"/>
+    </row>
+    <row r="216">
+      <c r="AH216" s="44"/>
+    </row>
+    <row r="217">
+      <c r="AH217" s="44"/>
+    </row>
+    <row r="218">
+      <c r="AH218" s="44"/>
+    </row>
+    <row r="219">
+      <c r="AH219" s="44"/>
+    </row>
+    <row r="220">
+      <c r="AH220" s="44"/>
+    </row>
+    <row r="221">
+      <c r="AH221" s="44"/>
+    </row>
+    <row r="222">
+      <c r="AH222" s="44"/>
+    </row>
+    <row r="223">
+      <c r="AH223" s="44"/>
+    </row>
+    <row r="224">
+      <c r="AH224" s="44"/>
+    </row>
+    <row r="225">
+      <c r="AH225" s="44"/>
+    </row>
+    <row r="226">
+      <c r="AH226" s="44"/>
+    </row>
+    <row r="227">
+      <c r="AH227" s="44"/>
+    </row>
+    <row r="228">
+      <c r="AH228" s="44"/>
+    </row>
+    <row r="229">
+      <c r="AH229" s="44"/>
+    </row>
+    <row r="230">
+      <c r="AH230" s="44"/>
+    </row>
+    <row r="231">
+      <c r="AH231" s="44"/>
+    </row>
+    <row r="232">
+      <c r="AH232" s="44"/>
+    </row>
+    <row r="233">
+      <c r="AH233" s="44"/>
+    </row>
+    <row r="234">
+      <c r="AH234" s="44"/>
+    </row>
+    <row r="235">
+      <c r="AH235" s="44"/>
+    </row>
+    <row r="236">
+      <c r="AH236" s="44"/>
+    </row>
+    <row r="237">
+      <c r="AH237" s="44"/>
+    </row>
+    <row r="238">
+      <c r="AH238" s="44"/>
+    </row>
+    <row r="239">
+      <c r="AH239" s="44"/>
+    </row>
+    <row r="240">
+      <c r="AH240" s="44"/>
+    </row>
+    <row r="241">
+      <c r="AH241" s="44"/>
+    </row>
+    <row r="242">
+      <c r="AH242" s="44"/>
+    </row>
+    <row r="243">
+      <c r="AH243" s="44"/>
+    </row>
+    <row r="244">
+      <c r="AH244" s="44"/>
+    </row>
+    <row r="245">
+      <c r="AH245" s="44"/>
+    </row>
+    <row r="246">
+      <c r="AH246" s="44"/>
+    </row>
+    <row r="247">
+      <c r="AH247" s="44"/>
+    </row>
+    <row r="248">
+      <c r="AH248" s="44"/>
+    </row>
+    <row r="249">
+      <c r="AH249" s="44"/>
+    </row>
+    <row r="250">
+      <c r="AH250" s="44"/>
+    </row>
+    <row r="251">
+      <c r="AH251" s="44"/>
+    </row>
+    <row r="252">
+      <c r="AH252" s="44"/>
+    </row>
+    <row r="253">
+      <c r="AH253" s="44"/>
+    </row>
+    <row r="254">
+      <c r="AH254" s="44"/>
+    </row>
+    <row r="255">
+      <c r="AH255" s="44"/>
+    </row>
+    <row r="256">
+      <c r="AH256" s="44"/>
+    </row>
+    <row r="257">
+      <c r="AH257" s="44"/>
+    </row>
+    <row r="258">
+      <c r="AH258" s="44"/>
+    </row>
+    <row r="259">
+      <c r="AH259" s="44"/>
+    </row>
+    <row r="260">
+      <c r="AH260" s="44"/>
+    </row>
+    <row r="261">
+      <c r="AH261" s="44"/>
+    </row>
+    <row r="262">
+      <c r="AH262" s="44"/>
+    </row>
+    <row r="263">
+      <c r="AH263" s="44"/>
+    </row>
+    <row r="264">
+      <c r="AH264" s="44"/>
+    </row>
+    <row r="265">
+      <c r="AH265" s="44"/>
+    </row>
+    <row r="266">
+      <c r="AH266" s="44"/>
+    </row>
+    <row r="267">
+      <c r="AH267" s="44"/>
+    </row>
+    <row r="268">
+      <c r="AH268" s="44"/>
+    </row>
+    <row r="269">
+      <c r="AH269" s="44"/>
+    </row>
+    <row r="270">
+      <c r="AH270" s="44"/>
+    </row>
+    <row r="271">
+      <c r="AH271" s="44"/>
+    </row>
+    <row r="272">
+      <c r="AH272" s="44"/>
+    </row>
+    <row r="273">
+      <c r="AH273" s="44"/>
+    </row>
+    <row r="274">
+      <c r="AH274" s="44"/>
+    </row>
+    <row r="275">
+      <c r="AH275" s="44"/>
+    </row>
+    <row r="276">
+      <c r="AH276" s="44"/>
+    </row>
+    <row r="277">
+      <c r="AH277" s="44"/>
+    </row>
+    <row r="278">
+      <c r="AH278" s="44"/>
+    </row>
+    <row r="279">
+      <c r="AH279" s="44"/>
+    </row>
+    <row r="280">
+      <c r="AH280" s="44"/>
+    </row>
+    <row r="281">
+      <c r="AH281" s="44"/>
+    </row>
+    <row r="282">
+      <c r="AH282" s="44"/>
+    </row>
+    <row r="283">
+      <c r="AH283" s="44"/>
+    </row>
+    <row r="284">
+      <c r="AH284" s="44"/>
+    </row>
+    <row r="285">
+      <c r="AH285" s="44"/>
+    </row>
+    <row r="286">
+      <c r="AH286" s="44"/>
+    </row>
+    <row r="287">
+      <c r="AH287" s="44"/>
+    </row>
+    <row r="288">
+      <c r="AH288" s="44"/>
+    </row>
+    <row r="289">
+      <c r="AH289" s="44"/>
+    </row>
+    <row r="290">
+      <c r="AH290" s="44"/>
+    </row>
+    <row r="291">
+      <c r="AH291" s="44"/>
+    </row>
+    <row r="292">
+      <c r="AH292" s="44"/>
+    </row>
+    <row r="293">
+      <c r="AH293" s="44"/>
+    </row>
+    <row r="294">
+      <c r="AH294" s="44"/>
+    </row>
+    <row r="295">
+      <c r="AH295" s="44"/>
+    </row>
+    <row r="296">
+      <c r="AH296" s="44"/>
+    </row>
+    <row r="297">
+      <c r="AH297" s="44"/>
+    </row>
+    <row r="298">
+      <c r="AH298" s="44"/>
+    </row>
+    <row r="299">
+      <c r="AH299" s="44"/>
+    </row>
+    <row r="300">
+      <c r="AH300" s="44"/>
+    </row>
+    <row r="301">
+      <c r="AH301" s="44"/>
+    </row>
+    <row r="302">
+      <c r="AH302" s="44"/>
+    </row>
+    <row r="303">
+      <c r="AH303" s="44"/>
+    </row>
+    <row r="304">
+      <c r="AH304" s="44"/>
+    </row>
+    <row r="305">
+      <c r="AH305" s="44"/>
+    </row>
+    <row r="306">
+      <c r="AH306" s="44"/>
+    </row>
+    <row r="307">
+      <c r="AH307" s="44"/>
+    </row>
+    <row r="308">
+      <c r="AH308" s="44"/>
+    </row>
+    <row r="309">
+      <c r="AH309" s="44"/>
+    </row>
+    <row r="310">
+      <c r="AH310" s="44"/>
+    </row>
+    <row r="311">
+      <c r="AH311" s="44"/>
+    </row>
+    <row r="312">
+      <c r="AH312" s="44"/>
+    </row>
+    <row r="313">
+      <c r="AH313" s="44"/>
+    </row>
+    <row r="314">
+      <c r="AH314" s="44"/>
+    </row>
+    <row r="315">
+      <c r="AH315" s="44"/>
+    </row>
+    <row r="316">
+      <c r="AH316" s="44"/>
+    </row>
+    <row r="317">
+      <c r="AH317" s="44"/>
+    </row>
+    <row r="318">
+      <c r="AH318" s="44"/>
+    </row>
+    <row r="319">
+      <c r="AH319" s="44"/>
+    </row>
+    <row r="320">
+      <c r="AH320" s="44"/>
+    </row>
+    <row r="321">
+      <c r="AH321" s="44"/>
+    </row>
+    <row r="322">
+      <c r="AH322" s="44"/>
+    </row>
+    <row r="323">
+      <c r="AH323" s="44"/>
+    </row>
+    <row r="324">
+      <c r="AH324" s="44"/>
+    </row>
+    <row r="325">
+      <c r="AH325" s="44"/>
+    </row>
+    <row r="326">
+      <c r="AH326" s="44"/>
+    </row>
+    <row r="327">
+      <c r="AH327" s="44"/>
+    </row>
+    <row r="328">
+      <c r="AH328" s="44"/>
+    </row>
+    <row r="329">
+      <c r="AH329" s="44"/>
+    </row>
+    <row r="330">
+      <c r="AH330" s="44"/>
+    </row>
+    <row r="331">
+      <c r="AH331" s="44"/>
+    </row>
+    <row r="332">
+      <c r="AH332" s="44"/>
+    </row>
+    <row r="333">
+      <c r="AH333" s="44"/>
+    </row>
+    <row r="334">
+      <c r="AH334" s="44"/>
+    </row>
+    <row r="335">
+      <c r="AH335" s="44"/>
+    </row>
+    <row r="336">
+      <c r="AH336" s="44"/>
+    </row>
+    <row r="337">
+      <c r="AH337" s="44"/>
+    </row>
+    <row r="338">
+      <c r="AH338" s="44"/>
+    </row>
+    <row r="339">
+      <c r="AH339" s="44"/>
+    </row>
+    <row r="340">
+      <c r="AH340" s="44"/>
+    </row>
+    <row r="341">
+      <c r="AH341" s="44"/>
+    </row>
+    <row r="342">
+      <c r="AH342" s="44"/>
+    </row>
+    <row r="343">
+      <c r="AH343" s="44"/>
+    </row>
+    <row r="344">
+      <c r="AH344" s="44"/>
+    </row>
+    <row r="345">
+      <c r="AH345" s="44"/>
+    </row>
+    <row r="346">
+      <c r="AH346" s="44"/>
+    </row>
+    <row r="347">
+      <c r="AH347" s="44"/>
+    </row>
+    <row r="348">
+      <c r="AH348" s="44"/>
+    </row>
+    <row r="349">
+      <c r="AH349" s="44"/>
+    </row>
+    <row r="350">
+      <c r="AH350" s="44"/>
+    </row>
+    <row r="351">
+      <c r="AH351" s="44"/>
+    </row>
+    <row r="352">
+      <c r="AH352" s="44"/>
+    </row>
+    <row r="353">
+      <c r="AH353" s="44"/>
+    </row>
+    <row r="354">
+      <c r="AH354" s="44"/>
+    </row>
+    <row r="355">
+      <c r="AH355" s="44"/>
+    </row>
+    <row r="356">
+      <c r="AH356" s="44"/>
+    </row>
+    <row r="357">
+      <c r="AH357" s="44"/>
+    </row>
+    <row r="358">
+      <c r="AH358" s="44"/>
+    </row>
+    <row r="359">
+      <c r="AH359" s="44"/>
+    </row>
+    <row r="360">
+      <c r="AH360" s="44"/>
+    </row>
+    <row r="361">
+      <c r="AH361" s="44"/>
+    </row>
+    <row r="362">
+      <c r="AH362" s="44"/>
+    </row>
+    <row r="363">
+      <c r="AH363" s="44"/>
+    </row>
+    <row r="364">
+      <c r="AH364" s="44"/>
+    </row>
+    <row r="365">
+      <c r="AH365" s="44"/>
+    </row>
+    <row r="366">
+      <c r="AH366" s="44"/>
+    </row>
+    <row r="367">
+      <c r="AH367" s="44"/>
+    </row>
+    <row r="368">
+      <c r="AH368" s="44"/>
+    </row>
+    <row r="369">
+      <c r="AH369" s="44"/>
+    </row>
+    <row r="370">
+      <c r="AH370" s="44"/>
+    </row>
+    <row r="371">
+      <c r="AH371" s="44"/>
+    </row>
+    <row r="372">
+      <c r="AH372" s="44"/>
+    </row>
+    <row r="373">
+      <c r="AH373" s="44"/>
+    </row>
+    <row r="374">
+      <c r="AH374" s="44"/>
+    </row>
+    <row r="375">
+      <c r="AH375" s="44"/>
+    </row>
+    <row r="376">
+      <c r="AH376" s="44"/>
+    </row>
+    <row r="377">
+      <c r="AH377" s="44"/>
+    </row>
+    <row r="378">
+      <c r="AH378" s="44"/>
+    </row>
+    <row r="379">
+      <c r="AH379" s="44"/>
+    </row>
+    <row r="380">
+      <c r="AH380" s="44"/>
+    </row>
+    <row r="381">
+      <c r="AH381" s="44"/>
+    </row>
+    <row r="382">
+      <c r="AH382" s="44"/>
+    </row>
+    <row r="383">
+      <c r="AH383" s="44"/>
+    </row>
+    <row r="384">
+      <c r="AH384" s="44"/>
+    </row>
+    <row r="385">
+      <c r="AH385" s="44"/>
+    </row>
+    <row r="386">
+      <c r="AH386" s="44"/>
+    </row>
+    <row r="387">
+      <c r="AH387" s="44"/>
+    </row>
+    <row r="388">
+      <c r="AH388" s="44"/>
+    </row>
+    <row r="389">
+      <c r="AH389" s="44"/>
+    </row>
+    <row r="390">
+      <c r="AH390" s="44"/>
+    </row>
+    <row r="391">
+      <c r="AH391" s="44"/>
+    </row>
+    <row r="392">
+      <c r="AH392" s="44"/>
+    </row>
+    <row r="393">
+      <c r="AH393" s="44"/>
+    </row>
+    <row r="394">
+      <c r="AH394" s="44"/>
+    </row>
+    <row r="395">
+      <c r="AH395" s="44"/>
+    </row>
+    <row r="396">
+      <c r="AH396" s="44"/>
+    </row>
+    <row r="397">
+      <c r="AH397" s="44"/>
+    </row>
+    <row r="398">
+      <c r="AH398" s="44"/>
+    </row>
+    <row r="399">
+      <c r="AH399" s="44"/>
+    </row>
+    <row r="400">
+      <c r="AH400" s="44"/>
+    </row>
+    <row r="401">
+      <c r="AH401" s="44"/>
+    </row>
+    <row r="402">
+      <c r="AH402" s="44"/>
+    </row>
+    <row r="403">
+      <c r="AH403" s="44"/>
+    </row>
+    <row r="404">
+      <c r="AH404" s="44"/>
+    </row>
+    <row r="405">
+      <c r="AH405" s="44"/>
+    </row>
+    <row r="406">
+      <c r="AH406" s="44"/>
+    </row>
+    <row r="407">
+      <c r="AH407" s="44"/>
+    </row>
+    <row r="408">
+      <c r="AH408" s="44"/>
+    </row>
+    <row r="409">
+      <c r="AH409" s="44"/>
+    </row>
+    <row r="410">
+      <c r="AH410" s="44"/>
+    </row>
+    <row r="411">
+      <c r="AH411" s="44"/>
+    </row>
+    <row r="412">
+      <c r="AH412" s="44"/>
+    </row>
+    <row r="413">
+      <c r="AH413" s="44"/>
+    </row>
+    <row r="414">
+      <c r="AH414" s="44"/>
+    </row>
+    <row r="415">
+      <c r="AH415" s="44"/>
+    </row>
+    <row r="416">
+      <c r="AH416" s="44"/>
+    </row>
+    <row r="417">
+      <c r="AH417" s="44"/>
+    </row>
+    <row r="418">
+      <c r="AH418" s="44"/>
+    </row>
+    <row r="419">
+      <c r="AH419" s="44"/>
+    </row>
+    <row r="420">
+      <c r="AH420" s="44"/>
+    </row>
+    <row r="421">
+      <c r="AH421" s="44"/>
+    </row>
+    <row r="422">
+      <c r="AH422" s="44"/>
+    </row>
+    <row r="423">
+      <c r="AH423" s="44"/>
+    </row>
+    <row r="424">
+      <c r="AH424" s="44"/>
+    </row>
+    <row r="425">
+      <c r="AH425" s="44"/>
+    </row>
+    <row r="426">
+      <c r="AH426" s="44"/>
+    </row>
+    <row r="427">
+      <c r="AH427" s="44"/>
+    </row>
+    <row r="428">
+      <c r="AH428" s="44"/>
+    </row>
+    <row r="429">
+      <c r="AH429" s="44"/>
+    </row>
+    <row r="430">
+      <c r="AH430" s="44"/>
+    </row>
+    <row r="431">
+      <c r="AH431" s="44"/>
+    </row>
+    <row r="432">
+      <c r="AH432" s="44"/>
+    </row>
+    <row r="433">
+      <c r="AH433" s="44"/>
+    </row>
+    <row r="434">
+      <c r="AH434" s="44"/>
+    </row>
+    <row r="435">
+      <c r="AH435" s="44"/>
+    </row>
+    <row r="436">
+      <c r="AH436" s="44"/>
+    </row>
+    <row r="437">
+      <c r="AH437" s="44"/>
+    </row>
+    <row r="438">
+      <c r="AH438" s="44"/>
+    </row>
+    <row r="439">
+      <c r="AH439" s="44"/>
+    </row>
+    <row r="440">
+      <c r="AH440" s="44"/>
+    </row>
+    <row r="441">
+      <c r="AH441" s="44"/>
+    </row>
+    <row r="442">
+      <c r="AH442" s="44"/>
+    </row>
+    <row r="443">
+      <c r="AH443" s="44"/>
+    </row>
+    <row r="444">
+      <c r="AH444" s="44"/>
+    </row>
+    <row r="445">
+      <c r="AH445" s="44"/>
+    </row>
+    <row r="446">
+      <c r="AH446" s="44"/>
+    </row>
+    <row r="447">
+      <c r="AH447" s="44"/>
+    </row>
+    <row r="448">
+      <c r="AH448" s="44"/>
+    </row>
+    <row r="449">
+      <c r="AH449" s="44"/>
+    </row>
+    <row r="450">
+      <c r="AH450" s="44"/>
+    </row>
+    <row r="451">
+      <c r="AH451" s="44"/>
+    </row>
+    <row r="452">
+      <c r="AH452" s="44"/>
+    </row>
+    <row r="453">
+      <c r="AH453" s="44"/>
+    </row>
+    <row r="454">
+      <c r="AH454" s="44"/>
+    </row>
+    <row r="455">
+      <c r="AH455" s="44"/>
+    </row>
+    <row r="456">
+      <c r="AH456" s="44"/>
+    </row>
+    <row r="457">
+      <c r="AH457" s="44"/>
+    </row>
+    <row r="458">
+      <c r="AH458" s="44"/>
+    </row>
+    <row r="459">
+      <c r="AH459" s="44"/>
+    </row>
+    <row r="460">
+      <c r="AH460" s="44"/>
+    </row>
+    <row r="461">
+      <c r="AH461" s="44"/>
+    </row>
+    <row r="462">
+      <c r="AH462" s="44"/>
+    </row>
+    <row r="463">
+      <c r="AH463" s="44"/>
+    </row>
+    <row r="464">
+      <c r="AH464" s="44"/>
+    </row>
+    <row r="465">
+      <c r="AH465" s="44"/>
+    </row>
+    <row r="466">
+      <c r="AH466" s="44"/>
+    </row>
+    <row r="467">
+      <c r="AH467" s="44"/>
+    </row>
+    <row r="468">
+      <c r="AH468" s="44"/>
+    </row>
+    <row r="469">
+      <c r="AH469" s="44"/>
+    </row>
+    <row r="470">
+      <c r="AH470" s="44"/>
+    </row>
+    <row r="471">
+      <c r="AH471" s="44"/>
+    </row>
+    <row r="472">
+      <c r="AH472" s="44"/>
+    </row>
+    <row r="473">
+      <c r="AH473" s="44"/>
+    </row>
+    <row r="474">
+      <c r="AH474" s="44"/>
+    </row>
+    <row r="475">
+      <c r="AH475" s="44"/>
+    </row>
+    <row r="476">
+      <c r="AH476" s="44"/>
+    </row>
+    <row r="477">
+      <c r="AH477" s="44"/>
+    </row>
+    <row r="478">
+      <c r="AH478" s="44"/>
+    </row>
+    <row r="479">
+      <c r="AH479" s="44"/>
+    </row>
+    <row r="480">
+      <c r="AH480" s="44"/>
+    </row>
+    <row r="481">
+      <c r="AH481" s="44"/>
+    </row>
+    <row r="482">
+      <c r="AH482" s="44"/>
+    </row>
+    <row r="483">
+      <c r="AH483" s="44"/>
+    </row>
+    <row r="484">
+      <c r="AH484" s="44"/>
+    </row>
+    <row r="485">
+      <c r="AH485" s="44"/>
+    </row>
+    <row r="486">
+      <c r="AH486" s="44"/>
+    </row>
+    <row r="487">
+      <c r="AH487" s="44"/>
+    </row>
+    <row r="488">
+      <c r="AH488" s="44"/>
+    </row>
+    <row r="489">
+      <c r="AH489" s="44"/>
+    </row>
+    <row r="490">
+      <c r="AH490" s="44"/>
+    </row>
+    <row r="491">
+      <c r="AH491" s="44"/>
+    </row>
+    <row r="492">
+      <c r="AH492" s="44"/>
+    </row>
+    <row r="493">
+      <c r="AH493" s="44"/>
+    </row>
+    <row r="494">
+      <c r="AH494" s="44"/>
+    </row>
+    <row r="495">
+      <c r="AH495" s="44"/>
+    </row>
+    <row r="496">
+      <c r="AH496" s="44"/>
+    </row>
+    <row r="497">
+      <c r="AH497" s="44"/>
+    </row>
+    <row r="498">
+      <c r="AH498" s="44"/>
+    </row>
+    <row r="499">
+      <c r="AH499" s="44"/>
+    </row>
+    <row r="500">
+      <c r="AH500" s="44"/>
+    </row>
+    <row r="501">
+      <c r="AH501" s="44"/>
+    </row>
+    <row r="502">
+      <c r="AH502" s="44"/>
+    </row>
+    <row r="503">
+      <c r="AH503" s="44"/>
+    </row>
+    <row r="504">
+      <c r="AH504" s="44"/>
+    </row>
+    <row r="505">
+      <c r="AH505" s="44"/>
+    </row>
+    <row r="506">
+      <c r="AH506" s="44"/>
+    </row>
+    <row r="507">
+      <c r="AH507" s="44"/>
+    </row>
+    <row r="508">
+      <c r="AH508" s="44"/>
+    </row>
+    <row r="509">
+      <c r="AH509" s="44"/>
+    </row>
+    <row r="510">
+      <c r="AH510" s="44"/>
+    </row>
+    <row r="511">
+      <c r="AH511" s="44"/>
+    </row>
+    <row r="512">
+      <c r="AH512" s="44"/>
+    </row>
+    <row r="513">
+      <c r="AH513" s="44"/>
+    </row>
+    <row r="514">
+      <c r="AH514" s="44"/>
+    </row>
+    <row r="515">
+      <c r="AH515" s="44"/>
+    </row>
+    <row r="516">
+      <c r="AH516" s="44"/>
+    </row>
+    <row r="517">
+      <c r="AH517" s="44"/>
+    </row>
+    <row r="518">
+      <c r="AH518" s="44"/>
+    </row>
+    <row r="519">
+      <c r="AH519" s="44"/>
+    </row>
+    <row r="520">
+      <c r="AH520" s="44"/>
+    </row>
+    <row r="521">
+      <c r="AH521" s="44"/>
+    </row>
+    <row r="522">
+      <c r="AH522" s="44"/>
+    </row>
+    <row r="523">
+      <c r="AH523" s="44"/>
+    </row>
+    <row r="524">
+      <c r="AH524" s="44"/>
+    </row>
+    <row r="525">
+      <c r="AH525" s="44"/>
+    </row>
+    <row r="526">
+      <c r="AH526" s="44"/>
+    </row>
+    <row r="527">
+      <c r="AH527" s="44"/>
+    </row>
+    <row r="528">
+      <c r="AH528" s="44"/>
+    </row>
+    <row r="529">
+      <c r="AH529" s="44"/>
+    </row>
+    <row r="530">
+      <c r="AH530" s="44"/>
+    </row>
+    <row r="531">
+      <c r="AH531" s="44"/>
+    </row>
+    <row r="532">
+      <c r="AH532" s="44"/>
+    </row>
+    <row r="533">
+      <c r="AH533" s="44"/>
+    </row>
+    <row r="534">
+      <c r="AH534" s="44"/>
+    </row>
+    <row r="535">
+      <c r="AH535" s="44"/>
+    </row>
+    <row r="536">
+      <c r="AH536" s="44"/>
+    </row>
+    <row r="537">
+      <c r="AH537" s="44"/>
+    </row>
+    <row r="538">
+      <c r="AH538" s="44"/>
+    </row>
+    <row r="539">
+      <c r="AH539" s="44"/>
+    </row>
+    <row r="540">
+      <c r="AH540" s="44"/>
+    </row>
+    <row r="541">
+      <c r="AH541" s="44"/>
+    </row>
+    <row r="542">
+      <c r="AH542" s="44"/>
+    </row>
+    <row r="543">
+      <c r="AH543" s="44"/>
+    </row>
+    <row r="544">
+      <c r="AH544" s="44"/>
+    </row>
+    <row r="545">
+      <c r="AH545" s="44"/>
+    </row>
+    <row r="546">
+      <c r="AH546" s="44"/>
+    </row>
+    <row r="547">
+      <c r="AH547" s="44"/>
+    </row>
+    <row r="548">
+      <c r="AH548" s="44"/>
+    </row>
+    <row r="549">
+      <c r="AH549" s="44"/>
+    </row>
+    <row r="550">
+      <c r="AH550" s="44"/>
+    </row>
+    <row r="551">
+      <c r="AH551" s="44"/>
+    </row>
+    <row r="552">
+      <c r="AH552" s="44"/>
+    </row>
+    <row r="553">
+      <c r="AH553" s="44"/>
+    </row>
+    <row r="554">
+      <c r="AH554" s="44"/>
+    </row>
+    <row r="555">
+      <c r="AH555" s="44"/>
+    </row>
+    <row r="556">
+      <c r="AH556" s="44"/>
+    </row>
+    <row r="557">
+      <c r="AH557" s="44"/>
+    </row>
+    <row r="558">
+      <c r="AH558" s="44"/>
+    </row>
+    <row r="559">
+      <c r="AH559" s="44"/>
+    </row>
+    <row r="560">
+      <c r="AH560" s="44"/>
+    </row>
+    <row r="561">
+      <c r="AH561" s="44"/>
+    </row>
+    <row r="562">
+      <c r="AH562" s="44"/>
+    </row>
+    <row r="563">
+      <c r="AH563" s="44"/>
+    </row>
+    <row r="564">
+      <c r="AH564" s="44"/>
+    </row>
+    <row r="565">
+      <c r="AH565" s="44"/>
+    </row>
+    <row r="566">
+      <c r="AH566" s="44"/>
+    </row>
+    <row r="567">
+      <c r="AH567" s="44"/>
+    </row>
+    <row r="568">
+      <c r="AH568" s="44"/>
+    </row>
+    <row r="569">
+      <c r="AH569" s="44"/>
+    </row>
+    <row r="570">
+      <c r="AH570" s="44"/>
+    </row>
+    <row r="571">
+      <c r="AH571" s="44"/>
+    </row>
+    <row r="572">
+      <c r="AH572" s="44"/>
+    </row>
+    <row r="573">
+      <c r="AH573" s="44"/>
+    </row>
+    <row r="574">
+      <c r="AH574" s="44"/>
+    </row>
+    <row r="575">
+      <c r="AH575" s="44"/>
+    </row>
+    <row r="576">
+      <c r="AH576" s="44"/>
+    </row>
+    <row r="577">
+      <c r="AH577" s="44"/>
+    </row>
+    <row r="578">
+      <c r="AH578" s="44"/>
+    </row>
+    <row r="579">
+      <c r="AH579" s="44"/>
+    </row>
+    <row r="580">
+      <c r="AH580" s="44"/>
+    </row>
+    <row r="581">
+      <c r="AH581" s="44"/>
+    </row>
+    <row r="582">
+      <c r="AH582" s="44"/>
+    </row>
+    <row r="583">
+      <c r="AH583" s="44"/>
+    </row>
+    <row r="584">
+      <c r="AH584" s="44"/>
+    </row>
+    <row r="585">
+      <c r="AH585" s="44"/>
+    </row>
+    <row r="586">
+      <c r="AH586" s="44"/>
+    </row>
+    <row r="587">
+      <c r="AH587" s="44"/>
+    </row>
+    <row r="588">
+      <c r="AH588" s="44"/>
+    </row>
+    <row r="589">
+      <c r="AH589" s="44"/>
+    </row>
+    <row r="590">
+      <c r="AH590" s="44"/>
+    </row>
+    <row r="591">
+      <c r="AH591" s="44"/>
+    </row>
+    <row r="592">
+      <c r="AH592" s="44"/>
+    </row>
+    <row r="593">
+      <c r="AH593" s="44"/>
+    </row>
+    <row r="594">
+      <c r="AH594" s="44"/>
+    </row>
+    <row r="595">
+      <c r="AH595" s="44"/>
+    </row>
+    <row r="596">
+      <c r="AH596" s="44"/>
+    </row>
+    <row r="597">
+      <c r="AH597" s="44"/>
+    </row>
+    <row r="598">
+      <c r="AH598" s="44"/>
+    </row>
+    <row r="599">
+      <c r="AH599" s="44"/>
+    </row>
+    <row r="600">
+      <c r="AH600" s="44"/>
+    </row>
+    <row r="601">
+      <c r="AH601" s="44"/>
+    </row>
+    <row r="602">
+      <c r="AH602" s="44"/>
+    </row>
+    <row r="603">
+      <c r="AH603" s="44"/>
+    </row>
+    <row r="604">
+      <c r="AH604" s="44"/>
+    </row>
+    <row r="605">
+      <c r="AH605" s="44"/>
+    </row>
+    <row r="606">
+      <c r="AH606" s="44"/>
+    </row>
+    <row r="607">
+      <c r="AH607" s="44"/>
+    </row>
+    <row r="608">
+      <c r="AH608" s="44"/>
+    </row>
+    <row r="609">
+      <c r="AH609" s="44"/>
+    </row>
+    <row r="610">
+      <c r="AH610" s="44"/>
+    </row>
+    <row r="611">
+      <c r="AH611" s="44"/>
+    </row>
+    <row r="612">
+      <c r="AH612" s="44"/>
+    </row>
+    <row r="613">
+      <c r="AH613" s="44"/>
+    </row>
+    <row r="614">
+      <c r="AH614" s="44"/>
+    </row>
+    <row r="615">
+      <c r="AH615" s="44"/>
+    </row>
+    <row r="616">
+      <c r="AH616" s="44"/>
+    </row>
+    <row r="617">
+      <c r="AH617" s="44"/>
+    </row>
+    <row r="618">
+      <c r="AH618" s="44"/>
+    </row>
+    <row r="619">
+      <c r="AH619" s="44"/>
+    </row>
+    <row r="620">
+      <c r="AH620" s="44"/>
+    </row>
+    <row r="621">
+      <c r="AH621" s="44"/>
+    </row>
+    <row r="622">
+      <c r="AH622" s="44"/>
+    </row>
+    <row r="623">
+      <c r="AH623" s="44"/>
+    </row>
+    <row r="624">
+      <c r="AH624" s="44"/>
+    </row>
+    <row r="625">
+      <c r="AH625" s="44"/>
+    </row>
+    <row r="626">
+      <c r="AH626" s="44"/>
+    </row>
+    <row r="627">
+      <c r="AH627" s="44"/>
+    </row>
+    <row r="628">
+      <c r="AH628" s="44"/>
+    </row>
+    <row r="629">
+      <c r="AH629" s="44"/>
+    </row>
+    <row r="630">
+      <c r="AH630" s="44"/>
+    </row>
+    <row r="631">
+      <c r="AH631" s="44"/>
+    </row>
+    <row r="632">
+      <c r="AH632" s="44"/>
+    </row>
+    <row r="633">
+      <c r="AH633" s="44"/>
+    </row>
+    <row r="634">
+      <c r="AH634" s="44"/>
+    </row>
+    <row r="635">
+      <c r="AH635" s="44"/>
+    </row>
+    <row r="636">
+      <c r="AH636" s="44"/>
+    </row>
+    <row r="637">
+      <c r="AH637" s="44"/>
+    </row>
+    <row r="638">
+      <c r="AH638" s="44"/>
+    </row>
+    <row r="639">
+      <c r="AH639" s="44"/>
+    </row>
+    <row r="640">
+      <c r="AH640" s="44"/>
+    </row>
+    <row r="641">
+      <c r="AH641" s="44"/>
+    </row>
+    <row r="642">
+      <c r="AH642" s="44"/>
+    </row>
+    <row r="643">
+      <c r="AH643" s="44"/>
+    </row>
+    <row r="644">
+      <c r="AH644" s="44"/>
+    </row>
+    <row r="645">
+      <c r="AH645" s="44"/>
+    </row>
+    <row r="646">
+      <c r="AH646" s="44"/>
+    </row>
+    <row r="647">
+      <c r="AH647" s="44"/>
+    </row>
+    <row r="648">
+      <c r="AH648" s="44"/>
+    </row>
+    <row r="649">
+      <c r="AH649" s="44"/>
+    </row>
+    <row r="650">
+      <c r="AH650" s="44"/>
+    </row>
+    <row r="651">
+      <c r="AH651" s="44"/>
+    </row>
+    <row r="652">
+      <c r="AH652" s="44"/>
+    </row>
+    <row r="653">
+      <c r="AH653" s="44"/>
+    </row>
+    <row r="654">
+      <c r="AH654" s="44"/>
+    </row>
+    <row r="655">
+      <c r="AH655" s="44"/>
+    </row>
+    <row r="656">
+      <c r="AH656" s="44"/>
+    </row>
+    <row r="657">
+      <c r="AH657" s="44"/>
+    </row>
+    <row r="658">
+      <c r="AH658" s="44"/>
+    </row>
+    <row r="659">
+      <c r="AH659" s="44"/>
+    </row>
+    <row r="660">
+      <c r="AH660" s="44"/>
+    </row>
+    <row r="661">
+      <c r="AH661" s="44"/>
+    </row>
+    <row r="662">
+      <c r="AH662" s="44"/>
+    </row>
+    <row r="663">
+      <c r="AH663" s="44"/>
+    </row>
+    <row r="664">
+      <c r="AH664" s="44"/>
+    </row>
+    <row r="665">
+      <c r="AH665" s="44"/>
+    </row>
+    <row r="666">
+      <c r="AH666" s="44"/>
+    </row>
+    <row r="667">
+      <c r="AH667" s="44"/>
+    </row>
+    <row r="668">
+      <c r="AH668" s="44"/>
+    </row>
+    <row r="669">
+      <c r="AH669" s="44"/>
+    </row>
+    <row r="670">
+      <c r="AH670" s="44"/>
+    </row>
+    <row r="671">
+      <c r="AH671" s="44"/>
+    </row>
+    <row r="672">
+      <c r="AH672" s="44"/>
+    </row>
+    <row r="673">
+      <c r="AH673" s="44"/>
+    </row>
+    <row r="674">
+      <c r="AH674" s="44"/>
+    </row>
+    <row r="675">
+      <c r="AH675" s="44"/>
+    </row>
+    <row r="676">
+      <c r="AH676" s="44"/>
+    </row>
+    <row r="677">
+      <c r="AH677" s="44"/>
+    </row>
+    <row r="678">
+      <c r="AH678" s="44"/>
+    </row>
+    <row r="679">
+      <c r="AH679" s="44"/>
+    </row>
+    <row r="680">
+      <c r="AH680" s="44"/>
+    </row>
+    <row r="681">
+      <c r="AH681" s="44"/>
+    </row>
+    <row r="682">
+      <c r="AH682" s="44"/>
+    </row>
+    <row r="683">
+      <c r="AH683" s="44"/>
+    </row>
+    <row r="684">
+      <c r="AH684" s="44"/>
+    </row>
+    <row r="685">
+      <c r="AH685" s="44"/>
+    </row>
+    <row r="686">
+      <c r="AH686" s="44"/>
+    </row>
+    <row r="687">
+      <c r="AH687" s="44"/>
+    </row>
+    <row r="688">
+      <c r="AH688" s="44"/>
+    </row>
+    <row r="689">
+      <c r="AH689" s="44"/>
+    </row>
+    <row r="690">
+      <c r="AH690" s="44"/>
+    </row>
+    <row r="691">
+      <c r="AH691" s="44"/>
+    </row>
+    <row r="692">
+      <c r="AH692" s="44"/>
+    </row>
+    <row r="693">
+      <c r="AH693" s="44"/>
+    </row>
+    <row r="694">
+      <c r="AH694" s="44"/>
+    </row>
+    <row r="695">
+      <c r="AH695" s="44"/>
+    </row>
+    <row r="696">
+      <c r="AH696" s="44"/>
+    </row>
+    <row r="697">
+      <c r="AH697" s="44"/>
+    </row>
+    <row r="698">
+      <c r="AH698" s="44"/>
+    </row>
+    <row r="699">
+      <c r="AH699" s="44"/>
+    </row>
+    <row r="700">
+      <c r="AH700" s="44"/>
+    </row>
+    <row r="701">
+      <c r="AH701" s="44"/>
+    </row>
+    <row r="702">
+      <c r="AH702" s="44"/>
+    </row>
+    <row r="703">
+      <c r="AH703" s="44"/>
+    </row>
+    <row r="704">
+      <c r="AH704" s="44"/>
+    </row>
+    <row r="705">
+      <c r="AH705" s="44"/>
+    </row>
+    <row r="706">
+      <c r="AH706" s="44"/>
+    </row>
+    <row r="707">
+      <c r="AH707" s="44"/>
+    </row>
+    <row r="708">
+      <c r="AH708" s="44"/>
+    </row>
+    <row r="709">
+      <c r="AH709" s="44"/>
+    </row>
+    <row r="710">
+      <c r="AH710" s="44"/>
+    </row>
+    <row r="711">
+      <c r="AH711" s="44"/>
+    </row>
+    <row r="712">
+      <c r="AH712" s="44"/>
+    </row>
+    <row r="713">
+      <c r="AH713" s="44"/>
+    </row>
+    <row r="714">
+      <c r="AH714" s="44"/>
+    </row>
+    <row r="715">
+      <c r="AH715" s="44"/>
+    </row>
+    <row r="716">
+      <c r="AH716" s="44"/>
+    </row>
+    <row r="717">
+      <c r="AH717" s="44"/>
+    </row>
+    <row r="718">
+      <c r="AH718" s="44"/>
+    </row>
+    <row r="719">
+      <c r="AH719" s="44"/>
+    </row>
+    <row r="720">
+      <c r="AH720" s="44"/>
+    </row>
+    <row r="721">
+      <c r="AH721" s="44"/>
+    </row>
+    <row r="722">
+      <c r="AH722" s="44"/>
+    </row>
+    <row r="723">
+      <c r="AH723" s="44"/>
+    </row>
+    <row r="724">
+      <c r="AH724" s="44"/>
+    </row>
+    <row r="725">
+      <c r="AH725" s="44"/>
+    </row>
+    <row r="726">
+      <c r="AH726" s="44"/>
+    </row>
+    <row r="727">
+      <c r="AH727" s="44"/>
+    </row>
+    <row r="728">
+      <c r="AH728" s="44"/>
+    </row>
+    <row r="729">
+      <c r="AH729" s="44"/>
+    </row>
+    <row r="730">
+      <c r="AH730" s="44"/>
+    </row>
+    <row r="731">
+      <c r="AH731" s="44"/>
+    </row>
+    <row r="732">
+      <c r="AH732" s="44"/>
+    </row>
+    <row r="733">
+      <c r="AH733" s="44"/>
+    </row>
+    <row r="734">
+      <c r="AH734" s="44"/>
+    </row>
+    <row r="735">
+      <c r="AH735" s="44"/>
+    </row>
+    <row r="736">
+      <c r="AH736" s="44"/>
+    </row>
+    <row r="737">
+      <c r="AH737" s="44"/>
+    </row>
+    <row r="738">
+      <c r="AH738" s="44"/>
+    </row>
+    <row r="739">
+      <c r="AH739" s="44"/>
+    </row>
+    <row r="740">
+      <c r="AH740" s="44"/>
+    </row>
+    <row r="741">
+      <c r="AH741" s="44"/>
+    </row>
+    <row r="742">
+      <c r="AH742" s="44"/>
+    </row>
+    <row r="743">
+      <c r="AH743" s="44"/>
+    </row>
+    <row r="744">
+      <c r="AH744" s="44"/>
+    </row>
+    <row r="745">
+      <c r="AH745" s="44"/>
+    </row>
+    <row r="746">
+      <c r="AH746" s="44"/>
+    </row>
+    <row r="747">
+      <c r="AH747" s="44"/>
+    </row>
+    <row r="748">
+      <c r="AH748" s="44"/>
+    </row>
+    <row r="749">
+      <c r="AH749" s="44"/>
+    </row>
+    <row r="750">
+      <c r="AH750" s="44"/>
+    </row>
+    <row r="751">
+      <c r="AH751" s="44"/>
+    </row>
+    <row r="752">
+      <c r="AH752" s="44"/>
+    </row>
+    <row r="753">
+      <c r="AH753" s="44"/>
+    </row>
+    <row r="754">
+      <c r="AH754" s="44"/>
+    </row>
+    <row r="755">
+      <c r="AH755" s="44"/>
+    </row>
+    <row r="756">
+      <c r="AH756" s="44"/>
+    </row>
+    <row r="757">
+      <c r="AH757" s="44"/>
+    </row>
+    <row r="758">
+      <c r="AH758" s="44"/>
+    </row>
+    <row r="759">
+      <c r="AH759" s="44"/>
+    </row>
+    <row r="760">
+      <c r="AH760" s="44"/>
+    </row>
+    <row r="761">
+      <c r="AH761" s="44"/>
+    </row>
+    <row r="762">
+      <c r="AH762" s="44"/>
+    </row>
+    <row r="763">
+      <c r="AH763" s="44"/>
+    </row>
+    <row r="764">
+      <c r="AH764" s="44"/>
+    </row>
+    <row r="765">
+      <c r="AH765" s="44"/>
+    </row>
+    <row r="766">
+      <c r="AH766" s="44"/>
+    </row>
+    <row r="767">
+      <c r="AH767" s="44"/>
+    </row>
+    <row r="768">
+      <c r="AH768" s="44"/>
+    </row>
+    <row r="769">
+      <c r="AH769" s="44"/>
+    </row>
+    <row r="770">
+      <c r="AH770" s="44"/>
+    </row>
+    <row r="771">
+      <c r="AH771" s="44"/>
+    </row>
+    <row r="772">
+      <c r="AH772" s="44"/>
+    </row>
+    <row r="773">
+      <c r="AH773" s="44"/>
+    </row>
+    <row r="774">
+      <c r="AH774" s="44"/>
+    </row>
+    <row r="775">
+      <c r="AH775" s="44"/>
+    </row>
+    <row r="776">
+      <c r="AH776" s="44"/>
+    </row>
+    <row r="777">
+      <c r="AH777" s="44"/>
+    </row>
+    <row r="778">
+      <c r="AH778" s="44"/>
+    </row>
+    <row r="779">
+      <c r="AH779" s="44"/>
+    </row>
+    <row r="780">
+      <c r="AH780" s="44"/>
+    </row>
+    <row r="781">
+      <c r="AH781" s="44"/>
+    </row>
+    <row r="782">
+      <c r="AH782" s="44"/>
+    </row>
+    <row r="783">
+      <c r="AH783" s="44"/>
+    </row>
+    <row r="784">
+      <c r="AH784" s="44"/>
+    </row>
+    <row r="785">
+      <c r="AH785" s="44"/>
+    </row>
+    <row r="786">
+      <c r="AH786" s="44"/>
+    </row>
+    <row r="787">
+      <c r="AH787" s="44"/>
+    </row>
+    <row r="788">
+      <c r="AH788" s="44"/>
+    </row>
+    <row r="789">
+      <c r="AH789" s="44"/>
+    </row>
+    <row r="790">
+      <c r="AH790" s="44"/>
+    </row>
+    <row r="791">
+      <c r="AH791" s="44"/>
+    </row>
+    <row r="792">
+      <c r="AH792" s="44"/>
+    </row>
+    <row r="793">
+      <c r="AH793" s="44"/>
+    </row>
+    <row r="794">
+      <c r="AH794" s="44"/>
+    </row>
+    <row r="795">
+      <c r="AH795" s="44"/>
+    </row>
+    <row r="796">
+      <c r="AH796" s="44"/>
+    </row>
+    <row r="797">
+      <c r="AH797" s="44"/>
+    </row>
+    <row r="798">
+      <c r="AH798" s="44"/>
+    </row>
+    <row r="799">
+      <c r="AH799" s="44"/>
+    </row>
+    <row r="800">
+      <c r="AH800" s="44"/>
+    </row>
+    <row r="801">
+      <c r="AH801" s="44"/>
+    </row>
+    <row r="802">
+      <c r="AH802" s="44"/>
+    </row>
+    <row r="803">
+      <c r="AH803" s="44"/>
+    </row>
+    <row r="804">
+      <c r="AH804" s="44"/>
+    </row>
+    <row r="805">
+      <c r="AH805" s="44"/>
+    </row>
+    <row r="806">
+      <c r="AH806" s="44"/>
+    </row>
+    <row r="807">
+      <c r="AH807" s="44"/>
+    </row>
+    <row r="808">
+      <c r="AH808" s="44"/>
+    </row>
+    <row r="809">
+      <c r="AH809" s="44"/>
+    </row>
+    <row r="810">
+      <c r="AH810" s="44"/>
+    </row>
+    <row r="811">
+      <c r="AH811" s="44"/>
+    </row>
+    <row r="812">
+      <c r="AH812" s="44"/>
+    </row>
+    <row r="813">
+      <c r="AH813" s="44"/>
+    </row>
+    <row r="814">
+      <c r="AH814" s="44"/>
+    </row>
+    <row r="815">
+      <c r="AH815" s="44"/>
+    </row>
+    <row r="816">
+      <c r="AH816" s="44"/>
+    </row>
+    <row r="817">
+      <c r="AH817" s="44"/>
+    </row>
+    <row r="818">
+      <c r="AH818" s="44"/>
+    </row>
+    <row r="819">
+      <c r="AH819" s="44"/>
+    </row>
+    <row r="820">
+      <c r="AH820" s="44"/>
+    </row>
+    <row r="821">
+      <c r="AH821" s="44"/>
+    </row>
+    <row r="822">
+      <c r="AH822" s="44"/>
+    </row>
+    <row r="823">
+      <c r="AH823" s="44"/>
+    </row>
+    <row r="824">
+      <c r="AH824" s="44"/>
+    </row>
+    <row r="825">
+      <c r="AH825" s="44"/>
+    </row>
+    <row r="826">
+      <c r="AH826" s="44"/>
+    </row>
+    <row r="827">
+      <c r="AH827" s="44"/>
+    </row>
+    <row r="828">
+      <c r="AH828" s="44"/>
+    </row>
+    <row r="829">
+      <c r="AH829" s="44"/>
+    </row>
+    <row r="830">
+      <c r="AH830" s="44"/>
+    </row>
+    <row r="831">
+      <c r="AH831" s="44"/>
+    </row>
+    <row r="832">
+      <c r="AH832" s="44"/>
+    </row>
+    <row r="833">
+      <c r="AH833" s="44"/>
+    </row>
+    <row r="834">
+      <c r="AH834" s="44"/>
+    </row>
+    <row r="835">
+      <c r="AH835" s="44"/>
+    </row>
+    <row r="836">
+      <c r="AH836" s="44"/>
+    </row>
+    <row r="837">
+      <c r="AH837" s="44"/>
+    </row>
+    <row r="838">
+      <c r="AH838" s="44"/>
+    </row>
+    <row r="839">
+      <c r="AH839" s="44"/>
+    </row>
+    <row r="840">
+      <c r="AH840" s="44"/>
+    </row>
+    <row r="841">
+      <c r="AH841" s="44"/>
+    </row>
+    <row r="842">
+      <c r="AH842" s="44"/>
+    </row>
+    <row r="843">
+      <c r="AH843" s="44"/>
+    </row>
+    <row r="844">
+      <c r="AH844" s="44"/>
+    </row>
+    <row r="845">
+      <c r="AH845" s="44"/>
+    </row>
+    <row r="846">
+      <c r="AH846" s="44"/>
+    </row>
+    <row r="847">
+      <c r="AH847" s="44"/>
+    </row>
+    <row r="848">
+      <c r="AH848" s="44"/>
+    </row>
+    <row r="849">
+      <c r="AH849" s="44"/>
+    </row>
+    <row r="850">
+      <c r="AH850" s="44"/>
+    </row>
+    <row r="851">
+      <c r="AH851" s="44"/>
+    </row>
+    <row r="852">
+      <c r="AH852" s="44"/>
+    </row>
+    <row r="853">
+      <c r="AH853" s="44"/>
+    </row>
+    <row r="854">
+      <c r="AH854" s="44"/>
+    </row>
+    <row r="855">
+      <c r="AH855" s="44"/>
+    </row>
+    <row r="856">
+      <c r="AH856" s="44"/>
+    </row>
+    <row r="857">
+      <c r="AH857" s="44"/>
+    </row>
+    <row r="858">
+      <c r="AH858" s="44"/>
+    </row>
+    <row r="859">
+      <c r="AH859" s="44"/>
+    </row>
+    <row r="860">
+      <c r="AH860" s="44"/>
+    </row>
+    <row r="861">
+      <c r="AH861" s="44"/>
+    </row>
+    <row r="862">
+      <c r="AH862" s="44"/>
+    </row>
+    <row r="863">
+      <c r="AH863" s="44"/>
+    </row>
+    <row r="864">
+      <c r="AH864" s="44"/>
+    </row>
+    <row r="865">
+      <c r="AH865" s="44"/>
+    </row>
+    <row r="866">
+      <c r="AH866" s="44"/>
+    </row>
+    <row r="867">
+      <c r="AH867" s="44"/>
+    </row>
+    <row r="868">
+      <c r="AH868" s="44"/>
+    </row>
+    <row r="869">
+      <c r="AH869" s="44"/>
+    </row>
+    <row r="870">
+      <c r="AH870" s="44"/>
+    </row>
+    <row r="871">
+      <c r="AH871" s="44"/>
+    </row>
+    <row r="872">
+      <c r="AH872" s="44"/>
+    </row>
+    <row r="873">
+      <c r="AH873" s="44"/>
+    </row>
+    <row r="874">
+      <c r="AH874" s="44"/>
+    </row>
+    <row r="875">
+      <c r="AH875" s="44"/>
+    </row>
+    <row r="876">
+      <c r="AH876" s="44"/>
+    </row>
+    <row r="877">
+      <c r="AH877" s="44"/>
+    </row>
+    <row r="878">
+      <c r="AH878" s="44"/>
+    </row>
+    <row r="879">
+      <c r="AH879" s="44"/>
+    </row>
+    <row r="880">
+      <c r="AH880" s="44"/>
+    </row>
+    <row r="881">
+      <c r="AH881" s="44"/>
+    </row>
+    <row r="882">
+      <c r="AH882" s="44"/>
+    </row>
+    <row r="883">
+      <c r="AH883" s="44"/>
+    </row>
+    <row r="884">
+      <c r="AH884" s="44"/>
+    </row>
+    <row r="885">
+      <c r="AH885" s="44"/>
+    </row>
+    <row r="886">
+      <c r="AH886" s="44"/>
+    </row>
+    <row r="887">
+      <c r="AH887" s="44"/>
+    </row>
+    <row r="888">
+      <c r="AH888" s="44"/>
+    </row>
+    <row r="889">
+      <c r="AH889" s="44"/>
+    </row>
+    <row r="890">
+      <c r="AH890" s="44"/>
+    </row>
+    <row r="891">
+      <c r="AH891" s="44"/>
+    </row>
+    <row r="892">
+      <c r="AH892" s="44"/>
+    </row>
+    <row r="893">
+      <c r="AH893" s="44"/>
+    </row>
+    <row r="894">
+      <c r="AH894" s="44"/>
+    </row>
+    <row r="895">
+      <c r="AH895" s="44"/>
+    </row>
+    <row r="896">
+      <c r="AH896" s="44"/>
+    </row>
+    <row r="897">
+      <c r="AH897" s="44"/>
+    </row>
+    <row r="898">
+      <c r="AH898" s="44"/>
+    </row>
+    <row r="899">
+      <c r="AH899" s="44"/>
+    </row>
+    <row r="900">
+      <c r="AH900" s="44"/>
+    </row>
+    <row r="901">
+      <c r="AH901" s="44"/>
+    </row>
+    <row r="902">
+      <c r="AH902" s="44"/>
+    </row>
+    <row r="903">
+      <c r="AH903" s="44"/>
+    </row>
+    <row r="904">
+      <c r="AH904" s="44"/>
+    </row>
+    <row r="905">
+      <c r="AH905" s="44"/>
+    </row>
+    <row r="906">
+      <c r="AH906" s="44"/>
+    </row>
+    <row r="907">
+      <c r="AH907" s="44"/>
+    </row>
+    <row r="908">
+      <c r="AH908" s="44"/>
+    </row>
+    <row r="909">
+      <c r="AH909" s="44"/>
+    </row>
+    <row r="910">
+      <c r="AH910" s="44"/>
+    </row>
+    <row r="911">
+      <c r="AH911" s="44"/>
+    </row>
+    <row r="912">
+      <c r="AH912" s="44"/>
+    </row>
+    <row r="913">
+      <c r="AH913" s="44"/>
+    </row>
+    <row r="914">
+      <c r="AH914" s="44"/>
+    </row>
+    <row r="915">
+      <c r="AH915" s="44"/>
+    </row>
+    <row r="916">
+      <c r="AH916" s="44"/>
+    </row>
+    <row r="917">
+      <c r="AH917" s="44"/>
+    </row>
+    <row r="918">
+      <c r="AH918" s="44"/>
+    </row>
+    <row r="919">
+      <c r="AH919" s="44"/>
+    </row>
+    <row r="920">
+      <c r="AH920" s="44"/>
+    </row>
+    <row r="921">
+      <c r="AH921" s="44"/>
+    </row>
+    <row r="922">
+      <c r="AH922" s="44"/>
+    </row>
+    <row r="923">
+      <c r="AH923" s="44"/>
+    </row>
+    <row r="924">
+      <c r="AH924" s="44"/>
+    </row>
+    <row r="925">
+      <c r="AH925" s="44"/>
+    </row>
+    <row r="926">
+      <c r="AH926" s="44"/>
+    </row>
+    <row r="927">
+      <c r="AH927" s="44"/>
+    </row>
+    <row r="928">
+      <c r="AH928" s="44"/>
+    </row>
+    <row r="929">
+      <c r="AH929" s="44"/>
+    </row>
+    <row r="930">
+      <c r="AH930" s="44"/>
+    </row>
+    <row r="931">
+      <c r="AH931" s="44"/>
+    </row>
+    <row r="932">
+      <c r="AH932" s="44"/>
+    </row>
+    <row r="933">
+      <c r="AH933" s="44"/>
+    </row>
+    <row r="934">
+      <c r="AH934" s="44"/>
+    </row>
+    <row r="935">
+      <c r="AH935" s="44"/>
+    </row>
+    <row r="936">
+      <c r="AH936" s="44"/>
+    </row>
+    <row r="937">
+      <c r="AH937" s="44"/>
+    </row>
+    <row r="938">
+      <c r="AH938" s="44"/>
+    </row>
+    <row r="939">
+      <c r="AH939" s="44"/>
+    </row>
+    <row r="940">
+      <c r="AH940" s="44"/>
+    </row>
+    <row r="941">
+      <c r="AH941" s="44"/>
+    </row>
+    <row r="942">
+      <c r="AH942" s="44"/>
+    </row>
+    <row r="943">
+      <c r="AH943" s="44"/>
+    </row>
+    <row r="944">
+      <c r="AH944" s="44"/>
+    </row>
+    <row r="945">
+      <c r="AH945" s="44"/>
+    </row>
+    <row r="946">
+      <c r="AH946" s="44"/>
+    </row>
+    <row r="947">
+      <c r="AH947" s="44"/>
+    </row>
+    <row r="948">
+      <c r="AH948" s="44"/>
+    </row>
+    <row r="949">
+      <c r="AH949" s="44"/>
+    </row>
+    <row r="950">
+      <c r="AH950" s="44"/>
+    </row>
+    <row r="951">
+      <c r="AH951" s="44"/>
+    </row>
+    <row r="952">
+      <c r="AH952" s="44"/>
+    </row>
+    <row r="953">
+      <c r="AH953" s="44"/>
+    </row>
+    <row r="954">
+      <c r="AH954" s="44"/>
+    </row>
+    <row r="955">
+      <c r="AH955" s="44"/>
+    </row>
+    <row r="956">
+      <c r="AH956" s="44"/>
+    </row>
+    <row r="957">
+      <c r="AH957" s="44"/>
+    </row>
+    <row r="958">
+      <c r="AH958" s="44"/>
+    </row>
+    <row r="959">
+      <c r="AH959" s="44"/>
+    </row>
+    <row r="960">
+      <c r="AH960" s="44"/>
+    </row>
+    <row r="961">
+      <c r="AH961" s="44"/>
+    </row>
+    <row r="962">
+      <c r="AH962" s="44"/>
+    </row>
+    <row r="963">
+      <c r="AH963" s="44"/>
+    </row>
+    <row r="964">
+      <c r="AH964" s="44"/>
+    </row>
+    <row r="965">
+      <c r="AH965" s="44"/>
+    </row>
+    <row r="966">
+      <c r="AH966" s="44"/>
+    </row>
+    <row r="967">
+      <c r="AH967" s="44"/>
+    </row>
+    <row r="968">
+      <c r="AH968" s="44"/>
+    </row>
+    <row r="969">
+      <c r="AH969" s="44"/>
+    </row>
+    <row r="970">
+      <c r="AH970" s="44"/>
+    </row>
+    <row r="971">
+      <c r="AH971" s="44"/>
+    </row>
+    <row r="972">
+      <c r="AH972" s="44"/>
+    </row>
+    <row r="973">
+      <c r="AH973" s="44"/>
+    </row>
+    <row r="974">
+      <c r="AH974" s="44"/>
+    </row>
+    <row r="975">
+      <c r="AH975" s="44"/>
+    </row>
+    <row r="976">
+      <c r="AH976" s="44"/>
+    </row>
+    <row r="977">
+      <c r="AH977" s="44"/>
+    </row>
+    <row r="978">
+      <c r="AH978" s="44"/>
+    </row>
+    <row r="979">
+      <c r="AH979" s="44"/>
+    </row>
+    <row r="980">
+      <c r="AH980" s="44"/>
+    </row>
+    <row r="981">
+      <c r="AH981" s="44"/>
+    </row>
+    <row r="982">
+      <c r="AH982" s="44"/>
+    </row>
+    <row r="983">
+      <c r="AH983" s="44"/>
+    </row>
+    <row r="984">
+      <c r="AH984" s="44"/>
+    </row>
+    <row r="985">
+      <c r="AH985" s="44"/>
+    </row>
+    <row r="986">
+      <c r="AH986" s="44"/>
+    </row>
+    <row r="987">
+      <c r="AH987" s="44"/>
+    </row>
+    <row r="988">
+      <c r="AH988" s="44"/>
+    </row>
+    <row r="989">
+      <c r="AH989" s="44"/>
+    </row>
+    <row r="990">
+      <c r="AH990" s="44"/>
+    </row>
+    <row r="991">
+      <c r="AH991" s="44"/>
+    </row>
+    <row r="992">
+      <c r="AH992" s="44"/>
+    </row>
+    <row r="993">
+      <c r="AH993" s="44"/>
+    </row>
+    <row r="994">
+      <c r="AH994" s="44"/>
+    </row>
+    <row r="995">
+      <c r="AH995" s="44"/>
+    </row>
+    <row r="996">
+      <c r="AH996" s="44"/>
+    </row>
+    <row r="997">
+      <c r="AH997" s="44"/>
+    </row>
+    <row r="998">
+      <c r="AH998" s="44"/>
+    </row>
+    <row r="999">
+      <c r="AH999" s="44"/>
+    </row>
+    <row r="1000">
+      <c r="AH1000" s="44"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/arquivos_trabalho/tabela/yourDelivery.xlsx
+++ b/arquivos_trabalho/tabela/yourDelivery.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="280">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -725,9 +725,6 @@
     <t>qtd_entrega (uni.)</t>
   </si>
   <si>
-    <t>nome_prod_entrega</t>
-  </si>
-  <si>
     <t>039936381-85</t>
   </si>
   <si>
@@ -746,9 +743,6 @@
     <t>Eletrônico</t>
   </si>
   <si>
-    <t>TV</t>
-  </si>
-  <si>
     <t>004324118-82</t>
   </si>
   <si>
@@ -764,9 +758,6 @@
     <t>Rua da Floresta</t>
   </si>
   <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
     <t>373761761-59</t>
   </si>
   <si>
@@ -779,9 +770,6 @@
     <t>Granel Líquido</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fardo de refri 2L</t>
-  </si>
-  <si>
     <t>568456388-20</t>
   </si>
   <si>
@@ -797,9 +785,6 @@
     <t>Carga Frágil</t>
   </si>
   <si>
-    <t>Jogo de pratos</t>
-  </si>
-  <si>
     <t>649844314-66</t>
   </si>
   <si>
@@ -818,9 +803,6 @@
     <t>Congelados</t>
   </si>
   <si>
-    <t>Caixa Pastel congelado</t>
-  </si>
-  <si>
     <t>022277685-14</t>
   </si>
   <si>
@@ -848,9 +830,6 @@
     <t>Avenida Hostílio Soares</t>
   </si>
   <si>
-    <t>Jogo de copos</t>
-  </si>
-  <si>
     <t>821928676-98</t>
   </si>
   <si>
@@ -863,9 +842,6 @@
     <t>Carga Seca</t>
   </si>
   <si>
-    <t>Jogo de cadeira</t>
-  </si>
-  <si>
     <t>070556496-67</t>
   </si>
   <si>
@@ -878,9 +854,6 @@
     <t>Rua C</t>
   </si>
   <si>
-    <t>Fardo de cerveja</t>
-  </si>
-  <si>
     <t>176994582-22</t>
   </si>
   <si>
@@ -894,9 +867,6 @@
   </si>
   <si>
     <t>Perecível</t>
-  </si>
-  <si>
-    <t>Caixas de bombons</t>
   </si>
 </sst>
 </file>
@@ -908,7 +878,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -963,14 +933,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <sz val="10.0"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1049,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1136,16 +1109,19 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1154,16 +1130,22 @@
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1172,7 +1154,11 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2820,7 +2806,7 @@
     <col customWidth="1" min="31" max="31" width="19.14"/>
     <col customWidth="1" min="32" max="32" width="21.71"/>
     <col customWidth="1" min="33" max="33" width="17.71"/>
-    <col customWidth="1" min="34" max="34" width="27.71"/>
+    <col customWidth="1" min="34" max="35" width="27.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2923,8 +2909,11 @@
       <c r="AG1" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="AH1" s="32" t="s">
-        <v>232</v>
+      <c r="AH1" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI1" s="30" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2">
@@ -2989,46 +2978,49 @@
         <v>154</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="X2" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Z2" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="AA2" s="33">
+        <v>460.0</v>
+      </c>
+      <c r="AB2" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AA2" s="34">
-        <v>460.0</v>
-      </c>
-      <c r="AB2" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="AC2" s="33">
         <v>5.7</v>
       </c>
-      <c r="AD2" s="34">
+      <c r="AD2" s="33">
         <v>55.9</v>
       </c>
-      <c r="AE2" s="34">
+      <c r="AE2" s="33">
         <v>89.5</v>
       </c>
-      <c r="AF2" s="35">
+      <c r="AF2" s="34">
         <v>8.2</v>
       </c>
-      <c r="AG2" s="34">
+      <c r="AG2" s="33">
         <v>1.0</v>
       </c>
-      <c r="AH2" s="32" t="s">
-        <v>239</v>
+      <c r="AH2" s="35">
+        <v>41061.0</v>
+      </c>
+      <c r="AI2" s="36">
+        <v>41095.0</v>
       </c>
     </row>
     <row r="3">
@@ -3093,46 +3085,49 @@
         <v>154</v>
       </c>
       <c r="U3" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y3" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="Z3" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Y3" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z3" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA3" s="34">
+      <c r="AA3" s="33">
         <v>52.0</v>
       </c>
-      <c r="AB3" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="AB3" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC3" s="33">
         <v>0.205</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3" s="33">
         <v>16.4</v>
       </c>
-      <c r="AE3" s="34">
+      <c r="AE3" s="33">
         <v>7.58</v>
       </c>
-      <c r="AF3" s="35">
+      <c r="AF3" s="34">
         <v>0.89</v>
       </c>
-      <c r="AG3" s="34">
+      <c r="AG3" s="33">
         <v>1.0</v>
       </c>
-      <c r="AH3" s="34" t="s">
-        <v>245</v>
+      <c r="AH3" s="35">
+        <v>41306.0</v>
+      </c>
+      <c r="AI3" s="35">
+        <v>41339.0</v>
       </c>
     </row>
     <row r="4">
@@ -3197,46 +3192,49 @@
         <v>145</v>
       </c>
       <c r="U4" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z4" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA4" s="34">
+      <c r="Y4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA4" s="33">
         <v>1065.0</v>
       </c>
-      <c r="AB4" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="AB4" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC4" s="33">
         <v>10.8</v>
       </c>
-      <c r="AD4" s="34">
+      <c r="AD4" s="33">
         <v>24.5</v>
       </c>
-      <c r="AE4" s="34">
+      <c r="AE4" s="33">
         <v>18.0</v>
       </c>
-      <c r="AF4" s="35">
+      <c r="AF4" s="34">
         <v>27.0</v>
       </c>
-      <c r="AG4" s="34">
+      <c r="AG4" s="33">
         <v>2.0</v>
       </c>
-      <c r="AH4" s="34" t="s">
-        <v>250</v>
+      <c r="AH4" s="35">
+        <v>43191.0</v>
+      </c>
+      <c r="AI4" s="35">
+        <v>43202.0</v>
       </c>
     </row>
     <row r="5">
@@ -3301,53 +3299,56 @@
         <v>163</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="W5" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z5" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA5" s="34">
+      <c r="W5" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="X5" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y5" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA5" s="33">
         <v>164.0</v>
       </c>
-      <c r="AB5" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="AB5" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC5" s="33">
         <v>2.4</v>
       </c>
-      <c r="AD5" s="34">
+      <c r="AD5" s="33">
         <v>22.5</v>
       </c>
-      <c r="AE5" s="34">
+      <c r="AE5" s="33">
         <v>9.0</v>
       </c>
-      <c r="AF5" s="34">
+      <c r="AF5" s="33">
         <v>22.5</v>
       </c>
-      <c r="AG5" s="34">
+      <c r="AG5" s="33">
         <v>3.0</v>
       </c>
-      <c r="AH5" s="34" t="s">
-        <v>256</v>
+      <c r="AH5" s="35">
+        <v>43904.0</v>
+      </c>
+      <c r="AI5" s="35">
+        <v>43920.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
         <v>5.0</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="37">
         <v>8.0</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3401,57 +3402,60 @@
       <c r="S6" s="10">
         <v>1099.0</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y6" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>1528.0</v>
+      </c>
+      <c r="AB6" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="V6" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="X6" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y6" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z6" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA6" s="34">
-        <v>1528.0</v>
-      </c>
-      <c r="AB6" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC6" s="34">
+      <c r="AC6" s="33">
         <v>3.0</v>
       </c>
-      <c r="AD6" s="34">
+      <c r="AD6" s="33">
         <v>5.0</v>
       </c>
-      <c r="AE6" s="34">
+      <c r="AE6" s="33">
         <v>16.0</v>
       </c>
-      <c r="AF6" s="35">
+      <c r="AF6" s="34">
         <v>5.0</v>
       </c>
-      <c r="AG6" s="34">
+      <c r="AG6" s="33">
         <v>10.0</v>
       </c>
-      <c r="AH6" s="34" t="s">
-        <v>263</v>
+      <c r="AH6" s="35">
+        <v>44099.0</v>
+      </c>
+      <c r="AI6" s="40">
+        <v>44114.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
         <v>6.0</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="41">
         <v>8.0</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3505,50 +3509,53 @@
       <c r="S7" s="10">
         <v>1231.0</v>
       </c>
-      <c r="T7" s="37" t="s">
+      <c r="T7" s="38" t="s">
         <v>163</v>
       </c>
       <c r="U7" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="V7" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="V7" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="W7" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="X7" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z7" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA7" s="34">
+      <c r="W7" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y7" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z7" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA7" s="33">
         <v>1714.0</v>
       </c>
-      <c r="AB7" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AB7" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC7" s="33">
         <v>3.0</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="33">
         <v>5.0</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="33">
         <v>16.0</v>
       </c>
-      <c r="AF7" s="35">
+      <c r="AF7" s="34">
         <v>5.0</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="33">
         <v>30.0</v>
       </c>
-      <c r="AH7" s="34" t="s">
-        <v>263</v>
+      <c r="AH7" s="35">
+        <v>44166.0</v>
+      </c>
+      <c r="AI7" s="40">
+        <v>44179.0</v>
       </c>
     </row>
     <row r="8">
@@ -3609,50 +3616,53 @@
       <c r="S8" s="10">
         <v>1478.0</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="38" t="s">
         <v>163</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="V8" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="V8" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y8" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z8" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA8" s="34">
+      <c r="X8" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y8" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z8" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA8" s="33">
         <v>133.0</v>
       </c>
-      <c r="AB8" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC8" s="34">
+      <c r="AB8" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC8" s="33">
         <v>1.0</v>
       </c>
-      <c r="AD8" s="39">
+      <c r="AD8" s="42">
         <v>12.9</v>
       </c>
-      <c r="AE8" s="39">
+      <c r="AE8" s="42">
         <v>13.6</v>
       </c>
-      <c r="AF8" s="35">
+      <c r="AF8" s="34">
         <v>23.9</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="33">
         <v>3.0</v>
       </c>
-      <c r="AH8" s="34" t="s">
-        <v>273</v>
+      <c r="AH8" s="35">
+        <v>44316.0</v>
+      </c>
+      <c r="AI8" s="35">
+        <v>44327.0</v>
       </c>
     </row>
     <row r="9">
@@ -3713,57 +3723,60 @@
       <c r="S9" s="9">
         <v>1517.0</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="U9" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="V9" s="40" t="s">
+      <c r="U9" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="V9" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="W9" s="33" t="s">
+      <c r="W9" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="X9" s="34" t="s">
+      <c r="X9" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="Y9" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z9" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA9" s="34">
+      <c r="Y9" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z9" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA9" s="33">
         <v>1115.0</v>
       </c>
-      <c r="AB9" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC9" s="41">
+      <c r="AB9" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC9" s="44">
         <v>2.36</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="33">
         <v>90.0</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="33">
         <v>35.0</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="34">
         <v>44.0</v>
       </c>
-      <c r="AG9" s="34">
+      <c r="AG9" s="33">
         <v>1.0</v>
       </c>
-      <c r="AH9" s="34" t="s">
-        <v>278</v>
+      <c r="AH9" s="35">
+        <v>44318.0</v>
+      </c>
+      <c r="AI9" s="35">
+        <v>44326.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
         <v>9.0</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="45">
         <v>18.0</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3772,25 +3785,25 @@
       <c r="D10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="41">
         <v>521.0</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="41">
         <v>11.0</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -3799,75 +3812,78 @@
       <c r="M10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="43" t="s">
+      <c r="O10" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="46">
         <v>211.0</v>
       </c>
-      <c r="T10" s="37" t="s">
+      <c r="T10" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="U10" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="V10" s="40" t="s">
+      <c r="U10" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="V10" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="W10" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y10" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z10" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA10" s="34">
+      <c r="W10" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y10" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z10" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA10" s="33">
         <v>1703.0</v>
       </c>
-      <c r="AB10" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC10" s="34">
+      <c r="AB10" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC10" s="33">
         <v>2.0</v>
       </c>
-      <c r="AD10" s="34">
+      <c r="AD10" s="33">
         <v>10.0</v>
       </c>
-      <c r="AE10" s="34">
+      <c r="AE10" s="33">
         <v>10.0</v>
       </c>
-      <c r="AF10" s="35">
+      <c r="AF10" s="34">
         <v>10.0</v>
       </c>
-      <c r="AG10" s="34">
+      <c r="AG10" s="33">
         <v>5.0</v>
       </c>
-      <c r="AH10" s="34" t="s">
-        <v>283</v>
+      <c r="AH10" s="35">
+        <v>44329.0</v>
+      </c>
+      <c r="AI10" s="35">
+        <v>44335.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
         <v>10.0</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="41">
         <v>19.0</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3876,25 +3892,25 @@
       <c r="D11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="38">
-        <v>286.0</v>
-      </c>
-      <c r="K11" s="38">
+      <c r="J11" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="K11" s="41">
         <v>1.0</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -3921,3084 +3937,4010 @@
       <c r="S11" s="7">
         <v>11.0</v>
       </c>
-      <c r="T11" s="37" t="s">
+      <c r="T11" s="38" t="s">
         <v>157</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="V11" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="V11" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="W11" s="33" t="s">
+      <c r="W11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y11" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z11" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA11" s="34">
+      <c r="X11" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA11" s="33">
         <v>507.0</v>
       </c>
-      <c r="AB11" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC11" s="34">
+      <c r="AB11" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC11" s="33">
         <v>0.05</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="33">
         <v>4.0</v>
       </c>
-      <c r="AE11" s="34">
+      <c r="AE11" s="33">
         <v>9.3</v>
       </c>
-      <c r="AF11" s="35">
+      <c r="AF11" s="34">
         <v>9.3</v>
       </c>
-      <c r="AG11" s="34">
+      <c r="AG11" s="33">
         <v>5.0</v>
       </c>
-      <c r="AH11" s="34" t="s">
-        <v>289</v>
+      <c r="AH11" s="35">
+        <v>44348.0</v>
+      </c>
+      <c r="AI11" s="35">
+        <v>44378.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="AH12" s="44"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="49"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH13" s="44"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="49"/>
     </row>
     <row r="14">
-      <c r="A14" s="20">
-        <v>41061.0</v>
-      </c>
-      <c r="B14" s="21">
-        <v>41095.0</v>
-      </c>
-      <c r="AH14" s="44"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="49"/>
     </row>
     <row r="15">
-      <c r="A15" s="20">
-        <v>41306.0</v>
-      </c>
-      <c r="B15" s="20">
-        <v>41339.0</v>
-      </c>
-      <c r="AH15" s="44"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="49"/>
     </row>
     <row r="16">
-      <c r="A16" s="20">
-        <v>43191.0</v>
-      </c>
-      <c r="B16" s="20">
-        <v>43202.0</v>
-      </c>
-      <c r="AH16" s="44"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="49"/>
     </row>
     <row r="17">
-      <c r="A17" s="20">
-        <v>43904.0</v>
-      </c>
-      <c r="B17" s="20">
-        <v>43920.0</v>
-      </c>
-      <c r="AH17" s="44"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="49"/>
     </row>
     <row r="18">
-      <c r="A18" s="20">
-        <v>44099.0</v>
-      </c>
-      <c r="B18" s="22">
-        <v>44114.0</v>
-      </c>
-      <c r="AH18" s="44"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="49"/>
     </row>
     <row r="19">
-      <c r="A19" s="20">
-        <v>44166.0</v>
-      </c>
-      <c r="B19" s="22">
-        <v>44179.0</v>
-      </c>
-      <c r="AH19" s="44"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="49"/>
     </row>
     <row r="20">
-      <c r="A20" s="20">
-        <v>44316.0</v>
-      </c>
-      <c r="B20" s="20">
-        <v>44327.0</v>
-      </c>
-      <c r="AH20" s="44"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="49"/>
     </row>
     <row r="21">
-      <c r="A21" s="20">
-        <v>44318.0</v>
-      </c>
-      <c r="B21" s="20">
-        <v>44326.0</v>
-      </c>
-      <c r="AH21" s="44"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="49"/>
     </row>
     <row r="22">
-      <c r="A22" s="20">
-        <v>44329.0</v>
-      </c>
-      <c r="B22" s="20">
-        <v>44335.0</v>
-      </c>
-      <c r="AH22" s="44"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="49"/>
     </row>
     <row r="23">
-      <c r="A23" s="20">
-        <v>44348.0</v>
-      </c>
-      <c r="B23" s="20">
-        <v>44378.0</v>
-      </c>
-      <c r="AH23" s="44"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="49"/>
     </row>
     <row r="24">
-      <c r="AH24" s="44"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="49"/>
     </row>
     <row r="25">
-      <c r="AH25" s="44"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="49"/>
     </row>
     <row r="26">
-      <c r="AH26" s="44"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="49"/>
     </row>
     <row r="27">
-      <c r="AH27" s="44"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="49"/>
     </row>
     <row r="28">
-      <c r="AH28" s="44"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="49"/>
     </row>
     <row r="29">
-      <c r="AH29" s="44"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="49"/>
     </row>
     <row r="30">
-      <c r="AH30" s="44"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="49"/>
     </row>
     <row r="31">
-      <c r="AH31" s="44"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="49"/>
     </row>
     <row r="32">
-      <c r="AH32" s="44"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="49"/>
     </row>
     <row r="33">
-      <c r="AH33" s="44"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="49"/>
     </row>
     <row r="34">
-      <c r="AH34" s="44"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="49"/>
     </row>
     <row r="35">
-      <c r="AH35" s="44"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="49"/>
     </row>
     <row r="36">
-      <c r="AH36" s="44"/>
+      <c r="AH36" s="48"/>
+      <c r="AI36" s="49"/>
     </row>
     <row r="37">
-      <c r="AH37" s="44"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="49"/>
     </row>
     <row r="38">
-      <c r="AH38" s="44"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="49"/>
     </row>
     <row r="39">
-      <c r="AH39" s="44"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="49"/>
     </row>
     <row r="40">
-      <c r="AH40" s="44"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="49"/>
     </row>
     <row r="41">
-      <c r="AH41" s="44"/>
+      <c r="AH41" s="48"/>
+      <c r="AI41" s="49"/>
     </row>
     <row r="42">
-      <c r="AH42" s="44"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="49"/>
     </row>
     <row r="43">
-      <c r="AH43" s="44"/>
+      <c r="AH43" s="48"/>
+      <c r="AI43" s="49"/>
     </row>
     <row r="44">
-      <c r="AH44" s="44"/>
+      <c r="AH44" s="48"/>
+      <c r="AI44" s="49"/>
     </row>
     <row r="45">
-      <c r="AH45" s="44"/>
+      <c r="AH45" s="48"/>
+      <c r="AI45" s="49"/>
     </row>
     <row r="46">
-      <c r="AH46" s="44"/>
+      <c r="AH46" s="48"/>
+      <c r="AI46" s="49"/>
     </row>
     <row r="47">
-      <c r="AH47" s="44"/>
+      <c r="AH47" s="48"/>
+      <c r="AI47" s="49"/>
     </row>
     <row r="48">
-      <c r="AH48" s="44"/>
+      <c r="AH48" s="48"/>
+      <c r="AI48" s="49"/>
     </row>
     <row r="49">
-      <c r="AH49" s="44"/>
+      <c r="AH49" s="48"/>
+      <c r="AI49" s="49"/>
     </row>
     <row r="50">
-      <c r="AH50" s="44"/>
+      <c r="AH50" s="48"/>
+      <c r="AI50" s="49"/>
     </row>
     <row r="51">
-      <c r="AH51" s="44"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="49"/>
     </row>
     <row r="52">
-      <c r="AH52" s="44"/>
+      <c r="AH52" s="48"/>
+      <c r="AI52" s="49"/>
     </row>
     <row r="53">
-      <c r="AH53" s="44"/>
+      <c r="AH53" s="48"/>
+      <c r="AI53" s="49"/>
     </row>
     <row r="54">
-      <c r="AH54" s="44"/>
+      <c r="AH54" s="48"/>
+      <c r="AI54" s="49"/>
     </row>
     <row r="55">
-      <c r="AH55" s="44"/>
+      <c r="AH55" s="48"/>
+      <c r="AI55" s="49"/>
     </row>
     <row r="56">
-      <c r="AH56" s="44"/>
+      <c r="AH56" s="48"/>
+      <c r="AI56" s="49"/>
     </row>
     <row r="57">
-      <c r="AH57" s="44"/>
+      <c r="AH57" s="48"/>
+      <c r="AI57" s="49"/>
     </row>
     <row r="58">
-      <c r="AH58" s="44"/>
+      <c r="AH58" s="48"/>
+      <c r="AI58" s="49"/>
     </row>
     <row r="59">
-      <c r="AH59" s="44"/>
+      <c r="AH59" s="48"/>
+      <c r="AI59" s="49"/>
     </row>
     <row r="60">
-      <c r="AH60" s="44"/>
+      <c r="AH60" s="48"/>
+      <c r="AI60" s="49"/>
     </row>
     <row r="61">
-      <c r="AH61" s="44"/>
+      <c r="AH61" s="48"/>
+      <c r="AI61" s="49"/>
     </row>
     <row r="62">
-      <c r="AH62" s="44"/>
+      <c r="AH62" s="48"/>
+      <c r="AI62" s="49"/>
     </row>
     <row r="63">
-      <c r="AH63" s="44"/>
+      <c r="AH63" s="48"/>
+      <c r="AI63" s="49"/>
     </row>
     <row r="64">
-      <c r="AH64" s="44"/>
+      <c r="AH64" s="48"/>
+      <c r="AI64" s="49"/>
     </row>
     <row r="65">
-      <c r="AH65" s="44"/>
+      <c r="AH65" s="48"/>
+      <c r="AI65" s="49"/>
     </row>
     <row r="66">
-      <c r="AH66" s="44"/>
+      <c r="AH66" s="48"/>
+      <c r="AI66" s="49"/>
     </row>
     <row r="67">
-      <c r="AH67" s="44"/>
+      <c r="AH67" s="48"/>
+      <c r="AI67" s="49"/>
     </row>
     <row r="68">
-      <c r="AH68" s="44"/>
+      <c r="AH68" s="48"/>
+      <c r="AI68" s="49"/>
     </row>
     <row r="69">
-      <c r="AH69" s="44"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="49"/>
     </row>
     <row r="70">
-      <c r="AH70" s="44"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="49"/>
     </row>
     <row r="71">
-      <c r="AH71" s="44"/>
+      <c r="AH71" s="48"/>
+      <c r="AI71" s="49"/>
     </row>
     <row r="72">
-      <c r="AH72" s="44"/>
+      <c r="AH72" s="48"/>
+      <c r="AI72" s="49"/>
     </row>
     <row r="73">
-      <c r="AH73" s="44"/>
+      <c r="AH73" s="48"/>
+      <c r="AI73" s="49"/>
     </row>
     <row r="74">
-      <c r="AH74" s="44"/>
+      <c r="AH74" s="48"/>
+      <c r="AI74" s="49"/>
     </row>
     <row r="75">
-      <c r="AH75" s="44"/>
+      <c r="AH75" s="48"/>
+      <c r="AI75" s="49"/>
     </row>
     <row r="76">
-      <c r="AH76" s="44"/>
+      <c r="AH76" s="48"/>
+      <c r="AI76" s="49"/>
     </row>
     <row r="77">
-      <c r="AH77" s="44"/>
+      <c r="AH77" s="48"/>
+      <c r="AI77" s="49"/>
     </row>
     <row r="78">
-      <c r="AH78" s="44"/>
+      <c r="AH78" s="48"/>
+      <c r="AI78" s="49"/>
     </row>
     <row r="79">
-      <c r="AH79" s="44"/>
+      <c r="AH79" s="48"/>
+      <c r="AI79" s="49"/>
     </row>
     <row r="80">
-      <c r="AH80" s="44"/>
+      <c r="AH80" s="48"/>
+      <c r="AI80" s="49"/>
     </row>
     <row r="81">
-      <c r="AH81" s="44"/>
+      <c r="AH81" s="48"/>
+      <c r="AI81" s="49"/>
     </row>
     <row r="82">
-      <c r="AH82" s="44"/>
+      <c r="AH82" s="48"/>
+      <c r="AI82" s="49"/>
     </row>
     <row r="83">
-      <c r="AH83" s="44"/>
+      <c r="AH83" s="48"/>
+      <c r="AI83" s="49"/>
     </row>
     <row r="84">
-      <c r="AH84" s="44"/>
+      <c r="AH84" s="48"/>
+      <c r="AI84" s="49"/>
     </row>
     <row r="85">
-      <c r="AH85" s="44"/>
+      <c r="AH85" s="48"/>
+      <c r="AI85" s="49"/>
     </row>
     <row r="86">
-      <c r="AH86" s="44"/>
+      <c r="AH86" s="48"/>
+      <c r="AI86" s="49"/>
     </row>
     <row r="87">
-      <c r="AH87" s="44"/>
+      <c r="AH87" s="48"/>
+      <c r="AI87" s="49"/>
     </row>
     <row r="88">
-      <c r="AH88" s="44"/>
+      <c r="AH88" s="48"/>
+      <c r="AI88" s="49"/>
     </row>
     <row r="89">
-      <c r="AH89" s="44"/>
+      <c r="AH89" s="48"/>
+      <c r="AI89" s="49"/>
     </row>
     <row r="90">
-      <c r="AH90" s="44"/>
+      <c r="AH90" s="48"/>
+      <c r="AI90" s="49"/>
     </row>
     <row r="91">
-      <c r="AH91" s="44"/>
+      <c r="AH91" s="48"/>
+      <c r="AI91" s="49"/>
     </row>
     <row r="92">
-      <c r="AH92" s="44"/>
+      <c r="AH92" s="48"/>
+      <c r="AI92" s="49"/>
     </row>
     <row r="93">
-      <c r="AH93" s="44"/>
+      <c r="AH93" s="48"/>
+      <c r="AI93" s="49"/>
     </row>
     <row r="94">
-      <c r="AH94" s="44"/>
+      <c r="AH94" s="48"/>
+      <c r="AI94" s="49"/>
     </row>
     <row r="95">
-      <c r="AH95" s="44"/>
+      <c r="AH95" s="48"/>
+      <c r="AI95" s="49"/>
     </row>
     <row r="96">
-      <c r="AH96" s="44"/>
+      <c r="AH96" s="48"/>
+      <c r="AI96" s="49"/>
     </row>
     <row r="97">
-      <c r="AH97" s="44"/>
+      <c r="AH97" s="48"/>
+      <c r="AI97" s="49"/>
     </row>
     <row r="98">
-      <c r="AH98" s="44"/>
+      <c r="AH98" s="48"/>
+      <c r="AI98" s="49"/>
     </row>
     <row r="99">
-      <c r="AH99" s="44"/>
+      <c r="AH99" s="48"/>
+      <c r="AI99" s="49"/>
     </row>
     <row r="100">
-      <c r="AH100" s="44"/>
+      <c r="AH100" s="48"/>
+      <c r="AI100" s="49"/>
     </row>
     <row r="101">
-      <c r="AH101" s="44"/>
+      <c r="AH101" s="48"/>
+      <c r="AI101" s="49"/>
     </row>
     <row r="102">
-      <c r="AH102" s="44"/>
+      <c r="AH102" s="48"/>
+      <c r="AI102" s="49"/>
     </row>
     <row r="103">
-      <c r="AH103" s="44"/>
+      <c r="AH103" s="48"/>
+      <c r="AI103" s="49"/>
     </row>
     <row r="104">
-      <c r="AH104" s="44"/>
+      <c r="AH104" s="48"/>
+      <c r="AI104" s="49"/>
     </row>
     <row r="105">
-      <c r="AH105" s="44"/>
+      <c r="AH105" s="48"/>
+      <c r="AI105" s="49"/>
     </row>
     <row r="106">
-      <c r="AH106" s="44"/>
+      <c r="AH106" s="48"/>
+      <c r="AI106" s="49"/>
     </row>
     <row r="107">
-      <c r="AH107" s="44"/>
+      <c r="AH107" s="48"/>
+      <c r="AI107" s="49"/>
     </row>
     <row r="108">
-      <c r="AH108" s="44"/>
+      <c r="AH108" s="48"/>
+      <c r="AI108" s="49"/>
     </row>
     <row r="109">
-      <c r="AH109" s="44"/>
+      <c r="AH109" s="48"/>
+      <c r="AI109" s="49"/>
     </row>
     <row r="110">
-      <c r="AH110" s="44"/>
+      <c r="AH110" s="48"/>
+      <c r="AI110" s="49"/>
     </row>
     <row r="111">
-      <c r="AH111" s="44"/>
+      <c r="AH111" s="48"/>
+      <c r="AI111" s="49"/>
     </row>
     <row r="112">
-      <c r="AH112" s="44"/>
+      <c r="AH112" s="48"/>
+      <c r="AI112" s="49"/>
     </row>
     <row r="113">
-      <c r="AH113" s="44"/>
+      <c r="AH113" s="48"/>
+      <c r="AI113" s="49"/>
     </row>
     <row r="114">
-      <c r="AH114" s="44"/>
+      <c r="AH114" s="48"/>
+      <c r="AI114" s="49"/>
     </row>
     <row r="115">
-      <c r="AH115" s="44"/>
+      <c r="AH115" s="48"/>
+      <c r="AI115" s="49"/>
     </row>
     <row r="116">
-      <c r="AH116" s="44"/>
+      <c r="AH116" s="48"/>
+      <c r="AI116" s="49"/>
     </row>
     <row r="117">
-      <c r="AH117" s="44"/>
+      <c r="AH117" s="48"/>
+      <c r="AI117" s="49"/>
     </row>
     <row r="118">
-      <c r="AH118" s="44"/>
+      <c r="AH118" s="48"/>
+      <c r="AI118" s="49"/>
     </row>
     <row r="119">
-      <c r="AH119" s="44"/>
+      <c r="AH119" s="48"/>
+      <c r="AI119" s="49"/>
     </row>
     <row r="120">
-      <c r="AH120" s="44"/>
+      <c r="AH120" s="48"/>
+      <c r="AI120" s="49"/>
     </row>
     <row r="121">
-      <c r="AH121" s="44"/>
+      <c r="AH121" s="48"/>
+      <c r="AI121" s="49"/>
     </row>
     <row r="122">
-      <c r="AH122" s="44"/>
+      <c r="AH122" s="48"/>
+      <c r="AI122" s="49"/>
     </row>
     <row r="123">
-      <c r="AH123" s="44"/>
+      <c r="AH123" s="48"/>
+      <c r="AI123" s="49"/>
     </row>
     <row r="124">
-      <c r="AH124" s="44"/>
+      <c r="AH124" s="48"/>
+      <c r="AI124" s="49"/>
     </row>
     <row r="125">
-      <c r="AH125" s="44"/>
+      <c r="AH125" s="48"/>
+      <c r="AI125" s="49"/>
     </row>
     <row r="126">
-      <c r="AH126" s="44"/>
+      <c r="AH126" s="48"/>
+      <c r="AI126" s="49"/>
     </row>
     <row r="127">
-      <c r="AH127" s="44"/>
+      <c r="AH127" s="48"/>
+      <c r="AI127" s="49"/>
     </row>
     <row r="128">
-      <c r="AH128" s="44"/>
+      <c r="AH128" s="48"/>
+      <c r="AI128" s="49"/>
     </row>
     <row r="129">
-      <c r="AH129" s="44"/>
+      <c r="AH129" s="48"/>
+      <c r="AI129" s="49"/>
     </row>
     <row r="130">
-      <c r="AH130" s="44"/>
+      <c r="AH130" s="48"/>
+      <c r="AI130" s="49"/>
     </row>
     <row r="131">
-      <c r="AH131" s="44"/>
+      <c r="AH131" s="48"/>
+      <c r="AI131" s="49"/>
     </row>
     <row r="132">
-      <c r="AH132" s="44"/>
+      <c r="AH132" s="48"/>
+      <c r="AI132" s="49"/>
     </row>
     <row r="133">
-      <c r="AH133" s="44"/>
+      <c r="AH133" s="48"/>
+      <c r="AI133" s="49"/>
     </row>
     <row r="134">
-      <c r="AH134" s="44"/>
+      <c r="AH134" s="48"/>
+      <c r="AI134" s="49"/>
     </row>
     <row r="135">
-      <c r="AH135" s="44"/>
+      <c r="AH135" s="48"/>
+      <c r="AI135" s="49"/>
     </row>
     <row r="136">
-      <c r="AH136" s="44"/>
+      <c r="AH136" s="48"/>
+      <c r="AI136" s="49"/>
     </row>
     <row r="137">
-      <c r="AH137" s="44"/>
+      <c r="AH137" s="48"/>
+      <c r="AI137" s="49"/>
     </row>
     <row r="138">
-      <c r="AH138" s="44"/>
+      <c r="AH138" s="48"/>
+      <c r="AI138" s="49"/>
     </row>
     <row r="139">
-      <c r="AH139" s="44"/>
+      <c r="AH139" s="48"/>
+      <c r="AI139" s="49"/>
     </row>
     <row r="140">
-      <c r="AH140" s="44"/>
+      <c r="AH140" s="48"/>
+      <c r="AI140" s="49"/>
     </row>
     <row r="141">
-      <c r="AH141" s="44"/>
+      <c r="AH141" s="48"/>
+      <c r="AI141" s="49"/>
     </row>
     <row r="142">
-      <c r="AH142" s="44"/>
+      <c r="AH142" s="48"/>
+      <c r="AI142" s="49"/>
     </row>
     <row r="143">
-      <c r="AH143" s="44"/>
+      <c r="AH143" s="48"/>
+      <c r="AI143" s="49"/>
     </row>
     <row r="144">
-      <c r="AH144" s="44"/>
+      <c r="AH144" s="48"/>
+      <c r="AI144" s="49"/>
     </row>
     <row r="145">
-      <c r="AH145" s="44"/>
+      <c r="AH145" s="48"/>
+      <c r="AI145" s="49"/>
     </row>
     <row r="146">
-      <c r="AH146" s="44"/>
+      <c r="AH146" s="48"/>
+      <c r="AI146" s="49"/>
     </row>
     <row r="147">
-      <c r="AH147" s="44"/>
+      <c r="AH147" s="48"/>
+      <c r="AI147" s="49"/>
     </row>
     <row r="148">
-      <c r="AH148" s="44"/>
+      <c r="AH148" s="48"/>
+      <c r="AI148" s="49"/>
     </row>
     <row r="149">
-      <c r="AH149" s="44"/>
+      <c r="AH149" s="48"/>
+      <c r="AI149" s="49"/>
     </row>
     <row r="150">
-      <c r="AH150" s="44"/>
+      <c r="AH150" s="48"/>
+      <c r="AI150" s="49"/>
     </row>
     <row r="151">
-      <c r="AH151" s="44"/>
+      <c r="AH151" s="48"/>
+      <c r="AI151" s="49"/>
     </row>
     <row r="152">
-      <c r="AH152" s="44"/>
+      <c r="AH152" s="48"/>
+      <c r="AI152" s="49"/>
     </row>
     <row r="153">
-      <c r="AH153" s="44"/>
+      <c r="AH153" s="48"/>
+      <c r="AI153" s="49"/>
     </row>
     <row r="154">
-      <c r="AH154" s="44"/>
+      <c r="AH154" s="48"/>
+      <c r="AI154" s="49"/>
     </row>
     <row r="155">
-      <c r="AH155" s="44"/>
+      <c r="AH155" s="48"/>
+      <c r="AI155" s="49"/>
     </row>
     <row r="156">
-      <c r="AH156" s="44"/>
+      <c r="AH156" s="48"/>
+      <c r="AI156" s="49"/>
     </row>
     <row r="157">
-      <c r="AH157" s="44"/>
+      <c r="AH157" s="48"/>
+      <c r="AI157" s="49"/>
     </row>
     <row r="158">
-      <c r="AH158" s="44"/>
+      <c r="AH158" s="48"/>
+      <c r="AI158" s="49"/>
     </row>
     <row r="159">
-      <c r="AH159" s="44"/>
+      <c r="AH159" s="48"/>
+      <c r="AI159" s="49"/>
     </row>
     <row r="160">
-      <c r="AH160" s="44"/>
+      <c r="AH160" s="48"/>
+      <c r="AI160" s="49"/>
     </row>
     <row r="161">
-      <c r="AH161" s="44"/>
+      <c r="AH161" s="48"/>
+      <c r="AI161" s="49"/>
     </row>
     <row r="162">
-      <c r="AH162" s="44"/>
+      <c r="AH162" s="48"/>
+      <c r="AI162" s="49"/>
     </row>
     <row r="163">
-      <c r="AH163" s="44"/>
+      <c r="AH163" s="48"/>
+      <c r="AI163" s="49"/>
     </row>
     <row r="164">
-      <c r="AH164" s="44"/>
+      <c r="AH164" s="48"/>
+      <c r="AI164" s="49"/>
     </row>
     <row r="165">
-      <c r="AH165" s="44"/>
+      <c r="AH165" s="48"/>
+      <c r="AI165" s="49"/>
     </row>
     <row r="166">
-      <c r="AH166" s="44"/>
+      <c r="AH166" s="48"/>
+      <c r="AI166" s="49"/>
     </row>
     <row r="167">
-      <c r="AH167" s="44"/>
+      <c r="AH167" s="48"/>
+      <c r="AI167" s="49"/>
     </row>
     <row r="168">
-      <c r="AH168" s="44"/>
+      <c r="AH168" s="48"/>
+      <c r="AI168" s="49"/>
     </row>
     <row r="169">
-      <c r="AH169" s="44"/>
+      <c r="AH169" s="48"/>
+      <c r="AI169" s="49"/>
     </row>
     <row r="170">
-      <c r="AH170" s="44"/>
+      <c r="AH170" s="48"/>
+      <c r="AI170" s="49"/>
     </row>
     <row r="171">
-      <c r="AH171" s="44"/>
+      <c r="AH171" s="48"/>
+      <c r="AI171" s="49"/>
     </row>
     <row r="172">
-      <c r="AH172" s="44"/>
+      <c r="AH172" s="48"/>
+      <c r="AI172" s="49"/>
     </row>
     <row r="173">
-      <c r="AH173" s="44"/>
+      <c r="AH173" s="48"/>
+      <c r="AI173" s="49"/>
     </row>
     <row r="174">
-      <c r="AH174" s="44"/>
+      <c r="AH174" s="48"/>
+      <c r="AI174" s="49"/>
     </row>
     <row r="175">
-      <c r="AH175" s="44"/>
+      <c r="AH175" s="48"/>
+      <c r="AI175" s="49"/>
     </row>
     <row r="176">
-      <c r="AH176" s="44"/>
+      <c r="AH176" s="48"/>
+      <c r="AI176" s="49"/>
     </row>
     <row r="177">
-      <c r="AH177" s="44"/>
+      <c r="AH177" s="48"/>
+      <c r="AI177" s="49"/>
     </row>
     <row r="178">
-      <c r="AH178" s="44"/>
+      <c r="AH178" s="48"/>
+      <c r="AI178" s="49"/>
     </row>
     <row r="179">
-      <c r="AH179" s="44"/>
+      <c r="AH179" s="48"/>
+      <c r="AI179" s="49"/>
     </row>
     <row r="180">
-      <c r="AH180" s="44"/>
+      <c r="AH180" s="48"/>
+      <c r="AI180" s="49"/>
     </row>
     <row r="181">
-      <c r="AH181" s="44"/>
+      <c r="AH181" s="48"/>
+      <c r="AI181" s="49"/>
     </row>
     <row r="182">
-      <c r="AH182" s="44"/>
+      <c r="AH182" s="48"/>
+      <c r="AI182" s="49"/>
     </row>
     <row r="183">
-      <c r="AH183" s="44"/>
+      <c r="AH183" s="48"/>
+      <c r="AI183" s="49"/>
     </row>
     <row r="184">
-      <c r="AH184" s="44"/>
+      <c r="AH184" s="48"/>
+      <c r="AI184" s="49"/>
     </row>
     <row r="185">
-      <c r="AH185" s="44"/>
+      <c r="AH185" s="48"/>
+      <c r="AI185" s="49"/>
     </row>
     <row r="186">
-      <c r="AH186" s="44"/>
+      <c r="AH186" s="48"/>
+      <c r="AI186" s="49"/>
     </row>
     <row r="187">
-      <c r="AH187" s="44"/>
+      <c r="AH187" s="48"/>
+      <c r="AI187" s="49"/>
     </row>
     <row r="188">
-      <c r="AH188" s="44"/>
+      <c r="AH188" s="48"/>
+      <c r="AI188" s="49"/>
     </row>
     <row r="189">
-      <c r="AH189" s="44"/>
+      <c r="AH189" s="48"/>
+      <c r="AI189" s="49"/>
     </row>
     <row r="190">
-      <c r="AH190" s="44"/>
+      <c r="AH190" s="48"/>
+      <c r="AI190" s="49"/>
     </row>
     <row r="191">
-      <c r="AH191" s="44"/>
+      <c r="AH191" s="48"/>
+      <c r="AI191" s="49"/>
     </row>
     <row r="192">
-      <c r="AH192" s="44"/>
+      <c r="AH192" s="48"/>
+      <c r="AI192" s="49"/>
     </row>
     <row r="193">
-      <c r="AH193" s="44"/>
+      <c r="AH193" s="48"/>
+      <c r="AI193" s="49"/>
     </row>
     <row r="194">
-      <c r="AH194" s="44"/>
+      <c r="AH194" s="48"/>
+      <c r="AI194" s="49"/>
     </row>
     <row r="195">
-      <c r="AH195" s="44"/>
+      <c r="AH195" s="48"/>
+      <c r="AI195" s="49"/>
     </row>
     <row r="196">
-      <c r="AH196" s="44"/>
+      <c r="AH196" s="48"/>
+      <c r="AI196" s="49"/>
     </row>
     <row r="197">
-      <c r="AH197" s="44"/>
+      <c r="AH197" s="48"/>
+      <c r="AI197" s="49"/>
     </row>
     <row r="198">
-      <c r="AH198" s="44"/>
+      <c r="AH198" s="48"/>
+      <c r="AI198" s="49"/>
     </row>
     <row r="199">
-      <c r="AH199" s="44"/>
+      <c r="AH199" s="48"/>
+      <c r="AI199" s="49"/>
     </row>
     <row r="200">
-      <c r="AH200" s="44"/>
+      <c r="AH200" s="48"/>
+      <c r="AI200" s="49"/>
     </row>
     <row r="201">
-      <c r="AH201" s="44"/>
+      <c r="AH201" s="48"/>
+      <c r="AI201" s="49"/>
     </row>
     <row r="202">
-      <c r="AH202" s="44"/>
+      <c r="AH202" s="48"/>
+      <c r="AI202" s="49"/>
     </row>
     <row r="203">
-      <c r="AH203" s="44"/>
+      <c r="AH203" s="48"/>
+      <c r="AI203" s="49"/>
     </row>
     <row r="204">
-      <c r="AH204" s="44"/>
+      <c r="AH204" s="48"/>
+      <c r="AI204" s="49"/>
     </row>
     <row r="205">
-      <c r="AH205" s="44"/>
+      <c r="AH205" s="48"/>
+      <c r="AI205" s="49"/>
     </row>
     <row r="206">
-      <c r="AH206" s="44"/>
+      <c r="AH206" s="48"/>
+      <c r="AI206" s="49"/>
     </row>
     <row r="207">
-      <c r="AH207" s="44"/>
+      <c r="AH207" s="48"/>
+      <c r="AI207" s="49"/>
     </row>
     <row r="208">
-      <c r="AH208" s="44"/>
+      <c r="AH208" s="48"/>
+      <c r="AI208" s="49"/>
     </row>
     <row r="209">
-      <c r="AH209" s="44"/>
+      <c r="AH209" s="48"/>
+      <c r="AI209" s="49"/>
     </row>
     <row r="210">
-      <c r="AH210" s="44"/>
+      <c r="AH210" s="48"/>
+      <c r="AI210" s="49"/>
     </row>
     <row r="211">
-      <c r="AH211" s="44"/>
+      <c r="AH211" s="48"/>
+      <c r="AI211" s="49"/>
     </row>
     <row r="212">
-      <c r="AH212" s="44"/>
+      <c r="AH212" s="48"/>
+      <c r="AI212" s="49"/>
     </row>
     <row r="213">
-      <c r="AH213" s="44"/>
+      <c r="AH213" s="48"/>
+      <c r="AI213" s="49"/>
     </row>
     <row r="214">
-      <c r="AH214" s="44"/>
+      <c r="AH214" s="48"/>
+      <c r="AI214" s="49"/>
     </row>
     <row r="215">
-      <c r="AH215" s="44"/>
+      <c r="AH215" s="48"/>
+      <c r="AI215" s="49"/>
     </row>
     <row r="216">
-      <c r="AH216" s="44"/>
+      <c r="AH216" s="48"/>
+      <c r="AI216" s="49"/>
     </row>
     <row r="217">
-      <c r="AH217" s="44"/>
+      <c r="AH217" s="48"/>
+      <c r="AI217" s="49"/>
     </row>
     <row r="218">
-      <c r="AH218" s="44"/>
+      <c r="AH218" s="48"/>
+      <c r="AI218" s="49"/>
     </row>
     <row r="219">
-      <c r="AH219" s="44"/>
+      <c r="AH219" s="48"/>
+      <c r="AI219" s="49"/>
     </row>
     <row r="220">
-      <c r="AH220" s="44"/>
+      <c r="AH220" s="48"/>
+      <c r="AI220" s="49"/>
     </row>
     <row r="221">
-      <c r="AH221" s="44"/>
+      <c r="AH221" s="48"/>
+      <c r="AI221" s="49"/>
     </row>
     <row r="222">
-      <c r="AH222" s="44"/>
+      <c r="AH222" s="48"/>
+      <c r="AI222" s="49"/>
     </row>
     <row r="223">
-      <c r="AH223" s="44"/>
+      <c r="AH223" s="48"/>
+      <c r="AI223" s="49"/>
     </row>
     <row r="224">
-      <c r="AH224" s="44"/>
+      <c r="AH224" s="48"/>
+      <c r="AI224" s="49"/>
     </row>
     <row r="225">
-      <c r="AH225" s="44"/>
+      <c r="AH225" s="48"/>
+      <c r="AI225" s="49"/>
     </row>
     <row r="226">
-      <c r="AH226" s="44"/>
+      <c r="AH226" s="48"/>
+      <c r="AI226" s="49"/>
     </row>
     <row r="227">
-      <c r="AH227" s="44"/>
+      <c r="AH227" s="48"/>
+      <c r="AI227" s="49"/>
     </row>
     <row r="228">
-      <c r="AH228" s="44"/>
+      <c r="AH228" s="48"/>
+      <c r="AI228" s="49"/>
     </row>
     <row r="229">
-      <c r="AH229" s="44"/>
+      <c r="AH229" s="48"/>
+      <c r="AI229" s="49"/>
     </row>
     <row r="230">
-      <c r="AH230" s="44"/>
+      <c r="AH230" s="48"/>
+      <c r="AI230" s="49"/>
     </row>
     <row r="231">
-      <c r="AH231" s="44"/>
+      <c r="AH231" s="48"/>
+      <c r="AI231" s="49"/>
     </row>
     <row r="232">
-      <c r="AH232" s="44"/>
+      <c r="AH232" s="48"/>
+      <c r="AI232" s="49"/>
     </row>
     <row r="233">
-      <c r="AH233" s="44"/>
+      <c r="AH233" s="48"/>
+      <c r="AI233" s="49"/>
     </row>
     <row r="234">
-      <c r="AH234" s="44"/>
+      <c r="AH234" s="48"/>
+      <c r="AI234" s="49"/>
     </row>
     <row r="235">
-      <c r="AH235" s="44"/>
+      <c r="AH235" s="48"/>
+      <c r="AI235" s="49"/>
     </row>
     <row r="236">
-      <c r="AH236" s="44"/>
+      <c r="AH236" s="48"/>
+      <c r="AI236" s="49"/>
     </row>
     <row r="237">
-      <c r="AH237" s="44"/>
+      <c r="AH237" s="48"/>
+      <c r="AI237" s="49"/>
     </row>
     <row r="238">
-      <c r="AH238" s="44"/>
+      <c r="AH238" s="48"/>
+      <c r="AI238" s="49"/>
     </row>
     <row r="239">
-      <c r="AH239" s="44"/>
+      <c r="AH239" s="48"/>
+      <c r="AI239" s="49"/>
     </row>
     <row r="240">
-      <c r="AH240" s="44"/>
+      <c r="AH240" s="48"/>
+      <c r="AI240" s="49"/>
     </row>
     <row r="241">
-      <c r="AH241" s="44"/>
+      <c r="AH241" s="48"/>
+      <c r="AI241" s="49"/>
     </row>
     <row r="242">
-      <c r="AH242" s="44"/>
+      <c r="AH242" s="48"/>
+      <c r="AI242" s="49"/>
     </row>
     <row r="243">
-      <c r="AH243" s="44"/>
+      <c r="AH243" s="48"/>
+      <c r="AI243" s="49"/>
     </row>
     <row r="244">
-      <c r="AH244" s="44"/>
+      <c r="AH244" s="48"/>
+      <c r="AI244" s="49"/>
     </row>
     <row r="245">
-      <c r="AH245" s="44"/>
+      <c r="AH245" s="48"/>
+      <c r="AI245" s="49"/>
     </row>
     <row r="246">
-      <c r="AH246" s="44"/>
+      <c r="AH246" s="48"/>
+      <c r="AI246" s="49"/>
     </row>
     <row r="247">
-      <c r="AH247" s="44"/>
+      <c r="AH247" s="48"/>
+      <c r="AI247" s="49"/>
     </row>
     <row r="248">
-      <c r="AH248" s="44"/>
+      <c r="AH248" s="48"/>
+      <c r="AI248" s="49"/>
     </row>
     <row r="249">
-      <c r="AH249" s="44"/>
+      <c r="AH249" s="48"/>
+      <c r="AI249" s="49"/>
     </row>
     <row r="250">
-      <c r="AH250" s="44"/>
+      <c r="AH250" s="48"/>
+      <c r="AI250" s="49"/>
     </row>
     <row r="251">
-      <c r="AH251" s="44"/>
+      <c r="AH251" s="48"/>
+      <c r="AI251" s="49"/>
     </row>
     <row r="252">
-      <c r="AH252" s="44"/>
+      <c r="AH252" s="48"/>
+      <c r="AI252" s="49"/>
     </row>
     <row r="253">
-      <c r="AH253" s="44"/>
+      <c r="AH253" s="48"/>
+      <c r="AI253" s="49"/>
     </row>
     <row r="254">
-      <c r="AH254" s="44"/>
+      <c r="AH254" s="48"/>
+      <c r="AI254" s="49"/>
     </row>
     <row r="255">
-      <c r="AH255" s="44"/>
+      <c r="AH255" s="48"/>
+      <c r="AI255" s="49"/>
     </row>
     <row r="256">
-      <c r="AH256" s="44"/>
+      <c r="AH256" s="48"/>
+      <c r="AI256" s="49"/>
     </row>
     <row r="257">
-      <c r="AH257" s="44"/>
+      <c r="AH257" s="48"/>
+      <c r="AI257" s="49"/>
     </row>
     <row r="258">
-      <c r="AH258" s="44"/>
+      <c r="AH258" s="48"/>
+      <c r="AI258" s="49"/>
     </row>
     <row r="259">
-      <c r="AH259" s="44"/>
+      <c r="AH259" s="48"/>
+      <c r="AI259" s="49"/>
     </row>
     <row r="260">
-      <c r="AH260" s="44"/>
+      <c r="AH260" s="48"/>
+      <c r="AI260" s="49"/>
     </row>
     <row r="261">
-      <c r="AH261" s="44"/>
+      <c r="AH261" s="48"/>
+      <c r="AI261" s="49"/>
     </row>
     <row r="262">
-      <c r="AH262" s="44"/>
+      <c r="AH262" s="48"/>
+      <c r="AI262" s="49"/>
     </row>
     <row r="263">
-      <c r="AH263" s="44"/>
+      <c r="AH263" s="48"/>
+      <c r="AI263" s="49"/>
     </row>
     <row r="264">
-      <c r="AH264" s="44"/>
+      <c r="AH264" s="48"/>
+      <c r="AI264" s="49"/>
     </row>
     <row r="265">
-      <c r="AH265" s="44"/>
+      <c r="AH265" s="48"/>
+      <c r="AI265" s="49"/>
     </row>
     <row r="266">
-      <c r="AH266" s="44"/>
+      <c r="AH266" s="48"/>
+      <c r="AI266" s="49"/>
     </row>
     <row r="267">
-      <c r="AH267" s="44"/>
+      <c r="AH267" s="48"/>
+      <c r="AI267" s="49"/>
     </row>
     <row r="268">
-      <c r="AH268" s="44"/>
+      <c r="AH268" s="48"/>
+      <c r="AI268" s="49"/>
     </row>
     <row r="269">
-      <c r="AH269" s="44"/>
+      <c r="AH269" s="48"/>
+      <c r="AI269" s="49"/>
     </row>
     <row r="270">
-      <c r="AH270" s="44"/>
+      <c r="AH270" s="48"/>
+      <c r="AI270" s="49"/>
     </row>
     <row r="271">
-      <c r="AH271" s="44"/>
+      <c r="AH271" s="48"/>
+      <c r="AI271" s="49"/>
     </row>
     <row r="272">
-      <c r="AH272" s="44"/>
+      <c r="AH272" s="48"/>
+      <c r="AI272" s="49"/>
     </row>
     <row r="273">
-      <c r="AH273" s="44"/>
+      <c r="AH273" s="48"/>
+      <c r="AI273" s="49"/>
     </row>
     <row r="274">
-      <c r="AH274" s="44"/>
+      <c r="AH274" s="48"/>
+      <c r="AI274" s="49"/>
     </row>
     <row r="275">
-      <c r="AH275" s="44"/>
+      <c r="AH275" s="48"/>
+      <c r="AI275" s="49"/>
     </row>
     <row r="276">
-      <c r="AH276" s="44"/>
+      <c r="AH276" s="48"/>
+      <c r="AI276" s="49"/>
     </row>
     <row r="277">
-      <c r="AH277" s="44"/>
+      <c r="AH277" s="48"/>
+      <c r="AI277" s="49"/>
     </row>
     <row r="278">
-      <c r="AH278" s="44"/>
+      <c r="AH278" s="48"/>
+      <c r="AI278" s="49"/>
     </row>
     <row r="279">
-      <c r="AH279" s="44"/>
+      <c r="AH279" s="48"/>
+      <c r="AI279" s="49"/>
     </row>
     <row r="280">
-      <c r="AH280" s="44"/>
+      <c r="AH280" s="48"/>
+      <c r="AI280" s="49"/>
     </row>
     <row r="281">
-      <c r="AH281" s="44"/>
+      <c r="AH281" s="48"/>
+      <c r="AI281" s="49"/>
     </row>
     <row r="282">
-      <c r="AH282" s="44"/>
+      <c r="AH282" s="48"/>
+      <c r="AI282" s="49"/>
     </row>
     <row r="283">
-      <c r="AH283" s="44"/>
+      <c r="AH283" s="48"/>
+      <c r="AI283" s="49"/>
     </row>
     <row r="284">
-      <c r="AH284" s="44"/>
+      <c r="AH284" s="48"/>
+      <c r="AI284" s="49"/>
     </row>
     <row r="285">
-      <c r="AH285" s="44"/>
+      <c r="AH285" s="48"/>
+      <c r="AI285" s="49"/>
     </row>
     <row r="286">
-      <c r="AH286" s="44"/>
+      <c r="AH286" s="48"/>
+      <c r="AI286" s="49"/>
     </row>
     <row r="287">
-      <c r="AH287" s="44"/>
+      <c r="AH287" s="48"/>
+      <c r="AI287" s="49"/>
     </row>
     <row r="288">
-      <c r="AH288" s="44"/>
+      <c r="AH288" s="48"/>
+      <c r="AI288" s="49"/>
     </row>
     <row r="289">
-      <c r="AH289" s="44"/>
+      <c r="AH289" s="48"/>
+      <c r="AI289" s="49"/>
     </row>
     <row r="290">
-      <c r="AH290" s="44"/>
+      <c r="AH290" s="48"/>
+      <c r="AI290" s="49"/>
     </row>
     <row r="291">
-      <c r="AH291" s="44"/>
+      <c r="AH291" s="48"/>
+      <c r="AI291" s="49"/>
     </row>
     <row r="292">
-      <c r="AH292" s="44"/>
+      <c r="AH292" s="48"/>
+      <c r="AI292" s="49"/>
     </row>
     <row r="293">
-      <c r="AH293" s="44"/>
+      <c r="AH293" s="48"/>
+      <c r="AI293" s="49"/>
     </row>
     <row r="294">
-      <c r="AH294" s="44"/>
+      <c r="AH294" s="48"/>
+      <c r="AI294" s="49"/>
     </row>
     <row r="295">
-      <c r="AH295" s="44"/>
+      <c r="AH295" s="48"/>
+      <c r="AI295" s="49"/>
     </row>
     <row r="296">
-      <c r="AH296" s="44"/>
+      <c r="AH296" s="48"/>
+      <c r="AI296" s="49"/>
     </row>
     <row r="297">
-      <c r="AH297" s="44"/>
+      <c r="AH297" s="48"/>
+      <c r="AI297" s="49"/>
     </row>
     <row r="298">
-      <c r="AH298" s="44"/>
+      <c r="AH298" s="48"/>
+      <c r="AI298" s="49"/>
     </row>
     <row r="299">
-      <c r="AH299" s="44"/>
+      <c r="AH299" s="48"/>
+      <c r="AI299" s="49"/>
     </row>
     <row r="300">
-      <c r="AH300" s="44"/>
+      <c r="AH300" s="48"/>
+      <c r="AI300" s="49"/>
     </row>
     <row r="301">
-      <c r="AH301" s="44"/>
+      <c r="AH301" s="48"/>
+      <c r="AI301" s="49"/>
     </row>
     <row r="302">
-      <c r="AH302" s="44"/>
+      <c r="AH302" s="48"/>
+      <c r="AI302" s="49"/>
     </row>
     <row r="303">
-      <c r="AH303" s="44"/>
+      <c r="AH303" s="48"/>
+      <c r="AI303" s="49"/>
     </row>
     <row r="304">
-      <c r="AH304" s="44"/>
+      <c r="AH304" s="48"/>
+      <c r="AI304" s="49"/>
     </row>
     <row r="305">
-      <c r="AH305" s="44"/>
+      <c r="AH305" s="48"/>
+      <c r="AI305" s="49"/>
     </row>
     <row r="306">
-      <c r="AH306" s="44"/>
+      <c r="AH306" s="48"/>
+      <c r="AI306" s="49"/>
     </row>
     <row r="307">
-      <c r="AH307" s="44"/>
+      <c r="AH307" s="48"/>
+      <c r="AI307" s="49"/>
     </row>
     <row r="308">
-      <c r="AH308" s="44"/>
+      <c r="AH308" s="48"/>
+      <c r="AI308" s="49"/>
     </row>
     <row r="309">
-      <c r="AH309" s="44"/>
+      <c r="AH309" s="48"/>
+      <c r="AI309" s="49"/>
     </row>
     <row r="310">
-      <c r="AH310" s="44"/>
+      <c r="AH310" s="48"/>
+      <c r="AI310" s="49"/>
     </row>
     <row r="311">
-      <c r="AH311" s="44"/>
+      <c r="AH311" s="48"/>
+      <c r="AI311" s="49"/>
     </row>
     <row r="312">
-      <c r="AH312" s="44"/>
+      <c r="AH312" s="48"/>
+      <c r="AI312" s="49"/>
     </row>
     <row r="313">
-      <c r="AH313" s="44"/>
+      <c r="AH313" s="48"/>
+      <c r="AI313" s="49"/>
     </row>
     <row r="314">
-      <c r="AH314" s="44"/>
+      <c r="AH314" s="48"/>
+      <c r="AI314" s="49"/>
     </row>
     <row r="315">
-      <c r="AH315" s="44"/>
+      <c r="AH315" s="48"/>
+      <c r="AI315" s="49"/>
     </row>
     <row r="316">
-      <c r="AH316" s="44"/>
+      <c r="AH316" s="48"/>
+      <c r="AI316" s="49"/>
     </row>
     <row r="317">
-      <c r="AH317" s="44"/>
+      <c r="AH317" s="48"/>
+      <c r="AI317" s="49"/>
     </row>
     <row r="318">
-      <c r="AH318" s="44"/>
+      <c r="AH318" s="48"/>
+      <c r="AI318" s="49"/>
     </row>
     <row r="319">
-      <c r="AH319" s="44"/>
+      <c r="AH319" s="48"/>
+      <c r="AI319" s="49"/>
     </row>
     <row r="320">
-      <c r="AH320" s="44"/>
+      <c r="AH320" s="48"/>
+      <c r="AI320" s="49"/>
     </row>
     <row r="321">
-      <c r="AH321" s="44"/>
+      <c r="AH321" s="48"/>
+      <c r="AI321" s="49"/>
     </row>
     <row r="322">
-      <c r="AH322" s="44"/>
+      <c r="AH322" s="48"/>
+      <c r="AI322" s="49"/>
     </row>
     <row r="323">
-      <c r="AH323" s="44"/>
+      <c r="AH323" s="48"/>
+      <c r="AI323" s="49"/>
     </row>
     <row r="324">
-      <c r="AH324" s="44"/>
+      <c r="AH324" s="48"/>
+      <c r="AI324" s="49"/>
     </row>
     <row r="325">
-      <c r="AH325" s="44"/>
+      <c r="AH325" s="48"/>
+      <c r="AI325" s="49"/>
     </row>
     <row r="326">
-      <c r="AH326" s="44"/>
+      <c r="AH326" s="48"/>
+      <c r="AI326" s="49"/>
     </row>
     <row r="327">
-      <c r="AH327" s="44"/>
+      <c r="AH327" s="48"/>
+      <c r="AI327" s="49"/>
     </row>
     <row r="328">
-      <c r="AH328" s="44"/>
+      <c r="AH328" s="48"/>
+      <c r="AI328" s="49"/>
     </row>
     <row r="329">
-      <c r="AH329" s="44"/>
+      <c r="AH329" s="48"/>
+      <c r="AI329" s="49"/>
     </row>
     <row r="330">
-      <c r="AH330" s="44"/>
+      <c r="AH330" s="48"/>
+      <c r="AI330" s="49"/>
     </row>
     <row r="331">
-      <c r="AH331" s="44"/>
+      <c r="AH331" s="48"/>
+      <c r="AI331" s="49"/>
     </row>
     <row r="332">
-      <c r="AH332" s="44"/>
+      <c r="AH332" s="48"/>
+      <c r="AI332" s="49"/>
     </row>
     <row r="333">
-      <c r="AH333" s="44"/>
+      <c r="AH333" s="48"/>
+      <c r="AI333" s="49"/>
     </row>
     <row r="334">
-      <c r="AH334" s="44"/>
+      <c r="AH334" s="48"/>
+      <c r="AI334" s="49"/>
     </row>
     <row r="335">
-      <c r="AH335" s="44"/>
+      <c r="AH335" s="48"/>
+      <c r="AI335" s="49"/>
     </row>
     <row r="336">
-      <c r="AH336" s="44"/>
+      <c r="AH336" s="48"/>
+      <c r="AI336" s="49"/>
     </row>
     <row r="337">
-      <c r="AH337" s="44"/>
+      <c r="AH337" s="48"/>
+      <c r="AI337" s="49"/>
     </row>
     <row r="338">
-      <c r="AH338" s="44"/>
+      <c r="AH338" s="48"/>
+      <c r="AI338" s="49"/>
     </row>
     <row r="339">
-      <c r="AH339" s="44"/>
+      <c r="AH339" s="48"/>
+      <c r="AI339" s="49"/>
     </row>
     <row r="340">
-      <c r="AH340" s="44"/>
+      <c r="AH340" s="48"/>
+      <c r="AI340" s="49"/>
     </row>
     <row r="341">
-      <c r="AH341" s="44"/>
+      <c r="AH341" s="48"/>
+      <c r="AI341" s="49"/>
     </row>
     <row r="342">
-      <c r="AH342" s="44"/>
+      <c r="AH342" s="48"/>
+      <c r="AI342" s="49"/>
     </row>
     <row r="343">
-      <c r="AH343" s="44"/>
+      <c r="AH343" s="48"/>
+      <c r="AI343" s="49"/>
     </row>
     <row r="344">
-      <c r="AH344" s="44"/>
+      <c r="AH344" s="48"/>
+      <c r="AI344" s="49"/>
     </row>
     <row r="345">
-      <c r="AH345" s="44"/>
+      <c r="AH345" s="48"/>
+      <c r="AI345" s="49"/>
     </row>
     <row r="346">
-      <c r="AH346" s="44"/>
+      <c r="AH346" s="48"/>
+      <c r="AI346" s="49"/>
     </row>
     <row r="347">
-      <c r="AH347" s="44"/>
+      <c r="AH347" s="48"/>
+      <c r="AI347" s="49"/>
     </row>
     <row r="348">
-      <c r="AH348" s="44"/>
+      <c r="AH348" s="48"/>
+      <c r="AI348" s="49"/>
     </row>
     <row r="349">
-      <c r="AH349" s="44"/>
+      <c r="AH349" s="48"/>
+      <c r="AI349" s="49"/>
     </row>
     <row r="350">
-      <c r="AH350" s="44"/>
+      <c r="AH350" s="48"/>
+      <c r="AI350" s="49"/>
     </row>
     <row r="351">
-      <c r="AH351" s="44"/>
+      <c r="AH351" s="48"/>
+      <c r="AI351" s="49"/>
     </row>
     <row r="352">
-      <c r="AH352" s="44"/>
+      <c r="AH352" s="48"/>
+      <c r="AI352" s="49"/>
     </row>
     <row r="353">
-      <c r="AH353" s="44"/>
+      <c r="AH353" s="48"/>
+      <c r="AI353" s="49"/>
     </row>
     <row r="354">
-      <c r="AH354" s="44"/>
+      <c r="AH354" s="48"/>
+      <c r="AI354" s="49"/>
     </row>
     <row r="355">
-      <c r="AH355" s="44"/>
+      <c r="AH355" s="48"/>
+      <c r="AI355" s="49"/>
     </row>
     <row r="356">
-      <c r="AH356" s="44"/>
+      <c r="AH356" s="48"/>
+      <c r="AI356" s="49"/>
     </row>
     <row r="357">
-      <c r="AH357" s="44"/>
+      <c r="AH357" s="48"/>
+      <c r="AI357" s="49"/>
     </row>
     <row r="358">
-      <c r="AH358" s="44"/>
+      <c r="AH358" s="48"/>
+      <c r="AI358" s="49"/>
     </row>
     <row r="359">
-      <c r="AH359" s="44"/>
+      <c r="AH359" s="48"/>
+      <c r="AI359" s="49"/>
     </row>
     <row r="360">
-      <c r="AH360" s="44"/>
+      <c r="AH360" s="48"/>
+      <c r="AI360" s="49"/>
     </row>
     <row r="361">
-      <c r="AH361" s="44"/>
+      <c r="AH361" s="48"/>
+      <c r="AI361" s="49"/>
     </row>
     <row r="362">
-      <c r="AH362" s="44"/>
+      <c r="AH362" s="48"/>
+      <c r="AI362" s="49"/>
     </row>
     <row r="363">
-      <c r="AH363" s="44"/>
+      <c r="AH363" s="48"/>
+      <c r="AI363" s="49"/>
     </row>
     <row r="364">
-      <c r="AH364" s="44"/>
+      <c r="AH364" s="48"/>
+      <c r="AI364" s="49"/>
     </row>
     <row r="365">
-      <c r="AH365" s="44"/>
+      <c r="AH365" s="48"/>
+      <c r="AI365" s="49"/>
     </row>
     <row r="366">
-      <c r="AH366" s="44"/>
+      <c r="AH366" s="48"/>
+      <c r="AI366" s="49"/>
     </row>
     <row r="367">
-      <c r="AH367" s="44"/>
+      <c r="AH367" s="48"/>
+      <c r="AI367" s="49"/>
     </row>
     <row r="368">
-      <c r="AH368" s="44"/>
+      <c r="AH368" s="48"/>
+      <c r="AI368" s="49"/>
     </row>
     <row r="369">
-      <c r="AH369" s="44"/>
+      <c r="AH369" s="48"/>
+      <c r="AI369" s="49"/>
     </row>
     <row r="370">
-      <c r="AH370" s="44"/>
+      <c r="AH370" s="48"/>
+      <c r="AI370" s="49"/>
     </row>
     <row r="371">
-      <c r="AH371" s="44"/>
+      <c r="AH371" s="48"/>
+      <c r="AI371" s="49"/>
     </row>
     <row r="372">
-      <c r="AH372" s="44"/>
+      <c r="AH372" s="48"/>
+      <c r="AI372" s="49"/>
     </row>
     <row r="373">
-      <c r="AH373" s="44"/>
+      <c r="AH373" s="48"/>
+      <c r="AI373" s="49"/>
     </row>
     <row r="374">
-      <c r="AH374" s="44"/>
+      <c r="AH374" s="48"/>
+      <c r="AI374" s="49"/>
     </row>
     <row r="375">
-      <c r="AH375" s="44"/>
+      <c r="AH375" s="48"/>
+      <c r="AI375" s="49"/>
     </row>
     <row r="376">
-      <c r="AH376" s="44"/>
+      <c r="AH376" s="48"/>
+      <c r="AI376" s="49"/>
     </row>
     <row r="377">
-      <c r="AH377" s="44"/>
+      <c r="AH377" s="48"/>
+      <c r="AI377" s="49"/>
     </row>
     <row r="378">
-      <c r="AH378" s="44"/>
+      <c r="AH378" s="48"/>
+      <c r="AI378" s="49"/>
     </row>
     <row r="379">
-      <c r="AH379" s="44"/>
+      <c r="AH379" s="48"/>
+      <c r="AI379" s="49"/>
     </row>
     <row r="380">
-      <c r="AH380" s="44"/>
+      <c r="AH380" s="48"/>
+      <c r="AI380" s="49"/>
     </row>
     <row r="381">
-      <c r="AH381" s="44"/>
+      <c r="AH381" s="48"/>
+      <c r="AI381" s="49"/>
     </row>
     <row r="382">
-      <c r="AH382" s="44"/>
+      <c r="AH382" s="48"/>
+      <c r="AI382" s="49"/>
     </row>
     <row r="383">
-      <c r="AH383" s="44"/>
+      <c r="AH383" s="48"/>
+      <c r="AI383" s="49"/>
     </row>
     <row r="384">
-      <c r="AH384" s="44"/>
+      <c r="AH384" s="48"/>
+      <c r="AI384" s="49"/>
     </row>
     <row r="385">
-      <c r="AH385" s="44"/>
+      <c r="AH385" s="48"/>
+      <c r="AI385" s="49"/>
     </row>
     <row r="386">
-      <c r="AH386" s="44"/>
+      <c r="AH386" s="48"/>
+      <c r="AI386" s="49"/>
     </row>
     <row r="387">
-      <c r="AH387" s="44"/>
+      <c r="AH387" s="48"/>
+      <c r="AI387" s="49"/>
     </row>
     <row r="388">
-      <c r="AH388" s="44"/>
+      <c r="AH388" s="48"/>
+      <c r="AI388" s="49"/>
     </row>
     <row r="389">
-      <c r="AH389" s="44"/>
+      <c r="AH389" s="48"/>
+      <c r="AI389" s="49"/>
     </row>
     <row r="390">
-      <c r="AH390" s="44"/>
+      <c r="AH390" s="48"/>
+      <c r="AI390" s="49"/>
     </row>
     <row r="391">
-      <c r="AH391" s="44"/>
+      <c r="AH391" s="48"/>
+      <c r="AI391" s="49"/>
     </row>
     <row r="392">
-      <c r="AH392" s="44"/>
+      <c r="AH392" s="48"/>
+      <c r="AI392" s="49"/>
     </row>
     <row r="393">
-      <c r="AH393" s="44"/>
+      <c r="AH393" s="48"/>
+      <c r="AI393" s="49"/>
     </row>
     <row r="394">
-      <c r="AH394" s="44"/>
+      <c r="AH394" s="48"/>
+      <c r="AI394" s="49"/>
     </row>
     <row r="395">
-      <c r="AH395" s="44"/>
+      <c r="AH395" s="48"/>
+      <c r="AI395" s="49"/>
     </row>
     <row r="396">
-      <c r="AH396" s="44"/>
+      <c r="AH396" s="48"/>
+      <c r="AI396" s="49"/>
     </row>
     <row r="397">
-      <c r="AH397" s="44"/>
+      <c r="AH397" s="48"/>
+      <c r="AI397" s="49"/>
     </row>
     <row r="398">
-      <c r="AH398" s="44"/>
+      <c r="AH398" s="48"/>
+      <c r="AI398" s="49"/>
     </row>
     <row r="399">
-      <c r="AH399" s="44"/>
+      <c r="AH399" s="48"/>
+      <c r="AI399" s="49"/>
     </row>
     <row r="400">
-      <c r="AH400" s="44"/>
+      <c r="AH400" s="48"/>
+      <c r="AI400" s="49"/>
     </row>
     <row r="401">
-      <c r="AH401" s="44"/>
+      <c r="AH401" s="48"/>
+      <c r="AI401" s="49"/>
     </row>
     <row r="402">
-      <c r="AH402" s="44"/>
+      <c r="AH402" s="48"/>
+      <c r="AI402" s="49"/>
     </row>
     <row r="403">
-      <c r="AH403" s="44"/>
+      <c r="AH403" s="48"/>
+      <c r="AI403" s="49"/>
     </row>
     <row r="404">
-      <c r="AH404" s="44"/>
+      <c r="AH404" s="48"/>
+      <c r="AI404" s="49"/>
     </row>
     <row r="405">
-      <c r="AH405" s="44"/>
+      <c r="AH405" s="48"/>
+      <c r="AI405" s="49"/>
     </row>
     <row r="406">
-      <c r="AH406" s="44"/>
+      <c r="AH406" s="48"/>
+      <c r="AI406" s="49"/>
     </row>
     <row r="407">
-      <c r="AH407" s="44"/>
+      <c r="AH407" s="48"/>
+      <c r="AI407" s="49"/>
     </row>
     <row r="408">
-      <c r="AH408" s="44"/>
+      <c r="AH408" s="48"/>
+      <c r="AI408" s="49"/>
     </row>
     <row r="409">
-      <c r="AH409" s="44"/>
+      <c r="AH409" s="48"/>
+      <c r="AI409" s="49"/>
     </row>
     <row r="410">
-      <c r="AH410" s="44"/>
+      <c r="AH410" s="48"/>
+      <c r="AI410" s="49"/>
     </row>
     <row r="411">
-      <c r="AH411" s="44"/>
+      <c r="AH411" s="48"/>
+      <c r="AI411" s="49"/>
     </row>
     <row r="412">
-      <c r="AH412" s="44"/>
+      <c r="AH412" s="48"/>
+      <c r="AI412" s="49"/>
     </row>
     <row r="413">
-      <c r="AH413" s="44"/>
+      <c r="AH413" s="48"/>
+      <c r="AI413" s="49"/>
     </row>
     <row r="414">
-      <c r="AH414" s="44"/>
+      <c r="AH414" s="48"/>
+      <c r="AI414" s="49"/>
     </row>
     <row r="415">
-      <c r="AH415" s="44"/>
+      <c r="AH415" s="48"/>
+      <c r="AI415" s="49"/>
     </row>
     <row r="416">
-      <c r="AH416" s="44"/>
+      <c r="AH416" s="48"/>
+      <c r="AI416" s="49"/>
     </row>
     <row r="417">
-      <c r="AH417" s="44"/>
+      <c r="AH417" s="48"/>
+      <c r="AI417" s="49"/>
     </row>
     <row r="418">
-      <c r="AH418" s="44"/>
+      <c r="AH418" s="48"/>
+      <c r="AI418" s="49"/>
     </row>
     <row r="419">
-      <c r="AH419" s="44"/>
+      <c r="AH419" s="48"/>
+      <c r="AI419" s="49"/>
     </row>
     <row r="420">
-      <c r="AH420" s="44"/>
+      <c r="AH420" s="48"/>
+      <c r="AI420" s="49"/>
     </row>
     <row r="421">
-      <c r="AH421" s="44"/>
+      <c r="AH421" s="48"/>
+      <c r="AI421" s="49"/>
     </row>
     <row r="422">
-      <c r="AH422" s="44"/>
+      <c r="AH422" s="48"/>
+      <c r="AI422" s="49"/>
     </row>
     <row r="423">
-      <c r="AH423" s="44"/>
+      <c r="AH423" s="48"/>
+      <c r="AI423" s="49"/>
     </row>
     <row r="424">
-      <c r="AH424" s="44"/>
+      <c r="AH424" s="48"/>
+      <c r="AI424" s="49"/>
     </row>
     <row r="425">
-      <c r="AH425" s="44"/>
+      <c r="AH425" s="48"/>
+      <c r="AI425" s="49"/>
     </row>
     <row r="426">
-      <c r="AH426" s="44"/>
+      <c r="AH426" s="48"/>
+      <c r="AI426" s="49"/>
     </row>
     <row r="427">
-      <c r="AH427" s="44"/>
+      <c r="AH427" s="48"/>
+      <c r="AI427" s="49"/>
     </row>
     <row r="428">
-      <c r="AH428" s="44"/>
+      <c r="AH428" s="48"/>
+      <c r="AI428" s="49"/>
     </row>
     <row r="429">
-      <c r="AH429" s="44"/>
+      <c r="AH429" s="48"/>
+      <c r="AI429" s="49"/>
     </row>
     <row r="430">
-      <c r="AH430" s="44"/>
+      <c r="AH430" s="48"/>
+      <c r="AI430" s="49"/>
     </row>
     <row r="431">
-      <c r="AH431" s="44"/>
+      <c r="AH431" s="48"/>
+      <c r="AI431" s="49"/>
     </row>
     <row r="432">
-      <c r="AH432" s="44"/>
+      <c r="AH432" s="48"/>
+      <c r="AI432" s="49"/>
     </row>
     <row r="433">
-      <c r="AH433" s="44"/>
+      <c r="AH433" s="48"/>
+      <c r="AI433" s="49"/>
     </row>
     <row r="434">
-      <c r="AH434" s="44"/>
+      <c r="AH434" s="48"/>
+      <c r="AI434" s="49"/>
     </row>
     <row r="435">
-      <c r="AH435" s="44"/>
+      <c r="AH435" s="48"/>
+      <c r="AI435" s="49"/>
     </row>
     <row r="436">
-      <c r="AH436" s="44"/>
+      <c r="AH436" s="48"/>
+      <c r="AI436" s="49"/>
     </row>
     <row r="437">
-      <c r="AH437" s="44"/>
+      <c r="AH437" s="48"/>
+      <c r="AI437" s="49"/>
     </row>
     <row r="438">
-      <c r="AH438" s="44"/>
+      <c r="AH438" s="48"/>
+      <c r="AI438" s="49"/>
     </row>
     <row r="439">
-      <c r="AH439" s="44"/>
+      <c r="AH439" s="48"/>
+      <c r="AI439" s="49"/>
     </row>
     <row r="440">
-      <c r="AH440" s="44"/>
+      <c r="AH440" s="48"/>
+      <c r="AI440" s="49"/>
     </row>
     <row r="441">
-      <c r="AH441" s="44"/>
+      <c r="AH441" s="48"/>
+      <c r="AI441" s="49"/>
     </row>
     <row r="442">
-      <c r="AH442" s="44"/>
+      <c r="AH442" s="48"/>
+      <c r="AI442" s="49"/>
     </row>
     <row r="443">
-      <c r="AH443" s="44"/>
+      <c r="AH443" s="48"/>
+      <c r="AI443" s="49"/>
     </row>
     <row r="444">
-      <c r="AH444" s="44"/>
+      <c r="AH444" s="48"/>
+      <c r="AI444" s="49"/>
     </row>
     <row r="445">
-      <c r="AH445" s="44"/>
+      <c r="AH445" s="48"/>
+      <c r="AI445" s="49"/>
     </row>
     <row r="446">
-      <c r="AH446" s="44"/>
+      <c r="AH446" s="48"/>
+      <c r="AI446" s="49"/>
     </row>
     <row r="447">
-      <c r="AH447" s="44"/>
+      <c r="AH447" s="48"/>
+      <c r="AI447" s="49"/>
     </row>
     <row r="448">
-      <c r="AH448" s="44"/>
+      <c r="AH448" s="48"/>
+      <c r="AI448" s="49"/>
     </row>
     <row r="449">
-      <c r="AH449" s="44"/>
+      <c r="AH449" s="48"/>
+      <c r="AI449" s="49"/>
     </row>
     <row r="450">
-      <c r="AH450" s="44"/>
+      <c r="AH450" s="48"/>
+      <c r="AI450" s="49"/>
     </row>
     <row r="451">
-      <c r="AH451" s="44"/>
+      <c r="AH451" s="48"/>
+      <c r="AI451" s="49"/>
     </row>
     <row r="452">
-      <c r="AH452" s="44"/>
+      <c r="AH452" s="48"/>
+      <c r="AI452" s="49"/>
     </row>
     <row r="453">
-      <c r="AH453" s="44"/>
+      <c r="AH453" s="48"/>
+      <c r="AI453" s="49"/>
     </row>
     <row r="454">
-      <c r="AH454" s="44"/>
+      <c r="AH454" s="48"/>
+      <c r="AI454" s="49"/>
     </row>
     <row r="455">
-      <c r="AH455" s="44"/>
+      <c r="AH455" s="48"/>
+      <c r="AI455" s="49"/>
     </row>
     <row r="456">
-      <c r="AH456" s="44"/>
+      <c r="AH456" s="48"/>
+      <c r="AI456" s="49"/>
     </row>
     <row r="457">
-      <c r="AH457" s="44"/>
+      <c r="AH457" s="48"/>
+      <c r="AI457" s="49"/>
     </row>
     <row r="458">
-      <c r="AH458" s="44"/>
+      <c r="AH458" s="48"/>
+      <c r="AI458" s="49"/>
     </row>
     <row r="459">
-      <c r="AH459" s="44"/>
+      <c r="AH459" s="48"/>
+      <c r="AI459" s="49"/>
     </row>
     <row r="460">
-      <c r="AH460" s="44"/>
+      <c r="AH460" s="48"/>
+      <c r="AI460" s="49"/>
     </row>
     <row r="461">
-      <c r="AH461" s="44"/>
+      <c r="AH461" s="48"/>
+      <c r="AI461" s="49"/>
     </row>
     <row r="462">
-      <c r="AH462" s="44"/>
+      <c r="AH462" s="48"/>
+      <c r="AI462" s="49"/>
     </row>
     <row r="463">
-      <c r="AH463" s="44"/>
+      <c r="AH463" s="48"/>
+      <c r="AI463" s="49"/>
     </row>
     <row r="464">
-      <c r="AH464" s="44"/>
+      <c r="AH464" s="48"/>
+      <c r="AI464" s="49"/>
     </row>
     <row r="465">
-      <c r="AH465" s="44"/>
+      <c r="AH465" s="48"/>
+      <c r="AI465" s="49"/>
     </row>
     <row r="466">
-      <c r="AH466" s="44"/>
+      <c r="AH466" s="48"/>
+      <c r="AI466" s="49"/>
     </row>
     <row r="467">
-      <c r="AH467" s="44"/>
+      <c r="AH467" s="48"/>
+      <c r="AI467" s="49"/>
     </row>
     <row r="468">
-      <c r="AH468" s="44"/>
+      <c r="AH468" s="48"/>
+      <c r="AI468" s="49"/>
     </row>
     <row r="469">
-      <c r="AH469" s="44"/>
+      <c r="AH469" s="48"/>
+      <c r="AI469" s="49"/>
     </row>
     <row r="470">
-      <c r="AH470" s="44"/>
+      <c r="AH470" s="48"/>
+      <c r="AI470" s="49"/>
     </row>
     <row r="471">
-      <c r="AH471" s="44"/>
+      <c r="AH471" s="48"/>
+      <c r="AI471" s="49"/>
     </row>
     <row r="472">
-      <c r="AH472" s="44"/>
+      <c r="AH472" s="48"/>
+      <c r="AI472" s="49"/>
     </row>
     <row r="473">
-      <c r="AH473" s="44"/>
+      <c r="AH473" s="48"/>
+      <c r="AI473" s="49"/>
     </row>
     <row r="474">
-      <c r="AH474" s="44"/>
+      <c r="AH474" s="48"/>
+      <c r="AI474" s="49"/>
     </row>
     <row r="475">
-      <c r="AH475" s="44"/>
+      <c r="AH475" s="48"/>
+      <c r="AI475" s="49"/>
     </row>
     <row r="476">
-      <c r="AH476" s="44"/>
+      <c r="AH476" s="48"/>
+      <c r="AI476" s="49"/>
     </row>
     <row r="477">
-      <c r="AH477" s="44"/>
+      <c r="AH477" s="48"/>
+      <c r="AI477" s="49"/>
     </row>
     <row r="478">
-      <c r="AH478" s="44"/>
+      <c r="AH478" s="48"/>
+      <c r="AI478" s="49"/>
     </row>
     <row r="479">
-      <c r="AH479" s="44"/>
+      <c r="AH479" s="48"/>
+      <c r="AI479" s="49"/>
     </row>
     <row r="480">
-      <c r="AH480" s="44"/>
+      <c r="AH480" s="48"/>
+      <c r="AI480" s="49"/>
     </row>
     <row r="481">
-      <c r="AH481" s="44"/>
+      <c r="AH481" s="48"/>
+      <c r="AI481" s="49"/>
     </row>
     <row r="482">
-      <c r="AH482" s="44"/>
+      <c r="AH482" s="48"/>
+      <c r="AI482" s="49"/>
     </row>
     <row r="483">
-      <c r="AH483" s="44"/>
+      <c r="AH483" s="48"/>
+      <c r="AI483" s="49"/>
     </row>
     <row r="484">
-      <c r="AH484" s="44"/>
+      <c r="AH484" s="48"/>
+      <c r="AI484" s="49"/>
     </row>
     <row r="485">
-      <c r="AH485" s="44"/>
+      <c r="AH485" s="48"/>
+      <c r="AI485" s="49"/>
     </row>
     <row r="486">
-      <c r="AH486" s="44"/>
+      <c r="AH486" s="48"/>
+      <c r="AI486" s="49"/>
     </row>
     <row r="487">
-      <c r="AH487" s="44"/>
+      <c r="AH487" s="48"/>
+      <c r="AI487" s="49"/>
     </row>
     <row r="488">
-      <c r="AH488" s="44"/>
+      <c r="AH488" s="48"/>
+      <c r="AI488" s="49"/>
     </row>
     <row r="489">
-      <c r="AH489" s="44"/>
+      <c r="AH489" s="48"/>
+      <c r="AI489" s="49"/>
     </row>
     <row r="490">
-      <c r="AH490" s="44"/>
+      <c r="AH490" s="48"/>
+      <c r="AI490" s="49"/>
     </row>
     <row r="491">
-      <c r="AH491" s="44"/>
+      <c r="AH491" s="48"/>
+      <c r="AI491" s="49"/>
     </row>
     <row r="492">
-      <c r="AH492" s="44"/>
+      <c r="AH492" s="48"/>
+      <c r="AI492" s="49"/>
     </row>
     <row r="493">
-      <c r="AH493" s="44"/>
+      <c r="AH493" s="48"/>
+      <c r="AI493" s="49"/>
     </row>
     <row r="494">
-      <c r="AH494" s="44"/>
+      <c r="AH494" s="48"/>
+      <c r="AI494" s="49"/>
     </row>
     <row r="495">
-      <c r="AH495" s="44"/>
+      <c r="AH495" s="48"/>
+      <c r="AI495" s="49"/>
     </row>
     <row r="496">
-      <c r="AH496" s="44"/>
+      <c r="AH496" s="48"/>
+      <c r="AI496" s="49"/>
     </row>
     <row r="497">
-      <c r="AH497" s="44"/>
+      <c r="AH497" s="48"/>
+      <c r="AI497" s="49"/>
     </row>
     <row r="498">
-      <c r="AH498" s="44"/>
+      <c r="AH498" s="48"/>
+      <c r="AI498" s="49"/>
     </row>
     <row r="499">
-      <c r="AH499" s="44"/>
+      <c r="AH499" s="48"/>
+      <c r="AI499" s="49"/>
     </row>
     <row r="500">
-      <c r="AH500" s="44"/>
+      <c r="AH500" s="48"/>
+      <c r="AI500" s="49"/>
     </row>
     <row r="501">
-      <c r="AH501" s="44"/>
+      <c r="AH501" s="48"/>
+      <c r="AI501" s="49"/>
     </row>
     <row r="502">
-      <c r="AH502" s="44"/>
+      <c r="AH502" s="48"/>
+      <c r="AI502" s="49"/>
     </row>
     <row r="503">
-      <c r="AH503" s="44"/>
+      <c r="AH503" s="48"/>
+      <c r="AI503" s="49"/>
     </row>
     <row r="504">
-      <c r="AH504" s="44"/>
+      <c r="AH504" s="48"/>
+      <c r="AI504" s="49"/>
     </row>
     <row r="505">
-      <c r="AH505" s="44"/>
+      <c r="AH505" s="48"/>
+      <c r="AI505" s="49"/>
     </row>
     <row r="506">
-      <c r="AH506" s="44"/>
+      <c r="AH506" s="48"/>
+      <c r="AI506" s="49"/>
     </row>
     <row r="507">
-      <c r="AH507" s="44"/>
+      <c r="AH507" s="48"/>
+      <c r="AI507" s="49"/>
     </row>
     <row r="508">
-      <c r="AH508" s="44"/>
+      <c r="AH508" s="48"/>
+      <c r="AI508" s="49"/>
     </row>
     <row r="509">
-      <c r="AH509" s="44"/>
+      <c r="AH509" s="48"/>
+      <c r="AI509" s="49"/>
     </row>
     <row r="510">
-      <c r="AH510" s="44"/>
+      <c r="AH510" s="48"/>
+      <c r="AI510" s="49"/>
     </row>
     <row r="511">
-      <c r="AH511" s="44"/>
+      <c r="AH511" s="48"/>
+      <c r="AI511" s="49"/>
     </row>
     <row r="512">
-      <c r="AH512" s="44"/>
+      <c r="AH512" s="48"/>
+      <c r="AI512" s="49"/>
     </row>
     <row r="513">
-      <c r="AH513" s="44"/>
+      <c r="AH513" s="48"/>
+      <c r="AI513" s="49"/>
     </row>
     <row r="514">
-      <c r="AH514" s="44"/>
+      <c r="AH514" s="48"/>
+      <c r="AI514" s="49"/>
     </row>
     <row r="515">
-      <c r="AH515" s="44"/>
+      <c r="AH515" s="48"/>
+      <c r="AI515" s="49"/>
     </row>
     <row r="516">
-      <c r="AH516" s="44"/>
+      <c r="AH516" s="48"/>
+      <c r="AI516" s="49"/>
     </row>
     <row r="517">
-      <c r="AH517" s="44"/>
+      <c r="AH517" s="48"/>
+      <c r="AI517" s="49"/>
     </row>
     <row r="518">
-      <c r="AH518" s="44"/>
+      <c r="AH518" s="48"/>
+      <c r="AI518" s="49"/>
     </row>
     <row r="519">
-      <c r="AH519" s="44"/>
+      <c r="AH519" s="48"/>
+      <c r="AI519" s="49"/>
     </row>
     <row r="520">
-      <c r="AH520" s="44"/>
+      <c r="AH520" s="48"/>
+      <c r="AI520" s="49"/>
     </row>
     <row r="521">
-      <c r="AH521" s="44"/>
+      <c r="AH521" s="48"/>
+      <c r="AI521" s="49"/>
     </row>
     <row r="522">
-      <c r="AH522" s="44"/>
+      <c r="AH522" s="48"/>
+      <c r="AI522" s="49"/>
     </row>
     <row r="523">
-      <c r="AH523" s="44"/>
+      <c r="AH523" s="48"/>
+      <c r="AI523" s="49"/>
     </row>
     <row r="524">
-      <c r="AH524" s="44"/>
+      <c r="AH524" s="48"/>
+      <c r="AI524" s="49"/>
     </row>
     <row r="525">
-      <c r="AH525" s="44"/>
+      <c r="AH525" s="48"/>
+      <c r="AI525" s="49"/>
     </row>
     <row r="526">
-      <c r="AH526" s="44"/>
+      <c r="AH526" s="48"/>
+      <c r="AI526" s="49"/>
     </row>
     <row r="527">
-      <c r="AH527" s="44"/>
+      <c r="AH527" s="48"/>
+      <c r="AI527" s="49"/>
     </row>
     <row r="528">
-      <c r="AH528" s="44"/>
+      <c r="AH528" s="48"/>
+      <c r="AI528" s="49"/>
     </row>
     <row r="529">
-      <c r="AH529" s="44"/>
+      <c r="AH529" s="48"/>
+      <c r="AI529" s="49"/>
     </row>
     <row r="530">
-      <c r="AH530" s="44"/>
+      <c r="AH530" s="48"/>
+      <c r="AI530" s="49"/>
     </row>
     <row r="531">
-      <c r="AH531" s="44"/>
+      <c r="AH531" s="48"/>
+      <c r="AI531" s="49"/>
     </row>
     <row r="532">
-      <c r="AH532" s="44"/>
+      <c r="AH532" s="48"/>
+      <c r="AI532" s="49"/>
     </row>
     <row r="533">
-      <c r="AH533" s="44"/>
+      <c r="AH533" s="48"/>
+      <c r="AI533" s="49"/>
     </row>
     <row r="534">
-      <c r="AH534" s="44"/>
+      <c r="AH534" s="48"/>
+      <c r="AI534" s="49"/>
     </row>
     <row r="535">
-      <c r="AH535" s="44"/>
+      <c r="AH535" s="48"/>
+      <c r="AI535" s="49"/>
     </row>
     <row r="536">
-      <c r="AH536" s="44"/>
+      <c r="AH536" s="48"/>
+      <c r="AI536" s="49"/>
     </row>
     <row r="537">
-      <c r="AH537" s="44"/>
+      <c r="AH537" s="48"/>
+      <c r="AI537" s="49"/>
     </row>
     <row r="538">
-      <c r="AH538" s="44"/>
+      <c r="AH538" s="48"/>
+      <c r="AI538" s="49"/>
     </row>
     <row r="539">
-      <c r="AH539" s="44"/>
+      <c r="AH539" s="48"/>
+      <c r="AI539" s="49"/>
     </row>
     <row r="540">
-      <c r="AH540" s="44"/>
+      <c r="AH540" s="48"/>
+      <c r="AI540" s="49"/>
     </row>
     <row r="541">
-      <c r="AH541" s="44"/>
+      <c r="AH541" s="48"/>
+      <c r="AI541" s="49"/>
     </row>
     <row r="542">
-      <c r="AH542" s="44"/>
+      <c r="AH542" s="48"/>
+      <c r="AI542" s="49"/>
     </row>
     <row r="543">
-      <c r="AH543" s="44"/>
+      <c r="AH543" s="48"/>
+      <c r="AI543" s="49"/>
     </row>
     <row r="544">
-      <c r="AH544" s="44"/>
+      <c r="AH544" s="48"/>
+      <c r="AI544" s="49"/>
     </row>
     <row r="545">
-      <c r="AH545" s="44"/>
+      <c r="AH545" s="48"/>
+      <c r="AI545" s="49"/>
     </row>
     <row r="546">
-      <c r="AH546" s="44"/>
+      <c r="AH546" s="48"/>
+      <c r="AI546" s="49"/>
     </row>
     <row r="547">
-      <c r="AH547" s="44"/>
+      <c r="AH547" s="48"/>
+      <c r="AI547" s="49"/>
     </row>
     <row r="548">
-      <c r="AH548" s="44"/>
+      <c r="AH548" s="48"/>
+      <c r="AI548" s="49"/>
     </row>
     <row r="549">
-      <c r="AH549" s="44"/>
+      <c r="AH549" s="48"/>
+      <c r="AI549" s="49"/>
     </row>
     <row r="550">
-      <c r="AH550" s="44"/>
+      <c r="AH550" s="48"/>
+      <c r="AI550" s="49"/>
     </row>
     <row r="551">
-      <c r="AH551" s="44"/>
+      <c r="AH551" s="48"/>
+      <c r="AI551" s="49"/>
     </row>
     <row r="552">
-      <c r="AH552" s="44"/>
+      <c r="AH552" s="48"/>
+      <c r="AI552" s="49"/>
     </row>
     <row r="553">
-      <c r="AH553" s="44"/>
+      <c r="AH553" s="48"/>
+      <c r="AI553" s="49"/>
     </row>
     <row r="554">
-      <c r="AH554" s="44"/>
+      <c r="AH554" s="48"/>
+      <c r="AI554" s="49"/>
     </row>
     <row r="555">
-      <c r="AH555" s="44"/>
+      <c r="AH555" s="48"/>
+      <c r="AI555" s="49"/>
     </row>
     <row r="556">
-      <c r="AH556" s="44"/>
+      <c r="AH556" s="48"/>
+      <c r="AI556" s="49"/>
     </row>
     <row r="557">
-      <c r="AH557" s="44"/>
+      <c r="AH557" s="48"/>
+      <c r="AI557" s="49"/>
     </row>
     <row r="558">
-      <c r="AH558" s="44"/>
+      <c r="AH558" s="48"/>
+      <c r="AI558" s="49"/>
     </row>
     <row r="559">
-      <c r="AH559" s="44"/>
+      <c r="AH559" s="48"/>
+      <c r="AI559" s="49"/>
     </row>
     <row r="560">
-      <c r="AH560" s="44"/>
+      <c r="AH560" s="48"/>
+      <c r="AI560" s="49"/>
     </row>
     <row r="561">
-      <c r="AH561" s="44"/>
+      <c r="AH561" s="48"/>
+      <c r="AI561" s="49"/>
     </row>
     <row r="562">
-      <c r="AH562" s="44"/>
+      <c r="AH562" s="48"/>
+      <c r="AI562" s="49"/>
     </row>
     <row r="563">
-      <c r="AH563" s="44"/>
+      <c r="AH563" s="48"/>
+      <c r="AI563" s="49"/>
     </row>
     <row r="564">
-      <c r="AH564" s="44"/>
+      <c r="AH564" s="48"/>
+      <c r="AI564" s="49"/>
     </row>
     <row r="565">
-      <c r="AH565" s="44"/>
+      <c r="AH565" s="48"/>
+      <c r="AI565" s="49"/>
     </row>
     <row r="566">
-      <c r="AH566" s="44"/>
+      <c r="AH566" s="48"/>
+      <c r="AI566" s="49"/>
     </row>
     <row r="567">
-      <c r="AH567" s="44"/>
+      <c r="AH567" s="48"/>
+      <c r="AI567" s="49"/>
     </row>
     <row r="568">
-      <c r="AH568" s="44"/>
+      <c r="AH568" s="48"/>
+      <c r="AI568" s="49"/>
     </row>
     <row r="569">
-      <c r="AH569" s="44"/>
+      <c r="AH569" s="48"/>
+      <c r="AI569" s="49"/>
     </row>
     <row r="570">
-      <c r="AH570" s="44"/>
+      <c r="AH570" s="48"/>
+      <c r="AI570" s="49"/>
     </row>
     <row r="571">
-      <c r="AH571" s="44"/>
+      <c r="AH571" s="48"/>
+      <c r="AI571" s="49"/>
     </row>
     <row r="572">
-      <c r="AH572" s="44"/>
+      <c r="AH572" s="48"/>
+      <c r="AI572" s="49"/>
     </row>
     <row r="573">
-      <c r="AH573" s="44"/>
+      <c r="AH573" s="48"/>
+      <c r="AI573" s="49"/>
     </row>
     <row r="574">
-      <c r="AH574" s="44"/>
+      <c r="AH574" s="48"/>
+      <c r="AI574" s="49"/>
     </row>
     <row r="575">
-      <c r="AH575" s="44"/>
+      <c r="AH575" s="48"/>
+      <c r="AI575" s="49"/>
     </row>
     <row r="576">
-      <c r="AH576" s="44"/>
+      <c r="AH576" s="48"/>
+      <c r="AI576" s="49"/>
     </row>
     <row r="577">
-      <c r="AH577" s="44"/>
+      <c r="AH577" s="48"/>
+      <c r="AI577" s="49"/>
     </row>
     <row r="578">
-      <c r="AH578" s="44"/>
+      <c r="AH578" s="48"/>
+      <c r="AI578" s="49"/>
     </row>
     <row r="579">
-      <c r="AH579" s="44"/>
+      <c r="AH579" s="48"/>
+      <c r="AI579" s="49"/>
     </row>
     <row r="580">
-      <c r="AH580" s="44"/>
+      <c r="AH580" s="48"/>
+      <c r="AI580" s="49"/>
     </row>
     <row r="581">
-      <c r="AH581" s="44"/>
+      <c r="AH581" s="48"/>
+      <c r="AI581" s="49"/>
     </row>
     <row r="582">
-      <c r="AH582" s="44"/>
+      <c r="AH582" s="48"/>
+      <c r="AI582" s="49"/>
     </row>
     <row r="583">
-      <c r="AH583" s="44"/>
+      <c r="AH583" s="48"/>
+      <c r="AI583" s="49"/>
     </row>
     <row r="584">
-      <c r="AH584" s="44"/>
+      <c r="AH584" s="48"/>
+      <c r="AI584" s="49"/>
     </row>
     <row r="585">
-      <c r="AH585" s="44"/>
+      <c r="AH585" s="48"/>
+      <c r="AI585" s="49"/>
     </row>
     <row r="586">
-      <c r="AH586" s="44"/>
+      <c r="AH586" s="48"/>
+      <c r="AI586" s="49"/>
     </row>
     <row r="587">
-      <c r="AH587" s="44"/>
+      <c r="AH587" s="48"/>
+      <c r="AI587" s="49"/>
     </row>
     <row r="588">
-      <c r="AH588" s="44"/>
+      <c r="AH588" s="48"/>
+      <c r="AI588" s="49"/>
     </row>
     <row r="589">
-      <c r="AH589" s="44"/>
+      <c r="AH589" s="48"/>
+      <c r="AI589" s="49"/>
     </row>
     <row r="590">
-      <c r="AH590" s="44"/>
+      <c r="AH590" s="48"/>
+      <c r="AI590" s="49"/>
     </row>
     <row r="591">
-      <c r="AH591" s="44"/>
+      <c r="AH591" s="48"/>
+      <c r="AI591" s="49"/>
     </row>
     <row r="592">
-      <c r="AH592" s="44"/>
+      <c r="AH592" s="48"/>
+      <c r="AI592" s="49"/>
     </row>
     <row r="593">
-      <c r="AH593" s="44"/>
+      <c r="AH593" s="48"/>
+      <c r="AI593" s="49"/>
     </row>
     <row r="594">
-      <c r="AH594" s="44"/>
+      <c r="AH594" s="48"/>
+      <c r="AI594" s="49"/>
     </row>
     <row r="595">
-      <c r="AH595" s="44"/>
+      <c r="AH595" s="48"/>
+      <c r="AI595" s="49"/>
     </row>
     <row r="596">
-      <c r="AH596" s="44"/>
+      <c r="AH596" s="48"/>
+      <c r="AI596" s="49"/>
     </row>
     <row r="597">
-      <c r="AH597" s="44"/>
+      <c r="AH597" s="48"/>
+      <c r="AI597" s="49"/>
     </row>
     <row r="598">
-      <c r="AH598" s="44"/>
+      <c r="AH598" s="48"/>
+      <c r="AI598" s="49"/>
     </row>
     <row r="599">
-      <c r="AH599" s="44"/>
+      <c r="AH599" s="48"/>
+      <c r="AI599" s="49"/>
     </row>
     <row r="600">
-      <c r="AH600" s="44"/>
+      <c r="AH600" s="48"/>
+      <c r="AI600" s="49"/>
     </row>
     <row r="601">
-      <c r="AH601" s="44"/>
+      <c r="AH601" s="48"/>
+      <c r="AI601" s="49"/>
     </row>
     <row r="602">
-      <c r="AH602" s="44"/>
+      <c r="AH602" s="48"/>
+      <c r="AI602" s="49"/>
     </row>
     <row r="603">
-      <c r="AH603" s="44"/>
+      <c r="AH603" s="48"/>
+      <c r="AI603" s="49"/>
     </row>
     <row r="604">
-      <c r="AH604" s="44"/>
+      <c r="AH604" s="48"/>
+      <c r="AI604" s="49"/>
     </row>
     <row r="605">
-      <c r="AH605" s="44"/>
+      <c r="AH605" s="48"/>
+      <c r="AI605" s="49"/>
     </row>
     <row r="606">
-      <c r="AH606" s="44"/>
+      <c r="AH606" s="48"/>
+      <c r="AI606" s="49"/>
     </row>
     <row r="607">
-      <c r="AH607" s="44"/>
+      <c r="AH607" s="48"/>
+      <c r="AI607" s="49"/>
     </row>
     <row r="608">
-      <c r="AH608" s="44"/>
+      <c r="AH608" s="48"/>
+      <c r="AI608" s="49"/>
     </row>
     <row r="609">
-      <c r="AH609" s="44"/>
+      <c r="AH609" s="48"/>
+      <c r="AI609" s="49"/>
     </row>
     <row r="610">
-      <c r="AH610" s="44"/>
+      <c r="AH610" s="48"/>
+      <c r="AI610" s="49"/>
     </row>
     <row r="611">
-      <c r="AH611" s="44"/>
+      <c r="AH611" s="48"/>
+      <c r="AI611" s="49"/>
     </row>
     <row r="612">
-      <c r="AH612" s="44"/>
+      <c r="AH612" s="48"/>
+      <c r="AI612" s="49"/>
     </row>
     <row r="613">
-      <c r="AH613" s="44"/>
+      <c r="AH613" s="48"/>
+      <c r="AI613" s="49"/>
     </row>
     <row r="614">
-      <c r="AH614" s="44"/>
+      <c r="AH614" s="48"/>
+      <c r="AI614" s="49"/>
     </row>
     <row r="615">
-      <c r="AH615" s="44"/>
+      <c r="AH615" s="48"/>
+      <c r="AI615" s="49"/>
     </row>
     <row r="616">
-      <c r="AH616" s="44"/>
+      <c r="AH616" s="48"/>
+      <c r="AI616" s="49"/>
     </row>
     <row r="617">
-      <c r="AH617" s="44"/>
+      <c r="AH617" s="48"/>
+      <c r="AI617" s="49"/>
     </row>
     <row r="618">
-      <c r="AH618" s="44"/>
+      <c r="AH618" s="48"/>
+      <c r="AI618" s="49"/>
     </row>
     <row r="619">
-      <c r="AH619" s="44"/>
+      <c r="AH619" s="48"/>
+      <c r="AI619" s="49"/>
     </row>
     <row r="620">
-      <c r="AH620" s="44"/>
+      <c r="AH620" s="48"/>
+      <c r="AI620" s="49"/>
     </row>
     <row r="621">
-      <c r="AH621" s="44"/>
+      <c r="AH621" s="48"/>
+      <c r="AI621" s="49"/>
     </row>
     <row r="622">
-      <c r="AH622" s="44"/>
+      <c r="AH622" s="48"/>
+      <c r="AI622" s="49"/>
     </row>
     <row r="623">
-      <c r="AH623" s="44"/>
+      <c r="AH623" s="48"/>
+      <c r="AI623" s="49"/>
     </row>
     <row r="624">
-      <c r="AH624" s="44"/>
+      <c r="AH624" s="48"/>
+      <c r="AI624" s="49"/>
     </row>
     <row r="625">
-      <c r="AH625" s="44"/>
+      <c r="AH625" s="48"/>
+      <c r="AI625" s="49"/>
     </row>
     <row r="626">
-      <c r="AH626" s="44"/>
+      <c r="AH626" s="48"/>
+      <c r="AI626" s="49"/>
     </row>
     <row r="627">
-      <c r="AH627" s="44"/>
+      <c r="AH627" s="48"/>
+      <c r="AI627" s="49"/>
     </row>
     <row r="628">
-      <c r="AH628" s="44"/>
+      <c r="AH628" s="48"/>
+      <c r="AI628" s="49"/>
     </row>
     <row r="629">
-      <c r="AH629" s="44"/>
+      <c r="AH629" s="48"/>
+      <c r="AI629" s="49"/>
     </row>
     <row r="630">
-      <c r="AH630" s="44"/>
+      <c r="AH630" s="48"/>
+      <c r="AI630" s="49"/>
     </row>
     <row r="631">
-      <c r="AH631" s="44"/>
+      <c r="AH631" s="48"/>
+      <c r="AI631" s="49"/>
     </row>
     <row r="632">
-      <c r="AH632" s="44"/>
+      <c r="AH632" s="48"/>
+      <c r="AI632" s="49"/>
     </row>
     <row r="633">
-      <c r="AH633" s="44"/>
+      <c r="AH633" s="48"/>
+      <c r="AI633" s="49"/>
     </row>
     <row r="634">
-      <c r="AH634" s="44"/>
+      <c r="AH634" s="48"/>
+      <c r="AI634" s="49"/>
     </row>
     <row r="635">
-      <c r="AH635" s="44"/>
+      <c r="AH635" s="48"/>
+      <c r="AI635" s="49"/>
     </row>
     <row r="636">
-      <c r="AH636" s="44"/>
+      <c r="AH636" s="48"/>
+      <c r="AI636" s="49"/>
     </row>
     <row r="637">
-      <c r="AH637" s="44"/>
+      <c r="AH637" s="48"/>
+      <c r="AI637" s="49"/>
     </row>
     <row r="638">
-      <c r="AH638" s="44"/>
+      <c r="AH638" s="48"/>
+      <c r="AI638" s="49"/>
     </row>
     <row r="639">
-      <c r="AH639" s="44"/>
+      <c r="AH639" s="48"/>
+      <c r="AI639" s="49"/>
     </row>
     <row r="640">
-      <c r="AH640" s="44"/>
+      <c r="AH640" s="48"/>
+      <c r="AI640" s="49"/>
     </row>
     <row r="641">
-      <c r="AH641" s="44"/>
+      <c r="AH641" s="48"/>
+      <c r="AI641" s="49"/>
     </row>
     <row r="642">
-      <c r="AH642" s="44"/>
+      <c r="AH642" s="48"/>
+      <c r="AI642" s="49"/>
     </row>
     <row r="643">
-      <c r="AH643" s="44"/>
+      <c r="AH643" s="48"/>
+      <c r="AI643" s="49"/>
     </row>
     <row r="644">
-      <c r="AH644" s="44"/>
+      <c r="AH644" s="48"/>
+      <c r="AI644" s="49"/>
     </row>
     <row r="645">
-      <c r="AH645" s="44"/>
+      <c r="AH645" s="48"/>
+      <c r="AI645" s="49"/>
     </row>
     <row r="646">
-      <c r="AH646" s="44"/>
+      <c r="AH646" s="48"/>
+      <c r="AI646" s="49"/>
     </row>
     <row r="647">
-      <c r="AH647" s="44"/>
+      <c r="AH647" s="48"/>
+      <c r="AI647" s="49"/>
     </row>
     <row r="648">
-      <c r="AH648" s="44"/>
+      <c r="AH648" s="48"/>
+      <c r="AI648" s="49"/>
     </row>
     <row r="649">
-      <c r="AH649" s="44"/>
+      <c r="AH649" s="48"/>
+      <c r="AI649" s="49"/>
     </row>
     <row r="650">
-      <c r="AH650" s="44"/>
+      <c r="AH650" s="48"/>
+      <c r="AI650" s="49"/>
     </row>
     <row r="651">
-      <c r="AH651" s="44"/>
+      <c r="AH651" s="48"/>
+      <c r="AI651" s="49"/>
     </row>
     <row r="652">
-      <c r="AH652" s="44"/>
+      <c r="AH652" s="48"/>
+      <c r="AI652" s="49"/>
     </row>
     <row r="653">
-      <c r="AH653" s="44"/>
+      <c r="AH653" s="48"/>
+      <c r="AI653" s="49"/>
     </row>
     <row r="654">
-      <c r="AH654" s="44"/>
+      <c r="AH654" s="48"/>
+      <c r="AI654" s="49"/>
     </row>
     <row r="655">
-      <c r="AH655" s="44"/>
+      <c r="AH655" s="48"/>
+      <c r="AI655" s="49"/>
     </row>
     <row r="656">
-      <c r="AH656" s="44"/>
+      <c r="AH656" s="48"/>
+      <c r="AI656" s="49"/>
     </row>
     <row r="657">
-      <c r="AH657" s="44"/>
+      <c r="AH657" s="48"/>
+      <c r="AI657" s="49"/>
     </row>
     <row r="658">
-      <c r="AH658" s="44"/>
+      <c r="AH658" s="48"/>
+      <c r="AI658" s="49"/>
     </row>
     <row r="659">
-      <c r="AH659" s="44"/>
+      <c r="AH659" s="48"/>
+      <c r="AI659" s="49"/>
     </row>
     <row r="660">
-      <c r="AH660" s="44"/>
+      <c r="AH660" s="48"/>
+      <c r="AI660" s="49"/>
     </row>
     <row r="661">
-      <c r="AH661" s="44"/>
+      <c r="AH661" s="48"/>
+      <c r="AI661" s="49"/>
     </row>
     <row r="662">
-      <c r="AH662" s="44"/>
+      <c r="AH662" s="48"/>
+      <c r="AI662" s="49"/>
     </row>
     <row r="663">
-      <c r="AH663" s="44"/>
+      <c r="AH663" s="48"/>
+      <c r="AI663" s="49"/>
     </row>
     <row r="664">
-      <c r="AH664" s="44"/>
+      <c r="AH664" s="48"/>
+      <c r="AI664" s="49"/>
     </row>
     <row r="665">
-      <c r="AH665" s="44"/>
+      <c r="AH665" s="48"/>
+      <c r="AI665" s="49"/>
     </row>
     <row r="666">
-      <c r="AH666" s="44"/>
+      <c r="AH666" s="48"/>
+      <c r="AI666" s="49"/>
     </row>
     <row r="667">
-      <c r="AH667" s="44"/>
+      <c r="AH667" s="48"/>
+      <c r="AI667" s="49"/>
     </row>
     <row r="668">
-      <c r="AH668" s="44"/>
+      <c r="AH668" s="48"/>
+      <c r="AI668" s="49"/>
     </row>
     <row r="669">
-      <c r="AH669" s="44"/>
+      <c r="AH669" s="48"/>
+      <c r="AI669" s="49"/>
     </row>
     <row r="670">
-      <c r="AH670" s="44"/>
+      <c r="AH670" s="48"/>
+      <c r="AI670" s="49"/>
     </row>
     <row r="671">
-      <c r="AH671" s="44"/>
+      <c r="AH671" s="48"/>
+      <c r="AI671" s="49"/>
     </row>
     <row r="672">
-      <c r="AH672" s="44"/>
+      <c r="AH672" s="48"/>
+      <c r="AI672" s="49"/>
     </row>
     <row r="673">
-      <c r="AH673" s="44"/>
+      <c r="AH673" s="48"/>
+      <c r="AI673" s="49"/>
     </row>
     <row r="674">
-      <c r="AH674" s="44"/>
+      <c r="AH674" s="48"/>
+      <c r="AI674" s="49"/>
     </row>
     <row r="675">
-      <c r="AH675" s="44"/>
+      <c r="AH675" s="48"/>
+      <c r="AI675" s="49"/>
     </row>
     <row r="676">
-      <c r="AH676" s="44"/>
+      <c r="AH676" s="48"/>
+      <c r="AI676" s="49"/>
     </row>
     <row r="677">
-      <c r="AH677" s="44"/>
+      <c r="AH677" s="48"/>
+      <c r="AI677" s="49"/>
     </row>
     <row r="678">
-      <c r="AH678" s="44"/>
+      <c r="AH678" s="48"/>
+      <c r="AI678" s="49"/>
     </row>
     <row r="679">
-      <c r="AH679" s="44"/>
+      <c r="AH679" s="48"/>
+      <c r="AI679" s="49"/>
     </row>
     <row r="680">
-      <c r="AH680" s="44"/>
+      <c r="AH680" s="48"/>
+      <c r="AI680" s="49"/>
     </row>
     <row r="681">
-      <c r="AH681" s="44"/>
+      <c r="AH681" s="48"/>
+      <c r="AI681" s="49"/>
     </row>
     <row r="682">
-      <c r="AH682" s="44"/>
+      <c r="AH682" s="48"/>
+      <c r="AI682" s="49"/>
     </row>
     <row r="683">
-      <c r="AH683" s="44"/>
+      <c r="AH683" s="48"/>
+      <c r="AI683" s="49"/>
     </row>
     <row r="684">
-      <c r="AH684" s="44"/>
+      <c r="AH684" s="48"/>
+      <c r="AI684" s="49"/>
     </row>
     <row r="685">
-      <c r="AH685" s="44"/>
+      <c r="AH685" s="48"/>
+      <c r="AI685" s="49"/>
     </row>
     <row r="686">
-      <c r="AH686" s="44"/>
+      <c r="AH686" s="48"/>
+      <c r="AI686" s="49"/>
     </row>
     <row r="687">
-      <c r="AH687" s="44"/>
+      <c r="AH687" s="48"/>
+      <c r="AI687" s="49"/>
     </row>
     <row r="688">
-      <c r="AH688" s="44"/>
+      <c r="AH688" s="48"/>
+      <c r="AI688" s="49"/>
     </row>
     <row r="689">
-      <c r="AH689" s="44"/>
+      <c r="AH689" s="48"/>
+      <c r="AI689" s="49"/>
     </row>
     <row r="690">
-      <c r="AH690" s="44"/>
+      <c r="AH690" s="48"/>
+      <c r="AI690" s="49"/>
     </row>
     <row r="691">
-      <c r="AH691" s="44"/>
+      <c r="AH691" s="48"/>
+      <c r="AI691" s="49"/>
     </row>
     <row r="692">
-      <c r="AH692" s="44"/>
+      <c r="AH692" s="48"/>
+      <c r="AI692" s="49"/>
     </row>
     <row r="693">
-      <c r="AH693" s="44"/>
+      <c r="AH693" s="48"/>
+      <c r="AI693" s="49"/>
     </row>
     <row r="694">
-      <c r="AH694" s="44"/>
+      <c r="AH694" s="48"/>
+      <c r="AI694" s="49"/>
     </row>
     <row r="695">
-      <c r="AH695" s="44"/>
+      <c r="AH695" s="48"/>
+      <c r="AI695" s="49"/>
     </row>
     <row r="696">
-      <c r="AH696" s="44"/>
+      <c r="AH696" s="48"/>
+      <c r="AI696" s="49"/>
     </row>
     <row r="697">
-      <c r="AH697" s="44"/>
+      <c r="AH697" s="48"/>
+      <c r="AI697" s="49"/>
     </row>
     <row r="698">
-      <c r="AH698" s="44"/>
+      <c r="AH698" s="48"/>
+      <c r="AI698" s="49"/>
     </row>
     <row r="699">
-      <c r="AH699" s="44"/>
+      <c r="AH699" s="48"/>
+      <c r="AI699" s="49"/>
     </row>
     <row r="700">
-      <c r="AH700" s="44"/>
+      <c r="AH700" s="48"/>
+      <c r="AI700" s="49"/>
     </row>
     <row r="701">
-      <c r="AH701" s="44"/>
+      <c r="AH701" s="48"/>
+      <c r="AI701" s="49"/>
     </row>
     <row r="702">
-      <c r="AH702" s="44"/>
+      <c r="AH702" s="48"/>
+      <c r="AI702" s="49"/>
     </row>
     <row r="703">
-      <c r="AH703" s="44"/>
+      <c r="AH703" s="48"/>
+      <c r="AI703" s="49"/>
     </row>
     <row r="704">
-      <c r="AH704" s="44"/>
+      <c r="AH704" s="48"/>
+      <c r="AI704" s="49"/>
     </row>
     <row r="705">
-      <c r="AH705" s="44"/>
+      <c r="AH705" s="48"/>
+      <c r="AI705" s="49"/>
     </row>
     <row r="706">
-      <c r="AH706" s="44"/>
+      <c r="AH706" s="48"/>
+      <c r="AI706" s="49"/>
     </row>
     <row r="707">
-      <c r="AH707" s="44"/>
+      <c r="AH707" s="48"/>
+      <c r="AI707" s="49"/>
     </row>
     <row r="708">
-      <c r="AH708" s="44"/>
+      <c r="AH708" s="48"/>
+      <c r="AI708" s="49"/>
     </row>
     <row r="709">
-      <c r="AH709" s="44"/>
+      <c r="AH709" s="48"/>
+      <c r="AI709" s="49"/>
     </row>
     <row r="710">
-      <c r="AH710" s="44"/>
+      <c r="AH710" s="48"/>
+      <c r="AI710" s="49"/>
     </row>
     <row r="711">
-      <c r="AH711" s="44"/>
+      <c r="AH711" s="48"/>
+      <c r="AI711" s="49"/>
     </row>
     <row r="712">
-      <c r="AH712" s="44"/>
+      <c r="AH712" s="48"/>
+      <c r="AI712" s="49"/>
     </row>
     <row r="713">
-      <c r="AH713" s="44"/>
+      <c r="AH713" s="48"/>
+      <c r="AI713" s="49"/>
     </row>
     <row r="714">
-      <c r="AH714" s="44"/>
+      <c r="AH714" s="48"/>
+      <c r="AI714" s="49"/>
     </row>
     <row r="715">
-      <c r="AH715" s="44"/>
+      <c r="AH715" s="48"/>
+      <c r="AI715" s="49"/>
     </row>
     <row r="716">
-      <c r="AH716" s="44"/>
+      <c r="AH716" s="48"/>
+      <c r="AI716" s="49"/>
     </row>
     <row r="717">
-      <c r="AH717" s="44"/>
+      <c r="AH717" s="48"/>
+      <c r="AI717" s="49"/>
     </row>
     <row r="718">
-      <c r="AH718" s="44"/>
+      <c r="AH718" s="48"/>
+      <c r="AI718" s="49"/>
     </row>
     <row r="719">
-      <c r="AH719" s="44"/>
+      <c r="AH719" s="48"/>
+      <c r="AI719" s="49"/>
     </row>
     <row r="720">
-      <c r="AH720" s="44"/>
+      <c r="AH720" s="48"/>
+      <c r="AI720" s="49"/>
     </row>
     <row r="721">
-      <c r="AH721" s="44"/>
+      <c r="AH721" s="48"/>
+      <c r="AI721" s="49"/>
     </row>
     <row r="722">
-      <c r="AH722" s="44"/>
+      <c r="AH722" s="48"/>
+      <c r="AI722" s="49"/>
     </row>
     <row r="723">
-      <c r="AH723" s="44"/>
+      <c r="AH723" s="48"/>
+      <c r="AI723" s="49"/>
     </row>
     <row r="724">
-      <c r="AH724" s="44"/>
+      <c r="AH724" s="48"/>
+      <c r="AI724" s="49"/>
     </row>
     <row r="725">
-      <c r="AH725" s="44"/>
+      <c r="AH725" s="48"/>
+      <c r="AI725" s="49"/>
     </row>
     <row r="726">
-      <c r="AH726" s="44"/>
+      <c r="AH726" s="48"/>
+      <c r="AI726" s="49"/>
     </row>
     <row r="727">
-      <c r="AH727" s="44"/>
+      <c r="AH727" s="48"/>
+      <c r="AI727" s="49"/>
     </row>
     <row r="728">
-      <c r="AH728" s="44"/>
+      <c r="AH728" s="48"/>
+      <c r="AI728" s="49"/>
     </row>
     <row r="729">
-      <c r="AH729" s="44"/>
+      <c r="AH729" s="48"/>
+      <c r="AI729" s="49"/>
     </row>
     <row r="730">
-      <c r="AH730" s="44"/>
+      <c r="AH730" s="48"/>
+      <c r="AI730" s="49"/>
     </row>
     <row r="731">
-      <c r="AH731" s="44"/>
+      <c r="AH731" s="48"/>
+      <c r="AI731" s="49"/>
     </row>
     <row r="732">
-      <c r="AH732" s="44"/>
+      <c r="AH732" s="48"/>
+      <c r="AI732" s="49"/>
     </row>
     <row r="733">
-      <c r="AH733" s="44"/>
+      <c r="AH733" s="48"/>
+      <c r="AI733" s="49"/>
     </row>
     <row r="734">
-      <c r="AH734" s="44"/>
+      <c r="AH734" s="48"/>
+      <c r="AI734" s="49"/>
     </row>
     <row r="735">
-      <c r="AH735" s="44"/>
+      <c r="AH735" s="48"/>
+      <c r="AI735" s="49"/>
     </row>
     <row r="736">
-      <c r="AH736" s="44"/>
+      <c r="AH736" s="48"/>
+      <c r="AI736" s="49"/>
     </row>
     <row r="737">
-      <c r="AH737" s="44"/>
+      <c r="AH737" s="48"/>
+      <c r="AI737" s="49"/>
     </row>
     <row r="738">
-      <c r="AH738" s="44"/>
+      <c r="AH738" s="48"/>
+      <c r="AI738" s="49"/>
     </row>
     <row r="739">
-      <c r="AH739" s="44"/>
+      <c r="AH739" s="48"/>
+      <c r="AI739" s="49"/>
     </row>
     <row r="740">
-      <c r="AH740" s="44"/>
+      <c r="AH740" s="48"/>
+      <c r="AI740" s="49"/>
     </row>
     <row r="741">
-      <c r="AH741" s="44"/>
+      <c r="AH741" s="48"/>
+      <c r="AI741" s="49"/>
     </row>
     <row r="742">
-      <c r="AH742" s="44"/>
+      <c r="AH742" s="48"/>
+      <c r="AI742" s="49"/>
     </row>
     <row r="743">
-      <c r="AH743" s="44"/>
+      <c r="AH743" s="48"/>
+      <c r="AI743" s="49"/>
     </row>
     <row r="744">
-      <c r="AH744" s="44"/>
+      <c r="AH744" s="48"/>
+      <c r="AI744" s="49"/>
     </row>
     <row r="745">
-      <c r="AH745" s="44"/>
+      <c r="AH745" s="48"/>
+      <c r="AI745" s="49"/>
     </row>
     <row r="746">
-      <c r="AH746" s="44"/>
+      <c r="AH746" s="48"/>
+      <c r="AI746" s="49"/>
     </row>
     <row r="747">
-      <c r="AH747" s="44"/>
+      <c r="AH747" s="48"/>
+      <c r="AI747" s="49"/>
     </row>
     <row r="748">
-      <c r="AH748" s="44"/>
+      <c r="AH748" s="48"/>
+      <c r="AI748" s="49"/>
     </row>
     <row r="749">
-      <c r="AH749" s="44"/>
+      <c r="AH749" s="48"/>
+      <c r="AI749" s="49"/>
     </row>
     <row r="750">
-      <c r="AH750" s="44"/>
+      <c r="AH750" s="48"/>
+      <c r="AI750" s="49"/>
     </row>
     <row r="751">
-      <c r="AH751" s="44"/>
+      <c r="AH751" s="48"/>
+      <c r="AI751" s="49"/>
     </row>
     <row r="752">
-      <c r="AH752" s="44"/>
+      <c r="AH752" s="48"/>
+      <c r="AI752" s="49"/>
     </row>
     <row r="753">
-      <c r="AH753" s="44"/>
+      <c r="AH753" s="48"/>
+      <c r="AI753" s="49"/>
     </row>
     <row r="754">
-      <c r="AH754" s="44"/>
+      <c r="AH754" s="48"/>
+      <c r="AI754" s="49"/>
     </row>
     <row r="755">
-      <c r="AH755" s="44"/>
+      <c r="AH755" s="48"/>
+      <c r="AI755" s="49"/>
     </row>
     <row r="756">
-      <c r="AH756" s="44"/>
+      <c r="AH756" s="48"/>
+      <c r="AI756" s="49"/>
     </row>
     <row r="757">
-      <c r="AH757" s="44"/>
+      <c r="AH757" s="48"/>
+      <c r="AI757" s="49"/>
     </row>
     <row r="758">
-      <c r="AH758" s="44"/>
+      <c r="AH758" s="48"/>
+      <c r="AI758" s="49"/>
     </row>
     <row r="759">
-      <c r="AH759" s="44"/>
+      <c r="AH759" s="48"/>
+      <c r="AI759" s="49"/>
     </row>
     <row r="760">
-      <c r="AH760" s="44"/>
+      <c r="AH760" s="48"/>
+      <c r="AI760" s="49"/>
     </row>
     <row r="761">
-      <c r="AH761" s="44"/>
+      <c r="AH761" s="48"/>
+      <c r="AI761" s="49"/>
     </row>
     <row r="762">
-      <c r="AH762" s="44"/>
+      <c r="AH762" s="48"/>
+      <c r="AI762" s="49"/>
     </row>
     <row r="763">
-      <c r="AH763" s="44"/>
+      <c r="AH763" s="48"/>
+      <c r="AI763" s="49"/>
     </row>
     <row r="764">
-      <c r="AH764" s="44"/>
+      <c r="AH764" s="48"/>
+      <c r="AI764" s="49"/>
     </row>
     <row r="765">
-      <c r="AH765" s="44"/>
+      <c r="AH765" s="48"/>
+      <c r="AI765" s="49"/>
     </row>
     <row r="766">
-      <c r="AH766" s="44"/>
+      <c r="AH766" s="48"/>
+      <c r="AI766" s="49"/>
     </row>
     <row r="767">
-      <c r="AH767" s="44"/>
+      <c r="AH767" s="48"/>
+      <c r="AI767" s="49"/>
     </row>
     <row r="768">
-      <c r="AH768" s="44"/>
+      <c r="AH768" s="48"/>
+      <c r="AI768" s="49"/>
     </row>
     <row r="769">
-      <c r="AH769" s="44"/>
+      <c r="AH769" s="48"/>
+      <c r="AI769" s="49"/>
     </row>
     <row r="770">
-      <c r="AH770" s="44"/>
+      <c r="AH770" s="48"/>
+      <c r="AI770" s="49"/>
     </row>
     <row r="771">
-      <c r="AH771" s="44"/>
+      <c r="AH771" s="48"/>
+      <c r="AI771" s="49"/>
     </row>
     <row r="772">
-      <c r="AH772" s="44"/>
+      <c r="AH772" s="48"/>
+      <c r="AI772" s="49"/>
     </row>
     <row r="773">
-      <c r="AH773" s="44"/>
+      <c r="AH773" s="48"/>
+      <c r="AI773" s="49"/>
     </row>
     <row r="774">
-      <c r="AH774" s="44"/>
+      <c r="AH774" s="48"/>
+      <c r="AI774" s="49"/>
     </row>
     <row r="775">
-      <c r="AH775" s="44"/>
+      <c r="AH775" s="48"/>
+      <c r="AI775" s="49"/>
     </row>
     <row r="776">
-      <c r="AH776" s="44"/>
+      <c r="AH776" s="48"/>
+      <c r="AI776" s="49"/>
     </row>
     <row r="777">
-      <c r="AH777" s="44"/>
+      <c r="AH777" s="48"/>
+      <c r="AI777" s="49"/>
     </row>
     <row r="778">
-      <c r="AH778" s="44"/>
+      <c r="AH778" s="48"/>
+      <c r="AI778" s="49"/>
     </row>
     <row r="779">
-      <c r="AH779" s="44"/>
+      <c r="AH779" s="48"/>
+      <c r="AI779" s="49"/>
     </row>
     <row r="780">
-      <c r="AH780" s="44"/>
+      <c r="AH780" s="48"/>
+      <c r="AI780" s="49"/>
     </row>
     <row r="781">
-      <c r="AH781" s="44"/>
+      <c r="AH781" s="48"/>
+      <c r="AI781" s="49"/>
     </row>
     <row r="782">
-      <c r="AH782" s="44"/>
+      <c r="AH782" s="48"/>
+      <c r="AI782" s="49"/>
     </row>
     <row r="783">
-      <c r="AH783" s="44"/>
+      <c r="AH783" s="48"/>
+      <c r="AI783" s="49"/>
     </row>
     <row r="784">
-      <c r="AH784" s="44"/>
+      <c r="AH784" s="48"/>
+      <c r="AI784" s="49"/>
     </row>
     <row r="785">
-      <c r="AH785" s="44"/>
+      <c r="AH785" s="48"/>
+      <c r="AI785" s="49"/>
     </row>
     <row r="786">
-      <c r="AH786" s="44"/>
+      <c r="AH786" s="48"/>
+      <c r="AI786" s="49"/>
     </row>
     <row r="787">
-      <c r="AH787" s="44"/>
+      <c r="AH787" s="48"/>
+      <c r="AI787" s="49"/>
     </row>
     <row r="788">
-      <c r="AH788" s="44"/>
+      <c r="AH788" s="48"/>
+      <c r="AI788" s="49"/>
     </row>
     <row r="789">
-      <c r="AH789" s="44"/>
+      <c r="AH789" s="48"/>
+      <c r="AI789" s="49"/>
     </row>
     <row r="790">
-      <c r="AH790" s="44"/>
+      <c r="AH790" s="48"/>
+      <c r="AI790" s="49"/>
     </row>
     <row r="791">
-      <c r="AH791" s="44"/>
+      <c r="AH791" s="48"/>
+      <c r="AI791" s="49"/>
     </row>
     <row r="792">
-      <c r="AH792" s="44"/>
+      <c r="AH792" s="48"/>
+      <c r="AI792" s="49"/>
     </row>
     <row r="793">
-      <c r="AH793" s="44"/>
+      <c r="AH793" s="48"/>
+      <c r="AI793" s="49"/>
     </row>
     <row r="794">
-      <c r="AH794" s="44"/>
+      <c r="AH794" s="48"/>
+      <c r="AI794" s="49"/>
     </row>
     <row r="795">
-      <c r="AH795" s="44"/>
+      <c r="AH795" s="48"/>
+      <c r="AI795" s="49"/>
     </row>
     <row r="796">
-      <c r="AH796" s="44"/>
+      <c r="AH796" s="48"/>
+      <c r="AI796" s="49"/>
     </row>
     <row r="797">
-      <c r="AH797" s="44"/>
+      <c r="AH797" s="48"/>
+      <c r="AI797" s="49"/>
     </row>
     <row r="798">
-      <c r="AH798" s="44"/>
+      <c r="AH798" s="48"/>
+      <c r="AI798" s="49"/>
     </row>
     <row r="799">
-      <c r="AH799" s="44"/>
+      <c r="AH799" s="48"/>
+      <c r="AI799" s="49"/>
     </row>
     <row r="800">
-      <c r="AH800" s="44"/>
+      <c r="AH800" s="48"/>
+      <c r="AI800" s="49"/>
     </row>
     <row r="801">
-      <c r="AH801" s="44"/>
+      <c r="AH801" s="48"/>
+      <c r="AI801" s="49"/>
     </row>
     <row r="802">
-      <c r="AH802" s="44"/>
+      <c r="AH802" s="48"/>
+      <c r="AI802" s="49"/>
     </row>
     <row r="803">
-      <c r="AH803" s="44"/>
+      <c r="AH803" s="48"/>
+      <c r="AI803" s="49"/>
     </row>
     <row r="804">
-      <c r="AH804" s="44"/>
+      <c r="AH804" s="48"/>
+      <c r="AI804" s="49"/>
     </row>
     <row r="805">
-      <c r="AH805" s="44"/>
+      <c r="AH805" s="48"/>
+      <c r="AI805" s="49"/>
     </row>
     <row r="806">
-      <c r="AH806" s="44"/>
+      <c r="AH806" s="48"/>
+      <c r="AI806" s="49"/>
     </row>
     <row r="807">
-      <c r="AH807" s="44"/>
+      <c r="AH807" s="48"/>
+      <c r="AI807" s="49"/>
     </row>
     <row r="808">
-      <c r="AH808" s="44"/>
+      <c r="AH808" s="48"/>
+      <c r="AI808" s="49"/>
     </row>
     <row r="809">
-      <c r="AH809" s="44"/>
+      <c r="AH809" s="48"/>
+      <c r="AI809" s="49"/>
     </row>
     <row r="810">
-      <c r="AH810" s="44"/>
+      <c r="AH810" s="48"/>
+      <c r="AI810" s="49"/>
     </row>
     <row r="811">
-      <c r="AH811" s="44"/>
+      <c r="AH811" s="48"/>
+      <c r="AI811" s="49"/>
     </row>
     <row r="812">
-      <c r="AH812" s="44"/>
+      <c r="AH812" s="48"/>
+      <c r="AI812" s="49"/>
     </row>
     <row r="813">
-      <c r="AH813" s="44"/>
+      <c r="AH813" s="48"/>
+      <c r="AI813" s="49"/>
     </row>
     <row r="814">
-      <c r="AH814" s="44"/>
+      <c r="AH814" s="48"/>
+      <c r="AI814" s="49"/>
     </row>
     <row r="815">
-      <c r="AH815" s="44"/>
+      <c r="AH815" s="48"/>
+      <c r="AI815" s="49"/>
     </row>
     <row r="816">
-      <c r="AH816" s="44"/>
+      <c r="AH816" s="48"/>
+      <c r="AI816" s="49"/>
     </row>
     <row r="817">
-      <c r="AH817" s="44"/>
+      <c r="AH817" s="48"/>
+      <c r="AI817" s="49"/>
     </row>
     <row r="818">
-      <c r="AH818" s="44"/>
+      <c r="AH818" s="48"/>
+      <c r="AI818" s="49"/>
     </row>
     <row r="819">
-      <c r="AH819" s="44"/>
+      <c r="AH819" s="48"/>
+      <c r="AI819" s="49"/>
     </row>
     <row r="820">
-      <c r="AH820" s="44"/>
+      <c r="AH820" s="48"/>
+      <c r="AI820" s="49"/>
     </row>
     <row r="821">
-      <c r="AH821" s="44"/>
+      <c r="AH821" s="48"/>
+      <c r="AI821" s="49"/>
     </row>
     <row r="822">
-      <c r="AH822" s="44"/>
+      <c r="AH822" s="48"/>
+      <c r="AI822" s="49"/>
     </row>
     <row r="823">
-      <c r="AH823" s="44"/>
+      <c r="AH823" s="48"/>
+      <c r="AI823" s="49"/>
     </row>
     <row r="824">
-      <c r="AH824" s="44"/>
+      <c r="AH824" s="48"/>
+      <c r="AI824" s="49"/>
     </row>
     <row r="825">
-      <c r="AH825" s="44"/>
+      <c r="AH825" s="48"/>
+      <c r="AI825" s="49"/>
     </row>
     <row r="826">
-      <c r="AH826" s="44"/>
+      <c r="AH826" s="48"/>
+      <c r="AI826" s="49"/>
     </row>
     <row r="827">
-      <c r="AH827" s="44"/>
+      <c r="AH827" s="48"/>
+      <c r="AI827" s="49"/>
     </row>
     <row r="828">
-      <c r="AH828" s="44"/>
+      <c r="AH828" s="48"/>
+      <c r="AI828" s="49"/>
     </row>
     <row r="829">
-      <c r="AH829" s="44"/>
+      <c r="AH829" s="48"/>
+      <c r="AI829" s="49"/>
     </row>
     <row r="830">
-      <c r="AH830" s="44"/>
+      <c r="AH830" s="48"/>
+      <c r="AI830" s="49"/>
     </row>
     <row r="831">
-      <c r="AH831" s="44"/>
+      <c r="AH831" s="48"/>
+      <c r="AI831" s="49"/>
     </row>
     <row r="832">
-      <c r="AH832" s="44"/>
+      <c r="AH832" s="48"/>
+      <c r="AI832" s="49"/>
     </row>
     <row r="833">
-      <c r="AH833" s="44"/>
+      <c r="AH833" s="48"/>
+      <c r="AI833" s="49"/>
     </row>
     <row r="834">
-      <c r="AH834" s="44"/>
+      <c r="AH834" s="48"/>
+      <c r="AI834" s="49"/>
     </row>
     <row r="835">
-      <c r="AH835" s="44"/>
+      <c r="AH835" s="48"/>
+      <c r="AI835" s="49"/>
     </row>
     <row r="836">
-      <c r="AH836" s="44"/>
+      <c r="AH836" s="48"/>
+      <c r="AI836" s="49"/>
     </row>
     <row r="837">
-      <c r="AH837" s="44"/>
+      <c r="AH837" s="48"/>
+      <c r="AI837" s="49"/>
     </row>
     <row r="838">
-      <c r="AH838" s="44"/>
+      <c r="AH838" s="48"/>
+      <c r="AI838" s="49"/>
     </row>
     <row r="839">
-      <c r="AH839" s="44"/>
+      <c r="AH839" s="48"/>
+      <c r="AI839" s="49"/>
     </row>
     <row r="840">
-      <c r="AH840" s="44"/>
+      <c r="AH840" s="48"/>
+      <c r="AI840" s="49"/>
     </row>
     <row r="841">
-      <c r="AH841" s="44"/>
+      <c r="AH841" s="48"/>
+      <c r="AI841" s="49"/>
     </row>
     <row r="842">
-      <c r="AH842" s="44"/>
+      <c r="AH842" s="48"/>
+      <c r="AI842" s="49"/>
     </row>
     <row r="843">
-      <c r="AH843" s="44"/>
+      <c r="AH843" s="48"/>
+      <c r="AI843" s="49"/>
     </row>
     <row r="844">
-      <c r="AH844" s="44"/>
+      <c r="AH844" s="48"/>
+      <c r="AI844" s="49"/>
     </row>
     <row r="845">
-      <c r="AH845" s="44"/>
+      <c r="AH845" s="48"/>
+      <c r="AI845" s="49"/>
     </row>
     <row r="846">
-      <c r="AH846" s="44"/>
+      <c r="AH846" s="48"/>
+      <c r="AI846" s="49"/>
     </row>
     <row r="847">
-      <c r="AH847" s="44"/>
+      <c r="AH847" s="48"/>
+      <c r="AI847" s="49"/>
     </row>
     <row r="848">
-      <c r="AH848" s="44"/>
+      <c r="AH848" s="48"/>
+      <c r="AI848" s="49"/>
     </row>
     <row r="849">
-      <c r="AH849" s="44"/>
+      <c r="AH849" s="48"/>
+      <c r="AI849" s="49"/>
     </row>
     <row r="850">
-      <c r="AH850" s="44"/>
+      <c r="AH850" s="48"/>
+      <c r="AI850" s="49"/>
     </row>
     <row r="851">
-      <c r="AH851" s="44"/>
+      <c r="AH851" s="48"/>
+      <c r="AI851" s="49"/>
     </row>
     <row r="852">
-      <c r="AH852" s="44"/>
+      <c r="AH852" s="48"/>
+      <c r="AI852" s="49"/>
     </row>
     <row r="853">
-      <c r="AH853" s="44"/>
+      <c r="AH853" s="48"/>
+      <c r="AI853" s="49"/>
     </row>
     <row r="854">
-      <c r="AH854" s="44"/>
+      <c r="AH854" s="48"/>
+      <c r="AI854" s="49"/>
     </row>
     <row r="855">
-      <c r="AH855" s="44"/>
+      <c r="AH855" s="48"/>
+      <c r="AI855" s="49"/>
     </row>
     <row r="856">
-      <c r="AH856" s="44"/>
+      <c r="AH856" s="48"/>
+      <c r="AI856" s="49"/>
     </row>
     <row r="857">
-      <c r="AH857" s="44"/>
+      <c r="AH857" s="48"/>
+      <c r="AI857" s="49"/>
     </row>
     <row r="858">
-      <c r="AH858" s="44"/>
+      <c r="AH858" s="48"/>
+      <c r="AI858" s="49"/>
     </row>
     <row r="859">
-      <c r="AH859" s="44"/>
+      <c r="AH859" s="48"/>
+      <c r="AI859" s="49"/>
     </row>
     <row r="860">
-      <c r="AH860" s="44"/>
+      <c r="AH860" s="48"/>
+      <c r="AI860" s="49"/>
     </row>
     <row r="861">
-      <c r="AH861" s="44"/>
+      <c r="AH861" s="48"/>
+      <c r="AI861" s="49"/>
     </row>
     <row r="862">
-      <c r="AH862" s="44"/>
+      <c r="AH862" s="48"/>
+      <c r="AI862" s="49"/>
     </row>
     <row r="863">
-      <c r="AH863" s="44"/>
+      <c r="AH863" s="48"/>
+      <c r="AI863" s="49"/>
     </row>
     <row r="864">
-      <c r="AH864" s="44"/>
+      <c r="AH864" s="48"/>
+      <c r="AI864" s="49"/>
     </row>
     <row r="865">
-      <c r="AH865" s="44"/>
+      <c r="AH865" s="48"/>
+      <c r="AI865" s="49"/>
     </row>
     <row r="866">
-      <c r="AH866" s="44"/>
+      <c r="AH866" s="48"/>
+      <c r="AI866" s="49"/>
     </row>
     <row r="867">
-      <c r="AH867" s="44"/>
+      <c r="AH867" s="48"/>
+      <c r="AI867" s="49"/>
     </row>
     <row r="868">
-      <c r="AH868" s="44"/>
+      <c r="AH868" s="48"/>
+      <c r="AI868" s="49"/>
     </row>
     <row r="869">
-      <c r="AH869" s="44"/>
+      <c r="AH869" s="48"/>
+      <c r="AI869" s="49"/>
     </row>
     <row r="870">
-      <c r="AH870" s="44"/>
+      <c r="AH870" s="48"/>
+      <c r="AI870" s="49"/>
     </row>
     <row r="871">
-      <c r="AH871" s="44"/>
+      <c r="AH871" s="48"/>
+      <c r="AI871" s="49"/>
     </row>
     <row r="872">
-      <c r="AH872" s="44"/>
+      <c r="AH872" s="48"/>
+      <c r="AI872" s="49"/>
     </row>
     <row r="873">
-      <c r="AH873" s="44"/>
+      <c r="AH873" s="48"/>
+      <c r="AI873" s="49"/>
     </row>
     <row r="874">
-      <c r="AH874" s="44"/>
+      <c r="AH874" s="48"/>
+      <c r="AI874" s="49"/>
     </row>
     <row r="875">
-      <c r="AH875" s="44"/>
+      <c r="AH875" s="48"/>
+      <c r="AI875" s="49"/>
     </row>
     <row r="876">
-      <c r="AH876" s="44"/>
+      <c r="AH876" s="48"/>
+      <c r="AI876" s="49"/>
     </row>
     <row r="877">
-      <c r="AH877" s="44"/>
+      <c r="AH877" s="48"/>
+      <c r="AI877" s="49"/>
     </row>
     <row r="878">
-      <c r="AH878" s="44"/>
+      <c r="AH878" s="48"/>
+      <c r="AI878" s="49"/>
     </row>
     <row r="879">
-      <c r="AH879" s="44"/>
+      <c r="AH879" s="48"/>
+      <c r="AI879" s="49"/>
     </row>
     <row r="880">
-      <c r="AH880" s="44"/>
+      <c r="AH880" s="48"/>
+      <c r="AI880" s="49"/>
     </row>
     <row r="881">
-      <c r="AH881" s="44"/>
+      <c r="AH881" s="48"/>
+      <c r="AI881" s="49"/>
     </row>
     <row r="882">
-      <c r="AH882" s="44"/>
+      <c r="AH882" s="48"/>
+      <c r="AI882" s="49"/>
     </row>
     <row r="883">
-      <c r="AH883" s="44"/>
+      <c r="AH883" s="48"/>
+      <c r="AI883" s="49"/>
     </row>
     <row r="884">
-      <c r="AH884" s="44"/>
+      <c r="AH884" s="48"/>
+      <c r="AI884" s="49"/>
     </row>
     <row r="885">
-      <c r="AH885" s="44"/>
+      <c r="AH885" s="48"/>
+      <c r="AI885" s="49"/>
     </row>
     <row r="886">
-      <c r="AH886" s="44"/>
+      <c r="AH886" s="48"/>
+      <c r="AI886" s="49"/>
     </row>
     <row r="887">
-      <c r="AH887" s="44"/>
+      <c r="AH887" s="48"/>
+      <c r="AI887" s="49"/>
     </row>
     <row r="888">
-      <c r="AH888" s="44"/>
+      <c r="AH888" s="48"/>
+      <c r="AI888" s="49"/>
     </row>
     <row r="889">
-      <c r="AH889" s="44"/>
+      <c r="AH889" s="48"/>
+      <c r="AI889" s="49"/>
     </row>
     <row r="890">
-      <c r="AH890" s="44"/>
+      <c r="AH890" s="48"/>
+      <c r="AI890" s="49"/>
     </row>
     <row r="891">
-      <c r="AH891" s="44"/>
+      <c r="AH891" s="48"/>
+      <c r="AI891" s="49"/>
     </row>
     <row r="892">
-      <c r="AH892" s="44"/>
+      <c r="AH892" s="48"/>
+      <c r="AI892" s="49"/>
     </row>
     <row r="893">
-      <c r="AH893" s="44"/>
+      <c r="AH893" s="48"/>
+      <c r="AI893" s="49"/>
     </row>
     <row r="894">
-      <c r="AH894" s="44"/>
+      <c r="AH894" s="48"/>
+      <c r="AI894" s="49"/>
     </row>
     <row r="895">
-      <c r="AH895" s="44"/>
+      <c r="AH895" s="48"/>
+      <c r="AI895" s="49"/>
     </row>
     <row r="896">
-      <c r="AH896" s="44"/>
+      <c r="AH896" s="48"/>
+      <c r="AI896" s="49"/>
     </row>
     <row r="897">
-      <c r="AH897" s="44"/>
+      <c r="AH897" s="48"/>
+      <c r="AI897" s="49"/>
     </row>
     <row r="898">
-      <c r="AH898" s="44"/>
+      <c r="AH898" s="48"/>
+      <c r="AI898" s="49"/>
     </row>
     <row r="899">
-      <c r="AH899" s="44"/>
+      <c r="AH899" s="48"/>
+      <c r="AI899" s="49"/>
     </row>
     <row r="900">
-      <c r="AH900" s="44"/>
+      <c r="AH900" s="48"/>
+      <c r="AI900" s="49"/>
     </row>
     <row r="901">
-      <c r="AH901" s="44"/>
+      <c r="AH901" s="48"/>
+      <c r="AI901" s="49"/>
     </row>
     <row r="902">
-      <c r="AH902" s="44"/>
+      <c r="AH902" s="48"/>
+      <c r="AI902" s="49"/>
     </row>
     <row r="903">
-      <c r="AH903" s="44"/>
+      <c r="AH903" s="48"/>
+      <c r="AI903" s="49"/>
     </row>
     <row r="904">
-      <c r="AH904" s="44"/>
+      <c r="AH904" s="48"/>
+      <c r="AI904" s="49"/>
     </row>
     <row r="905">
-      <c r="AH905" s="44"/>
+      <c r="AH905" s="48"/>
+      <c r="AI905" s="49"/>
     </row>
     <row r="906">
-      <c r="AH906" s="44"/>
+      <c r="AH906" s="48"/>
+      <c r="AI906" s="49"/>
     </row>
     <row r="907">
-      <c r="AH907" s="44"/>
+      <c r="AH907" s="48"/>
+      <c r="AI907" s="49"/>
     </row>
     <row r="908">
-      <c r="AH908" s="44"/>
+      <c r="AH908" s="48"/>
+      <c r="AI908" s="49"/>
     </row>
     <row r="909">
-      <c r="AH909" s="44"/>
+      <c r="AH909" s="48"/>
+      <c r="AI909" s="49"/>
     </row>
     <row r="910">
-      <c r="AH910" s="44"/>
+      <c r="AH910" s="48"/>
+      <c r="AI910" s="49"/>
     </row>
     <row r="911">
-      <c r="AH911" s="44"/>
+      <c r="AH911" s="48"/>
+      <c r="AI911" s="49"/>
     </row>
     <row r="912">
-      <c r="AH912" s="44"/>
+      <c r="AH912" s="48"/>
+      <c r="AI912" s="49"/>
     </row>
     <row r="913">
-      <c r="AH913" s="44"/>
+      <c r="AH913" s="48"/>
+      <c r="AI913" s="49"/>
     </row>
     <row r="914">
-      <c r="AH914" s="44"/>
+      <c r="AH914" s="48"/>
+      <c r="AI914" s="49"/>
     </row>
     <row r="915">
-      <c r="AH915" s="44"/>
+      <c r="AH915" s="48"/>
+      <c r="AI915" s="49"/>
     </row>
     <row r="916">
-      <c r="AH916" s="44"/>
+      <c r="AH916" s="48"/>
+      <c r="AI916" s="49"/>
     </row>
     <row r="917">
-      <c r="AH917" s="44"/>
+      <c r="AH917" s="48"/>
+      <c r="AI917" s="49"/>
     </row>
     <row r="918">
-      <c r="AH918" s="44"/>
+      <c r="AH918" s="48"/>
+      <c r="AI918" s="49"/>
     </row>
     <row r="919">
-      <c r="AH919" s="44"/>
+      <c r="AH919" s="48"/>
+      <c r="AI919" s="49"/>
     </row>
     <row r="920">
-      <c r="AH920" s="44"/>
+      <c r="AH920" s="48"/>
+      <c r="AI920" s="49"/>
     </row>
     <row r="921">
-      <c r="AH921" s="44"/>
+      <c r="AH921" s="48"/>
+      <c r="AI921" s="49"/>
     </row>
     <row r="922">
-      <c r="AH922" s="44"/>
+      <c r="AH922" s="48"/>
+      <c r="AI922" s="49"/>
     </row>
     <row r="923">
-      <c r="AH923" s="44"/>
+      <c r="AH923" s="48"/>
+      <c r="AI923" s="49"/>
     </row>
     <row r="924">
-      <c r="AH924" s="44"/>
+      <c r="AH924" s="48"/>
+      <c r="AI924" s="49"/>
     </row>
     <row r="925">
-      <c r="AH925" s="44"/>
+      <c r="AH925" s="48"/>
+      <c r="AI925" s="49"/>
     </row>
     <row r="926">
-      <c r="AH926" s="44"/>
+      <c r="AH926" s="48"/>
+      <c r="AI926" s="49"/>
     </row>
     <row r="927">
-      <c r="AH927" s="44"/>
+      <c r="AH927" s="48"/>
+      <c r="AI927" s="49"/>
     </row>
     <row r="928">
-      <c r="AH928" s="44"/>
+      <c r="AH928" s="48"/>
+      <c r="AI928" s="49"/>
     </row>
     <row r="929">
-      <c r="AH929" s="44"/>
+      <c r="AH929" s="48"/>
+      <c r="AI929" s="49"/>
     </row>
     <row r="930">
-      <c r="AH930" s="44"/>
+      <c r="AH930" s="48"/>
+      <c r="AI930" s="49"/>
     </row>
     <row r="931">
-      <c r="AH931" s="44"/>
+      <c r="AH931" s="48"/>
+      <c r="AI931" s="49"/>
     </row>
     <row r="932">
-      <c r="AH932" s="44"/>
+      <c r="AH932" s="48"/>
+      <c r="AI932" s="49"/>
     </row>
     <row r="933">
-      <c r="AH933" s="44"/>
+      <c r="AH933" s="48"/>
+      <c r="AI933" s="49"/>
     </row>
     <row r="934">
-      <c r="AH934" s="44"/>
+      <c r="AH934" s="48"/>
+      <c r="AI934" s="49"/>
     </row>
     <row r="935">
-      <c r="AH935" s="44"/>
+      <c r="AH935" s="48"/>
+      <c r="AI935" s="49"/>
     </row>
     <row r="936">
-      <c r="AH936" s="44"/>
+      <c r="AH936" s="48"/>
+      <c r="AI936" s="49"/>
     </row>
     <row r="937">
-      <c r="AH937" s="44"/>
+      <c r="AH937" s="48"/>
+      <c r="AI937" s="49"/>
     </row>
     <row r="938">
-      <c r="AH938" s="44"/>
+      <c r="AH938" s="48"/>
+      <c r="AI938" s="49"/>
     </row>
     <row r="939">
-      <c r="AH939" s="44"/>
+      <c r="AH939" s="48"/>
+      <c r="AI939" s="49"/>
     </row>
     <row r="940">
-      <c r="AH940" s="44"/>
+      <c r="AH940" s="48"/>
+      <c r="AI940" s="49"/>
     </row>
     <row r="941">
-      <c r="AH941" s="44"/>
+      <c r="AH941" s="48"/>
+      <c r="AI941" s="49"/>
     </row>
     <row r="942">
-      <c r="AH942" s="44"/>
+      <c r="AH942" s="48"/>
+      <c r="AI942" s="49"/>
     </row>
     <row r="943">
-      <c r="AH943" s="44"/>
+      <c r="AH943" s="48"/>
+      <c r="AI943" s="49"/>
     </row>
     <row r="944">
-      <c r="AH944" s="44"/>
+      <c r="AH944" s="48"/>
+      <c r="AI944" s="49"/>
     </row>
     <row r="945">
-      <c r="AH945" s="44"/>
+      <c r="AH945" s="48"/>
+      <c r="AI945" s="49"/>
     </row>
     <row r="946">
-      <c r="AH946" s="44"/>
+      <c r="AH946" s="48"/>
+      <c r="AI946" s="49"/>
     </row>
     <row r="947">
-      <c r="AH947" s="44"/>
+      <c r="AH947" s="48"/>
+      <c r="AI947" s="49"/>
     </row>
     <row r="948">
-      <c r="AH948" s="44"/>
+      <c r="AH948" s="48"/>
+      <c r="AI948" s="49"/>
     </row>
     <row r="949">
-      <c r="AH949" s="44"/>
+      <c r="AH949" s="48"/>
+      <c r="AI949" s="49"/>
     </row>
     <row r="950">
-      <c r="AH950" s="44"/>
+      <c r="AH950" s="48"/>
+      <c r="AI950" s="49"/>
     </row>
     <row r="951">
-      <c r="AH951" s="44"/>
+      <c r="AH951" s="48"/>
+      <c r="AI951" s="49"/>
     </row>
     <row r="952">
-      <c r="AH952" s="44"/>
+      <c r="AH952" s="48"/>
+      <c r="AI952" s="49"/>
     </row>
     <row r="953">
-      <c r="AH953" s="44"/>
+      <c r="AH953" s="48"/>
+      <c r="AI953" s="49"/>
     </row>
     <row r="954">
-      <c r="AH954" s="44"/>
+      <c r="AH954" s="48"/>
+      <c r="AI954" s="49"/>
     </row>
     <row r="955">
-      <c r="AH955" s="44"/>
+      <c r="AH955" s="48"/>
+      <c r="AI955" s="49"/>
     </row>
     <row r="956">
-      <c r="AH956" s="44"/>
+      <c r="AH956" s="48"/>
+      <c r="AI956" s="49"/>
     </row>
     <row r="957">
-      <c r="AH957" s="44"/>
+      <c r="AH957" s="48"/>
+      <c r="AI957" s="49"/>
     </row>
     <row r="958">
-      <c r="AH958" s="44"/>
+      <c r="AH958" s="48"/>
+      <c r="AI958" s="49"/>
     </row>
     <row r="959">
-      <c r="AH959" s="44"/>
+      <c r="AH959" s="48"/>
+      <c r="AI959" s="49"/>
     </row>
     <row r="960">
-      <c r="AH960" s="44"/>
+      <c r="AH960" s="48"/>
+      <c r="AI960" s="49"/>
     </row>
     <row r="961">
-      <c r="AH961" s="44"/>
+      <c r="AH961" s="48"/>
+      <c r="AI961" s="49"/>
     </row>
     <row r="962">
-      <c r="AH962" s="44"/>
+      <c r="AH962" s="48"/>
+      <c r="AI962" s="49"/>
     </row>
     <row r="963">
-      <c r="AH963" s="44"/>
+      <c r="AH963" s="48"/>
+      <c r="AI963" s="49"/>
     </row>
     <row r="964">
-      <c r="AH964" s="44"/>
+      <c r="AH964" s="48"/>
+      <c r="AI964" s="49"/>
     </row>
     <row r="965">
-      <c r="AH965" s="44"/>
+      <c r="AH965" s="48"/>
+      <c r="AI965" s="49"/>
     </row>
     <row r="966">
-      <c r="AH966" s="44"/>
+      <c r="AH966" s="48"/>
+      <c r="AI966" s="49"/>
     </row>
     <row r="967">
-      <c r="AH967" s="44"/>
+      <c r="AH967" s="48"/>
+      <c r="AI967" s="49"/>
     </row>
     <row r="968">
-      <c r="AH968" s="44"/>
+      <c r="AH968" s="48"/>
+      <c r="AI968" s="49"/>
     </row>
     <row r="969">
-      <c r="AH969" s="44"/>
+      <c r="AH969" s="48"/>
+      <c r="AI969" s="49"/>
     </row>
     <row r="970">
-      <c r="AH970" s="44"/>
+      <c r="AH970" s="48"/>
+      <c r="AI970" s="49"/>
     </row>
     <row r="971">
-      <c r="AH971" s="44"/>
+      <c r="AH971" s="48"/>
+      <c r="AI971" s="49"/>
     </row>
     <row r="972">
-      <c r="AH972" s="44"/>
+      <c r="AH972" s="48"/>
+      <c r="AI972" s="49"/>
     </row>
     <row r="973">
-      <c r="AH973" s="44"/>
+      <c r="AH973" s="48"/>
+      <c r="AI973" s="49"/>
     </row>
     <row r="974">
-      <c r="AH974" s="44"/>
+      <c r="AH974" s="48"/>
+      <c r="AI974" s="49"/>
     </row>
     <row r="975">
-      <c r="AH975" s="44"/>
+      <c r="AH975" s="48"/>
+      <c r="AI975" s="49"/>
     </row>
     <row r="976">
-      <c r="AH976" s="44"/>
+      <c r="AH976" s="48"/>
+      <c r="AI976" s="49"/>
     </row>
     <row r="977">
-      <c r="AH977" s="44"/>
+      <c r="AH977" s="48"/>
+      <c r="AI977" s="49"/>
     </row>
     <row r="978">
-      <c r="AH978" s="44"/>
+      <c r="AH978" s="48"/>
+      <c r="AI978" s="49"/>
     </row>
     <row r="979">
-      <c r="AH979" s="44"/>
+      <c r="AH979" s="48"/>
+      <c r="AI979" s="49"/>
     </row>
     <row r="980">
-      <c r="AH980" s="44"/>
+      <c r="AH980" s="48"/>
+      <c r="AI980" s="49"/>
     </row>
     <row r="981">
-      <c r="AH981" s="44"/>
+      <c r="AH981" s="48"/>
+      <c r="AI981" s="49"/>
     </row>
     <row r="982">
-      <c r="AH982" s="44"/>
+      <c r="AH982" s="48"/>
+      <c r="AI982" s="49"/>
     </row>
     <row r="983">
-      <c r="AH983" s="44"/>
+      <c r="AH983" s="48"/>
+      <c r="AI983" s="49"/>
     </row>
     <row r="984">
-      <c r="AH984" s="44"/>
+      <c r="AH984" s="48"/>
+      <c r="AI984" s="49"/>
     </row>
     <row r="985">
-      <c r="AH985" s="44"/>
+      <c r="AH985" s="48"/>
+      <c r="AI985" s="49"/>
     </row>
     <row r="986">
-      <c r="AH986" s="44"/>
+      <c r="AH986" s="48"/>
+      <c r="AI986" s="49"/>
     </row>
     <row r="987">
-      <c r="AH987" s="44"/>
+      <c r="AH987" s="48"/>
+      <c r="AI987" s="49"/>
     </row>
     <row r="988">
-      <c r="AH988" s="44"/>
+      <c r="AH988" s="48"/>
+      <c r="AI988" s="49"/>
     </row>
     <row r="989">
-      <c r="AH989" s="44"/>
+      <c r="AH989" s="48"/>
+      <c r="AI989" s="49"/>
     </row>
     <row r="990">
-      <c r="AH990" s="44"/>
+      <c r="AH990" s="48"/>
+      <c r="AI990" s="49"/>
     </row>
     <row r="991">
-      <c r="AH991" s="44"/>
+      <c r="AH991" s="48"/>
+      <c r="AI991" s="49"/>
     </row>
     <row r="992">
-      <c r="AH992" s="44"/>
+      <c r="AH992" s="48"/>
+      <c r="AI992" s="49"/>
     </row>
     <row r="993">
-      <c r="AH993" s="44"/>
+      <c r="AH993" s="48"/>
+      <c r="AI993" s="49"/>
     </row>
     <row r="994">
-      <c r="AH994" s="44"/>
+      <c r="AH994" s="48"/>
+      <c r="AI994" s="49"/>
     </row>
     <row r="995">
-      <c r="AH995" s="44"/>
+      <c r="AH995" s="48"/>
+      <c r="AI995" s="49"/>
     </row>
     <row r="996">
-      <c r="AH996" s="44"/>
+      <c r="AH996" s="48"/>
+      <c r="AI996" s="49"/>
     </row>
     <row r="997">
-      <c r="AH997" s="44"/>
+      <c r="AH997" s="48"/>
+      <c r="AI997" s="49"/>
     </row>
     <row r="998">
-      <c r="AH998" s="44"/>
+      <c r="AH998" s="48"/>
+      <c r="AI998" s="49"/>
     </row>
     <row r="999">
-      <c r="AH999" s="44"/>
+      <c r="AH999" s="48"/>
+      <c r="AI999" s="49"/>
     </row>
     <row r="1000">
-      <c r="AH1000" s="44"/>
+      <c r="AH1000" s="48"/>
+      <c r="AI1000" s="49"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/arquivos_trabalho/tabela/yourDelivery.xlsx
+++ b/arquivos_trabalho/tabela/yourDelivery.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="268">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -683,6 +683,9 @@
     <t>num_cliente_recebe</t>
   </si>
   <si>
+    <t>codigo_entregador</t>
+  </si>
+  <si>
     <t>nome_entregador</t>
   </si>
   <si>
@@ -743,36 +746,24 @@
     <t>Eletrônico</t>
   </si>
   <si>
-    <t>004324118-82</t>
+    <t>373761761-59</t>
+  </si>
+  <si>
+    <t>Bairro da Tijuca</t>
+  </si>
+  <si>
+    <t>Rua Pedra Lavrada</t>
+  </si>
+  <si>
+    <t>Granel Líquido</t>
+  </si>
+  <si>
+    <t>568456388-20</t>
   </si>
   <si>
     <t>RS</t>
   </si>
   <si>
-    <t>Passo Fundo</t>
-  </si>
-  <si>
-    <t>Bairro dos Camelos</t>
-  </si>
-  <si>
-    <t>Rua da Floresta</t>
-  </si>
-  <si>
-    <t>373761761-59</t>
-  </si>
-  <si>
-    <t>Bairro da Tijuca</t>
-  </si>
-  <si>
-    <t>Rua Pedra Lavrada</t>
-  </si>
-  <si>
-    <t>Granel Líquido</t>
-  </si>
-  <si>
-    <t>568456388-20</t>
-  </si>
-  <si>
     <t>Porto Alegre</t>
   </si>
   <si>
@@ -801,33 +792,6 @@
   </si>
   <si>
     <t>Congelados</t>
-  </si>
-  <si>
-    <t>022277685-14</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>Porto Velho</t>
-  </si>
-  <si>
-    <t>Bairro da Santa Cruz</t>
-  </si>
-  <si>
-    <t>Avenida Miguel Chakian</t>
-  </si>
-  <si>
-    <t>317651631-92</t>
-  </si>
-  <si>
-    <t>Francisco Morato</t>
-  </si>
-  <si>
-    <t>Bairro dos Navegadores</t>
-  </si>
-  <si>
-    <t>Avenida Hostílio Soares</t>
   </si>
   <si>
     <t>821928676-98</t>
@@ -878,7 +842,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -929,21 +893,16 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1022,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1100,22 +1059,22 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1139,13 +1098,13 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1154,10 +1113,9 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2799,14 +2757,12 @@
     <col customWidth="1" min="23" max="23" width="16.71"/>
     <col customWidth="1" min="24" max="24" width="19.57"/>
     <col customWidth="1" min="25" max="25" width="20.71"/>
-    <col customWidth="1" min="26" max="26" width="23.29"/>
-    <col customWidth="1" min="27" max="28" width="17.71"/>
-    <col customWidth="1" min="29" max="29" width="20.14"/>
-    <col customWidth="1" min="30" max="30" width="17.71"/>
+    <col customWidth="1" min="26" max="27" width="23.29"/>
+    <col customWidth="1" min="28" max="28" width="17.71"/>
+    <col customWidth="1" min="29" max="30" width="20.14"/>
     <col customWidth="1" min="31" max="31" width="19.14"/>
-    <col customWidth="1" min="32" max="32" width="21.71"/>
-    <col customWidth="1" min="33" max="33" width="17.71"/>
-    <col customWidth="1" min="34" max="35" width="27.71"/>
+    <col customWidth="1" min="32" max="33" width="21.71"/>
+    <col customWidth="1" min="34" max="36" width="27.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2867,52 +2823,55 @@
       <c r="S1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="29" t="s">
         <v>218</v>
       </c>
       <c r="U1" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI1" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2974,17 +2933,17 @@
       <c r="S2" s="10">
         <v>1367.0</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="29">
+        <v>100.0</v>
+      </c>
+      <c r="U2" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="U2" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="W2" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>233</v>
       </c>
       <c r="X2" s="33" t="s">
         <v>234</v>
@@ -2995,31 +2954,34 @@
       <c r="Z2" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="AA2" s="33">
+      <c r="AA2" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB2" s="32">
         <v>460.0</v>
       </c>
-      <c r="AB2" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC2" s="33">
+      <c r="AC2" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD2" s="32">
         <v>5.7</v>
       </c>
-      <c r="AD2" s="33">
+      <c r="AE2" s="32">
         <v>55.9</v>
       </c>
-      <c r="AE2" s="33">
+      <c r="AF2" s="32">
         <v>89.5</v>
       </c>
-      <c r="AF2" s="34">
+      <c r="AG2" s="34">
         <v>8.2</v>
       </c>
-      <c r="AG2" s="33">
+      <c r="AH2" s="32">
         <v>1.0</v>
       </c>
-      <c r="AH2" s="35">
+      <c r="AI2" s="35">
         <v>41061.0</v>
       </c>
-      <c r="AI2" s="36">
+      <c r="AJ2" s="36">
         <v>41095.0</v>
       </c>
     </row>
@@ -3081,52 +3043,55 @@
       <c r="S3" s="10">
         <v>1367.0</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="29">
+        <v>100.0</v>
+      </c>
+      <c r="U3" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="V3" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y3" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>52.0</v>
+      </c>
+      <c r="AC3" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="X3" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y3" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA3" s="33">
-        <v>52.0</v>
-      </c>
-      <c r="AB3" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC3" s="33">
+      <c r="AD3" s="32">
         <v>0.205</v>
       </c>
-      <c r="AD3" s="33">
+      <c r="AE3" s="32">
         <v>16.4</v>
       </c>
-      <c r="AE3" s="33">
+      <c r="AF3" s="32">
         <v>7.58</v>
       </c>
-      <c r="AF3" s="34">
+      <c r="AG3" s="34">
         <v>0.89</v>
       </c>
-      <c r="AG3" s="33">
+      <c r="AH3" s="32">
         <v>1.0</v>
       </c>
-      <c r="AH3" s="35">
+      <c r="AI3" s="35">
         <v>41306.0</v>
       </c>
-      <c r="AI3" s="35">
+      <c r="AJ3" s="35">
         <v>41339.0</v>
       </c>
     </row>
@@ -3188,52 +3153,55 @@
       <c r="S4" s="10">
         <v>1231.0</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="29">
+        <v>101.0</v>
+      </c>
+      <c r="U4" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="U4" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="W4" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="X4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="Y4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="32" t="s">
-        <v>244</v>
-      </c>
       <c r="Z4" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA4" s="33">
+        <v>240</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB4" s="32">
         <v>1065.0</v>
       </c>
-      <c r="AB4" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC4" s="33">
+      <c r="AC4" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD4" s="32">
         <v>10.8</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AE4" s="32">
         <v>24.5</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AF4" s="32">
         <v>18.0</v>
       </c>
-      <c r="AF4" s="34">
+      <c r="AG4" s="34">
         <v>27.0</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AH4" s="32">
         <v>2.0</v>
       </c>
-      <c r="AH4" s="35">
+      <c r="AI4" s="35">
         <v>43191.0</v>
       </c>
-      <c r="AI4" s="35">
+      <c r="AJ4" s="35">
         <v>43202.0</v>
       </c>
     </row>
@@ -3295,52 +3263,55 @@
       <c r="S5" s="10">
         <v>1478.0</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="29">
+        <v>102.0</v>
+      </c>
+      <c r="U5" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="U5" s="30" t="s">
+      <c r="V5" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="V5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="W5" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="X5" s="32" t="s">
+      <c r="AB5" s="32">
+        <v>164.0</v>
+      </c>
+      <c r="AC5" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="Y5" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z5" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA5" s="33">
-        <v>164.0</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC5" s="33">
+      <c r="AD5" s="32">
         <v>2.4</v>
       </c>
-      <c r="AD5" s="33">
+      <c r="AE5" s="32">
         <v>22.5</v>
       </c>
-      <c r="AE5" s="33">
+      <c r="AF5" s="32">
         <v>9.0</v>
       </c>
-      <c r="AF5" s="33">
+      <c r="AG5" s="32">
         <v>22.5</v>
       </c>
-      <c r="AG5" s="33">
+      <c r="AH5" s="32">
         <v>3.0</v>
       </c>
-      <c r="AH5" s="35">
+      <c r="AI5" s="35">
         <v>43904.0</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AJ5" s="35">
         <v>43920.0</v>
       </c>
     </row>
@@ -3402,52 +3373,55 @@
       <c r="S6" s="10">
         <v>1099.0</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="29">
+        <v>103.0</v>
+      </c>
+      <c r="U6" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="V6" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y6" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="V6" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="W6" s="32" t="s">
+      <c r="AA6" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="AB6" s="32">
+        <v>1528.0</v>
+      </c>
+      <c r="AC6" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="Y6" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z6" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA6" s="33">
-        <v>1528.0</v>
-      </c>
-      <c r="AB6" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC6" s="33">
+      <c r="AD6" s="32">
         <v>3.0</v>
       </c>
-      <c r="AD6" s="33">
+      <c r="AE6" s="32">
         <v>5.0</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AF6" s="32">
         <v>16.0</v>
       </c>
-      <c r="AF6" s="34">
+      <c r="AG6" s="34">
         <v>5.0</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AH6" s="32">
         <v>10.0</v>
       </c>
-      <c r="AH6" s="35">
+      <c r="AI6" s="35">
         <v>44099.0</v>
       </c>
-      <c r="AI6" s="40">
+      <c r="AJ6" s="40">
         <v>44114.0</v>
       </c>
     </row>
@@ -3509,52 +3483,55 @@
       <c r="S7" s="10">
         <v>1231.0</v>
       </c>
-      <c r="T7" s="38" t="s">
+      <c r="T7" s="29">
+        <v>102.0</v>
+      </c>
+      <c r="U7" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="U7" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="V7" s="38" t="s">
+      <c r="V7" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="W7" s="32" t="s">
-        <v>259</v>
-      </c>
       <c r="X7" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y7" s="32" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="Y7" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="Z7" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA7" s="33">
-        <v>1714.0</v>
-      </c>
-      <c r="AB7" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC7" s="33">
+        <v>246</v>
+      </c>
+      <c r="AA7" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>164.0</v>
+      </c>
+      <c r="AC7" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD7" s="32">
         <v>3.0</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AE7" s="32">
         <v>5.0</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AF7" s="32">
         <v>16.0</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AG7" s="34">
         <v>5.0</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AH7" s="32">
         <v>30.0</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="AI7" s="35">
         <v>44166.0</v>
       </c>
-      <c r="AI7" s="40">
+      <c r="AJ7" s="40">
         <v>44179.0</v>
       </c>
     </row>
@@ -3616,52 +3593,55 @@
       <c r="S8" s="10">
         <v>1478.0</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="29">
+        <v>102.0</v>
+      </c>
+      <c r="U8" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="U8" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="W8" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="W8" s="32" t="s">
-        <v>17</v>
-      </c>
       <c r="X8" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y8" s="32" t="s">
-        <v>265</v>
+        <v>244</v>
+      </c>
+      <c r="Y8" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="Z8" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA8" s="33">
-        <v>133.0</v>
-      </c>
-      <c r="AB8" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC8" s="33">
+        <v>246</v>
+      </c>
+      <c r="AA8" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB8" s="32">
+        <v>164.0</v>
+      </c>
+      <c r="AC8" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD8" s="32">
         <v>1.0</v>
       </c>
-      <c r="AD8" s="42">
+      <c r="AE8" s="42">
         <v>12.9</v>
       </c>
-      <c r="AE8" s="42">
+      <c r="AF8" s="42">
         <v>13.6</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AG8" s="34">
         <v>23.9</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AH8" s="32">
         <v>3.0</v>
       </c>
-      <c r="AH8" s="35">
+      <c r="AI8" s="35">
         <v>44316.0</v>
       </c>
-      <c r="AI8" s="35">
+      <c r="AJ8" s="35">
         <v>44327.0</v>
       </c>
     </row>
@@ -3723,52 +3703,55 @@
       <c r="S9" s="9">
         <v>1517.0</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="29">
+        <v>104.0</v>
+      </c>
+      <c r="U9" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="U9" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="V9" s="43" t="s">
+      <c r="V9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="W9" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="X9" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="X9" s="33" t="s">
+      <c r="Y9" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="Y9" s="32" t="s">
-        <v>268</v>
-      </c>
       <c r="Z9" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA9" s="33">
+        <v>256</v>
+      </c>
+      <c r="AA9" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB9" s="32">
         <v>1115.0</v>
       </c>
-      <c r="AB9" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC9" s="44">
+      <c r="AC9" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD9" s="44">
         <v>2.36</v>
       </c>
-      <c r="AD9" s="33">
+      <c r="AE9" s="32">
         <v>90.0</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AF9" s="32">
         <v>35.0</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AG9" s="34">
         <v>44.0</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AH9" s="32">
         <v>1.0</v>
       </c>
-      <c r="AH9" s="35">
+      <c r="AI9" s="35">
         <v>44318.0</v>
       </c>
-      <c r="AI9" s="35">
+      <c r="AJ9" s="35">
         <v>44326.0</v>
       </c>
     </row>
@@ -3830,52 +3813,55 @@
       <c r="S10" s="46">
         <v>211.0</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="29">
+        <v>105.0</v>
+      </c>
+      <c r="U10" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="U10" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="V10" s="43" t="s">
+      <c r="V10" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="W10" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="W10" s="32" t="s">
-        <v>233</v>
-      </c>
       <c r="X10" s="33" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="Y10" s="32" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="Z10" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA10" s="33">
+        <v>261</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB10" s="32">
         <v>1703.0</v>
       </c>
-      <c r="AB10" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC10" s="33">
+      <c r="AC10" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD10" s="32">
         <v>2.0</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AE10" s="32">
         <v>10.0</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AF10" s="32">
         <v>10.0</v>
       </c>
-      <c r="AF10" s="34">
+      <c r="AG10" s="34">
         <v>10.0</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AH10" s="32">
         <v>5.0</v>
       </c>
-      <c r="AH10" s="35">
+      <c r="AI10" s="35">
         <v>44329.0</v>
       </c>
-      <c r="AI10" s="35">
+      <c r="AJ10" s="35">
         <v>44335.0</v>
       </c>
     </row>
@@ -3937,4010 +3923,5002 @@
       <c r="S11" s="7">
         <v>11.0</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="T11" s="29">
+        <v>106.0</v>
+      </c>
+      <c r="U11" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="U11" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="W11" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="W11" s="32" t="s">
+      <c r="X11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="33" t="s">
-        <v>276</v>
-      </c>
       <c r="Y11" s="32" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA11" s="33">
+        <v>265</v>
+      </c>
+      <c r="AA11" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB11" s="32">
         <v>507.0</v>
       </c>
-      <c r="AB11" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC11" s="33">
+      <c r="AC11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD11" s="32">
         <v>0.05</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AE11" s="32">
         <v>4.0</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AF11" s="32">
         <v>9.3</v>
       </c>
-      <c r="AF11" s="34">
+      <c r="AG11" s="34">
         <v>9.3</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AH11" s="32">
         <v>5.0</v>
       </c>
-      <c r="AH11" s="35">
+      <c r="AI11" s="35">
         <v>44348.0</v>
       </c>
-      <c r="AI11" s="35">
+      <c r="AJ11" s="35">
         <v>44378.0</v>
       </c>
     </row>
     <row r="12">
       <c r="AH12" s="48"/>
-      <c r="AI12" s="49"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
     </row>
     <row r="13">
       <c r="AH13" s="48"/>
-      <c r="AI13" s="49"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
     </row>
     <row r="14">
       <c r="AH14" s="48"/>
-      <c r="AI14" s="49"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
     </row>
     <row r="15">
       <c r="AH15" s="48"/>
-      <c r="AI15" s="49"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
     </row>
     <row r="16">
       <c r="AH16" s="48"/>
-      <c r="AI16" s="49"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
     </row>
     <row r="17">
       <c r="AH17" s="48"/>
-      <c r="AI17" s="49"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
     </row>
     <row r="18">
       <c r="AH18" s="48"/>
-      <c r="AI18" s="49"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
     </row>
     <row r="19">
       <c r="AH19" s="48"/>
-      <c r="AI19" s="49"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
     </row>
     <row r="20">
       <c r="AH20" s="48"/>
-      <c r="AI20" s="49"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
     </row>
     <row r="21">
       <c r="AH21" s="48"/>
-      <c r="AI21" s="49"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
     </row>
     <row r="22">
       <c r="AH22" s="48"/>
-      <c r="AI22" s="49"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
     </row>
     <row r="23">
       <c r="AH23" s="48"/>
-      <c r="AI23" s="49"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
     </row>
     <row r="24">
       <c r="AH24" s="48"/>
-      <c r="AI24" s="49"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
     </row>
     <row r="25">
       <c r="AH25" s="48"/>
-      <c r="AI25" s="49"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
     </row>
     <row r="26">
       <c r="AH26" s="48"/>
-      <c r="AI26" s="49"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
     </row>
     <row r="27">
       <c r="AH27" s="48"/>
-      <c r="AI27" s="49"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
     </row>
     <row r="28">
       <c r="AH28" s="48"/>
-      <c r="AI28" s="49"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
     </row>
     <row r="29">
       <c r="AH29" s="48"/>
-      <c r="AI29" s="49"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
     </row>
     <row r="30">
       <c r="AH30" s="48"/>
-      <c r="AI30" s="49"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
     </row>
     <row r="31">
       <c r="AH31" s="48"/>
-      <c r="AI31" s="49"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
     </row>
     <row r="32">
       <c r="AH32" s="48"/>
-      <c r="AI32" s="49"/>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="48"/>
     </row>
     <row r="33">
       <c r="AH33" s="48"/>
-      <c r="AI33" s="49"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
     </row>
     <row r="34">
       <c r="AH34" s="48"/>
-      <c r="AI34" s="49"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
     </row>
     <row r="35">
       <c r="AH35" s="48"/>
-      <c r="AI35" s="49"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
     </row>
     <row r="36">
       <c r="AH36" s="48"/>
-      <c r="AI36" s="49"/>
+      <c r="AI36" s="48"/>
+      <c r="AJ36" s="48"/>
     </row>
     <row r="37">
       <c r="AH37" s="48"/>
-      <c r="AI37" s="49"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
     </row>
     <row r="38">
       <c r="AH38" s="48"/>
-      <c r="AI38" s="49"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
     </row>
     <row r="39">
       <c r="AH39" s="48"/>
-      <c r="AI39" s="49"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
     </row>
     <row r="40">
       <c r="AH40" s="48"/>
-      <c r="AI40" s="49"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
     </row>
     <row r="41">
       <c r="AH41" s="48"/>
-      <c r="AI41" s="49"/>
+      <c r="AI41" s="48"/>
+      <c r="AJ41" s="48"/>
     </row>
     <row r="42">
       <c r="AH42" s="48"/>
-      <c r="AI42" s="49"/>
+      <c r="AI42" s="48"/>
+      <c r="AJ42" s="48"/>
     </row>
     <row r="43">
       <c r="AH43" s="48"/>
-      <c r="AI43" s="49"/>
+      <c r="AI43" s="48"/>
+      <c r="AJ43" s="48"/>
     </row>
     <row r="44">
       <c r="AH44" s="48"/>
-      <c r="AI44" s="49"/>
+      <c r="AI44" s="48"/>
+      <c r="AJ44" s="48"/>
     </row>
     <row r="45">
       <c r="AH45" s="48"/>
-      <c r="AI45" s="49"/>
+      <c r="AI45" s="48"/>
+      <c r="AJ45" s="48"/>
     </row>
     <row r="46">
       <c r="AH46" s="48"/>
-      <c r="AI46" s="49"/>
+      <c r="AI46" s="48"/>
+      <c r="AJ46" s="48"/>
     </row>
     <row r="47">
       <c r="AH47" s="48"/>
-      <c r="AI47" s="49"/>
+      <c r="AI47" s="48"/>
+      <c r="AJ47" s="48"/>
     </row>
     <row r="48">
       <c r="AH48" s="48"/>
-      <c r="AI48" s="49"/>
+      <c r="AI48" s="48"/>
+      <c r="AJ48" s="48"/>
     </row>
     <row r="49">
       <c r="AH49" s="48"/>
-      <c r="AI49" s="49"/>
+      <c r="AI49" s="48"/>
+      <c r="AJ49" s="48"/>
     </row>
     <row r="50">
       <c r="AH50" s="48"/>
-      <c r="AI50" s="49"/>
+      <c r="AI50" s="48"/>
+      <c r="AJ50" s="48"/>
     </row>
     <row r="51">
       <c r="AH51" s="48"/>
-      <c r="AI51" s="49"/>
+      <c r="AI51" s="48"/>
+      <c r="AJ51" s="48"/>
     </row>
     <row r="52">
       <c r="AH52" s="48"/>
-      <c r="AI52" s="49"/>
+      <c r="AI52" s="48"/>
+      <c r="AJ52" s="48"/>
     </row>
     <row r="53">
       <c r="AH53" s="48"/>
-      <c r="AI53" s="49"/>
+      <c r="AI53" s="48"/>
+      <c r="AJ53" s="48"/>
     </row>
     <row r="54">
       <c r="AH54" s="48"/>
-      <c r="AI54" s="49"/>
+      <c r="AI54" s="48"/>
+      <c r="AJ54" s="48"/>
     </row>
     <row r="55">
       <c r="AH55" s="48"/>
-      <c r="AI55" s="49"/>
+      <c r="AI55" s="48"/>
+      <c r="AJ55" s="48"/>
     </row>
     <row r="56">
       <c r="AH56" s="48"/>
-      <c r="AI56" s="49"/>
+      <c r="AI56" s="48"/>
+      <c r="AJ56" s="48"/>
     </row>
     <row r="57">
       <c r="AH57" s="48"/>
-      <c r="AI57" s="49"/>
+      <c r="AI57" s="48"/>
+      <c r="AJ57" s="48"/>
     </row>
     <row r="58">
       <c r="AH58" s="48"/>
-      <c r="AI58" s="49"/>
+      <c r="AI58" s="48"/>
+      <c r="AJ58" s="48"/>
     </row>
     <row r="59">
       <c r="AH59" s="48"/>
-      <c r="AI59" s="49"/>
+      <c r="AI59" s="48"/>
+      <c r="AJ59" s="48"/>
     </row>
     <row r="60">
       <c r="AH60" s="48"/>
-      <c r="AI60" s="49"/>
+      <c r="AI60" s="48"/>
+      <c r="AJ60" s="48"/>
     </row>
     <row r="61">
       <c r="AH61" s="48"/>
-      <c r="AI61" s="49"/>
+      <c r="AI61" s="48"/>
+      <c r="AJ61" s="48"/>
     </row>
     <row r="62">
       <c r="AH62" s="48"/>
-      <c r="AI62" s="49"/>
+      <c r="AI62" s="48"/>
+      <c r="AJ62" s="48"/>
     </row>
     <row r="63">
       <c r="AH63" s="48"/>
-      <c r="AI63" s="49"/>
+      <c r="AI63" s="48"/>
+      <c r="AJ63" s="48"/>
     </row>
     <row r="64">
       <c r="AH64" s="48"/>
-      <c r="AI64" s="49"/>
+      <c r="AI64" s="48"/>
+      <c r="AJ64" s="48"/>
     </row>
     <row r="65">
       <c r="AH65" s="48"/>
-      <c r="AI65" s="49"/>
+      <c r="AI65" s="48"/>
+      <c r="AJ65" s="48"/>
     </row>
     <row r="66">
       <c r="AH66" s="48"/>
-      <c r="AI66" s="49"/>
+      <c r="AI66" s="48"/>
+      <c r="AJ66" s="48"/>
     </row>
     <row r="67">
       <c r="AH67" s="48"/>
-      <c r="AI67" s="49"/>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
     </row>
     <row r="68">
       <c r="AH68" s="48"/>
-      <c r="AI68" s="49"/>
+      <c r="AI68" s="48"/>
+      <c r="AJ68" s="48"/>
     </row>
     <row r="69">
       <c r="AH69" s="48"/>
-      <c r="AI69" s="49"/>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
     </row>
     <row r="70">
       <c r="AH70" s="48"/>
-      <c r="AI70" s="49"/>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
     </row>
     <row r="71">
       <c r="AH71" s="48"/>
-      <c r="AI71" s="49"/>
+      <c r="AI71" s="48"/>
+      <c r="AJ71" s="48"/>
     </row>
     <row r="72">
       <c r="AH72" s="48"/>
-      <c r="AI72" s="49"/>
+      <c r="AI72" s="48"/>
+      <c r="AJ72" s="48"/>
     </row>
     <row r="73">
       <c r="AH73" s="48"/>
-      <c r="AI73" s="49"/>
+      <c r="AI73" s="48"/>
+      <c r="AJ73" s="48"/>
     </row>
     <row r="74">
       <c r="AH74" s="48"/>
-      <c r="AI74" s="49"/>
+      <c r="AI74" s="48"/>
+      <c r="AJ74" s="48"/>
     </row>
     <row r="75">
       <c r="AH75" s="48"/>
-      <c r="AI75" s="49"/>
+      <c r="AI75" s="48"/>
+      <c r="AJ75" s="48"/>
     </row>
     <row r="76">
       <c r="AH76" s="48"/>
-      <c r="AI76" s="49"/>
+      <c r="AI76" s="48"/>
+      <c r="AJ76" s="48"/>
     </row>
     <row r="77">
       <c r="AH77" s="48"/>
-      <c r="AI77" s="49"/>
+      <c r="AI77" s="48"/>
+      <c r="AJ77" s="48"/>
     </row>
     <row r="78">
       <c r="AH78" s="48"/>
-      <c r="AI78" s="49"/>
+      <c r="AI78" s="48"/>
+      <c r="AJ78" s="48"/>
     </row>
     <row r="79">
       <c r="AH79" s="48"/>
-      <c r="AI79" s="49"/>
+      <c r="AI79" s="48"/>
+      <c r="AJ79" s="48"/>
     </row>
     <row r="80">
       <c r="AH80" s="48"/>
-      <c r="AI80" s="49"/>
+      <c r="AI80" s="48"/>
+      <c r="AJ80" s="48"/>
     </row>
     <row r="81">
       <c r="AH81" s="48"/>
-      <c r="AI81" s="49"/>
+      <c r="AI81" s="48"/>
+      <c r="AJ81" s="48"/>
     </row>
     <row r="82">
       <c r="AH82" s="48"/>
-      <c r="AI82" s="49"/>
+      <c r="AI82" s="48"/>
+      <c r="AJ82" s="48"/>
     </row>
     <row r="83">
       <c r="AH83" s="48"/>
-      <c r="AI83" s="49"/>
+      <c r="AI83" s="48"/>
+      <c r="AJ83" s="48"/>
     </row>
     <row r="84">
       <c r="AH84" s="48"/>
-      <c r="AI84" s="49"/>
+      <c r="AI84" s="48"/>
+      <c r="AJ84" s="48"/>
     </row>
     <row r="85">
       <c r="AH85" s="48"/>
-      <c r="AI85" s="49"/>
+      <c r="AI85" s="48"/>
+      <c r="AJ85" s="48"/>
     </row>
     <row r="86">
       <c r="AH86" s="48"/>
-      <c r="AI86" s="49"/>
+      <c r="AI86" s="48"/>
+      <c r="AJ86" s="48"/>
     </row>
     <row r="87">
       <c r="AH87" s="48"/>
-      <c r="AI87" s="49"/>
+      <c r="AI87" s="48"/>
+      <c r="AJ87" s="48"/>
     </row>
     <row r="88">
       <c r="AH88" s="48"/>
-      <c r="AI88" s="49"/>
+      <c r="AI88" s="48"/>
+      <c r="AJ88" s="48"/>
     </row>
     <row r="89">
       <c r="AH89" s="48"/>
-      <c r="AI89" s="49"/>
+      <c r="AI89" s="48"/>
+      <c r="AJ89" s="48"/>
     </row>
     <row r="90">
       <c r="AH90" s="48"/>
-      <c r="AI90" s="49"/>
+      <c r="AI90" s="48"/>
+      <c r="AJ90" s="48"/>
     </row>
     <row r="91">
       <c r="AH91" s="48"/>
-      <c r="AI91" s="49"/>
+      <c r="AI91" s="48"/>
+      <c r="AJ91" s="48"/>
     </row>
     <row r="92">
       <c r="AH92" s="48"/>
-      <c r="AI92" s="49"/>
+      <c r="AI92" s="48"/>
+      <c r="AJ92" s="48"/>
     </row>
     <row r="93">
       <c r="AH93" s="48"/>
-      <c r="AI93" s="49"/>
+      <c r="AI93" s="48"/>
+      <c r="AJ93" s="48"/>
     </row>
     <row r="94">
       <c r="AH94" s="48"/>
-      <c r="AI94" s="49"/>
+      <c r="AI94" s="48"/>
+      <c r="AJ94" s="48"/>
     </row>
     <row r="95">
       <c r="AH95" s="48"/>
-      <c r="AI95" s="49"/>
+      <c r="AI95" s="48"/>
+      <c r="AJ95" s="48"/>
     </row>
     <row r="96">
       <c r="AH96" s="48"/>
-      <c r="AI96" s="49"/>
+      <c r="AI96" s="48"/>
+      <c r="AJ96" s="48"/>
     </row>
     <row r="97">
       <c r="AH97" s="48"/>
-      <c r="AI97" s="49"/>
+      <c r="AI97" s="48"/>
+      <c r="AJ97" s="48"/>
     </row>
     <row r="98">
       <c r="AH98" s="48"/>
-      <c r="AI98" s="49"/>
+      <c r="AI98" s="48"/>
+      <c r="AJ98" s="48"/>
     </row>
     <row r="99">
       <c r="AH99" s="48"/>
-      <c r="AI99" s="49"/>
+      <c r="AI99" s="48"/>
+      <c r="AJ99" s="48"/>
     </row>
     <row r="100">
       <c r="AH100" s="48"/>
-      <c r="AI100" s="49"/>
+      <c r="AI100" s="48"/>
+      <c r="AJ100" s="48"/>
     </row>
     <row r="101">
       <c r="AH101" s="48"/>
-      <c r="AI101" s="49"/>
+      <c r="AI101" s="48"/>
+      <c r="AJ101" s="48"/>
     </row>
     <row r="102">
       <c r="AH102" s="48"/>
-      <c r="AI102" s="49"/>
+      <c r="AI102" s="48"/>
+      <c r="AJ102" s="48"/>
     </row>
     <row r="103">
       <c r="AH103" s="48"/>
-      <c r="AI103" s="49"/>
+      <c r="AI103" s="48"/>
+      <c r="AJ103" s="48"/>
     </row>
     <row r="104">
       <c r="AH104" s="48"/>
-      <c r="AI104" s="49"/>
+      <c r="AI104" s="48"/>
+      <c r="AJ104" s="48"/>
     </row>
     <row r="105">
       <c r="AH105" s="48"/>
-      <c r="AI105" s="49"/>
+      <c r="AI105" s="48"/>
+      <c r="AJ105" s="48"/>
     </row>
     <row r="106">
       <c r="AH106" s="48"/>
-      <c r="AI106" s="49"/>
+      <c r="AI106" s="48"/>
+      <c r="AJ106" s="48"/>
     </row>
     <row r="107">
       <c r="AH107" s="48"/>
-      <c r="AI107" s="49"/>
+      <c r="AI107" s="48"/>
+      <c r="AJ107" s="48"/>
     </row>
     <row r="108">
       <c r="AH108" s="48"/>
-      <c r="AI108" s="49"/>
+      <c r="AI108" s="48"/>
+      <c r="AJ108" s="48"/>
     </row>
     <row r="109">
       <c r="AH109" s="48"/>
-      <c r="AI109" s="49"/>
+      <c r="AI109" s="48"/>
+      <c r="AJ109" s="48"/>
     </row>
     <row r="110">
       <c r="AH110" s="48"/>
-      <c r="AI110" s="49"/>
+      <c r="AI110" s="48"/>
+      <c r="AJ110" s="48"/>
     </row>
     <row r="111">
       <c r="AH111" s="48"/>
-      <c r="AI111" s="49"/>
+      <c r="AI111" s="48"/>
+      <c r="AJ111" s="48"/>
     </row>
     <row r="112">
       <c r="AH112" s="48"/>
-      <c r="AI112" s="49"/>
+      <c r="AI112" s="48"/>
+      <c r="AJ112" s="48"/>
     </row>
     <row r="113">
       <c r="AH113" s="48"/>
-      <c r="AI113" s="49"/>
+      <c r="AI113" s="48"/>
+      <c r="AJ113" s="48"/>
     </row>
     <row r="114">
       <c r="AH114" s="48"/>
-      <c r="AI114" s="49"/>
+      <c r="AI114" s="48"/>
+      <c r="AJ114" s="48"/>
     </row>
     <row r="115">
       <c r="AH115" s="48"/>
-      <c r="AI115" s="49"/>
+      <c r="AI115" s="48"/>
+      <c r="AJ115" s="48"/>
     </row>
     <row r="116">
       <c r="AH116" s="48"/>
-      <c r="AI116" s="49"/>
+      <c r="AI116" s="48"/>
+      <c r="AJ116" s="48"/>
     </row>
     <row r="117">
       <c r="AH117" s="48"/>
-      <c r="AI117" s="49"/>
+      <c r="AI117" s="48"/>
+      <c r="AJ117" s="48"/>
     </row>
     <row r="118">
       <c r="AH118" s="48"/>
-      <c r="AI118" s="49"/>
+      <c r="AI118" s="48"/>
+      <c r="AJ118" s="48"/>
     </row>
     <row r="119">
       <c r="AH119" s="48"/>
-      <c r="AI119" s="49"/>
+      <c r="AI119" s="48"/>
+      <c r="AJ119" s="48"/>
     </row>
     <row r="120">
       <c r="AH120" s="48"/>
-      <c r="AI120" s="49"/>
+      <c r="AI120" s="48"/>
+      <c r="AJ120" s="48"/>
     </row>
     <row r="121">
       <c r="AH121" s="48"/>
-      <c r="AI121" s="49"/>
+      <c r="AI121" s="48"/>
+      <c r="AJ121" s="48"/>
     </row>
     <row r="122">
       <c r="AH122" s="48"/>
-      <c r="AI122" s="49"/>
+      <c r="AI122" s="48"/>
+      <c r="AJ122" s="48"/>
     </row>
     <row r="123">
       <c r="AH123" s="48"/>
-      <c r="AI123" s="49"/>
+      <c r="AI123" s="48"/>
+      <c r="AJ123" s="48"/>
     </row>
     <row r="124">
       <c r="AH124" s="48"/>
-      <c r="AI124" s="49"/>
+      <c r="AI124" s="48"/>
+      <c r="AJ124" s="48"/>
     </row>
     <row r="125">
       <c r="AH125" s="48"/>
-      <c r="AI125" s="49"/>
+      <c r="AI125" s="48"/>
+      <c r="AJ125" s="48"/>
     </row>
     <row r="126">
       <c r="AH126" s="48"/>
-      <c r="AI126" s="49"/>
+      <c r="AI126" s="48"/>
+      <c r="AJ126" s="48"/>
     </row>
     <row r="127">
       <c r="AH127" s="48"/>
-      <c r="AI127" s="49"/>
+      <c r="AI127" s="48"/>
+      <c r="AJ127" s="48"/>
     </row>
     <row r="128">
       <c r="AH128" s="48"/>
-      <c r="AI128" s="49"/>
+      <c r="AI128" s="48"/>
+      <c r="AJ128" s="48"/>
     </row>
     <row r="129">
       <c r="AH129" s="48"/>
-      <c r="AI129" s="49"/>
+      <c r="AI129" s="48"/>
+      <c r="AJ129" s="48"/>
     </row>
     <row r="130">
       <c r="AH130" s="48"/>
-      <c r="AI130" s="49"/>
+      <c r="AI130" s="48"/>
+      <c r="AJ130" s="48"/>
     </row>
     <row r="131">
       <c r="AH131" s="48"/>
-      <c r="AI131" s="49"/>
+      <c r="AI131" s="48"/>
+      <c r="AJ131" s="48"/>
     </row>
     <row r="132">
       <c r="AH132" s="48"/>
-      <c r="AI132" s="49"/>
+      <c r="AI132" s="48"/>
+      <c r="AJ132" s="48"/>
     </row>
     <row r="133">
       <c r="AH133" s="48"/>
-      <c r="AI133" s="49"/>
+      <c r="AI133" s="48"/>
+      <c r="AJ133" s="48"/>
     </row>
     <row r="134">
       <c r="AH134" s="48"/>
-      <c r="AI134" s="49"/>
+      <c r="AI134" s="48"/>
+      <c r="AJ134" s="48"/>
     </row>
     <row r="135">
       <c r="AH135" s="48"/>
-      <c r="AI135" s="49"/>
+      <c r="AI135" s="48"/>
+      <c r="AJ135" s="48"/>
     </row>
     <row r="136">
       <c r="AH136" s="48"/>
-      <c r="AI136" s="49"/>
+      <c r="AI136" s="48"/>
+      <c r="AJ136" s="48"/>
     </row>
     <row r="137">
       <c r="AH137" s="48"/>
-      <c r="AI137" s="49"/>
+      <c r="AI137" s="48"/>
+      <c r="AJ137" s="48"/>
     </row>
     <row r="138">
       <c r="AH138" s="48"/>
-      <c r="AI138" s="49"/>
+      <c r="AI138" s="48"/>
+      <c r="AJ138" s="48"/>
     </row>
     <row r="139">
       <c r="AH139" s="48"/>
-      <c r="AI139" s="49"/>
+      <c r="AI139" s="48"/>
+      <c r="AJ139" s="48"/>
     </row>
     <row r="140">
       <c r="AH140" s="48"/>
-      <c r="AI140" s="49"/>
+      <c r="AI140" s="48"/>
+      <c r="AJ140" s="48"/>
     </row>
     <row r="141">
       <c r="AH141" s="48"/>
-      <c r="AI141" s="49"/>
+      <c r="AI141" s="48"/>
+      <c r="AJ141" s="48"/>
     </row>
     <row r="142">
       <c r="AH142" s="48"/>
-      <c r="AI142" s="49"/>
+      <c r="AI142" s="48"/>
+      <c r="AJ142" s="48"/>
     </row>
     <row r="143">
       <c r="AH143" s="48"/>
-      <c r="AI143" s="49"/>
+      <c r="AI143" s="48"/>
+      <c r="AJ143" s="48"/>
     </row>
     <row r="144">
       <c r="AH144" s="48"/>
-      <c r="AI144" s="49"/>
+      <c r="AI144" s="48"/>
+      <c r="AJ144" s="48"/>
     </row>
     <row r="145">
       <c r="AH145" s="48"/>
-      <c r="AI145" s="49"/>
+      <c r="AI145" s="48"/>
+      <c r="AJ145" s="48"/>
     </row>
     <row r="146">
       <c r="AH146" s="48"/>
-      <c r="AI146" s="49"/>
+      <c r="AI146" s="48"/>
+      <c r="AJ146" s="48"/>
     </row>
     <row r="147">
       <c r="AH147" s="48"/>
-      <c r="AI147" s="49"/>
+      <c r="AI147" s="48"/>
+      <c r="AJ147" s="48"/>
     </row>
     <row r="148">
       <c r="AH148" s="48"/>
-      <c r="AI148" s="49"/>
+      <c r="AI148" s="48"/>
+      <c r="AJ148" s="48"/>
     </row>
     <row r="149">
       <c r="AH149" s="48"/>
-      <c r="AI149" s="49"/>
+      <c r="AI149" s="48"/>
+      <c r="AJ149" s="48"/>
     </row>
     <row r="150">
       <c r="AH150" s="48"/>
-      <c r="AI150" s="49"/>
+      <c r="AI150" s="48"/>
+      <c r="AJ150" s="48"/>
     </row>
     <row r="151">
       <c r="AH151" s="48"/>
-      <c r="AI151" s="49"/>
+      <c r="AI151" s="48"/>
+      <c r="AJ151" s="48"/>
     </row>
     <row r="152">
       <c r="AH152" s="48"/>
-      <c r="AI152" s="49"/>
+      <c r="AI152" s="48"/>
+      <c r="AJ152" s="48"/>
     </row>
     <row r="153">
       <c r="AH153" s="48"/>
-      <c r="AI153" s="49"/>
+      <c r="AI153" s="48"/>
+      <c r="AJ153" s="48"/>
     </row>
     <row r="154">
       <c r="AH154" s="48"/>
-      <c r="AI154" s="49"/>
+      <c r="AI154" s="48"/>
+      <c r="AJ154" s="48"/>
     </row>
     <row r="155">
       <c r="AH155" s="48"/>
-      <c r="AI155" s="49"/>
+      <c r="AI155" s="48"/>
+      <c r="AJ155" s="48"/>
     </row>
     <row r="156">
       <c r="AH156" s="48"/>
-      <c r="AI156" s="49"/>
+      <c r="AI156" s="48"/>
+      <c r="AJ156" s="48"/>
     </row>
     <row r="157">
       <c r="AH157" s="48"/>
-      <c r="AI157" s="49"/>
+      <c r="AI157" s="48"/>
+      <c r="AJ157" s="48"/>
     </row>
     <row r="158">
       <c r="AH158" s="48"/>
-      <c r="AI158" s="49"/>
+      <c r="AI158" s="48"/>
+      <c r="AJ158" s="48"/>
     </row>
     <row r="159">
       <c r="AH159" s="48"/>
-      <c r="AI159" s="49"/>
+      <c r="AI159" s="48"/>
+      <c r="AJ159" s="48"/>
     </row>
     <row r="160">
       <c r="AH160" s="48"/>
-      <c r="AI160" s="49"/>
+      <c r="AI160" s="48"/>
+      <c r="AJ160" s="48"/>
     </row>
     <row r="161">
       <c r="AH161" s="48"/>
-      <c r="AI161" s="49"/>
+      <c r="AI161" s="48"/>
+      <c r="AJ161" s="48"/>
     </row>
     <row r="162">
       <c r="AH162" s="48"/>
-      <c r="AI162" s="49"/>
+      <c r="AI162" s="48"/>
+      <c r="AJ162" s="48"/>
     </row>
     <row r="163">
       <c r="AH163" s="48"/>
-      <c r="AI163" s="49"/>
+      <c r="AI163" s="48"/>
+      <c r="AJ163" s="48"/>
     </row>
     <row r="164">
       <c r="AH164" s="48"/>
-      <c r="AI164" s="49"/>
+      <c r="AI164" s="48"/>
+      <c r="AJ164" s="48"/>
     </row>
     <row r="165">
       <c r="AH165" s="48"/>
-      <c r="AI165" s="49"/>
+      <c r="AI165" s="48"/>
+      <c r="AJ165" s="48"/>
     </row>
     <row r="166">
       <c r="AH166" s="48"/>
-      <c r="AI166" s="49"/>
+      <c r="AI166" s="48"/>
+      <c r="AJ166" s="48"/>
     </row>
     <row r="167">
       <c r="AH167" s="48"/>
-      <c r="AI167" s="49"/>
+      <c r="AI167" s="48"/>
+      <c r="AJ167" s="48"/>
     </row>
     <row r="168">
       <c r="AH168" s="48"/>
-      <c r="AI168" s="49"/>
+      <c r="AI168" s="48"/>
+      <c r="AJ168" s="48"/>
     </row>
     <row r="169">
       <c r="AH169" s="48"/>
-      <c r="AI169" s="49"/>
+      <c r="AI169" s="48"/>
+      <c r="AJ169" s="48"/>
     </row>
     <row r="170">
       <c r="AH170" s="48"/>
-      <c r="AI170" s="49"/>
+      <c r="AI170" s="48"/>
+      <c r="AJ170" s="48"/>
     </row>
     <row r="171">
       <c r="AH171" s="48"/>
-      <c r="AI171" s="49"/>
+      <c r="AI171" s="48"/>
+      <c r="AJ171" s="48"/>
     </row>
     <row r="172">
       <c r="AH172" s="48"/>
-      <c r="AI172" s="49"/>
+      <c r="AI172" s="48"/>
+      <c r="AJ172" s="48"/>
     </row>
     <row r="173">
       <c r="AH173" s="48"/>
-      <c r="AI173" s="49"/>
+      <c r="AI173" s="48"/>
+      <c r="AJ173" s="48"/>
     </row>
     <row r="174">
       <c r="AH174" s="48"/>
-      <c r="AI174" s="49"/>
+      <c r="AI174" s="48"/>
+      <c r="AJ174" s="48"/>
     </row>
     <row r="175">
       <c r="AH175" s="48"/>
-      <c r="AI175" s="49"/>
+      <c r="AI175" s="48"/>
+      <c r="AJ175" s="48"/>
     </row>
     <row r="176">
       <c r="AH176" s="48"/>
-      <c r="AI176" s="49"/>
+      <c r="AI176" s="48"/>
+      <c r="AJ176" s="48"/>
     </row>
     <row r="177">
       <c r="AH177" s="48"/>
-      <c r="AI177" s="49"/>
+      <c r="AI177" s="48"/>
+      <c r="AJ177" s="48"/>
     </row>
     <row r="178">
       <c r="AH178" s="48"/>
-      <c r="AI178" s="49"/>
+      <c r="AI178" s="48"/>
+      <c r="AJ178" s="48"/>
     </row>
     <row r="179">
       <c r="AH179" s="48"/>
-      <c r="AI179" s="49"/>
+      <c r="AI179" s="48"/>
+      <c r="AJ179" s="48"/>
     </row>
     <row r="180">
       <c r="AH180" s="48"/>
-      <c r="AI180" s="49"/>
+      <c r="AI180" s="48"/>
+      <c r="AJ180" s="48"/>
     </row>
     <row r="181">
       <c r="AH181" s="48"/>
-      <c r="AI181" s="49"/>
+      <c r="AI181" s="48"/>
+      <c r="AJ181" s="48"/>
     </row>
     <row r="182">
       <c r="AH182" s="48"/>
-      <c r="AI182" s="49"/>
+      <c r="AI182" s="48"/>
+      <c r="AJ182" s="48"/>
     </row>
     <row r="183">
       <c r="AH183" s="48"/>
-      <c r="AI183" s="49"/>
+      <c r="AI183" s="48"/>
+      <c r="AJ183" s="48"/>
     </row>
     <row r="184">
       <c r="AH184" s="48"/>
-      <c r="AI184" s="49"/>
+      <c r="AI184" s="48"/>
+      <c r="AJ184" s="48"/>
     </row>
     <row r="185">
       <c r="AH185" s="48"/>
-      <c r="AI185" s="49"/>
+      <c r="AI185" s="48"/>
+      <c r="AJ185" s="48"/>
     </row>
     <row r="186">
       <c r="AH186" s="48"/>
-      <c r="AI186" s="49"/>
+      <c r="AI186" s="48"/>
+      <c r="AJ186" s="48"/>
     </row>
     <row r="187">
       <c r="AH187" s="48"/>
-      <c r="AI187" s="49"/>
+      <c r="AI187" s="48"/>
+      <c r="AJ187" s="48"/>
     </row>
     <row r="188">
       <c r="AH188" s="48"/>
-      <c r="AI188" s="49"/>
+      <c r="AI188" s="48"/>
+      <c r="AJ188" s="48"/>
     </row>
     <row r="189">
       <c r="AH189" s="48"/>
-      <c r="AI189" s="49"/>
+      <c r="AI189" s="48"/>
+      <c r="AJ189" s="48"/>
     </row>
     <row r="190">
       <c r="AH190" s="48"/>
-      <c r="AI190" s="49"/>
+      <c r="AI190" s="48"/>
+      <c r="AJ190" s="48"/>
     </row>
     <row r="191">
       <c r="AH191" s="48"/>
-      <c r="AI191" s="49"/>
+      <c r="AI191" s="48"/>
+      <c r="AJ191" s="48"/>
     </row>
     <row r="192">
       <c r="AH192" s="48"/>
-      <c r="AI192" s="49"/>
+      <c r="AI192" s="48"/>
+      <c r="AJ192" s="48"/>
     </row>
     <row r="193">
       <c r="AH193" s="48"/>
-      <c r="AI193" s="49"/>
+      <c r="AI193" s="48"/>
+      <c r="AJ193" s="48"/>
     </row>
     <row r="194">
       <c r="AH194" s="48"/>
-      <c r="AI194" s="49"/>
+      <c r="AI194" s="48"/>
+      <c r="AJ194" s="48"/>
     </row>
     <row r="195">
       <c r="AH195" s="48"/>
-      <c r="AI195" s="49"/>
+      <c r="AI195" s="48"/>
+      <c r="AJ195" s="48"/>
     </row>
     <row r="196">
       <c r="AH196" s="48"/>
-      <c r="AI196" s="49"/>
+      <c r="AI196" s="48"/>
+      <c r="AJ196" s="48"/>
     </row>
     <row r="197">
       <c r="AH197" s="48"/>
-      <c r="AI197" s="49"/>
+      <c r="AI197" s="48"/>
+      <c r="AJ197" s="48"/>
     </row>
     <row r="198">
       <c r="AH198" s="48"/>
-      <c r="AI198" s="49"/>
+      <c r="AI198" s="48"/>
+      <c r="AJ198" s="48"/>
     </row>
     <row r="199">
       <c r="AH199" s="48"/>
-      <c r="AI199" s="49"/>
+      <c r="AI199" s="48"/>
+      <c r="AJ199" s="48"/>
     </row>
     <row r="200">
       <c r="AH200" s="48"/>
-      <c r="AI200" s="49"/>
+      <c r="AI200" s="48"/>
+      <c r="AJ200" s="48"/>
     </row>
     <row r="201">
       <c r="AH201" s="48"/>
-      <c r="AI201" s="49"/>
+      <c r="AI201" s="48"/>
+      <c r="AJ201" s="48"/>
     </row>
     <row r="202">
       <c r="AH202" s="48"/>
-      <c r="AI202" s="49"/>
+      <c r="AI202" s="48"/>
+      <c r="AJ202" s="48"/>
     </row>
     <row r="203">
       <c r="AH203" s="48"/>
-      <c r="AI203" s="49"/>
+      <c r="AI203" s="48"/>
+      <c r="AJ203" s="48"/>
     </row>
     <row r="204">
       <c r="AH204" s="48"/>
-      <c r="AI204" s="49"/>
+      <c r="AI204" s="48"/>
+      <c r="AJ204" s="48"/>
     </row>
     <row r="205">
       <c r="AH205" s="48"/>
-      <c r="AI205" s="49"/>
+      <c r="AI205" s="48"/>
+      <c r="AJ205" s="48"/>
     </row>
     <row r="206">
       <c r="AH206" s="48"/>
-      <c r="AI206" s="49"/>
+      <c r="AI206" s="48"/>
+      <c r="AJ206" s="48"/>
     </row>
     <row r="207">
       <c r="AH207" s="48"/>
-      <c r="AI207" s="49"/>
+      <c r="AI207" s="48"/>
+      <c r="AJ207" s="48"/>
     </row>
     <row r="208">
       <c r="AH208" s="48"/>
-      <c r="AI208" s="49"/>
+      <c r="AI208" s="48"/>
+      <c r="AJ208" s="48"/>
     </row>
     <row r="209">
       <c r="AH209" s="48"/>
-      <c r="AI209" s="49"/>
+      <c r="AI209" s="48"/>
+      <c r="AJ209" s="48"/>
     </row>
     <row r="210">
       <c r="AH210" s="48"/>
-      <c r="AI210" s="49"/>
+      <c r="AI210" s="48"/>
+      <c r="AJ210" s="48"/>
     </row>
     <row r="211">
       <c r="AH211" s="48"/>
-      <c r="AI211" s="49"/>
+      <c r="AI211" s="48"/>
+      <c r="AJ211" s="48"/>
     </row>
     <row r="212">
       <c r="AH212" s="48"/>
-      <c r="AI212" s="49"/>
+      <c r="AI212" s="48"/>
+      <c r="AJ212" s="48"/>
     </row>
     <row r="213">
       <c r="AH213" s="48"/>
-      <c r="AI213" s="49"/>
+      <c r="AI213" s="48"/>
+      <c r="AJ213" s="48"/>
     </row>
     <row r="214">
       <c r="AH214" s="48"/>
-      <c r="AI214" s="49"/>
+      <c r="AI214" s="48"/>
+      <c r="AJ214" s="48"/>
     </row>
     <row r="215">
       <c r="AH215" s="48"/>
-      <c r="AI215" s="49"/>
+      <c r="AI215" s="48"/>
+      <c r="AJ215" s="48"/>
     </row>
     <row r="216">
       <c r="AH216" s="48"/>
-      <c r="AI216" s="49"/>
+      <c r="AI216" s="48"/>
+      <c r="AJ216" s="48"/>
     </row>
     <row r="217">
       <c r="AH217" s="48"/>
-      <c r="AI217" s="49"/>
+      <c r="AI217" s="48"/>
+      <c r="AJ217" s="48"/>
     </row>
     <row r="218">
       <c r="AH218" s="48"/>
-      <c r="AI218" s="49"/>
+      <c r="AI218" s="48"/>
+      <c r="AJ218" s="48"/>
     </row>
     <row r="219">
       <c r="AH219" s="48"/>
-      <c r="AI219" s="49"/>
+      <c r="AI219" s="48"/>
+      <c r="AJ219" s="48"/>
     </row>
     <row r="220">
       <c r="AH220" s="48"/>
-      <c r="AI220" s="49"/>
+      <c r="AI220" s="48"/>
+      <c r="AJ220" s="48"/>
     </row>
     <row r="221">
       <c r="AH221" s="48"/>
-      <c r="AI221" s="49"/>
+      <c r="AI221" s="48"/>
+      <c r="AJ221" s="48"/>
     </row>
     <row r="222">
       <c r="AH222" s="48"/>
-      <c r="AI222" s="49"/>
+      <c r="AI222" s="48"/>
+      <c r="AJ222" s="48"/>
     </row>
     <row r="223">
       <c r="AH223" s="48"/>
-      <c r="AI223" s="49"/>
+      <c r="AI223" s="48"/>
+      <c r="AJ223" s="48"/>
     </row>
     <row r="224">
       <c r="AH224" s="48"/>
-      <c r="AI224" s="49"/>
+      <c r="AI224" s="48"/>
+      <c r="AJ224" s="48"/>
     </row>
     <row r="225">
       <c r="AH225" s="48"/>
-      <c r="AI225" s="49"/>
+      <c r="AI225" s="48"/>
+      <c r="AJ225" s="48"/>
     </row>
     <row r="226">
       <c r="AH226" s="48"/>
-      <c r="AI226" s="49"/>
+      <c r="AI226" s="48"/>
+      <c r="AJ226" s="48"/>
     </row>
     <row r="227">
       <c r="AH227" s="48"/>
-      <c r="AI227" s="49"/>
+      <c r="AI227" s="48"/>
+      <c r="AJ227" s="48"/>
     </row>
     <row r="228">
       <c r="AH228" s="48"/>
-      <c r="AI228" s="49"/>
+      <c r="AI228" s="48"/>
+      <c r="AJ228" s="48"/>
     </row>
     <row r="229">
       <c r="AH229" s="48"/>
-      <c r="AI229" s="49"/>
+      <c r="AI229" s="48"/>
+      <c r="AJ229" s="48"/>
     </row>
     <row r="230">
       <c r="AH230" s="48"/>
-      <c r="AI230" s="49"/>
+      <c r="AI230" s="48"/>
+      <c r="AJ230" s="48"/>
     </row>
     <row r="231">
       <c r="AH231" s="48"/>
-      <c r="AI231" s="49"/>
+      <c r="AI231" s="48"/>
+      <c r="AJ231" s="48"/>
     </row>
     <row r="232">
       <c r="AH232" s="48"/>
-      <c r="AI232" s="49"/>
+      <c r="AI232" s="48"/>
+      <c r="AJ232" s="48"/>
     </row>
     <row r="233">
       <c r="AH233" s="48"/>
-      <c r="AI233" s="49"/>
+      <c r="AI233" s="48"/>
+      <c r="AJ233" s="48"/>
     </row>
     <row r="234">
       <c r="AH234" s="48"/>
-      <c r="AI234" s="49"/>
+      <c r="AI234" s="48"/>
+      <c r="AJ234" s="48"/>
     </row>
     <row r="235">
       <c r="AH235" s="48"/>
-      <c r="AI235" s="49"/>
+      <c r="AI235" s="48"/>
+      <c r="AJ235" s="48"/>
     </row>
     <row r="236">
       <c r="AH236" s="48"/>
-      <c r="AI236" s="49"/>
+      <c r="AI236" s="48"/>
+      <c r="AJ236" s="48"/>
     </row>
     <row r="237">
       <c r="AH237" s="48"/>
-      <c r="AI237" s="49"/>
+      <c r="AI237" s="48"/>
+      <c r="AJ237" s="48"/>
     </row>
     <row r="238">
       <c r="AH238" s="48"/>
-      <c r="AI238" s="49"/>
+      <c r="AI238" s="48"/>
+      <c r="AJ238" s="48"/>
     </row>
     <row r="239">
       <c r="AH239" s="48"/>
-      <c r="AI239" s="49"/>
+      <c r="AI239" s="48"/>
+      <c r="AJ239" s="48"/>
     </row>
     <row r="240">
       <c r="AH240" s="48"/>
-      <c r="AI240" s="49"/>
+      <c r="AI240" s="48"/>
+      <c r="AJ240" s="48"/>
     </row>
     <row r="241">
       <c r="AH241" s="48"/>
-      <c r="AI241" s="49"/>
+      <c r="AI241" s="48"/>
+      <c r="AJ241" s="48"/>
     </row>
     <row r="242">
       <c r="AH242" s="48"/>
-      <c r="AI242" s="49"/>
+      <c r="AI242" s="48"/>
+      <c r="AJ242" s="48"/>
     </row>
     <row r="243">
       <c r="AH243" s="48"/>
-      <c r="AI243" s="49"/>
+      <c r="AI243" s="48"/>
+      <c r="AJ243" s="48"/>
     </row>
     <row r="244">
       <c r="AH244" s="48"/>
-      <c r="AI244" s="49"/>
+      <c r="AI244" s="48"/>
+      <c r="AJ244" s="48"/>
     </row>
     <row r="245">
       <c r="AH245" s="48"/>
-      <c r="AI245" s="49"/>
+      <c r="AI245" s="48"/>
+      <c r="AJ245" s="48"/>
     </row>
     <row r="246">
       <c r="AH246" s="48"/>
-      <c r="AI246" s="49"/>
+      <c r="AI246" s="48"/>
+      <c r="AJ246" s="48"/>
     </row>
     <row r="247">
       <c r="AH247" s="48"/>
-      <c r="AI247" s="49"/>
+      <c r="AI247" s="48"/>
+      <c r="AJ247" s="48"/>
     </row>
     <row r="248">
       <c r="AH248" s="48"/>
-      <c r="AI248" s="49"/>
+      <c r="AI248" s="48"/>
+      <c r="AJ248" s="48"/>
     </row>
     <row r="249">
       <c r="AH249" s="48"/>
-      <c r="AI249" s="49"/>
+      <c r="AI249" s="48"/>
+      <c r="AJ249" s="48"/>
     </row>
     <row r="250">
       <c r="AH250" s="48"/>
-      <c r="AI250" s="49"/>
+      <c r="AI250" s="48"/>
+      <c r="AJ250" s="48"/>
     </row>
     <row r="251">
       <c r="AH251" s="48"/>
-      <c r="AI251" s="49"/>
+      <c r="AI251" s="48"/>
+      <c r="AJ251" s="48"/>
     </row>
     <row r="252">
       <c r="AH252" s="48"/>
-      <c r="AI252" s="49"/>
+      <c r="AI252" s="48"/>
+      <c r="AJ252" s="48"/>
     </row>
     <row r="253">
       <c r="AH253" s="48"/>
-      <c r="AI253" s="49"/>
+      <c r="AI253" s="48"/>
+      <c r="AJ253" s="48"/>
     </row>
     <row r="254">
       <c r="AH254" s="48"/>
-      <c r="AI254" s="49"/>
+      <c r="AI254" s="48"/>
+      <c r="AJ254" s="48"/>
     </row>
     <row r="255">
       <c r="AH255" s="48"/>
-      <c r="AI255" s="49"/>
+      <c r="AI255" s="48"/>
+      <c r="AJ255" s="48"/>
     </row>
     <row r="256">
       <c r="AH256" s="48"/>
-      <c r="AI256" s="49"/>
+      <c r="AI256" s="48"/>
+      <c r="AJ256" s="48"/>
     </row>
     <row r="257">
       <c r="AH257" s="48"/>
-      <c r="AI257" s="49"/>
+      <c r="AI257" s="48"/>
+      <c r="AJ257" s="48"/>
     </row>
     <row r="258">
       <c r="AH258" s="48"/>
-      <c r="AI258" s="49"/>
+      <c r="AI258" s="48"/>
+      <c r="AJ258" s="48"/>
     </row>
     <row r="259">
       <c r="AH259" s="48"/>
-      <c r="AI259" s="49"/>
+      <c r="AI259" s="48"/>
+      <c r="AJ259" s="48"/>
     </row>
     <row r="260">
       <c r="AH260" s="48"/>
-      <c r="AI260" s="49"/>
+      <c r="AI260" s="48"/>
+      <c r="AJ260" s="48"/>
     </row>
     <row r="261">
       <c r="AH261" s="48"/>
-      <c r="AI261" s="49"/>
+      <c r="AI261" s="48"/>
+      <c r="AJ261" s="48"/>
     </row>
     <row r="262">
       <c r="AH262" s="48"/>
-      <c r="AI262" s="49"/>
+      <c r="AI262" s="48"/>
+      <c r="AJ262" s="48"/>
     </row>
     <row r="263">
       <c r="AH263" s="48"/>
-      <c r="AI263" s="49"/>
+      <c r="AI263" s="48"/>
+      <c r="AJ263" s="48"/>
     </row>
     <row r="264">
       <c r="AH264" s="48"/>
-      <c r="AI264" s="49"/>
+      <c r="AI264" s="48"/>
+      <c r="AJ264" s="48"/>
     </row>
     <row r="265">
       <c r="AH265" s="48"/>
-      <c r="AI265" s="49"/>
+      <c r="AI265" s="48"/>
+      <c r="AJ265" s="48"/>
     </row>
     <row r="266">
       <c r="AH266" s="48"/>
-      <c r="AI266" s="49"/>
+      <c r="AI266" s="48"/>
+      <c r="AJ266" s="48"/>
     </row>
     <row r="267">
       <c r="AH267" s="48"/>
-      <c r="AI267" s="49"/>
+      <c r="AI267" s="48"/>
+      <c r="AJ267" s="48"/>
     </row>
     <row r="268">
       <c r="AH268" s="48"/>
-      <c r="AI268" s="49"/>
+      <c r="AI268" s="48"/>
+      <c r="AJ268" s="48"/>
     </row>
     <row r="269">
       <c r="AH269" s="48"/>
-      <c r="AI269" s="49"/>
+      <c r="AI269" s="48"/>
+      <c r="AJ269" s="48"/>
     </row>
     <row r="270">
       <c r="AH270" s="48"/>
-      <c r="AI270" s="49"/>
+      <c r="AI270" s="48"/>
+      <c r="AJ270" s="48"/>
     </row>
     <row r="271">
       <c r="AH271" s="48"/>
-      <c r="AI271" s="49"/>
+      <c r="AI271" s="48"/>
+      <c r="AJ271" s="48"/>
     </row>
     <row r="272">
       <c r="AH272" s="48"/>
-      <c r="AI272" s="49"/>
+      <c r="AI272" s="48"/>
+      <c r="AJ272" s="48"/>
     </row>
     <row r="273">
       <c r="AH273" s="48"/>
-      <c r="AI273" s="49"/>
+      <c r="AI273" s="48"/>
+      <c r="AJ273" s="48"/>
     </row>
     <row r="274">
       <c r="AH274" s="48"/>
-      <c r="AI274" s="49"/>
+      <c r="AI274" s="48"/>
+      <c r="AJ274" s="48"/>
     </row>
     <row r="275">
       <c r="AH275" s="48"/>
-      <c r="AI275" s="49"/>
+      <c r="AI275" s="48"/>
+      <c r="AJ275" s="48"/>
     </row>
     <row r="276">
       <c r="AH276" s="48"/>
-      <c r="AI276" s="49"/>
+      <c r="AI276" s="48"/>
+      <c r="AJ276" s="48"/>
     </row>
     <row r="277">
       <c r="AH277" s="48"/>
-      <c r="AI277" s="49"/>
+      <c r="AI277" s="48"/>
+      <c r="AJ277" s="48"/>
     </row>
     <row r="278">
       <c r="AH278" s="48"/>
-      <c r="AI278" s="49"/>
+      <c r="AI278" s="48"/>
+      <c r="AJ278" s="48"/>
     </row>
     <row r="279">
       <c r="AH279" s="48"/>
-      <c r="AI279" s="49"/>
+      <c r="AI279" s="48"/>
+      <c r="AJ279" s="48"/>
     </row>
     <row r="280">
       <c r="AH280" s="48"/>
-      <c r="AI280" s="49"/>
+      <c r="AI280" s="48"/>
+      <c r="AJ280" s="48"/>
     </row>
     <row r="281">
       <c r="AH281" s="48"/>
-      <c r="AI281" s="49"/>
+      <c r="AI281" s="48"/>
+      <c r="AJ281" s="48"/>
     </row>
     <row r="282">
       <c r="AH282" s="48"/>
-      <c r="AI282" s="49"/>
+      <c r="AI282" s="48"/>
+      <c r="AJ282" s="48"/>
     </row>
     <row r="283">
       <c r="AH283" s="48"/>
-      <c r="AI283" s="49"/>
+      <c r="AI283" s="48"/>
+      <c r="AJ283" s="48"/>
     </row>
     <row r="284">
       <c r="AH284" s="48"/>
-      <c r="AI284" s="49"/>
+      <c r="AI284" s="48"/>
+      <c r="AJ284" s="48"/>
     </row>
     <row r="285">
       <c r="AH285" s="48"/>
-      <c r="AI285" s="49"/>
+      <c r="AI285" s="48"/>
+      <c r="AJ285" s="48"/>
     </row>
     <row r="286">
       <c r="AH286" s="48"/>
-      <c r="AI286" s="49"/>
+      <c r="AI286" s="48"/>
+      <c r="AJ286" s="48"/>
     </row>
     <row r="287">
       <c r="AH287" s="48"/>
-      <c r="AI287" s="49"/>
+      <c r="AI287" s="48"/>
+      <c r="AJ287" s="48"/>
     </row>
     <row r="288">
       <c r="AH288" s="48"/>
-      <c r="AI288" s="49"/>
+      <c r="AI288" s="48"/>
+      <c r="AJ288" s="48"/>
     </row>
     <row r="289">
       <c r="AH289" s="48"/>
-      <c r="AI289" s="49"/>
+      <c r="AI289" s="48"/>
+      <c r="AJ289" s="48"/>
     </row>
     <row r="290">
       <c r="AH290" s="48"/>
-      <c r="AI290" s="49"/>
+      <c r="AI290" s="48"/>
+      <c r="AJ290" s="48"/>
     </row>
     <row r="291">
       <c r="AH291" s="48"/>
-      <c r="AI291" s="49"/>
+      <c r="AI291" s="48"/>
+      <c r="AJ291" s="48"/>
     </row>
     <row r="292">
       <c r="AH292" s="48"/>
-      <c r="AI292" s="49"/>
+      <c r="AI292" s="48"/>
+      <c r="AJ292" s="48"/>
     </row>
     <row r="293">
       <c r="AH293" s="48"/>
-      <c r="AI293" s="49"/>
+      <c r="AI293" s="48"/>
+      <c r="AJ293" s="48"/>
     </row>
     <row r="294">
       <c r="AH294" s="48"/>
-      <c r="AI294" s="49"/>
+      <c r="AI294" s="48"/>
+      <c r="AJ294" s="48"/>
     </row>
     <row r="295">
       <c r="AH295" s="48"/>
-      <c r="AI295" s="49"/>
+      <c r="AI295" s="48"/>
+      <c r="AJ295" s="48"/>
     </row>
     <row r="296">
       <c r="AH296" s="48"/>
-      <c r="AI296" s="49"/>
+      <c r="AI296" s="48"/>
+      <c r="AJ296" s="48"/>
     </row>
     <row r="297">
       <c r="AH297" s="48"/>
-      <c r="AI297" s="49"/>
+      <c r="AI297" s="48"/>
+      <c r="AJ297" s="48"/>
     </row>
     <row r="298">
       <c r="AH298" s="48"/>
-      <c r="AI298" s="49"/>
+      <c r="AI298" s="48"/>
+      <c r="AJ298" s="48"/>
     </row>
     <row r="299">
       <c r="AH299" s="48"/>
-      <c r="AI299" s="49"/>
+      <c r="AI299" s="48"/>
+      <c r="AJ299" s="48"/>
     </row>
     <row r="300">
       <c r="AH300" s="48"/>
-      <c r="AI300" s="49"/>
+      <c r="AI300" s="48"/>
+      <c r="AJ300" s="48"/>
     </row>
     <row r="301">
       <c r="AH301" s="48"/>
-      <c r="AI301" s="49"/>
+      <c r="AI301" s="48"/>
+      <c r="AJ301" s="48"/>
     </row>
     <row r="302">
       <c r="AH302" s="48"/>
-      <c r="AI302" s="49"/>
+      <c r="AI302" s="48"/>
+      <c r="AJ302" s="48"/>
     </row>
     <row r="303">
       <c r="AH303" s="48"/>
-      <c r="AI303" s="49"/>
+      <c r="AI303" s="48"/>
+      <c r="AJ303" s="48"/>
     </row>
     <row r="304">
       <c r="AH304" s="48"/>
-      <c r="AI304" s="49"/>
+      <c r="AI304" s="48"/>
+      <c r="AJ304" s="48"/>
     </row>
     <row r="305">
       <c r="AH305" s="48"/>
-      <c r="AI305" s="49"/>
+      <c r="AI305" s="48"/>
+      <c r="AJ305" s="48"/>
     </row>
     <row r="306">
       <c r="AH306" s="48"/>
-      <c r="AI306" s="49"/>
+      <c r="AI306" s="48"/>
+      <c r="AJ306" s="48"/>
     </row>
     <row r="307">
       <c r="AH307" s="48"/>
-      <c r="AI307" s="49"/>
+      <c r="AI307" s="48"/>
+      <c r="AJ307" s="48"/>
     </row>
     <row r="308">
       <c r="AH308" s="48"/>
-      <c r="AI308" s="49"/>
+      <c r="AI308" s="48"/>
+      <c r="AJ308" s="48"/>
     </row>
     <row r="309">
       <c r="AH309" s="48"/>
-      <c r="AI309" s="49"/>
+      <c r="AI309" s="48"/>
+      <c r="AJ309" s="48"/>
     </row>
     <row r="310">
       <c r="AH310" s="48"/>
-      <c r="AI310" s="49"/>
+      <c r="AI310" s="48"/>
+      <c r="AJ310" s="48"/>
     </row>
     <row r="311">
       <c r="AH311" s="48"/>
-      <c r="AI311" s="49"/>
+      <c r="AI311" s="48"/>
+      <c r="AJ311" s="48"/>
     </row>
     <row r="312">
       <c r="AH312" s="48"/>
-      <c r="AI312" s="49"/>
+      <c r="AI312" s="48"/>
+      <c r="AJ312" s="48"/>
     </row>
     <row r="313">
       <c r="AH313" s="48"/>
-      <c r="AI313" s="49"/>
+      <c r="AI313" s="48"/>
+      <c r="AJ313" s="48"/>
     </row>
     <row r="314">
       <c r="AH314" s="48"/>
-      <c r="AI314" s="49"/>
+      <c r="AI314" s="48"/>
+      <c r="AJ314" s="48"/>
     </row>
     <row r="315">
       <c r="AH315" s="48"/>
-      <c r="AI315" s="49"/>
+      <c r="AI315" s="48"/>
+      <c r="AJ315" s="48"/>
     </row>
     <row r="316">
       <c r="AH316" s="48"/>
-      <c r="AI316" s="49"/>
+      <c r="AI316" s="48"/>
+      <c r="AJ316" s="48"/>
     </row>
     <row r="317">
       <c r="AH317" s="48"/>
-      <c r="AI317" s="49"/>
+      <c r="AI317" s="48"/>
+      <c r="AJ317" s="48"/>
     </row>
     <row r="318">
       <c r="AH318" s="48"/>
-      <c r="AI318" s="49"/>
+      <c r="AI318" s="48"/>
+      <c r="AJ318" s="48"/>
     </row>
     <row r="319">
       <c r="AH319" s="48"/>
-      <c r="AI319" s="49"/>
+      <c r="AI319" s="48"/>
+      <c r="AJ319" s="48"/>
     </row>
     <row r="320">
       <c r="AH320" s="48"/>
-      <c r="AI320" s="49"/>
+      <c r="AI320" s="48"/>
+      <c r="AJ320" s="48"/>
     </row>
     <row r="321">
       <c r="AH321" s="48"/>
-      <c r="AI321" s="49"/>
+      <c r="AI321" s="48"/>
+      <c r="AJ321" s="48"/>
     </row>
     <row r="322">
       <c r="AH322" s="48"/>
-      <c r="AI322" s="49"/>
+      <c r="AI322" s="48"/>
+      <c r="AJ322" s="48"/>
     </row>
     <row r="323">
       <c r="AH323" s="48"/>
-      <c r="AI323" s="49"/>
+      <c r="AI323" s="48"/>
+      <c r="AJ323" s="48"/>
     </row>
     <row r="324">
       <c r="AH324" s="48"/>
-      <c r="AI324" s="49"/>
+      <c r="AI324" s="48"/>
+      <c r="AJ324" s="48"/>
     </row>
     <row r="325">
       <c r="AH325" s="48"/>
-      <c r="AI325" s="49"/>
+      <c r="AI325" s="48"/>
+      <c r="AJ325" s="48"/>
     </row>
     <row r="326">
       <c r="AH326" s="48"/>
-      <c r="AI326" s="49"/>
+      <c r="AI326" s="48"/>
+      <c r="AJ326" s="48"/>
     </row>
     <row r="327">
       <c r="AH327" s="48"/>
-      <c r="AI327" s="49"/>
+      <c r="AI327" s="48"/>
+      <c r="AJ327" s="48"/>
     </row>
     <row r="328">
       <c r="AH328" s="48"/>
-      <c r="AI328" s="49"/>
+      <c r="AI328" s="48"/>
+      <c r="AJ328" s="48"/>
     </row>
     <row r="329">
       <c r="AH329" s="48"/>
-      <c r="AI329" s="49"/>
+      <c r="AI329" s="48"/>
+      <c r="AJ329" s="48"/>
     </row>
     <row r="330">
       <c r="AH330" s="48"/>
-      <c r="AI330" s="49"/>
+      <c r="AI330" s="48"/>
+      <c r="AJ330" s="48"/>
     </row>
     <row r="331">
       <c r="AH331" s="48"/>
-      <c r="AI331" s="49"/>
+      <c r="AI331" s="48"/>
+      <c r="AJ331" s="48"/>
     </row>
     <row r="332">
       <c r="AH332" s="48"/>
-      <c r="AI332" s="49"/>
+      <c r="AI332" s="48"/>
+      <c r="AJ332" s="48"/>
     </row>
     <row r="333">
       <c r="AH333" s="48"/>
-      <c r="AI333" s="49"/>
+      <c r="AI333" s="48"/>
+      <c r="AJ333" s="48"/>
     </row>
     <row r="334">
       <c r="AH334" s="48"/>
-      <c r="AI334" s="49"/>
+      <c r="AI334" s="48"/>
+      <c r="AJ334" s="48"/>
     </row>
     <row r="335">
       <c r="AH335" s="48"/>
-      <c r="AI335" s="49"/>
+      <c r="AI335" s="48"/>
+      <c r="AJ335" s="48"/>
     </row>
     <row r="336">
       <c r="AH336" s="48"/>
-      <c r="AI336" s="49"/>
+      <c r="AI336" s="48"/>
+      <c r="AJ336" s="48"/>
     </row>
     <row r="337">
       <c r="AH337" s="48"/>
-      <c r="AI337" s="49"/>
+      <c r="AI337" s="48"/>
+      <c r="AJ337" s="48"/>
     </row>
     <row r="338">
       <c r="AH338" s="48"/>
-      <c r="AI338" s="49"/>
+      <c r="AI338" s="48"/>
+      <c r="AJ338" s="48"/>
     </row>
     <row r="339">
       <c r="AH339" s="48"/>
-      <c r="AI339" s="49"/>
+      <c r="AI339" s="48"/>
+      <c r="AJ339" s="48"/>
     </row>
     <row r="340">
       <c r="AH340" s="48"/>
-      <c r="AI340" s="49"/>
+      <c r="AI340" s="48"/>
+      <c r="AJ340" s="48"/>
     </row>
     <row r="341">
       <c r="AH341" s="48"/>
-      <c r="AI341" s="49"/>
+      <c r="AI341" s="48"/>
+      <c r="AJ341" s="48"/>
     </row>
     <row r="342">
       <c r="AH342" s="48"/>
-      <c r="AI342" s="49"/>
+      <c r="AI342" s="48"/>
+      <c r="AJ342" s="48"/>
     </row>
     <row r="343">
       <c r="AH343" s="48"/>
-      <c r="AI343" s="49"/>
+      <c r="AI343" s="48"/>
+      <c r="AJ343" s="48"/>
     </row>
     <row r="344">
       <c r="AH344" s="48"/>
-      <c r="AI344" s="49"/>
+      <c r="AI344" s="48"/>
+      <c r="AJ344" s="48"/>
     </row>
     <row r="345">
       <c r="AH345" s="48"/>
-      <c r="AI345" s="49"/>
+      <c r="AI345" s="48"/>
+      <c r="AJ345" s="48"/>
     </row>
     <row r="346">
       <c r="AH346" s="48"/>
-      <c r="AI346" s="49"/>
+      <c r="AI346" s="48"/>
+      <c r="AJ346" s="48"/>
     </row>
     <row r="347">
       <c r="AH347" s="48"/>
-      <c r="AI347" s="49"/>
+      <c r="AI347" s="48"/>
+      <c r="AJ347" s="48"/>
     </row>
     <row r="348">
       <c r="AH348" s="48"/>
-      <c r="AI348" s="49"/>
+      <c r="AI348" s="48"/>
+      <c r="AJ348" s="48"/>
     </row>
     <row r="349">
       <c r="AH349" s="48"/>
-      <c r="AI349" s="49"/>
+      <c r="AI349" s="48"/>
+      <c r="AJ349" s="48"/>
     </row>
     <row r="350">
       <c r="AH350" s="48"/>
-      <c r="AI350" s="49"/>
+      <c r="AI350" s="48"/>
+      <c r="AJ350" s="48"/>
     </row>
     <row r="351">
       <c r="AH351" s="48"/>
-      <c r="AI351" s="49"/>
+      <c r="AI351" s="48"/>
+      <c r="AJ351" s="48"/>
     </row>
     <row r="352">
       <c r="AH352" s="48"/>
-      <c r="AI352" s="49"/>
+      <c r="AI352" s="48"/>
+      <c r="AJ352" s="48"/>
     </row>
     <row r="353">
       <c r="AH353" s="48"/>
-      <c r="AI353" s="49"/>
+      <c r="AI353" s="48"/>
+      <c r="AJ353" s="48"/>
     </row>
     <row r="354">
       <c r="AH354" s="48"/>
-      <c r="AI354" s="49"/>
+      <c r="AI354" s="48"/>
+      <c r="AJ354" s="48"/>
     </row>
     <row r="355">
       <c r="AH355" s="48"/>
-      <c r="AI355" s="49"/>
+      <c r="AI355" s="48"/>
+      <c r="AJ355" s="48"/>
     </row>
     <row r="356">
       <c r="AH356" s="48"/>
-      <c r="AI356" s="49"/>
+      <c r="AI356" s="48"/>
+      <c r="AJ356" s="48"/>
     </row>
     <row r="357">
       <c r="AH357" s="48"/>
-      <c r="AI357" s="49"/>
+      <c r="AI357" s="48"/>
+      <c r="AJ357" s="48"/>
     </row>
     <row r="358">
       <c r="AH358" s="48"/>
-      <c r="AI358" s="49"/>
+      <c r="AI358" s="48"/>
+      <c r="AJ358" s="48"/>
     </row>
     <row r="359">
       <c r="AH359" s="48"/>
-      <c r="AI359" s="49"/>
+      <c r="AI359" s="48"/>
+      <c r="AJ359" s="48"/>
     </row>
     <row r="360">
       <c r="AH360" s="48"/>
-      <c r="AI360" s="49"/>
+      <c r="AI360" s="48"/>
+      <c r="AJ360" s="48"/>
     </row>
     <row r="361">
       <c r="AH361" s="48"/>
-      <c r="AI361" s="49"/>
+      <c r="AI361" s="48"/>
+      <c r="AJ361" s="48"/>
     </row>
     <row r="362">
       <c r="AH362" s="48"/>
-      <c r="AI362" s="49"/>
+      <c r="AI362" s="48"/>
+      <c r="AJ362" s="48"/>
     </row>
     <row r="363">
       <c r="AH363" s="48"/>
-      <c r="AI363" s="49"/>
+      <c r="AI363" s="48"/>
+      <c r="AJ363" s="48"/>
     </row>
     <row r="364">
       <c r="AH364" s="48"/>
-      <c r="AI364" s="49"/>
+      <c r="AI364" s="48"/>
+      <c r="AJ364" s="48"/>
     </row>
     <row r="365">
       <c r="AH365" s="48"/>
-      <c r="AI365" s="49"/>
+      <c r="AI365" s="48"/>
+      <c r="AJ365" s="48"/>
     </row>
     <row r="366">
       <c r="AH366" s="48"/>
-      <c r="AI366" s="49"/>
+      <c r="AI366" s="48"/>
+      <c r="AJ366" s="48"/>
     </row>
     <row r="367">
       <c r="AH367" s="48"/>
-      <c r="AI367" s="49"/>
+      <c r="AI367" s="48"/>
+      <c r="AJ367" s="48"/>
     </row>
     <row r="368">
       <c r="AH368" s="48"/>
-      <c r="AI368" s="49"/>
+      <c r="AI368" s="48"/>
+      <c r="AJ368" s="48"/>
     </row>
     <row r="369">
       <c r="AH369" s="48"/>
-      <c r="AI369" s="49"/>
+      <c r="AI369" s="48"/>
+      <c r="AJ369" s="48"/>
     </row>
     <row r="370">
       <c r="AH370" s="48"/>
-      <c r="AI370" s="49"/>
+      <c r="AI370" s="48"/>
+      <c r="AJ370" s="48"/>
     </row>
     <row r="371">
       <c r="AH371" s="48"/>
-      <c r="AI371" s="49"/>
+      <c r="AI371" s="48"/>
+      <c r="AJ371" s="48"/>
     </row>
     <row r="372">
       <c r="AH372" s="48"/>
-      <c r="AI372" s="49"/>
+      <c r="AI372" s="48"/>
+      <c r="AJ372" s="48"/>
     </row>
     <row r="373">
       <c r="AH373" s="48"/>
-      <c r="AI373" s="49"/>
+      <c r="AI373" s="48"/>
+      <c r="AJ373" s="48"/>
     </row>
     <row r="374">
       <c r="AH374" s="48"/>
-      <c r="AI374" s="49"/>
+      <c r="AI374" s="48"/>
+      <c r="AJ374" s="48"/>
     </row>
     <row r="375">
       <c r="AH375" s="48"/>
-      <c r="AI375" s="49"/>
+      <c r="AI375" s="48"/>
+      <c r="AJ375" s="48"/>
     </row>
     <row r="376">
       <c r="AH376" s="48"/>
-      <c r="AI376" s="49"/>
+      <c r="AI376" s="48"/>
+      <c r="AJ376" s="48"/>
     </row>
     <row r="377">
       <c r="AH377" s="48"/>
-      <c r="AI377" s="49"/>
+      <c r="AI377" s="48"/>
+      <c r="AJ377" s="48"/>
     </row>
     <row r="378">
       <c r="AH378" s="48"/>
-      <c r="AI378" s="49"/>
+      <c r="AI378" s="48"/>
+      <c r="AJ378" s="48"/>
     </row>
     <row r="379">
       <c r="AH379" s="48"/>
-      <c r="AI379" s="49"/>
+      <c r="AI379" s="48"/>
+      <c r="AJ379" s="48"/>
     </row>
     <row r="380">
       <c r="AH380" s="48"/>
-      <c r="AI380" s="49"/>
+      <c r="AI380" s="48"/>
+      <c r="AJ380" s="48"/>
     </row>
     <row r="381">
       <c r="AH381" s="48"/>
-      <c r="AI381" s="49"/>
+      <c r="AI381" s="48"/>
+      <c r="AJ381" s="48"/>
     </row>
     <row r="382">
       <c r="AH382" s="48"/>
-      <c r="AI382" s="49"/>
+      <c r="AI382" s="48"/>
+      <c r="AJ382" s="48"/>
     </row>
     <row r="383">
       <c r="AH383" s="48"/>
-      <c r="AI383" s="49"/>
+      <c r="AI383" s="48"/>
+      <c r="AJ383" s="48"/>
     </row>
     <row r="384">
       <c r="AH384" s="48"/>
-      <c r="AI384" s="49"/>
+      <c r="AI384" s="48"/>
+      <c r="AJ384" s="48"/>
     </row>
     <row r="385">
       <c r="AH385" s="48"/>
-      <c r="AI385" s="49"/>
+      <c r="AI385" s="48"/>
+      <c r="AJ385" s="48"/>
     </row>
     <row r="386">
       <c r="AH386" s="48"/>
-      <c r="AI386" s="49"/>
+      <c r="AI386" s="48"/>
+      <c r="AJ386" s="48"/>
     </row>
     <row r="387">
       <c r="AH387" s="48"/>
-      <c r="AI387" s="49"/>
+      <c r="AI387" s="48"/>
+      <c r="AJ387" s="48"/>
     </row>
     <row r="388">
       <c r="AH388" s="48"/>
-      <c r="AI388" s="49"/>
+      <c r="AI388" s="48"/>
+      <c r="AJ388" s="48"/>
     </row>
     <row r="389">
       <c r="AH389" s="48"/>
-      <c r="AI389" s="49"/>
+      <c r="AI389" s="48"/>
+      <c r="AJ389" s="48"/>
     </row>
     <row r="390">
       <c r="AH390" s="48"/>
-      <c r="AI390" s="49"/>
+      <c r="AI390" s="48"/>
+      <c r="AJ390" s="48"/>
     </row>
     <row r="391">
       <c r="AH391" s="48"/>
-      <c r="AI391" s="49"/>
+      <c r="AI391" s="48"/>
+      <c r="AJ391" s="48"/>
     </row>
     <row r="392">
       <c r="AH392" s="48"/>
-      <c r="AI392" s="49"/>
+      <c r="AI392" s="48"/>
+      <c r="AJ392" s="48"/>
     </row>
     <row r="393">
       <c r="AH393" s="48"/>
-      <c r="AI393" s="49"/>
+      <c r="AI393" s="48"/>
+      <c r="AJ393" s="48"/>
     </row>
     <row r="394">
       <c r="AH394" s="48"/>
-      <c r="AI394" s="49"/>
+      <c r="AI394" s="48"/>
+      <c r="AJ394" s="48"/>
     </row>
     <row r="395">
       <c r="AH395" s="48"/>
-      <c r="AI395" s="49"/>
+      <c r="AI395" s="48"/>
+      <c r="AJ395" s="48"/>
     </row>
     <row r="396">
       <c r="AH396" s="48"/>
-      <c r="AI396" s="49"/>
+      <c r="AI396" s="48"/>
+      <c r="AJ396" s="48"/>
     </row>
     <row r="397">
       <c r="AH397" s="48"/>
-      <c r="AI397" s="49"/>
+      <c r="AI397" s="48"/>
+      <c r="AJ397" s="48"/>
     </row>
     <row r="398">
       <c r="AH398" s="48"/>
-      <c r="AI398" s="49"/>
+      <c r="AI398" s="48"/>
+      <c r="AJ398" s="48"/>
     </row>
     <row r="399">
       <c r="AH399" s="48"/>
-      <c r="AI399" s="49"/>
+      <c r="AI399" s="48"/>
+      <c r="AJ399" s="48"/>
     </row>
     <row r="400">
       <c r="AH400" s="48"/>
-      <c r="AI400" s="49"/>
+      <c r="AI400" s="48"/>
+      <c r="AJ400" s="48"/>
     </row>
     <row r="401">
       <c r="AH401" s="48"/>
-      <c r="AI401" s="49"/>
+      <c r="AI401" s="48"/>
+      <c r="AJ401" s="48"/>
     </row>
     <row r="402">
       <c r="AH402" s="48"/>
-      <c r="AI402" s="49"/>
+      <c r="AI402" s="48"/>
+      <c r="AJ402" s="48"/>
     </row>
     <row r="403">
       <c r="AH403" s="48"/>
-      <c r="AI403" s="49"/>
+      <c r="AI403" s="48"/>
+      <c r="AJ403" s="48"/>
     </row>
     <row r="404">
       <c r="AH404" s="48"/>
-      <c r="AI404" s="49"/>
+      <c r="AI404" s="48"/>
+      <c r="AJ404" s="48"/>
     </row>
     <row r="405">
       <c r="AH405" s="48"/>
-      <c r="AI405" s="49"/>
+      <c r="AI405" s="48"/>
+      <c r="AJ405" s="48"/>
     </row>
     <row r="406">
       <c r="AH406" s="48"/>
-      <c r="AI406" s="49"/>
+      <c r="AI406" s="48"/>
+      <c r="AJ406" s="48"/>
     </row>
     <row r="407">
       <c r="AH407" s="48"/>
-      <c r="AI407" s="49"/>
+      <c r="AI407" s="48"/>
+      <c r="AJ407" s="48"/>
     </row>
     <row r="408">
       <c r="AH408" s="48"/>
-      <c r="AI408" s="49"/>
+      <c r="AI408" s="48"/>
+      <c r="AJ408" s="48"/>
     </row>
     <row r="409">
       <c r="AH409" s="48"/>
-      <c r="AI409" s="49"/>
+      <c r="AI409" s="48"/>
+      <c r="AJ409" s="48"/>
     </row>
     <row r="410">
       <c r="AH410" s="48"/>
-      <c r="AI410" s="49"/>
+      <c r="AI410" s="48"/>
+      <c r="AJ410" s="48"/>
     </row>
     <row r="411">
       <c r="AH411" s="48"/>
-      <c r="AI411" s="49"/>
+      <c r="AI411" s="48"/>
+      <c r="AJ411" s="48"/>
     </row>
     <row r="412">
       <c r="AH412" s="48"/>
-      <c r="AI412" s="49"/>
+      <c r="AI412" s="48"/>
+      <c r="AJ412" s="48"/>
     </row>
     <row r="413">
       <c r="AH413" s="48"/>
-      <c r="AI413" s="49"/>
+      <c r="AI413" s="48"/>
+      <c r="AJ413" s="48"/>
     </row>
     <row r="414">
       <c r="AH414" s="48"/>
-      <c r="AI414" s="49"/>
+      <c r="AI414" s="48"/>
+      <c r="AJ414" s="48"/>
     </row>
     <row r="415">
       <c r="AH415" s="48"/>
-      <c r="AI415" s="49"/>
+      <c r="AI415" s="48"/>
+      <c r="AJ415" s="48"/>
     </row>
     <row r="416">
       <c r="AH416" s="48"/>
-      <c r="AI416" s="49"/>
+      <c r="AI416" s="48"/>
+      <c r="AJ416" s="48"/>
     </row>
     <row r="417">
       <c r="AH417" s="48"/>
-      <c r="AI417" s="49"/>
+      <c r="AI417" s="48"/>
+      <c r="AJ417" s="48"/>
     </row>
     <row r="418">
       <c r="AH418" s="48"/>
-      <c r="AI418" s="49"/>
+      <c r="AI418" s="48"/>
+      <c r="AJ418" s="48"/>
     </row>
     <row r="419">
       <c r="AH419" s="48"/>
-      <c r="AI419" s="49"/>
+      <c r="AI419" s="48"/>
+      <c r="AJ419" s="48"/>
     </row>
     <row r="420">
       <c r="AH420" s="48"/>
-      <c r="AI420" s="49"/>
+      <c r="AI420" s="48"/>
+      <c r="AJ420" s="48"/>
     </row>
     <row r="421">
       <c r="AH421" s="48"/>
-      <c r="AI421" s="49"/>
+      <c r="AI421" s="48"/>
+      <c r="AJ421" s="48"/>
     </row>
     <row r="422">
       <c r="AH422" s="48"/>
-      <c r="AI422" s="49"/>
+      <c r="AI422" s="48"/>
+      <c r="AJ422" s="48"/>
     </row>
     <row r="423">
       <c r="AH423" s="48"/>
-      <c r="AI423" s="49"/>
+      <c r="AI423" s="48"/>
+      <c r="AJ423" s="48"/>
     </row>
     <row r="424">
       <c r="AH424" s="48"/>
-      <c r="AI424" s="49"/>
+      <c r="AI424" s="48"/>
+      <c r="AJ424" s="48"/>
     </row>
     <row r="425">
       <c r="AH425" s="48"/>
-      <c r="AI425" s="49"/>
+      <c r="AI425" s="48"/>
+      <c r="AJ425" s="48"/>
     </row>
     <row r="426">
       <c r="AH426" s="48"/>
-      <c r="AI426" s="49"/>
+      <c r="AI426" s="48"/>
+      <c r="AJ426" s="48"/>
     </row>
     <row r="427">
       <c r="AH427" s="48"/>
-      <c r="AI427" s="49"/>
+      <c r="AI427" s="48"/>
+      <c r="AJ427" s="48"/>
     </row>
     <row r="428">
       <c r="AH428" s="48"/>
-      <c r="AI428" s="49"/>
+      <c r="AI428" s="48"/>
+      <c r="AJ428" s="48"/>
     </row>
     <row r="429">
       <c r="AH429" s="48"/>
-      <c r="AI429" s="49"/>
+      <c r="AI429" s="48"/>
+      <c r="AJ429" s="48"/>
     </row>
     <row r="430">
       <c r="AH430" s="48"/>
-      <c r="AI430" s="49"/>
+      <c r="AI430" s="48"/>
+      <c r="AJ430" s="48"/>
     </row>
     <row r="431">
       <c r="AH431" s="48"/>
-      <c r="AI431" s="49"/>
+      <c r="AI431" s="48"/>
+      <c r="AJ431" s="48"/>
     </row>
     <row r="432">
       <c r="AH432" s="48"/>
-      <c r="AI432" s="49"/>
+      <c r="AI432" s="48"/>
+      <c r="AJ432" s="48"/>
     </row>
     <row r="433">
       <c r="AH433" s="48"/>
-      <c r="AI433" s="49"/>
+      <c r="AI433" s="48"/>
+      <c r="AJ433" s="48"/>
     </row>
     <row r="434">
       <c r="AH434" s="48"/>
-      <c r="AI434" s="49"/>
+      <c r="AI434" s="48"/>
+      <c r="AJ434" s="48"/>
     </row>
     <row r="435">
       <c r="AH435" s="48"/>
-      <c r="AI435" s="49"/>
+      <c r="AI435" s="48"/>
+      <c r="AJ435" s="48"/>
     </row>
     <row r="436">
       <c r="AH436" s="48"/>
-      <c r="AI436" s="49"/>
+      <c r="AI436" s="48"/>
+      <c r="AJ436" s="48"/>
     </row>
     <row r="437">
       <c r="AH437" s="48"/>
-      <c r="AI437" s="49"/>
+      <c r="AI437" s="48"/>
+      <c r="AJ437" s="48"/>
     </row>
     <row r="438">
       <c r="AH438" s="48"/>
-      <c r="AI438" s="49"/>
+      <c r="AI438" s="48"/>
+      <c r="AJ438" s="48"/>
     </row>
     <row r="439">
       <c r="AH439" s="48"/>
-      <c r="AI439" s="49"/>
+      <c r="AI439" s="48"/>
+      <c r="AJ439" s="48"/>
     </row>
     <row r="440">
       <c r="AH440" s="48"/>
-      <c r="AI440" s="49"/>
+      <c r="AI440" s="48"/>
+      <c r="AJ440" s="48"/>
     </row>
     <row r="441">
       <c r="AH441" s="48"/>
-      <c r="AI441" s="49"/>
+      <c r="AI441" s="48"/>
+      <c r="AJ441" s="48"/>
     </row>
     <row r="442">
       <c r="AH442" s="48"/>
-      <c r="AI442" s="49"/>
+      <c r="AI442" s="48"/>
+      <c r="AJ442" s="48"/>
     </row>
     <row r="443">
       <c r="AH443" s="48"/>
-      <c r="AI443" s="49"/>
+      <c r="AI443" s="48"/>
+      <c r="AJ443" s="48"/>
     </row>
     <row r="444">
       <c r="AH444" s="48"/>
-      <c r="AI444" s="49"/>
+      <c r="AI444" s="48"/>
+      <c r="AJ444" s="48"/>
     </row>
     <row r="445">
       <c r="AH445" s="48"/>
-      <c r="AI445" s="49"/>
+      <c r="AI445" s="48"/>
+      <c r="AJ445" s="48"/>
     </row>
     <row r="446">
       <c r="AH446" s="48"/>
-      <c r="AI446" s="49"/>
+      <c r="AI446" s="48"/>
+      <c r="AJ446" s="48"/>
     </row>
     <row r="447">
       <c r="AH447" s="48"/>
-      <c r="AI447" s="49"/>
+      <c r="AI447" s="48"/>
+      <c r="AJ447" s="48"/>
     </row>
     <row r="448">
       <c r="AH448" s="48"/>
-      <c r="AI448" s="49"/>
+      <c r="AI448" s="48"/>
+      <c r="AJ448" s="48"/>
     </row>
     <row r="449">
       <c r="AH449" s="48"/>
-      <c r="AI449" s="49"/>
+      <c r="AI449" s="48"/>
+      <c r="AJ449" s="48"/>
     </row>
     <row r="450">
       <c r="AH450" s="48"/>
-      <c r="AI450" s="49"/>
+      <c r="AI450" s="48"/>
+      <c r="AJ450" s="48"/>
     </row>
     <row r="451">
       <c r="AH451" s="48"/>
-      <c r="AI451" s="49"/>
+      <c r="AI451" s="48"/>
+      <c r="AJ451" s="48"/>
     </row>
     <row r="452">
       <c r="AH452" s="48"/>
-      <c r="AI452" s="49"/>
+      <c r="AI452" s="48"/>
+      <c r="AJ452" s="48"/>
     </row>
     <row r="453">
       <c r="AH453" s="48"/>
-      <c r="AI453" s="49"/>
+      <c r="AI453" s="48"/>
+      <c r="AJ453" s="48"/>
     </row>
     <row r="454">
       <c r="AH454" s="48"/>
-      <c r="AI454" s="49"/>
+      <c r="AI454" s="48"/>
+      <c r="AJ454" s="48"/>
     </row>
     <row r="455">
       <c r="AH455" s="48"/>
-      <c r="AI455" s="49"/>
+      <c r="AI455" s="48"/>
+      <c r="AJ455" s="48"/>
     </row>
     <row r="456">
       <c r="AH456" s="48"/>
-      <c r="AI456" s="49"/>
+      <c r="AI456" s="48"/>
+      <c r="AJ456" s="48"/>
     </row>
     <row r="457">
       <c r="AH457" s="48"/>
-      <c r="AI457" s="49"/>
+      <c r="AI457" s="48"/>
+      <c r="AJ457" s="48"/>
     </row>
     <row r="458">
       <c r="AH458" s="48"/>
-      <c r="AI458" s="49"/>
+      <c r="AI458" s="48"/>
+      <c r="AJ458" s="48"/>
     </row>
     <row r="459">
       <c r="AH459" s="48"/>
-      <c r="AI459" s="49"/>
+      <c r="AI459" s="48"/>
+      <c r="AJ459" s="48"/>
     </row>
     <row r="460">
       <c r="AH460" s="48"/>
-      <c r="AI460" s="49"/>
+      <c r="AI460" s="48"/>
+      <c r="AJ460" s="48"/>
     </row>
     <row r="461">
       <c r="AH461" s="48"/>
-      <c r="AI461" s="49"/>
+      <c r="AI461" s="48"/>
+      <c r="AJ461" s="48"/>
     </row>
     <row r="462">
       <c r="AH462" s="48"/>
-      <c r="AI462" s="49"/>
+      <c r="AI462" s="48"/>
+      <c r="AJ462" s="48"/>
     </row>
     <row r="463">
       <c r="AH463" s="48"/>
-      <c r="AI463" s="49"/>
+      <c r="AI463" s="48"/>
+      <c r="AJ463" s="48"/>
     </row>
     <row r="464">
       <c r="AH464" s="48"/>
-      <c r="AI464" s="49"/>
+      <c r="AI464" s="48"/>
+      <c r="AJ464" s="48"/>
     </row>
     <row r="465">
       <c r="AH465" s="48"/>
-      <c r="AI465" s="49"/>
+      <c r="AI465" s="48"/>
+      <c r="AJ465" s="48"/>
     </row>
     <row r="466">
       <c r="AH466" s="48"/>
-      <c r="AI466" s="49"/>
+      <c r="AI466" s="48"/>
+      <c r="AJ466" s="48"/>
     </row>
     <row r="467">
       <c r="AH467" s="48"/>
-      <c r="AI467" s="49"/>
+      <c r="AI467" s="48"/>
+      <c r="AJ467" s="48"/>
     </row>
     <row r="468">
       <c r="AH468" s="48"/>
-      <c r="AI468" s="49"/>
+      <c r="AI468" s="48"/>
+      <c r="AJ468" s="48"/>
     </row>
     <row r="469">
       <c r="AH469" s="48"/>
-      <c r="AI469" s="49"/>
+      <c r="AI469" s="48"/>
+      <c r="AJ469" s="48"/>
     </row>
     <row r="470">
       <c r="AH470" s="48"/>
-      <c r="AI470" s="49"/>
+      <c r="AI470" s="48"/>
+      <c r="AJ470" s="48"/>
     </row>
     <row r="471">
       <c r="AH471" s="48"/>
-      <c r="AI471" s="49"/>
+      <c r="AI471" s="48"/>
+      <c r="AJ471" s="48"/>
     </row>
     <row r="472">
       <c r="AH472" s="48"/>
-      <c r="AI472" s="49"/>
+      <c r="AI472" s="48"/>
+      <c r="AJ472" s="48"/>
     </row>
     <row r="473">
       <c r="AH473" s="48"/>
-      <c r="AI473" s="49"/>
+      <c r="AI473" s="48"/>
+      <c r="AJ473" s="48"/>
     </row>
     <row r="474">
       <c r="AH474" s="48"/>
-      <c r="AI474" s="49"/>
+      <c r="AI474" s="48"/>
+      <c r="AJ474" s="48"/>
     </row>
     <row r="475">
       <c r="AH475" s="48"/>
-      <c r="AI475" s="49"/>
+      <c r="AI475" s="48"/>
+      <c r="AJ475" s="48"/>
     </row>
     <row r="476">
       <c r="AH476" s="48"/>
-      <c r="AI476" s="49"/>
+      <c r="AI476" s="48"/>
+      <c r="AJ476" s="48"/>
     </row>
     <row r="477">
       <c r="AH477" s="48"/>
-      <c r="AI477" s="49"/>
+      <c r="AI477" s="48"/>
+      <c r="AJ477" s="48"/>
     </row>
     <row r="478">
       <c r="AH478" s="48"/>
-      <c r="AI478" s="49"/>
+      <c r="AI478" s="48"/>
+      <c r="AJ478" s="48"/>
     </row>
     <row r="479">
       <c r="AH479" s="48"/>
-      <c r="AI479" s="49"/>
+      <c r="AI479" s="48"/>
+      <c r="AJ479" s="48"/>
     </row>
     <row r="480">
       <c r="AH480" s="48"/>
-      <c r="AI480" s="49"/>
+      <c r="AI480" s="48"/>
+      <c r="AJ480" s="48"/>
     </row>
     <row r="481">
       <c r="AH481" s="48"/>
-      <c r="AI481" s="49"/>
+      <c r="AI481" s="48"/>
+      <c r="AJ481" s="48"/>
     </row>
     <row r="482">
       <c r="AH482" s="48"/>
-      <c r="AI482" s="49"/>
+      <c r="AI482" s="48"/>
+      <c r="AJ482" s="48"/>
     </row>
     <row r="483">
       <c r="AH483" s="48"/>
-      <c r="AI483" s="49"/>
+      <c r="AI483" s="48"/>
+      <c r="AJ483" s="48"/>
     </row>
     <row r="484">
       <c r="AH484" s="48"/>
-      <c r="AI484" s="49"/>
+      <c r="AI484" s="48"/>
+      <c r="AJ484" s="48"/>
     </row>
     <row r="485">
       <c r="AH485" s="48"/>
-      <c r="AI485" s="49"/>
+      <c r="AI485" s="48"/>
+      <c r="AJ485" s="48"/>
     </row>
     <row r="486">
       <c r="AH486" s="48"/>
-      <c r="AI486" s="49"/>
+      <c r="AI486" s="48"/>
+      <c r="AJ486" s="48"/>
     </row>
     <row r="487">
       <c r="AH487" s="48"/>
-      <c r="AI487" s="49"/>
+      <c r="AI487" s="48"/>
+      <c r="AJ487" s="48"/>
     </row>
     <row r="488">
       <c r="AH488" s="48"/>
-      <c r="AI488" s="49"/>
+      <c r="AI488" s="48"/>
+      <c r="AJ488" s="48"/>
     </row>
     <row r="489">
       <c r="AH489" s="48"/>
-      <c r="AI489" s="49"/>
+      <c r="AI489" s="48"/>
+      <c r="AJ489" s="48"/>
     </row>
     <row r="490">
       <c r="AH490" s="48"/>
-      <c r="AI490" s="49"/>
+      <c r="AI490" s="48"/>
+      <c r="AJ490" s="48"/>
     </row>
     <row r="491">
       <c r="AH491" s="48"/>
-      <c r="AI491" s="49"/>
+      <c r="AI491" s="48"/>
+      <c r="AJ491" s="48"/>
     </row>
     <row r="492">
       <c r="AH492" s="48"/>
-      <c r="AI492" s="49"/>
+      <c r="AI492" s="48"/>
+      <c r="AJ492" s="48"/>
     </row>
     <row r="493">
       <c r="AH493" s="48"/>
-      <c r="AI493" s="49"/>
+      <c r="AI493" s="48"/>
+      <c r="AJ493" s="48"/>
     </row>
     <row r="494">
       <c r="AH494" s="48"/>
-      <c r="AI494" s="49"/>
+      <c r="AI494" s="48"/>
+      <c r="AJ494" s="48"/>
     </row>
     <row r="495">
       <c r="AH495" s="48"/>
-      <c r="AI495" s="49"/>
+      <c r="AI495" s="48"/>
+      <c r="AJ495" s="48"/>
     </row>
     <row r="496">
       <c r="AH496" s="48"/>
-      <c r="AI496" s="49"/>
+      <c r="AI496" s="48"/>
+      <c r="AJ496" s="48"/>
     </row>
     <row r="497">
       <c r="AH497" s="48"/>
-      <c r="AI497" s="49"/>
+      <c r="AI497" s="48"/>
+      <c r="AJ497" s="48"/>
     </row>
     <row r="498">
       <c r="AH498" s="48"/>
-      <c r="AI498" s="49"/>
+      <c r="AI498" s="48"/>
+      <c r="AJ498" s="48"/>
     </row>
     <row r="499">
       <c r="AH499" s="48"/>
-      <c r="AI499" s="49"/>
+      <c r="AI499" s="48"/>
+      <c r="AJ499" s="48"/>
     </row>
     <row r="500">
       <c r="AH500" s="48"/>
-      <c r="AI500" s="49"/>
+      <c r="AI500" s="48"/>
+      <c r="AJ500" s="48"/>
     </row>
     <row r="501">
       <c r="AH501" s="48"/>
-      <c r="AI501" s="49"/>
+      <c r="AI501" s="48"/>
+      <c r="AJ501" s="48"/>
     </row>
     <row r="502">
       <c r="AH502" s="48"/>
-      <c r="AI502" s="49"/>
+      <c r="AI502" s="48"/>
+      <c r="AJ502" s="48"/>
     </row>
     <row r="503">
       <c r="AH503" s="48"/>
-      <c r="AI503" s="49"/>
+      <c r="AI503" s="48"/>
+      <c r="AJ503" s="48"/>
     </row>
     <row r="504">
       <c r="AH504" s="48"/>
-      <c r="AI504" s="49"/>
+      <c r="AI504" s="48"/>
+      <c r="AJ504" s="48"/>
     </row>
     <row r="505">
       <c r="AH505" s="48"/>
-      <c r="AI505" s="49"/>
+      <c r="AI505" s="48"/>
+      <c r="AJ505" s="48"/>
     </row>
     <row r="506">
       <c r="AH506" s="48"/>
-      <c r="AI506" s="49"/>
+      <c r="AI506" s="48"/>
+      <c r="AJ506" s="48"/>
     </row>
     <row r="507">
       <c r="AH507" s="48"/>
-      <c r="AI507" s="49"/>
+      <c r="AI507" s="48"/>
+      <c r="AJ507" s="48"/>
     </row>
     <row r="508">
       <c r="AH508" s="48"/>
-      <c r="AI508" s="49"/>
+      <c r="AI508" s="48"/>
+      <c r="AJ508" s="48"/>
     </row>
     <row r="509">
       <c r="AH509" s="48"/>
-      <c r="AI509" s="49"/>
+      <c r="AI509" s="48"/>
+      <c r="AJ509" s="48"/>
     </row>
     <row r="510">
       <c r="AH510" s="48"/>
-      <c r="AI510" s="49"/>
+      <c r="AI510" s="48"/>
+      <c r="AJ510" s="48"/>
     </row>
     <row r="511">
       <c r="AH511" s="48"/>
-      <c r="AI511" s="49"/>
+      <c r="AI511" s="48"/>
+      <c r="AJ511" s="48"/>
     </row>
     <row r="512">
       <c r="AH512" s="48"/>
-      <c r="AI512" s="49"/>
+      <c r="AI512" s="48"/>
+      <c r="AJ512" s="48"/>
     </row>
     <row r="513">
       <c r="AH513" s="48"/>
-      <c r="AI513" s="49"/>
+      <c r="AI513" s="48"/>
+      <c r="AJ513" s="48"/>
     </row>
     <row r="514">
       <c r="AH514" s="48"/>
-      <c r="AI514" s="49"/>
+      <c r="AI514" s="48"/>
+      <c r="AJ514" s="48"/>
     </row>
     <row r="515">
       <c r="AH515" s="48"/>
-      <c r="AI515" s="49"/>
+      <c r="AI515" s="48"/>
+      <c r="AJ515" s="48"/>
     </row>
     <row r="516">
       <c r="AH516" s="48"/>
-      <c r="AI516" s="49"/>
+      <c r="AI516" s="48"/>
+      <c r="AJ516" s="48"/>
     </row>
     <row r="517">
       <c r="AH517" s="48"/>
-      <c r="AI517" s="49"/>
+      <c r="AI517" s="48"/>
+      <c r="AJ517" s="48"/>
     </row>
     <row r="518">
       <c r="AH518" s="48"/>
-      <c r="AI518" s="49"/>
+      <c r="AI518" s="48"/>
+      <c r="AJ518" s="48"/>
     </row>
     <row r="519">
       <c r="AH519" s="48"/>
-      <c r="AI519" s="49"/>
+      <c r="AI519" s="48"/>
+      <c r="AJ519" s="48"/>
     </row>
     <row r="520">
       <c r="AH520" s="48"/>
-      <c r="AI520" s="49"/>
+      <c r="AI520" s="48"/>
+      <c r="AJ520" s="48"/>
     </row>
     <row r="521">
       <c r="AH521" s="48"/>
-      <c r="AI521" s="49"/>
+      <c r="AI521" s="48"/>
+      <c r="AJ521" s="48"/>
     </row>
     <row r="522">
       <c r="AH522" s="48"/>
-      <c r="AI522" s="49"/>
+      <c r="AI522" s="48"/>
+      <c r="AJ522" s="48"/>
     </row>
     <row r="523">
       <c r="AH523" s="48"/>
-      <c r="AI523" s="49"/>
+      <c r="AI523" s="48"/>
+      <c r="AJ523" s="48"/>
     </row>
     <row r="524">
       <c r="AH524" s="48"/>
-      <c r="AI524" s="49"/>
+      <c r="AI524" s="48"/>
+      <c r="AJ524" s="48"/>
     </row>
     <row r="525">
       <c r="AH525" s="48"/>
-      <c r="AI525" s="49"/>
+      <c r="AI525" s="48"/>
+      <c r="AJ525" s="48"/>
     </row>
     <row r="526">
       <c r="AH526" s="48"/>
-      <c r="AI526" s="49"/>
+      <c r="AI526" s="48"/>
+      <c r="AJ526" s="48"/>
     </row>
     <row r="527">
       <c r="AH527" s="48"/>
-      <c r="AI527" s="49"/>
+      <c r="AI527" s="48"/>
+      <c r="AJ527" s="48"/>
     </row>
     <row r="528">
       <c r="AH528" s="48"/>
-      <c r="AI528" s="49"/>
+      <c r="AI528" s="48"/>
+      <c r="AJ528" s="48"/>
     </row>
     <row r="529">
       <c r="AH529" s="48"/>
-      <c r="AI529" s="49"/>
+      <c r="AI529" s="48"/>
+      <c r="AJ529" s="48"/>
     </row>
     <row r="530">
       <c r="AH530" s="48"/>
-      <c r="AI530" s="49"/>
+      <c r="AI530" s="48"/>
+      <c r="AJ530" s="48"/>
     </row>
     <row r="531">
       <c r="AH531" s="48"/>
-      <c r="AI531" s="49"/>
+      <c r="AI531" s="48"/>
+      <c r="AJ531" s="48"/>
     </row>
     <row r="532">
       <c r="AH532" s="48"/>
-      <c r="AI532" s="49"/>
+      <c r="AI532" s="48"/>
+      <c r="AJ532" s="48"/>
     </row>
     <row r="533">
       <c r="AH533" s="48"/>
-      <c r="AI533" s="49"/>
+      <c r="AI533" s="48"/>
+      <c r="AJ533" s="48"/>
     </row>
     <row r="534">
       <c r="AH534" s="48"/>
-      <c r="AI534" s="49"/>
+      <c r="AI534" s="48"/>
+      <c r="AJ534" s="48"/>
     </row>
     <row r="535">
       <c r="AH535" s="48"/>
-      <c r="AI535" s="49"/>
+      <c r="AI535" s="48"/>
+      <c r="AJ535" s="48"/>
     </row>
     <row r="536">
       <c r="AH536" s="48"/>
-      <c r="AI536" s="49"/>
+      <c r="AI536" s="48"/>
+      <c r="AJ536" s="48"/>
     </row>
     <row r="537">
       <c r="AH537" s="48"/>
-      <c r="AI537" s="49"/>
+      <c r="AI537" s="48"/>
+      <c r="AJ537" s="48"/>
     </row>
     <row r="538">
       <c r="AH538" s="48"/>
-      <c r="AI538" s="49"/>
+      <c r="AI538" s="48"/>
+      <c r="AJ538" s="48"/>
     </row>
     <row r="539">
       <c r="AH539" s="48"/>
-      <c r="AI539" s="49"/>
+      <c r="AI539" s="48"/>
+      <c r="AJ539" s="48"/>
     </row>
     <row r="540">
       <c r="AH540" s="48"/>
-      <c r="AI540" s="49"/>
+      <c r="AI540" s="48"/>
+      <c r="AJ540" s="48"/>
     </row>
     <row r="541">
       <c r="AH541" s="48"/>
-      <c r="AI541" s="49"/>
+      <c r="AI541" s="48"/>
+      <c r="AJ541" s="48"/>
     </row>
     <row r="542">
       <c r="AH542" s="48"/>
-      <c r="AI542" s="49"/>
+      <c r="AI542" s="48"/>
+      <c r="AJ542" s="48"/>
     </row>
     <row r="543">
       <c r="AH543" s="48"/>
-      <c r="AI543" s="49"/>
+      <c r="AI543" s="48"/>
+      <c r="AJ543" s="48"/>
     </row>
     <row r="544">
       <c r="AH544" s="48"/>
-      <c r="AI544" s="49"/>
+      <c r="AI544" s="48"/>
+      <c r="AJ544" s="48"/>
     </row>
     <row r="545">
       <c r="AH545" s="48"/>
-      <c r="AI545" s="49"/>
+      <c r="AI545" s="48"/>
+      <c r="AJ545" s="48"/>
     </row>
     <row r="546">
       <c r="AH546" s="48"/>
-      <c r="AI546" s="49"/>
+      <c r="AI546" s="48"/>
+      <c r="AJ546" s="48"/>
     </row>
     <row r="547">
       <c r="AH547" s="48"/>
-      <c r="AI547" s="49"/>
+      <c r="AI547" s="48"/>
+      <c r="AJ547" s="48"/>
     </row>
     <row r="548">
       <c r="AH548" s="48"/>
-      <c r="AI548" s="49"/>
+      <c r="AI548" s="48"/>
+      <c r="AJ548" s="48"/>
     </row>
     <row r="549">
       <c r="AH549" s="48"/>
-      <c r="AI549" s="49"/>
+      <c r="AI549" s="48"/>
+      <c r="AJ549" s="48"/>
     </row>
     <row r="550">
       <c r="AH550" s="48"/>
-      <c r="AI550" s="49"/>
+      <c r="AI550" s="48"/>
+      <c r="AJ550" s="48"/>
     </row>
     <row r="551">
       <c r="AH551" s="48"/>
-      <c r="AI551" s="49"/>
+      <c r="AI551" s="48"/>
+      <c r="AJ551" s="48"/>
     </row>
     <row r="552">
       <c r="AH552" s="48"/>
-      <c r="AI552" s="49"/>
+      <c r="AI552" s="48"/>
+      <c r="AJ552" s="48"/>
     </row>
     <row r="553">
       <c r="AH553" s="48"/>
-      <c r="AI553" s="49"/>
+      <c r="AI553" s="48"/>
+      <c r="AJ553" s="48"/>
     </row>
     <row r="554">
       <c r="AH554" s="48"/>
-      <c r="AI554" s="49"/>
+      <c r="AI554" s="48"/>
+      <c r="AJ554" s="48"/>
     </row>
     <row r="555">
       <c r="AH555" s="48"/>
-      <c r="AI555" s="49"/>
+      <c r="AI555" s="48"/>
+      <c r="AJ555" s="48"/>
     </row>
     <row r="556">
       <c r="AH556" s="48"/>
-      <c r="AI556" s="49"/>
+      <c r="AI556" s="48"/>
+      <c r="AJ556" s="48"/>
     </row>
     <row r="557">
       <c r="AH557" s="48"/>
-      <c r="AI557" s="49"/>
+      <c r="AI557" s="48"/>
+      <c r="AJ557" s="48"/>
     </row>
     <row r="558">
       <c r="AH558" s="48"/>
-      <c r="AI558" s="49"/>
+      <c r="AI558" s="48"/>
+      <c r="AJ558" s="48"/>
     </row>
     <row r="559">
       <c r="AH559" s="48"/>
-      <c r="AI559" s="49"/>
+      <c r="AI559" s="48"/>
+      <c r="AJ559" s="48"/>
     </row>
     <row r="560">
       <c r="AH560" s="48"/>
-      <c r="AI560" s="49"/>
+      <c r="AI560" s="48"/>
+      <c r="AJ560" s="48"/>
     </row>
     <row r="561">
       <c r="AH561" s="48"/>
-      <c r="AI561" s="49"/>
+      <c r="AI561" s="48"/>
+      <c r="AJ561" s="48"/>
     </row>
     <row r="562">
       <c r="AH562" s="48"/>
-      <c r="AI562" s="49"/>
+      <c r="AI562" s="48"/>
+      <c r="AJ562" s="48"/>
     </row>
     <row r="563">
       <c r="AH563" s="48"/>
-      <c r="AI563" s="49"/>
+      <c r="AI563" s="48"/>
+      <c r="AJ563" s="48"/>
     </row>
     <row r="564">
       <c r="AH564" s="48"/>
-      <c r="AI564" s="49"/>
+      <c r="AI564" s="48"/>
+      <c r="AJ564" s="48"/>
     </row>
     <row r="565">
       <c r="AH565" s="48"/>
-      <c r="AI565" s="49"/>
+      <c r="AI565" s="48"/>
+      <c r="AJ565" s="48"/>
     </row>
     <row r="566">
       <c r="AH566" s="48"/>
-      <c r="AI566" s="49"/>
+      <c r="AI566" s="48"/>
+      <c r="AJ566" s="48"/>
     </row>
     <row r="567">
       <c r="AH567" s="48"/>
-      <c r="AI567" s="49"/>
+      <c r="AI567" s="48"/>
+      <c r="AJ567" s="48"/>
     </row>
     <row r="568">
       <c r="AH568" s="48"/>
-      <c r="AI568" s="49"/>
+      <c r="AI568" s="48"/>
+      <c r="AJ568" s="48"/>
     </row>
     <row r="569">
       <c r="AH569" s="48"/>
-      <c r="AI569" s="49"/>
+      <c r="AI569" s="48"/>
+      <c r="AJ569" s="48"/>
     </row>
     <row r="570">
       <c r="AH570" s="48"/>
-      <c r="AI570" s="49"/>
+      <c r="AI570" s="48"/>
+      <c r="AJ570" s="48"/>
     </row>
     <row r="571">
       <c r="AH571" s="48"/>
-      <c r="AI571" s="49"/>
+      <c r="AI571" s="48"/>
+      <c r="AJ571" s="48"/>
     </row>
     <row r="572">
       <c r="AH572" s="48"/>
-      <c r="AI572" s="49"/>
+      <c r="AI572" s="48"/>
+      <c r="AJ572" s="48"/>
     </row>
     <row r="573">
       <c r="AH573" s="48"/>
-      <c r="AI573" s="49"/>
+      <c r="AI573" s="48"/>
+      <c r="AJ573" s="48"/>
     </row>
     <row r="574">
       <c r="AH574" s="48"/>
-      <c r="AI574" s="49"/>
+      <c r="AI574" s="48"/>
+      <c r="AJ574" s="48"/>
     </row>
     <row r="575">
       <c r="AH575" s="48"/>
-      <c r="AI575" s="49"/>
+      <c r="AI575" s="48"/>
+      <c r="AJ575" s="48"/>
     </row>
     <row r="576">
       <c r="AH576" s="48"/>
-      <c r="AI576" s="49"/>
+      <c r="AI576" s="48"/>
+      <c r="AJ576" s="48"/>
     </row>
     <row r="577">
       <c r="AH577" s="48"/>
-      <c r="AI577" s="49"/>
+      <c r="AI577" s="48"/>
+      <c r="AJ577" s="48"/>
     </row>
     <row r="578">
       <c r="AH578" s="48"/>
-      <c r="AI578" s="49"/>
+      <c r="AI578" s="48"/>
+      <c r="AJ578" s="48"/>
     </row>
     <row r="579">
       <c r="AH579" s="48"/>
-      <c r="AI579" s="49"/>
+      <c r="AI579" s="48"/>
+      <c r="AJ579" s="48"/>
     </row>
     <row r="580">
       <c r="AH580" s="48"/>
-      <c r="AI580" s="49"/>
+      <c r="AI580" s="48"/>
+      <c r="AJ580" s="48"/>
     </row>
     <row r="581">
       <c r="AH581" s="48"/>
-      <c r="AI581" s="49"/>
+      <c r="AI581" s="48"/>
+      <c r="AJ581" s="48"/>
     </row>
     <row r="582">
       <c r="AH582" s="48"/>
-      <c r="AI582" s="49"/>
+      <c r="AI582" s="48"/>
+      <c r="AJ582" s="48"/>
     </row>
     <row r="583">
       <c r="AH583" s="48"/>
-      <c r="AI583" s="49"/>
+      <c r="AI583" s="48"/>
+      <c r="AJ583" s="48"/>
     </row>
     <row r="584">
       <c r="AH584" s="48"/>
-      <c r="AI584" s="49"/>
+      <c r="AI584" s="48"/>
+      <c r="AJ584" s="48"/>
     </row>
     <row r="585">
       <c r="AH585" s="48"/>
-      <c r="AI585" s="49"/>
+      <c r="AI585" s="48"/>
+      <c r="AJ585" s="48"/>
     </row>
     <row r="586">
       <c r="AH586" s="48"/>
-      <c r="AI586" s="49"/>
+      <c r="AI586" s="48"/>
+      <c r="AJ586" s="48"/>
     </row>
     <row r="587">
       <c r="AH587" s="48"/>
-      <c r="AI587" s="49"/>
+      <c r="AI587" s="48"/>
+      <c r="AJ587" s="48"/>
     </row>
     <row r="588">
       <c r="AH588" s="48"/>
-      <c r="AI588" s="49"/>
+      <c r="AI588" s="48"/>
+      <c r="AJ588" s="48"/>
     </row>
     <row r="589">
       <c r="AH589" s="48"/>
-      <c r="AI589" s="49"/>
+      <c r="AI589" s="48"/>
+      <c r="AJ589" s="48"/>
     </row>
     <row r="590">
       <c r="AH590" s="48"/>
-      <c r="AI590" s="49"/>
+      <c r="AI590" s="48"/>
+      <c r="AJ590" s="48"/>
     </row>
     <row r="591">
       <c r="AH591" s="48"/>
-      <c r="AI591" s="49"/>
+      <c r="AI591" s="48"/>
+      <c r="AJ591" s="48"/>
     </row>
     <row r="592">
       <c r="AH592" s="48"/>
-      <c r="AI592" s="49"/>
+      <c r="AI592" s="48"/>
+      <c r="AJ592" s="48"/>
     </row>
     <row r="593">
       <c r="AH593" s="48"/>
-      <c r="AI593" s="49"/>
+      <c r="AI593" s="48"/>
+      <c r="AJ593" s="48"/>
     </row>
     <row r="594">
       <c r="AH594" s="48"/>
-      <c r="AI594" s="49"/>
+      <c r="AI594" s="48"/>
+      <c r="AJ594" s="48"/>
     </row>
     <row r="595">
       <c r="AH595" s="48"/>
-      <c r="AI595" s="49"/>
+      <c r="AI595" s="48"/>
+      <c r="AJ595" s="48"/>
     </row>
     <row r="596">
       <c r="AH596" s="48"/>
-      <c r="AI596" s="49"/>
+      <c r="AI596" s="48"/>
+      <c r="AJ596" s="48"/>
     </row>
     <row r="597">
       <c r="AH597" s="48"/>
-      <c r="AI597" s="49"/>
+      <c r="AI597" s="48"/>
+      <c r="AJ597" s="48"/>
     </row>
     <row r="598">
       <c r="AH598" s="48"/>
-      <c r="AI598" s="49"/>
+      <c r="AI598" s="48"/>
+      <c r="AJ598" s="48"/>
     </row>
     <row r="599">
       <c r="AH599" s="48"/>
-      <c r="AI599" s="49"/>
+      <c r="AI599" s="48"/>
+      <c r="AJ599" s="48"/>
     </row>
     <row r="600">
       <c r="AH600" s="48"/>
-      <c r="AI600" s="49"/>
+      <c r="AI600" s="48"/>
+      <c r="AJ600" s="48"/>
     </row>
     <row r="601">
       <c r="AH601" s="48"/>
-      <c r="AI601" s="49"/>
+      <c r="AI601" s="48"/>
+      <c r="AJ601" s="48"/>
     </row>
     <row r="602">
       <c r="AH602" s="48"/>
-      <c r="AI602" s="49"/>
+      <c r="AI602" s="48"/>
+      <c r="AJ602" s="48"/>
     </row>
     <row r="603">
       <c r="AH603" s="48"/>
-      <c r="AI603" s="49"/>
+      <c r="AI603" s="48"/>
+      <c r="AJ603" s="48"/>
     </row>
     <row r="604">
       <c r="AH604" s="48"/>
-      <c r="AI604" s="49"/>
+      <c r="AI604" s="48"/>
+      <c r="AJ604" s="48"/>
     </row>
     <row r="605">
       <c r="AH605" s="48"/>
-      <c r="AI605" s="49"/>
+      <c r="AI605" s="48"/>
+      <c r="AJ605" s="48"/>
     </row>
     <row r="606">
       <c r="AH606" s="48"/>
-      <c r="AI606" s="49"/>
+      <c r="AI606" s="48"/>
+      <c r="AJ606" s="48"/>
     </row>
     <row r="607">
       <c r="AH607" s="48"/>
-      <c r="AI607" s="49"/>
+      <c r="AI607" s="48"/>
+      <c r="AJ607" s="48"/>
     </row>
     <row r="608">
       <c r="AH608" s="48"/>
-      <c r="AI608" s="49"/>
+      <c r="AI608" s="48"/>
+      <c r="AJ608" s="48"/>
     </row>
     <row r="609">
       <c r="AH609" s="48"/>
-      <c r="AI609" s="49"/>
+      <c r="AI609" s="48"/>
+      <c r="AJ609" s="48"/>
     </row>
     <row r="610">
       <c r="AH610" s="48"/>
-      <c r="AI610" s="49"/>
+      <c r="AI610" s="48"/>
+      <c r="AJ610" s="48"/>
     </row>
     <row r="611">
       <c r="AH611" s="48"/>
-      <c r="AI611" s="49"/>
+      <c r="AI611" s="48"/>
+      <c r="AJ611" s="48"/>
     </row>
     <row r="612">
       <c r="AH612" s="48"/>
-      <c r="AI612" s="49"/>
+      <c r="AI612" s="48"/>
+      <c r="AJ612" s="48"/>
     </row>
     <row r="613">
       <c r="AH613" s="48"/>
-      <c r="AI613" s="49"/>
+      <c r="AI613" s="48"/>
+      <c r="AJ613" s="48"/>
     </row>
     <row r="614">
       <c r="AH614" s="48"/>
-      <c r="AI614" s="49"/>
+      <c r="AI614" s="48"/>
+      <c r="AJ614" s="48"/>
     </row>
     <row r="615">
       <c r="AH615" s="48"/>
-      <c r="AI615" s="49"/>
+      <c r="AI615" s="48"/>
+      <c r="AJ615" s="48"/>
     </row>
     <row r="616">
       <c r="AH616" s="48"/>
-      <c r="AI616" s="49"/>
+      <c r="AI616" s="48"/>
+      <c r="AJ616" s="48"/>
     </row>
     <row r="617">
       <c r="AH617" s="48"/>
-      <c r="AI617" s="49"/>
+      <c r="AI617" s="48"/>
+      <c r="AJ617" s="48"/>
     </row>
     <row r="618">
       <c r="AH618" s="48"/>
-      <c r="AI618" s="49"/>
+      <c r="AI618" s="48"/>
+      <c r="AJ618" s="48"/>
     </row>
     <row r="619">
       <c r="AH619" s="48"/>
-      <c r="AI619" s="49"/>
+      <c r="AI619" s="48"/>
+      <c r="AJ619" s="48"/>
     </row>
     <row r="620">
       <c r="AH620" s="48"/>
-      <c r="AI620" s="49"/>
+      <c r="AI620" s="48"/>
+      <c r="AJ620" s="48"/>
     </row>
     <row r="621">
       <c r="AH621" s="48"/>
-      <c r="AI621" s="49"/>
+      <c r="AI621" s="48"/>
+      <c r="AJ621" s="48"/>
     </row>
     <row r="622">
       <c r="AH622" s="48"/>
-      <c r="AI622" s="49"/>
+      <c r="AI622" s="48"/>
+      <c r="AJ622" s="48"/>
     </row>
     <row r="623">
       <c r="AH623" s="48"/>
-      <c r="AI623" s="49"/>
+      <c r="AI623" s="48"/>
+      <c r="AJ623" s="48"/>
     </row>
     <row r="624">
       <c r="AH624" s="48"/>
-      <c r="AI624" s="49"/>
+      <c r="AI624" s="48"/>
+      <c r="AJ624" s="48"/>
     </row>
     <row r="625">
       <c r="AH625" s="48"/>
-      <c r="AI625" s="49"/>
+      <c r="AI625" s="48"/>
+      <c r="AJ625" s="48"/>
     </row>
     <row r="626">
       <c r="AH626" s="48"/>
-      <c r="AI626" s="49"/>
+      <c r="AI626" s="48"/>
+      <c r="AJ626" s="48"/>
     </row>
     <row r="627">
       <c r="AH627" s="48"/>
-      <c r="AI627" s="49"/>
+      <c r="AI627" s="48"/>
+      <c r="AJ627" s="48"/>
     </row>
     <row r="628">
       <c r="AH628" s="48"/>
-      <c r="AI628" s="49"/>
+      <c r="AI628" s="48"/>
+      <c r="AJ628" s="48"/>
     </row>
     <row r="629">
       <c r="AH629" s="48"/>
-      <c r="AI629" s="49"/>
+      <c r="AI629" s="48"/>
+      <c r="AJ629" s="48"/>
     </row>
     <row r="630">
       <c r="AH630" s="48"/>
-      <c r="AI630" s="49"/>
+      <c r="AI630" s="48"/>
+      <c r="AJ630" s="48"/>
     </row>
     <row r="631">
       <c r="AH631" s="48"/>
-      <c r="AI631" s="49"/>
+      <c r="AI631" s="48"/>
+      <c r="AJ631" s="48"/>
     </row>
     <row r="632">
       <c r="AH632" s="48"/>
-      <c r="AI632" s="49"/>
+      <c r="AI632" s="48"/>
+      <c r="AJ632" s="48"/>
     </row>
     <row r="633">
       <c r="AH633" s="48"/>
-      <c r="AI633" s="49"/>
+      <c r="AI633" s="48"/>
+      <c r="AJ633" s="48"/>
     </row>
     <row r="634">
       <c r="AH634" s="48"/>
-      <c r="AI634" s="49"/>
+      <c r="AI634" s="48"/>
+      <c r="AJ634" s="48"/>
     </row>
     <row r="635">
       <c r="AH635" s="48"/>
-      <c r="AI635" s="49"/>
+      <c r="AI635" s="48"/>
+      <c r="AJ635" s="48"/>
     </row>
     <row r="636">
       <c r="AH636" s="48"/>
-      <c r="AI636" s="49"/>
+      <c r="AI636" s="48"/>
+      <c r="AJ636" s="48"/>
     </row>
     <row r="637">
       <c r="AH637" s="48"/>
-      <c r="AI637" s="49"/>
+      <c r="AI637" s="48"/>
+      <c r="AJ637" s="48"/>
     </row>
     <row r="638">
       <c r="AH638" s="48"/>
-      <c r="AI638" s="49"/>
+      <c r="AI638" s="48"/>
+      <c r="AJ638" s="48"/>
     </row>
     <row r="639">
       <c r="AH639" s="48"/>
-      <c r="AI639" s="49"/>
+      <c r="AI639" s="48"/>
+      <c r="AJ639" s="48"/>
     </row>
     <row r="640">
       <c r="AH640" s="48"/>
-      <c r="AI640" s="49"/>
+      <c r="AI640" s="48"/>
+      <c r="AJ640" s="48"/>
     </row>
     <row r="641">
       <c r="AH641" s="48"/>
-      <c r="AI641" s="49"/>
+      <c r="AI641" s="48"/>
+      <c r="AJ641" s="48"/>
     </row>
     <row r="642">
       <c r="AH642" s="48"/>
-      <c r="AI642" s="49"/>
+      <c r="AI642" s="48"/>
+      <c r="AJ642" s="48"/>
     </row>
     <row r="643">
       <c r="AH643" s="48"/>
-      <c r="AI643" s="49"/>
+      <c r="AI643" s="48"/>
+      <c r="AJ643" s="48"/>
     </row>
     <row r="644">
       <c r="AH644" s="48"/>
-      <c r="AI644" s="49"/>
+      <c r="AI644" s="48"/>
+      <c r="AJ644" s="48"/>
     </row>
     <row r="645">
       <c r="AH645" s="48"/>
-      <c r="AI645" s="49"/>
+      <c r="AI645" s="48"/>
+      <c r="AJ645" s="48"/>
     </row>
     <row r="646">
       <c r="AH646" s="48"/>
-      <c r="AI646" s="49"/>
+      <c r="AI646" s="48"/>
+      <c r="AJ646" s="48"/>
     </row>
     <row r="647">
       <c r="AH647" s="48"/>
-      <c r="AI647" s="49"/>
+      <c r="AI647" s="48"/>
+      <c r="AJ647" s="48"/>
     </row>
     <row r="648">
       <c r="AH648" s="48"/>
-      <c r="AI648" s="49"/>
+      <c r="AI648" s="48"/>
+      <c r="AJ648" s="48"/>
     </row>
     <row r="649">
       <c r="AH649" s="48"/>
-      <c r="AI649" s="49"/>
+      <c r="AI649" s="48"/>
+      <c r="AJ649" s="48"/>
     </row>
     <row r="650">
       <c r="AH650" s="48"/>
-      <c r="AI650" s="49"/>
+      <c r="AI650" s="48"/>
+      <c r="AJ650" s="48"/>
     </row>
     <row r="651">
       <c r="AH651" s="48"/>
-      <c r="AI651" s="49"/>
+      <c r="AI651" s="48"/>
+      <c r="AJ651" s="48"/>
     </row>
     <row r="652">
       <c r="AH652" s="48"/>
-      <c r="AI652" s="49"/>
+      <c r="AI652" s="48"/>
+      <c r="AJ652" s="48"/>
     </row>
     <row r="653">
       <c r="AH653" s="48"/>
-      <c r="AI653" s="49"/>
+      <c r="AI653" s="48"/>
+      <c r="AJ653" s="48"/>
     </row>
     <row r="654">
       <c r="AH654" s="48"/>
-      <c r="AI654" s="49"/>
+      <c r="AI654" s="48"/>
+      <c r="AJ654" s="48"/>
     </row>
     <row r="655">
       <c r="AH655" s="48"/>
-      <c r="AI655" s="49"/>
+      <c r="AI655" s="48"/>
+      <c r="AJ655" s="48"/>
     </row>
     <row r="656">
       <c r="AH656" s="48"/>
-      <c r="AI656" s="49"/>
+      <c r="AI656" s="48"/>
+      <c r="AJ656" s="48"/>
     </row>
     <row r="657">
       <c r="AH657" s="48"/>
-      <c r="AI657" s="49"/>
+      <c r="AI657" s="48"/>
+      <c r="AJ657" s="48"/>
     </row>
     <row r="658">
       <c r="AH658" s="48"/>
-      <c r="AI658" s="49"/>
+      <c r="AI658" s="48"/>
+      <c r="AJ658" s="48"/>
     </row>
     <row r="659">
       <c r="AH659" s="48"/>
-      <c r="AI659" s="49"/>
+      <c r="AI659" s="48"/>
+      <c r="AJ659" s="48"/>
     </row>
     <row r="660">
       <c r="AH660" s="48"/>
-      <c r="AI660" s="49"/>
+      <c r="AI660" s="48"/>
+      <c r="AJ660" s="48"/>
     </row>
     <row r="661">
       <c r="AH661" s="48"/>
-      <c r="AI661" s="49"/>
+      <c r="AI661" s="48"/>
+      <c r="AJ661" s="48"/>
     </row>
     <row r="662">
       <c r="AH662" s="48"/>
-      <c r="AI662" s="49"/>
+      <c r="AI662" s="48"/>
+      <c r="AJ662" s="48"/>
     </row>
     <row r="663">
       <c r="AH663" s="48"/>
-      <c r="AI663" s="49"/>
+      <c r="AI663" s="48"/>
+      <c r="AJ663" s="48"/>
     </row>
     <row r="664">
       <c r="AH664" s="48"/>
-      <c r="AI664" s="49"/>
+      <c r="AI664" s="48"/>
+      <c r="AJ664" s="48"/>
     </row>
     <row r="665">
       <c r="AH665" s="48"/>
-      <c r="AI665" s="49"/>
+      <c r="AI665" s="48"/>
+      <c r="AJ665" s="48"/>
     </row>
     <row r="666">
       <c r="AH666" s="48"/>
-      <c r="AI666" s="49"/>
+      <c r="AI666" s="48"/>
+      <c r="AJ666" s="48"/>
     </row>
     <row r="667">
       <c r="AH667" s="48"/>
-      <c r="AI667" s="49"/>
+      <c r="AI667" s="48"/>
+      <c r="AJ667" s="48"/>
     </row>
     <row r="668">
       <c r="AH668" s="48"/>
-      <c r="AI668" s="49"/>
+      <c r="AI668" s="48"/>
+      <c r="AJ668" s="48"/>
     </row>
     <row r="669">
       <c r="AH669" s="48"/>
-      <c r="AI669" s="49"/>
+      <c r="AI669" s="48"/>
+      <c r="AJ669" s="48"/>
     </row>
     <row r="670">
       <c r="AH670" s="48"/>
-      <c r="AI670" s="49"/>
+      <c r="AI670" s="48"/>
+      <c r="AJ670" s="48"/>
     </row>
     <row r="671">
       <c r="AH671" s="48"/>
-      <c r="AI671" s="49"/>
+      <c r="AI671" s="48"/>
+      <c r="AJ671" s="48"/>
     </row>
     <row r="672">
       <c r="AH672" s="48"/>
-      <c r="AI672" s="49"/>
+      <c r="AI672" s="48"/>
+      <c r="AJ672" s="48"/>
     </row>
     <row r="673">
       <c r="AH673" s="48"/>
-      <c r="AI673" s="49"/>
+      <c r="AI673" s="48"/>
+      <c r="AJ673" s="48"/>
     </row>
     <row r="674">
       <c r="AH674" s="48"/>
-      <c r="AI674" s="49"/>
+      <c r="AI674" s="48"/>
+      <c r="AJ674" s="48"/>
     </row>
     <row r="675">
       <c r="AH675" s="48"/>
-      <c r="AI675" s="49"/>
+      <c r="AI675" s="48"/>
+      <c r="AJ675" s="48"/>
     </row>
     <row r="676">
       <c r="AH676" s="48"/>
-      <c r="AI676" s="49"/>
+      <c r="AI676" s="48"/>
+      <c r="AJ676" s="48"/>
     </row>
     <row r="677">
       <c r="AH677" s="48"/>
-      <c r="AI677" s="49"/>
+      <c r="AI677" s="48"/>
+      <c r="AJ677" s="48"/>
     </row>
     <row r="678">
       <c r="AH678" s="48"/>
-      <c r="AI678" s="49"/>
+      <c r="AI678" s="48"/>
+      <c r="AJ678" s="48"/>
     </row>
     <row r="679">
       <c r="AH679" s="48"/>
-      <c r="AI679" s="49"/>
+      <c r="AI679" s="48"/>
+      <c r="AJ679" s="48"/>
     </row>
     <row r="680">
       <c r="AH680" s="48"/>
-      <c r="AI680" s="49"/>
+      <c r="AI680" s="48"/>
+      <c r="AJ680" s="48"/>
     </row>
     <row r="681">
       <c r="AH681" s="48"/>
-      <c r="AI681" s="49"/>
+      <c r="AI681" s="48"/>
+      <c r="AJ681" s="48"/>
     </row>
     <row r="682">
       <c r="AH682" s="48"/>
-      <c r="AI682" s="49"/>
+      <c r="AI682" s="48"/>
+      <c r="AJ682" s="48"/>
     </row>
     <row r="683">
       <c r="AH683" s="48"/>
-      <c r="AI683" s="49"/>
+      <c r="AI683" s="48"/>
+      <c r="AJ683" s="48"/>
     </row>
     <row r="684">
       <c r="AH684" s="48"/>
-      <c r="AI684" s="49"/>
+      <c r="AI684" s="48"/>
+      <c r="AJ684" s="48"/>
     </row>
     <row r="685">
       <c r="AH685" s="48"/>
-      <c r="AI685" s="49"/>
+      <c r="AI685" s="48"/>
+      <c r="AJ685" s="48"/>
     </row>
     <row r="686">
       <c r="AH686" s="48"/>
-      <c r="AI686" s="49"/>
+      <c r="AI686" s="48"/>
+      <c r="AJ686" s="48"/>
     </row>
     <row r="687">
       <c r="AH687" s="48"/>
-      <c r="AI687" s="49"/>
+      <c r="AI687" s="48"/>
+      <c r="AJ687" s="48"/>
     </row>
     <row r="688">
       <c r="AH688" s="48"/>
-      <c r="AI688" s="49"/>
+      <c r="AI688" s="48"/>
+      <c r="AJ688" s="48"/>
     </row>
     <row r="689">
       <c r="AH689" s="48"/>
-      <c r="AI689" s="49"/>
+      <c r="AI689" s="48"/>
+      <c r="AJ689" s="48"/>
     </row>
     <row r="690">
       <c r="AH690" s="48"/>
-      <c r="AI690" s="49"/>
+      <c r="AI690" s="48"/>
+      <c r="AJ690" s="48"/>
     </row>
     <row r="691">
       <c r="AH691" s="48"/>
-      <c r="AI691" s="49"/>
+      <c r="AI691" s="48"/>
+      <c r="AJ691" s="48"/>
     </row>
     <row r="692">
       <c r="AH692" s="48"/>
-      <c r="AI692" s="49"/>
+      <c r="AI692" s="48"/>
+      <c r="AJ692" s="48"/>
     </row>
     <row r="693">
       <c r="AH693" s="48"/>
-      <c r="AI693" s="49"/>
+      <c r="AI693" s="48"/>
+      <c r="AJ693" s="48"/>
     </row>
     <row r="694">
       <c r="AH694" s="48"/>
-      <c r="AI694" s="49"/>
+      <c r="AI694" s="48"/>
+      <c r="AJ694" s="48"/>
     </row>
     <row r="695">
       <c r="AH695" s="48"/>
-      <c r="AI695" s="49"/>
+      <c r="AI695" s="48"/>
+      <c r="AJ695" s="48"/>
     </row>
     <row r="696">
       <c r="AH696" s="48"/>
-      <c r="AI696" s="49"/>
+      <c r="AI696" s="48"/>
+      <c r="AJ696" s="48"/>
     </row>
     <row r="697">
       <c r="AH697" s="48"/>
-      <c r="AI697" s="49"/>
+      <c r="AI697" s="48"/>
+      <c r="AJ697" s="48"/>
     </row>
     <row r="698">
       <c r="AH698" s="48"/>
-      <c r="AI698" s="49"/>
+      <c r="AI698" s="48"/>
+      <c r="AJ698" s="48"/>
     </row>
     <row r="699">
       <c r="AH699" s="48"/>
-      <c r="AI699" s="49"/>
+      <c r="AI699" s="48"/>
+      <c r="AJ699" s="48"/>
     </row>
     <row r="700">
       <c r="AH700" s="48"/>
-      <c r="AI700" s="49"/>
+      <c r="AI700" s="48"/>
+      <c r="AJ700" s="48"/>
     </row>
     <row r="701">
       <c r="AH701" s="48"/>
-      <c r="AI701" s="49"/>
+      <c r="AI701" s="48"/>
+      <c r="AJ701" s="48"/>
     </row>
     <row r="702">
       <c r="AH702" s="48"/>
-      <c r="AI702" s="49"/>
+      <c r="AI702" s="48"/>
+      <c r="AJ702" s="48"/>
     </row>
     <row r="703">
       <c r="AH703" s="48"/>
-      <c r="AI703" s="49"/>
+      <c r="AI703" s="48"/>
+      <c r="AJ703" s="48"/>
     </row>
     <row r="704">
       <c r="AH704" s="48"/>
-      <c r="AI704" s="49"/>
+      <c r="AI704" s="48"/>
+      <c r="AJ704" s="48"/>
     </row>
     <row r="705">
       <c r="AH705" s="48"/>
-      <c r="AI705" s="49"/>
+      <c r="AI705" s="48"/>
+      <c r="AJ705" s="48"/>
     </row>
     <row r="706">
       <c r="AH706" s="48"/>
-      <c r="AI706" s="49"/>
+      <c r="AI706" s="48"/>
+      <c r="AJ706" s="48"/>
     </row>
     <row r="707">
       <c r="AH707" s="48"/>
-      <c r="AI707" s="49"/>
+      <c r="AI707" s="48"/>
+      <c r="AJ707" s="48"/>
     </row>
     <row r="708">
       <c r="AH708" s="48"/>
-      <c r="AI708" s="49"/>
+      <c r="AI708" s="48"/>
+      <c r="AJ708" s="48"/>
     </row>
     <row r="709">
       <c r="AH709" s="48"/>
-      <c r="AI709" s="49"/>
+      <c r="AI709" s="48"/>
+      <c r="AJ709" s="48"/>
     </row>
     <row r="710">
       <c r="AH710" s="48"/>
-      <c r="AI710" s="49"/>
+      <c r="AI710" s="48"/>
+      <c r="AJ710" s="48"/>
     </row>
     <row r="711">
       <c r="AH711" s="48"/>
-      <c r="AI711" s="49"/>
+      <c r="AI711" s="48"/>
+      <c r="AJ711" s="48"/>
     </row>
     <row r="712">
       <c r="AH712" s="48"/>
-      <c r="AI712" s="49"/>
+      <c r="AI712" s="48"/>
+      <c r="AJ712" s="48"/>
     </row>
     <row r="713">
       <c r="AH713" s="48"/>
-      <c r="AI713" s="49"/>
+      <c r="AI713" s="48"/>
+      <c r="AJ713" s="48"/>
     </row>
     <row r="714">
       <c r="AH714" s="48"/>
-      <c r="AI714" s="49"/>
+      <c r="AI714" s="48"/>
+      <c r="AJ714" s="48"/>
     </row>
     <row r="715">
       <c r="AH715" s="48"/>
-      <c r="AI715" s="49"/>
+      <c r="AI715" s="48"/>
+      <c r="AJ715" s="48"/>
     </row>
     <row r="716">
       <c r="AH716" s="48"/>
-      <c r="AI716" s="49"/>
+      <c r="AI716" s="48"/>
+      <c r="AJ716" s="48"/>
     </row>
     <row r="717">
       <c r="AH717" s="48"/>
-      <c r="AI717" s="49"/>
+      <c r="AI717" s="48"/>
+      <c r="AJ717" s="48"/>
     </row>
     <row r="718">
       <c r="AH718" s="48"/>
-      <c r="AI718" s="49"/>
+      <c r="AI718" s="48"/>
+      <c r="AJ718" s="48"/>
     </row>
     <row r="719">
       <c r="AH719" s="48"/>
-      <c r="AI719" s="49"/>
+      <c r="AI719" s="48"/>
+      <c r="AJ719" s="48"/>
     </row>
     <row r="720">
       <c r="AH720" s="48"/>
-      <c r="AI720" s="49"/>
+      <c r="AI720" s="48"/>
+      <c r="AJ720" s="48"/>
     </row>
     <row r="721">
       <c r="AH721" s="48"/>
-      <c r="AI721" s="49"/>
+      <c r="AI721" s="48"/>
+      <c r="AJ721" s="48"/>
     </row>
     <row r="722">
       <c r="AH722" s="48"/>
-      <c r="AI722" s="49"/>
+      <c r="AI722" s="48"/>
+      <c r="AJ722" s="48"/>
     </row>
     <row r="723">
       <c r="AH723" s="48"/>
-      <c r="AI723" s="49"/>
+      <c r="AI723" s="48"/>
+      <c r="AJ723" s="48"/>
     </row>
     <row r="724">
       <c r="AH724" s="48"/>
-      <c r="AI724" s="49"/>
+      <c r="AI724" s="48"/>
+      <c r="AJ724" s="48"/>
     </row>
     <row r="725">
       <c r="AH725" s="48"/>
-      <c r="AI725" s="49"/>
+      <c r="AI725" s="48"/>
+      <c r="AJ725" s="48"/>
     </row>
     <row r="726">
       <c r="AH726" s="48"/>
-      <c r="AI726" s="49"/>
+      <c r="AI726" s="48"/>
+      <c r="AJ726" s="48"/>
     </row>
     <row r="727">
       <c r="AH727" s="48"/>
-      <c r="AI727" s="49"/>
+      <c r="AI727" s="48"/>
+      <c r="AJ727" s="48"/>
     </row>
     <row r="728">
       <c r="AH728" s="48"/>
-      <c r="AI728" s="49"/>
+      <c r="AI728" s="48"/>
+      <c r="AJ728" s="48"/>
     </row>
     <row r="729">
       <c r="AH729" s="48"/>
-      <c r="AI729" s="49"/>
+      <c r="AI729" s="48"/>
+      <c r="AJ729" s="48"/>
     </row>
     <row r="730">
       <c r="AH730" s="48"/>
-      <c r="AI730" s="49"/>
+      <c r="AI730" s="48"/>
+      <c r="AJ730" s="48"/>
     </row>
     <row r="731">
       <c r="AH731" s="48"/>
-      <c r="AI731" s="49"/>
+      <c r="AI731" s="48"/>
+      <c r="AJ731" s="48"/>
     </row>
     <row r="732">
       <c r="AH732" s="48"/>
-      <c r="AI732" s="49"/>
+      <c r="AI732" s="48"/>
+      <c r="AJ732" s="48"/>
     </row>
     <row r="733">
       <c r="AH733" s="48"/>
-      <c r="AI733" s="49"/>
+      <c r="AI733" s="48"/>
+      <c r="AJ733" s="48"/>
     </row>
     <row r="734">
       <c r="AH734" s="48"/>
-      <c r="AI734" s="49"/>
+      <c r="AI734" s="48"/>
+      <c r="AJ734" s="48"/>
     </row>
     <row r="735">
       <c r="AH735" s="48"/>
-      <c r="AI735" s="49"/>
+      <c r="AI735" s="48"/>
+      <c r="AJ735" s="48"/>
     </row>
     <row r="736">
       <c r="AH736" s="48"/>
-      <c r="AI736" s="49"/>
+      <c r="AI736" s="48"/>
+      <c r="AJ736" s="48"/>
     </row>
     <row r="737">
       <c r="AH737" s="48"/>
-      <c r="AI737" s="49"/>
+      <c r="AI737" s="48"/>
+      <c r="AJ737" s="48"/>
     </row>
     <row r="738">
       <c r="AH738" s="48"/>
-      <c r="AI738" s="49"/>
+      <c r="AI738" s="48"/>
+      <c r="AJ738" s="48"/>
     </row>
     <row r="739">
       <c r="AH739" s="48"/>
-      <c r="AI739" s="49"/>
+      <c r="AI739" s="48"/>
+      <c r="AJ739" s="48"/>
     </row>
     <row r="740">
       <c r="AH740" s="48"/>
-      <c r="AI740" s="49"/>
+      <c r="AI740" s="48"/>
+      <c r="AJ740" s="48"/>
     </row>
     <row r="741">
       <c r="AH741" s="48"/>
-      <c r="AI741" s="49"/>
+      <c r="AI741" s="48"/>
+      <c r="AJ741" s="48"/>
     </row>
     <row r="742">
       <c r="AH742" s="48"/>
-      <c r="AI742" s="49"/>
+      <c r="AI742" s="48"/>
+      <c r="AJ742" s="48"/>
     </row>
     <row r="743">
       <c r="AH743" s="48"/>
-      <c r="AI743" s="49"/>
+      <c r="AI743" s="48"/>
+      <c r="AJ743" s="48"/>
     </row>
     <row r="744">
       <c r="AH744" s="48"/>
-      <c r="AI744" s="49"/>
+      <c r="AI744" s="48"/>
+      <c r="AJ744" s="48"/>
     </row>
     <row r="745">
       <c r="AH745" s="48"/>
-      <c r="AI745" s="49"/>
+      <c r="AI745" s="48"/>
+      <c r="AJ745" s="48"/>
     </row>
     <row r="746">
       <c r="AH746" s="48"/>
-      <c r="AI746" s="49"/>
+      <c r="AI746" s="48"/>
+      <c r="AJ746" s="48"/>
     </row>
     <row r="747">
       <c r="AH747" s="48"/>
-      <c r="AI747" s="49"/>
+      <c r="AI747" s="48"/>
+      <c r="AJ747" s="48"/>
     </row>
     <row r="748">
       <c r="AH748" s="48"/>
-      <c r="AI748" s="49"/>
+      <c r="AI748" s="48"/>
+      <c r="AJ748" s="48"/>
     </row>
     <row r="749">
       <c r="AH749" s="48"/>
-      <c r="AI749" s="49"/>
+      <c r="AI749" s="48"/>
+      <c r="AJ749" s="48"/>
     </row>
     <row r="750">
       <c r="AH750" s="48"/>
-      <c r="AI750" s="49"/>
+      <c r="AI750" s="48"/>
+      <c r="AJ750" s="48"/>
     </row>
     <row r="751">
       <c r="AH751" s="48"/>
-      <c r="AI751" s="49"/>
+      <c r="AI751" s="48"/>
+      <c r="AJ751" s="48"/>
     </row>
     <row r="752">
       <c r="AH752" s="48"/>
-      <c r="AI752" s="49"/>
+      <c r="AI752" s="48"/>
+      <c r="AJ752" s="48"/>
     </row>
     <row r="753">
       <c r="AH753" s="48"/>
-      <c r="AI753" s="49"/>
+      <c r="AI753" s="48"/>
+      <c r="AJ753" s="48"/>
     </row>
     <row r="754">
       <c r="AH754" s="48"/>
-      <c r="AI754" s="49"/>
+      <c r="AI754" s="48"/>
+      <c r="AJ754" s="48"/>
     </row>
     <row r="755">
       <c r="AH755" s="48"/>
-      <c r="AI755" s="49"/>
+      <c r="AI755" s="48"/>
+      <c r="AJ755" s="48"/>
     </row>
     <row r="756">
       <c r="AH756" s="48"/>
-      <c r="AI756" s="49"/>
+      <c r="AI756" s="48"/>
+      <c r="AJ756" s="48"/>
     </row>
     <row r="757">
       <c r="AH757" s="48"/>
-      <c r="AI757" s="49"/>
+      <c r="AI757" s="48"/>
+      <c r="AJ757" s="48"/>
     </row>
     <row r="758">
       <c r="AH758" s="48"/>
-      <c r="AI758" s="49"/>
+      <c r="AI758" s="48"/>
+      <c r="AJ758" s="48"/>
     </row>
     <row r="759">
       <c r="AH759" s="48"/>
-      <c r="AI759" s="49"/>
+      <c r="AI759" s="48"/>
+      <c r="AJ759" s="48"/>
     </row>
     <row r="760">
       <c r="AH760" s="48"/>
-      <c r="AI760" s="49"/>
+      <c r="AI760" s="48"/>
+      <c r="AJ760" s="48"/>
     </row>
     <row r="761">
       <c r="AH761" s="48"/>
-      <c r="AI761" s="49"/>
+      <c r="AI761" s="48"/>
+      <c r="AJ761" s="48"/>
     </row>
     <row r="762">
       <c r="AH762" s="48"/>
-      <c r="AI762" s="49"/>
+      <c r="AI762" s="48"/>
+      <c r="AJ762" s="48"/>
     </row>
     <row r="763">
       <c r="AH763" s="48"/>
-      <c r="AI763" s="49"/>
+      <c r="AI763" s="48"/>
+      <c r="AJ763" s="48"/>
     </row>
     <row r="764">
       <c r="AH764" s="48"/>
-      <c r="AI764" s="49"/>
+      <c r="AI764" s="48"/>
+      <c r="AJ764" s="48"/>
     </row>
     <row r="765">
       <c r="AH765" s="48"/>
-      <c r="AI765" s="49"/>
+      <c r="AI765" s="48"/>
+      <c r="AJ765" s="48"/>
     </row>
     <row r="766">
       <c r="AH766" s="48"/>
-      <c r="AI766" s="49"/>
+      <c r="AI766" s="48"/>
+      <c r="AJ766" s="48"/>
     </row>
     <row r="767">
       <c r="AH767" s="48"/>
-      <c r="AI767" s="49"/>
+      <c r="AI767" s="48"/>
+      <c r="AJ767" s="48"/>
     </row>
     <row r="768">
       <c r="AH768" s="48"/>
-      <c r="AI768" s="49"/>
+      <c r="AI768" s="48"/>
+      <c r="AJ768" s="48"/>
     </row>
     <row r="769">
       <c r="AH769" s="48"/>
-      <c r="AI769" s="49"/>
+      <c r="AI769" s="48"/>
+      <c r="AJ769" s="48"/>
     </row>
     <row r="770">
       <c r="AH770" s="48"/>
-      <c r="AI770" s="49"/>
+      <c r="AI770" s="48"/>
+      <c r="AJ770" s="48"/>
     </row>
     <row r="771">
       <c r="AH771" s="48"/>
-      <c r="AI771" s="49"/>
+      <c r="AI771" s="48"/>
+      <c r="AJ771" s="48"/>
     </row>
     <row r="772">
       <c r="AH772" s="48"/>
-      <c r="AI772" s="49"/>
+      <c r="AI772" s="48"/>
+      <c r="AJ772" s="48"/>
     </row>
     <row r="773">
       <c r="AH773" s="48"/>
-      <c r="AI773" s="49"/>
+      <c r="AI773" s="48"/>
+      <c r="AJ773" s="48"/>
     </row>
     <row r="774">
       <c r="AH774" s="48"/>
-      <c r="AI774" s="49"/>
+      <c r="AI774" s="48"/>
+      <c r="AJ774" s="48"/>
     </row>
     <row r="775">
       <c r="AH775" s="48"/>
-      <c r="AI775" s="49"/>
+      <c r="AI775" s="48"/>
+      <c r="AJ775" s="48"/>
     </row>
     <row r="776">
       <c r="AH776" s="48"/>
-      <c r="AI776" s="49"/>
+      <c r="AI776" s="48"/>
+      <c r="AJ776" s="48"/>
     </row>
     <row r="777">
       <c r="AH777" s="48"/>
-      <c r="AI777" s="49"/>
+      <c r="AI777" s="48"/>
+      <c r="AJ777" s="48"/>
     </row>
     <row r="778">
       <c r="AH778" s="48"/>
-      <c r="AI778" s="49"/>
+      <c r="AI778" s="48"/>
+      <c r="AJ778" s="48"/>
     </row>
     <row r="779">
       <c r="AH779" s="48"/>
-      <c r="AI779" s="49"/>
+      <c r="AI779" s="48"/>
+      <c r="AJ779" s="48"/>
     </row>
     <row r="780">
       <c r="AH780" s="48"/>
-      <c r="AI780" s="49"/>
+      <c r="AI780" s="48"/>
+      <c r="AJ780" s="48"/>
     </row>
     <row r="781">
       <c r="AH781" s="48"/>
-      <c r="AI781" s="49"/>
+      <c r="AI781" s="48"/>
+      <c r="AJ781" s="48"/>
     </row>
     <row r="782">
       <c r="AH782" s="48"/>
-      <c r="AI782" s="49"/>
+      <c r="AI782" s="48"/>
+      <c r="AJ782" s="48"/>
     </row>
     <row r="783">
       <c r="AH783" s="48"/>
-      <c r="AI783" s="49"/>
+      <c r="AI783" s="48"/>
+      <c r="AJ783" s="48"/>
     </row>
     <row r="784">
       <c r="AH784" s="48"/>
-      <c r="AI784" s="49"/>
+      <c r="AI784" s="48"/>
+      <c r="AJ784" s="48"/>
     </row>
     <row r="785">
       <c r="AH785" s="48"/>
-      <c r="AI785" s="49"/>
+      <c r="AI785" s="48"/>
+      <c r="AJ785" s="48"/>
     </row>
     <row r="786">
       <c r="AH786" s="48"/>
-      <c r="AI786" s="49"/>
+      <c r="AI786" s="48"/>
+      <c r="AJ786" s="48"/>
     </row>
     <row r="787">
       <c r="AH787" s="48"/>
-      <c r="AI787" s="49"/>
+      <c r="AI787" s="48"/>
+      <c r="AJ787" s="48"/>
     </row>
     <row r="788">
       <c r="AH788" s="48"/>
-      <c r="AI788" s="49"/>
+      <c r="AI788" s="48"/>
+      <c r="AJ788" s="48"/>
     </row>
     <row r="789">
       <c r="AH789" s="48"/>
-      <c r="AI789" s="49"/>
+      <c r="AI789" s="48"/>
+      <c r="AJ789" s="48"/>
     </row>
     <row r="790">
       <c r="AH790" s="48"/>
-      <c r="AI790" s="49"/>
+      <c r="AI790" s="48"/>
+      <c r="AJ790" s="48"/>
     </row>
     <row r="791">
       <c r="AH791" s="48"/>
-      <c r="AI791" s="49"/>
+      <c r="AI791" s="48"/>
+      <c r="AJ791" s="48"/>
     </row>
     <row r="792">
       <c r="AH792" s="48"/>
-      <c r="AI792" s="49"/>
+      <c r="AI792" s="48"/>
+      <c r="AJ792" s="48"/>
     </row>
     <row r="793">
       <c r="AH793" s="48"/>
-      <c r="AI793" s="49"/>
+      <c r="AI793" s="48"/>
+      <c r="AJ793" s="48"/>
     </row>
     <row r="794">
       <c r="AH794" s="48"/>
-      <c r="AI794" s="49"/>
+      <c r="AI794" s="48"/>
+      <c r="AJ794" s="48"/>
     </row>
     <row r="795">
       <c r="AH795" s="48"/>
-      <c r="AI795" s="49"/>
+      <c r="AI795" s="48"/>
+      <c r="AJ795" s="48"/>
     </row>
     <row r="796">
       <c r="AH796" s="48"/>
-      <c r="AI796" s="49"/>
+      <c r="AI796" s="48"/>
+      <c r="AJ796" s="48"/>
     </row>
     <row r="797">
       <c r="AH797" s="48"/>
-      <c r="AI797" s="49"/>
+      <c r="AI797" s="48"/>
+      <c r="AJ797" s="48"/>
     </row>
     <row r="798">
       <c r="AH798" s="48"/>
-      <c r="AI798" s="49"/>
+      <c r="AI798" s="48"/>
+      <c r="AJ798" s="48"/>
     </row>
     <row r="799">
       <c r="AH799" s="48"/>
-      <c r="AI799" s="49"/>
+      <c r="AI799" s="48"/>
+      <c r="AJ799" s="48"/>
     </row>
     <row r="800">
       <c r="AH800" s="48"/>
-      <c r="AI800" s="49"/>
+      <c r="AI800" s="48"/>
+      <c r="AJ800" s="48"/>
     </row>
     <row r="801">
       <c r="AH801" s="48"/>
-      <c r="AI801" s="49"/>
+      <c r="AI801" s="48"/>
+      <c r="AJ801" s="48"/>
     </row>
     <row r="802">
       <c r="AH802" s="48"/>
-      <c r="AI802" s="49"/>
+      <c r="AI802" s="48"/>
+      <c r="AJ802" s="48"/>
     </row>
     <row r="803">
       <c r="AH803" s="48"/>
-      <c r="AI803" s="49"/>
+      <c r="AI803" s="48"/>
+      <c r="AJ803" s="48"/>
     </row>
     <row r="804">
       <c r="AH804" s="48"/>
-      <c r="AI804" s="49"/>
+      <c r="AI804" s="48"/>
+      <c r="AJ804" s="48"/>
     </row>
     <row r="805">
       <c r="AH805" s="48"/>
-      <c r="AI805" s="49"/>
+      <c r="AI805" s="48"/>
+      <c r="AJ805" s="48"/>
     </row>
     <row r="806">
       <c r="AH806" s="48"/>
-      <c r="AI806" s="49"/>
+      <c r="AI806" s="48"/>
+      <c r="AJ806" s="48"/>
     </row>
     <row r="807">
       <c r="AH807" s="48"/>
-      <c r="AI807" s="49"/>
+      <c r="AI807" s="48"/>
+      <c r="AJ807" s="48"/>
     </row>
     <row r="808">
       <c r="AH808" s="48"/>
-      <c r="AI808" s="49"/>
+      <c r="AI808" s="48"/>
+      <c r="AJ808" s="48"/>
     </row>
     <row r="809">
       <c r="AH809" s="48"/>
-      <c r="AI809" s="49"/>
+      <c r="AI809" s="48"/>
+      <c r="AJ809" s="48"/>
     </row>
     <row r="810">
       <c r="AH810" s="48"/>
-      <c r="AI810" s="49"/>
+      <c r="AI810" s="48"/>
+      <c r="AJ810" s="48"/>
     </row>
     <row r="811">
       <c r="AH811" s="48"/>
-      <c r="AI811" s="49"/>
+      <c r="AI811" s="48"/>
+      <c r="AJ811" s="48"/>
     </row>
     <row r="812">
       <c r="AH812" s="48"/>
-      <c r="AI812" s="49"/>
+      <c r="AI812" s="48"/>
+      <c r="AJ812" s="48"/>
     </row>
     <row r="813">
       <c r="AH813" s="48"/>
-      <c r="AI813" s="49"/>
+      <c r="AI813" s="48"/>
+      <c r="AJ813" s="48"/>
     </row>
     <row r="814">
       <c r="AH814" s="48"/>
-      <c r="AI814" s="49"/>
+      <c r="AI814" s="48"/>
+      <c r="AJ814" s="48"/>
     </row>
     <row r="815">
       <c r="AH815" s="48"/>
-      <c r="AI815" s="49"/>
+      <c r="AI815" s="48"/>
+      <c r="AJ815" s="48"/>
     </row>
     <row r="816">
       <c r="AH816" s="48"/>
-      <c r="AI816" s="49"/>
+      <c r="AI816" s="48"/>
+      <c r="AJ816" s="48"/>
     </row>
     <row r="817">
       <c r="AH817" s="48"/>
-      <c r="AI817" s="49"/>
+      <c r="AI817" s="48"/>
+      <c r="AJ817" s="48"/>
     </row>
     <row r="818">
       <c r="AH818" s="48"/>
-      <c r="AI818" s="49"/>
+      <c r="AI818" s="48"/>
+      <c r="AJ818" s="48"/>
     </row>
     <row r="819">
       <c r="AH819" s="48"/>
-      <c r="AI819" s="49"/>
+      <c r="AI819" s="48"/>
+      <c r="AJ819" s="48"/>
     </row>
     <row r="820">
       <c r="AH820" s="48"/>
-      <c r="AI820" s="49"/>
+      <c r="AI820" s="48"/>
+      <c r="AJ820" s="48"/>
     </row>
     <row r="821">
       <c r="AH821" s="48"/>
-      <c r="AI821" s="49"/>
+      <c r="AI821" s="48"/>
+      <c r="AJ821" s="48"/>
     </row>
     <row r="822">
       <c r="AH822" s="48"/>
-      <c r="AI822" s="49"/>
+      <c r="AI822" s="48"/>
+      <c r="AJ822" s="48"/>
     </row>
     <row r="823">
       <c r="AH823" s="48"/>
-      <c r="AI823" s="49"/>
+      <c r="AI823" s="48"/>
+      <c r="AJ823" s="48"/>
     </row>
     <row r="824">
       <c r="AH824" s="48"/>
-      <c r="AI824" s="49"/>
+      <c r="AI824" s="48"/>
+      <c r="AJ824" s="48"/>
     </row>
     <row r="825">
       <c r="AH825" s="48"/>
-      <c r="AI825" s="49"/>
+      <c r="AI825" s="48"/>
+      <c r="AJ825" s="48"/>
     </row>
     <row r="826">
       <c r="AH826" s="48"/>
-      <c r="AI826" s="49"/>
+      <c r="AI826" s="48"/>
+      <c r="AJ826" s="48"/>
     </row>
     <row r="827">
       <c r="AH827" s="48"/>
-      <c r="AI827" s="49"/>
+      <c r="AI827" s="48"/>
+      <c r="AJ827" s="48"/>
     </row>
     <row r="828">
       <c r="AH828" s="48"/>
-      <c r="AI828" s="49"/>
+      <c r="AI828" s="48"/>
+      <c r="AJ828" s="48"/>
     </row>
     <row r="829">
       <c r="AH829" s="48"/>
-      <c r="AI829" s="49"/>
+      <c r="AI829" s="48"/>
+      <c r="AJ829" s="48"/>
     </row>
     <row r="830">
       <c r="AH830" s="48"/>
-      <c r="AI830" s="49"/>
+      <c r="AI830" s="48"/>
+      <c r="AJ830" s="48"/>
     </row>
     <row r="831">
       <c r="AH831" s="48"/>
-      <c r="AI831" s="49"/>
+      <c r="AI831" s="48"/>
+      <c r="AJ831" s="48"/>
     </row>
     <row r="832">
       <c r="AH832" s="48"/>
-      <c r="AI832" s="49"/>
+      <c r="AI832" s="48"/>
+      <c r="AJ832" s="48"/>
     </row>
     <row r="833">
       <c r="AH833" s="48"/>
-      <c r="AI833" s="49"/>
+      <c r="AI833" s="48"/>
+      <c r="AJ833" s="48"/>
     </row>
     <row r="834">
       <c r="AH834" s="48"/>
-      <c r="AI834" s="49"/>
+      <c r="AI834" s="48"/>
+      <c r="AJ834" s="48"/>
     </row>
     <row r="835">
       <c r="AH835" s="48"/>
-      <c r="AI835" s="49"/>
+      <c r="AI835" s="48"/>
+      <c r="AJ835" s="48"/>
     </row>
     <row r="836">
       <c r="AH836" s="48"/>
-      <c r="AI836" s="49"/>
+      <c r="AI836" s="48"/>
+      <c r="AJ836" s="48"/>
     </row>
     <row r="837">
       <c r="AH837" s="48"/>
-      <c r="AI837" s="49"/>
+      <c r="AI837" s="48"/>
+      <c r="AJ837" s="48"/>
     </row>
     <row r="838">
       <c r="AH838" s="48"/>
-      <c r="AI838" s="49"/>
+      <c r="AI838" s="48"/>
+      <c r="AJ838" s="48"/>
     </row>
     <row r="839">
       <c r="AH839" s="48"/>
-      <c r="AI839" s="49"/>
+      <c r="AI839" s="48"/>
+      <c r="AJ839" s="48"/>
     </row>
     <row r="840">
       <c r="AH840" s="48"/>
-      <c r="AI840" s="49"/>
+      <c r="AI840" s="48"/>
+      <c r="AJ840" s="48"/>
     </row>
     <row r="841">
       <c r="AH841" s="48"/>
-      <c r="AI841" s="49"/>
+      <c r="AI841" s="48"/>
+      <c r="AJ841" s="48"/>
     </row>
     <row r="842">
       <c r="AH842" s="48"/>
-      <c r="AI842" s="49"/>
+      <c r="AI842" s="48"/>
+      <c r="AJ842" s="48"/>
     </row>
     <row r="843">
       <c r="AH843" s="48"/>
-      <c r="AI843" s="49"/>
+      <c r="AI843" s="48"/>
+      <c r="AJ843" s="48"/>
     </row>
     <row r="844">
       <c r="AH844" s="48"/>
-      <c r="AI844" s="49"/>
+      <c r="AI844" s="48"/>
+      <c r="AJ844" s="48"/>
     </row>
     <row r="845">
       <c r="AH845" s="48"/>
-      <c r="AI845" s="49"/>
+      <c r="AI845" s="48"/>
+      <c r="AJ845" s="48"/>
     </row>
     <row r="846">
       <c r="AH846" s="48"/>
-      <c r="AI846" s="49"/>
+      <c r="AI846" s="48"/>
+      <c r="AJ846" s="48"/>
     </row>
     <row r="847">
       <c r="AH847" s="48"/>
-      <c r="AI847" s="49"/>
+      <c r="AI847" s="48"/>
+      <c r="AJ847" s="48"/>
     </row>
     <row r="848">
       <c r="AH848" s="48"/>
-      <c r="AI848" s="49"/>
+      <c r="AI848" s="48"/>
+      <c r="AJ848" s="48"/>
     </row>
     <row r="849">
       <c r="AH849" s="48"/>
-      <c r="AI849" s="49"/>
+      <c r="AI849" s="48"/>
+      <c r="AJ849" s="48"/>
     </row>
     <row r="850">
       <c r="AH850" s="48"/>
-      <c r="AI850" s="49"/>
+      <c r="AI850" s="48"/>
+      <c r="AJ850" s="48"/>
     </row>
     <row r="851">
       <c r="AH851" s="48"/>
-      <c r="AI851" s="49"/>
+      <c r="AI851" s="48"/>
+      <c r="AJ851" s="48"/>
     </row>
     <row r="852">
       <c r="AH852" s="48"/>
-      <c r="AI852" s="49"/>
+      <c r="AI852" s="48"/>
+      <c r="AJ852" s="48"/>
     </row>
     <row r="853">
       <c r="AH853" s="48"/>
-      <c r="AI853" s="49"/>
+      <c r="AI853" s="48"/>
+      <c r="AJ853" s="48"/>
     </row>
     <row r="854">
       <c r="AH854" s="48"/>
-      <c r="AI854" s="49"/>
+      <c r="AI854" s="48"/>
+      <c r="AJ854" s="48"/>
     </row>
     <row r="855">
       <c r="AH855" s="48"/>
-      <c r="AI855" s="49"/>
+      <c r="AI855" s="48"/>
+      <c r="AJ855" s="48"/>
     </row>
     <row r="856">
       <c r="AH856" s="48"/>
-      <c r="AI856" s="49"/>
+      <c r="AI856" s="48"/>
+      <c r="AJ856" s="48"/>
     </row>
     <row r="857">
       <c r="AH857" s="48"/>
-      <c r="AI857" s="49"/>
+      <c r="AI857" s="48"/>
+      <c r="AJ857" s="48"/>
     </row>
     <row r="858">
       <c r="AH858" s="48"/>
-      <c r="AI858" s="49"/>
+      <c r="AI858" s="48"/>
+      <c r="AJ858" s="48"/>
     </row>
     <row r="859">
       <c r="AH859" s="48"/>
-      <c r="AI859" s="49"/>
+      <c r="AI859" s="48"/>
+      <c r="AJ859" s="48"/>
     </row>
     <row r="860">
       <c r="AH860" s="48"/>
-      <c r="AI860" s="49"/>
+      <c r="AI860" s="48"/>
+      <c r="AJ860" s="48"/>
     </row>
     <row r="861">
       <c r="AH861" s="48"/>
-      <c r="AI861" s="49"/>
+      <c r="AI861" s="48"/>
+      <c r="AJ861" s="48"/>
     </row>
     <row r="862">
       <c r="AH862" s="48"/>
-      <c r="AI862" s="49"/>
+      <c r="AI862" s="48"/>
+      <c r="AJ862" s="48"/>
     </row>
     <row r="863">
       <c r="AH863" s="48"/>
-      <c r="AI863" s="49"/>
+      <c r="AI863" s="48"/>
+      <c r="AJ863" s="48"/>
     </row>
     <row r="864">
       <c r="AH864" s="48"/>
-      <c r="AI864" s="49"/>
+      <c r="AI864" s="48"/>
+      <c r="AJ864" s="48"/>
     </row>
     <row r="865">
       <c r="AH865" s="48"/>
-      <c r="AI865" s="49"/>
+      <c r="AI865" s="48"/>
+      <c r="AJ865" s="48"/>
     </row>
     <row r="866">
       <c r="AH866" s="48"/>
-      <c r="AI866" s="49"/>
+      <c r="AI866" s="48"/>
+      <c r="AJ866" s="48"/>
     </row>
     <row r="867">
       <c r="AH867" s="48"/>
-      <c r="AI867" s="49"/>
+      <c r="AI867" s="48"/>
+      <c r="AJ867" s="48"/>
     </row>
     <row r="868">
       <c r="AH868" s="48"/>
-      <c r="AI868" s="49"/>
+      <c r="AI868" s="48"/>
+      <c r="AJ868" s="48"/>
     </row>
     <row r="869">
       <c r="AH869" s="48"/>
-      <c r="AI869" s="49"/>
+      <c r="AI869" s="48"/>
+      <c r="AJ869" s="48"/>
     </row>
     <row r="870">
       <c r="AH870" s="48"/>
-      <c r="AI870" s="49"/>
+      <c r="AI870" s="48"/>
+      <c r="AJ870" s="48"/>
     </row>
     <row r="871">
       <c r="AH871" s="48"/>
-      <c r="AI871" s="49"/>
+      <c r="AI871" s="48"/>
+      <c r="AJ871" s="48"/>
     </row>
     <row r="872">
       <c r="AH872" s="48"/>
-      <c r="AI872" s="49"/>
+      <c r="AI872" s="48"/>
+      <c r="AJ872" s="48"/>
     </row>
     <row r="873">
       <c r="AH873" s="48"/>
-      <c r="AI873" s="49"/>
+      <c r="AI873" s="48"/>
+      <c r="AJ873" s="48"/>
     </row>
     <row r="874">
       <c r="AH874" s="48"/>
-      <c r="AI874" s="49"/>
+      <c r="AI874" s="48"/>
+      <c r="AJ874" s="48"/>
     </row>
     <row r="875">
       <c r="AH875" s="48"/>
-      <c r="AI875" s="49"/>
+      <c r="AI875" s="48"/>
+      <c r="AJ875" s="48"/>
     </row>
     <row r="876">
       <c r="AH876" s="48"/>
-      <c r="AI876" s="49"/>
+      <c r="AI876" s="48"/>
+      <c r="AJ876" s="48"/>
     </row>
     <row r="877">
       <c r="AH877" s="48"/>
-      <c r="AI877" s="49"/>
+      <c r="AI877" s="48"/>
+      <c r="AJ877" s="48"/>
     </row>
     <row r="878">
       <c r="AH878" s="48"/>
-      <c r="AI878" s="49"/>
+      <c r="AI878" s="48"/>
+      <c r="AJ878" s="48"/>
     </row>
     <row r="879">
       <c r="AH879" s="48"/>
-      <c r="AI879" s="49"/>
+      <c r="AI879" s="48"/>
+      <c r="AJ879" s="48"/>
     </row>
     <row r="880">
       <c r="AH880" s="48"/>
-      <c r="AI880" s="49"/>
+      <c r="AI880" s="48"/>
+      <c r="AJ880" s="48"/>
     </row>
     <row r="881">
       <c r="AH881" s="48"/>
-      <c r="AI881" s="49"/>
+      <c r="AI881" s="48"/>
+      <c r="AJ881" s="48"/>
     </row>
     <row r="882">
       <c r="AH882" s="48"/>
-      <c r="AI882" s="49"/>
+      <c r="AI882" s="48"/>
+      <c r="AJ882" s="48"/>
     </row>
     <row r="883">
       <c r="AH883" s="48"/>
-      <c r="AI883" s="49"/>
+      <c r="AI883" s="48"/>
+      <c r="AJ883" s="48"/>
     </row>
     <row r="884">
       <c r="AH884" s="48"/>
-      <c r="AI884" s="49"/>
+      <c r="AI884" s="48"/>
+      <c r="AJ884" s="48"/>
     </row>
     <row r="885">
       <c r="AH885" s="48"/>
-      <c r="AI885" s="49"/>
+      <c r="AI885" s="48"/>
+      <c r="AJ885" s="48"/>
     </row>
     <row r="886">
       <c r="AH886" s="48"/>
-      <c r="AI886" s="49"/>
+      <c r="AI886" s="48"/>
+      <c r="AJ886" s="48"/>
     </row>
     <row r="887">
       <c r="AH887" s="48"/>
-      <c r="AI887" s="49"/>
+      <c r="AI887" s="48"/>
+      <c r="AJ887" s="48"/>
     </row>
     <row r="888">
       <c r="AH888" s="48"/>
-      <c r="AI888" s="49"/>
+      <c r="AI888" s="48"/>
+      <c r="AJ888" s="48"/>
     </row>
     <row r="889">
       <c r="AH889" s="48"/>
-      <c r="AI889" s="49"/>
+      <c r="AI889" s="48"/>
+      <c r="AJ889" s="48"/>
     </row>
     <row r="890">
       <c r="AH890" s="48"/>
-      <c r="AI890" s="49"/>
+      <c r="AI890" s="48"/>
+      <c r="AJ890" s="48"/>
     </row>
     <row r="891">
       <c r="AH891" s="48"/>
-      <c r="AI891" s="49"/>
+      <c r="AI891" s="48"/>
+      <c r="AJ891" s="48"/>
     </row>
     <row r="892">
       <c r="AH892" s="48"/>
-      <c r="AI892" s="49"/>
+      <c r="AI892" s="48"/>
+      <c r="AJ892" s="48"/>
     </row>
     <row r="893">
       <c r="AH893" s="48"/>
-      <c r="AI893" s="49"/>
+      <c r="AI893" s="48"/>
+      <c r="AJ893" s="48"/>
     </row>
     <row r="894">
       <c r="AH894" s="48"/>
-      <c r="AI894" s="49"/>
+      <c r="AI894" s="48"/>
+      <c r="AJ894" s="48"/>
     </row>
     <row r="895">
       <c r="AH895" s="48"/>
-      <c r="AI895" s="49"/>
+      <c r="AI895" s="48"/>
+      <c r="AJ895" s="48"/>
     </row>
     <row r="896">
       <c r="AH896" s="48"/>
-      <c r="AI896" s="49"/>
+      <c r="AI896" s="48"/>
+      <c r="AJ896" s="48"/>
     </row>
     <row r="897">
       <c r="AH897" s="48"/>
-      <c r="AI897" s="49"/>
+      <c r="AI897" s="48"/>
+      <c r="AJ897" s="48"/>
     </row>
     <row r="898">
       <c r="AH898" s="48"/>
-      <c r="AI898" s="49"/>
+      <c r="AI898" s="48"/>
+      <c r="AJ898" s="48"/>
     </row>
     <row r="899">
       <c r="AH899" s="48"/>
-      <c r="AI899" s="49"/>
+      <c r="AI899" s="48"/>
+      <c r="AJ899" s="48"/>
     </row>
     <row r="900">
       <c r="AH900" s="48"/>
-      <c r="AI900" s="49"/>
+      <c r="AI900" s="48"/>
+      <c r="AJ900" s="48"/>
     </row>
     <row r="901">
       <c r="AH901" s="48"/>
-      <c r="AI901" s="49"/>
+      <c r="AI901" s="48"/>
+      <c r="AJ901" s="48"/>
     </row>
     <row r="902">
       <c r="AH902" s="48"/>
-      <c r="AI902" s="49"/>
+      <c r="AI902" s="48"/>
+      <c r="AJ902" s="48"/>
     </row>
     <row r="903">
       <c r="AH903" s="48"/>
-      <c r="AI903" s="49"/>
+      <c r="AI903" s="48"/>
+      <c r="AJ903" s="48"/>
     </row>
     <row r="904">
       <c r="AH904" s="48"/>
-      <c r="AI904" s="49"/>
+      <c r="AI904" s="48"/>
+      <c r="AJ904" s="48"/>
     </row>
     <row r="905">
       <c r="AH905" s="48"/>
-      <c r="AI905" s="49"/>
+      <c r="AI905" s="48"/>
+      <c r="AJ905" s="48"/>
     </row>
     <row r="906">
       <c r="AH906" s="48"/>
-      <c r="AI906" s="49"/>
+      <c r="AI906" s="48"/>
+      <c r="AJ906" s="48"/>
     </row>
     <row r="907">
       <c r="AH907" s="48"/>
-      <c r="AI907" s="49"/>
+      <c r="AI907" s="48"/>
+      <c r="AJ907" s="48"/>
     </row>
     <row r="908">
       <c r="AH908" s="48"/>
-      <c r="AI908" s="49"/>
+      <c r="AI908" s="48"/>
+      <c r="AJ908" s="48"/>
     </row>
     <row r="909">
       <c r="AH909" s="48"/>
-      <c r="AI909" s="49"/>
+      <c r="AI909" s="48"/>
+      <c r="AJ909" s="48"/>
     </row>
     <row r="910">
       <c r="AH910" s="48"/>
-      <c r="AI910" s="49"/>
+      <c r="AI910" s="48"/>
+      <c r="AJ910" s="48"/>
     </row>
     <row r="911">
       <c r="AH911" s="48"/>
-      <c r="AI911" s="49"/>
+      <c r="AI911" s="48"/>
+      <c r="AJ911" s="48"/>
     </row>
     <row r="912">
       <c r="AH912" s="48"/>
-      <c r="AI912" s="49"/>
+      <c r="AI912" s="48"/>
+      <c r="AJ912" s="48"/>
     </row>
     <row r="913">
       <c r="AH913" s="48"/>
-      <c r="AI913" s="49"/>
+      <c r="AI913" s="48"/>
+      <c r="AJ913" s="48"/>
     </row>
     <row r="914">
       <c r="AH914" s="48"/>
-      <c r="AI914" s="49"/>
+      <c r="AI914" s="48"/>
+      <c r="AJ914" s="48"/>
     </row>
     <row r="915">
       <c r="AH915" s="48"/>
-      <c r="AI915" s="49"/>
+      <c r="AI915" s="48"/>
+      <c r="AJ915" s="48"/>
     </row>
     <row r="916">
       <c r="AH916" s="48"/>
-      <c r="AI916" s="49"/>
+      <c r="AI916" s="48"/>
+      <c r="AJ916" s="48"/>
     </row>
     <row r="917">
       <c r="AH917" s="48"/>
-      <c r="AI917" s="49"/>
+      <c r="AI917" s="48"/>
+      <c r="AJ917" s="48"/>
     </row>
     <row r="918">
       <c r="AH918" s="48"/>
-      <c r="AI918" s="49"/>
+      <c r="AI918" s="48"/>
+      <c r="AJ918" s="48"/>
     </row>
     <row r="919">
       <c r="AH919" s="48"/>
-      <c r="AI919" s="49"/>
+      <c r="AI919" s="48"/>
+      <c r="AJ919" s="48"/>
     </row>
     <row r="920">
       <c r="AH920" s="48"/>
-      <c r="AI920" s="49"/>
+      <c r="AI920" s="48"/>
+      <c r="AJ920" s="48"/>
     </row>
     <row r="921">
       <c r="AH921" s="48"/>
-      <c r="AI921" s="49"/>
+      <c r="AI921" s="48"/>
+      <c r="AJ921" s="48"/>
     </row>
     <row r="922">
       <c r="AH922" s="48"/>
-      <c r="AI922" s="49"/>
+      <c r="AI922" s="48"/>
+      <c r="AJ922" s="48"/>
     </row>
     <row r="923">
       <c r="AH923" s="48"/>
-      <c r="AI923" s="49"/>
+      <c r="AI923" s="48"/>
+      <c r="AJ923" s="48"/>
     </row>
     <row r="924">
       <c r="AH924" s="48"/>
-      <c r="AI924" s="49"/>
+      <c r="AI924" s="48"/>
+      <c r="AJ924" s="48"/>
     </row>
     <row r="925">
       <c r="AH925" s="48"/>
-      <c r="AI925" s="49"/>
+      <c r="AI925" s="48"/>
+      <c r="AJ925" s="48"/>
     </row>
     <row r="926">
       <c r="AH926" s="48"/>
-      <c r="AI926" s="49"/>
+      <c r="AI926" s="48"/>
+      <c r="AJ926" s="48"/>
     </row>
     <row r="927">
       <c r="AH927" s="48"/>
-      <c r="AI927" s="49"/>
+      <c r="AI927" s="48"/>
+      <c r="AJ927" s="48"/>
     </row>
     <row r="928">
       <c r="AH928" s="48"/>
-      <c r="AI928" s="49"/>
+      <c r="AI928" s="48"/>
+      <c r="AJ928" s="48"/>
     </row>
     <row r="929">
       <c r="AH929" s="48"/>
-      <c r="AI929" s="49"/>
+      <c r="AI929" s="48"/>
+      <c r="AJ929" s="48"/>
     </row>
     <row r="930">
       <c r="AH930" s="48"/>
-      <c r="AI930" s="49"/>
+      <c r="AI930" s="48"/>
+      <c r="AJ930" s="48"/>
     </row>
     <row r="931">
       <c r="AH931" s="48"/>
-      <c r="AI931" s="49"/>
+      <c r="AI931" s="48"/>
+      <c r="AJ931" s="48"/>
     </row>
     <row r="932">
       <c r="AH932" s="48"/>
-      <c r="AI932" s="49"/>
+      <c r="AI932" s="48"/>
+      <c r="AJ932" s="48"/>
     </row>
     <row r="933">
       <c r="AH933" s="48"/>
-      <c r="AI933" s="49"/>
+      <c r="AI933" s="48"/>
+      <c r="AJ933" s="48"/>
     </row>
     <row r="934">
       <c r="AH934" s="48"/>
-      <c r="AI934" s="49"/>
+      <c r="AI934" s="48"/>
+      <c r="AJ934" s="48"/>
     </row>
     <row r="935">
       <c r="AH935" s="48"/>
-      <c r="AI935" s="49"/>
+      <c r="AI935" s="48"/>
+      <c r="AJ935" s="48"/>
     </row>
     <row r="936">
       <c r="AH936" s="48"/>
-      <c r="AI936" s="49"/>
+      <c r="AI936" s="48"/>
+      <c r="AJ936" s="48"/>
     </row>
     <row r="937">
       <c r="AH937" s="48"/>
-      <c r="AI937" s="49"/>
+      <c r="AI937" s="48"/>
+      <c r="AJ937" s="48"/>
     </row>
     <row r="938">
       <c r="AH938" s="48"/>
-      <c r="AI938" s="49"/>
+      <c r="AI938" s="48"/>
+      <c r="AJ938" s="48"/>
     </row>
     <row r="939">
       <c r="AH939" s="48"/>
-      <c r="AI939" s="49"/>
+      <c r="AI939" s="48"/>
+      <c r="AJ939" s="48"/>
     </row>
     <row r="940">
       <c r="AH940" s="48"/>
-      <c r="AI940" s="49"/>
+      <c r="AI940" s="48"/>
+      <c r="AJ940" s="48"/>
     </row>
     <row r="941">
       <c r="AH941" s="48"/>
-      <c r="AI941" s="49"/>
+      <c r="AI941" s="48"/>
+      <c r="AJ941" s="48"/>
     </row>
     <row r="942">
       <c r="AH942" s="48"/>
-      <c r="AI942" s="49"/>
+      <c r="AI942" s="48"/>
+      <c r="AJ942" s="48"/>
     </row>
     <row r="943">
       <c r="AH943" s="48"/>
-      <c r="AI943" s="49"/>
+      <c r="AI943" s="48"/>
+      <c r="AJ943" s="48"/>
     </row>
     <row r="944">
       <c r="AH944" s="48"/>
-      <c r="AI944" s="49"/>
+      <c r="AI944" s="48"/>
+      <c r="AJ944" s="48"/>
     </row>
     <row r="945">
       <c r="AH945" s="48"/>
-      <c r="AI945" s="49"/>
+      <c r="AI945" s="48"/>
+      <c r="AJ945" s="48"/>
     </row>
     <row r="946">
       <c r="AH946" s="48"/>
-      <c r="AI946" s="49"/>
+      <c r="AI946" s="48"/>
+      <c r="AJ946" s="48"/>
     </row>
     <row r="947">
       <c r="AH947" s="48"/>
-      <c r="AI947" s="49"/>
+      <c r="AI947" s="48"/>
+      <c r="AJ947" s="48"/>
     </row>
     <row r="948">
       <c r="AH948" s="48"/>
-      <c r="AI948" s="49"/>
+      <c r="AI948" s="48"/>
+      <c r="AJ948" s="48"/>
     </row>
     <row r="949">
       <c r="AH949" s="48"/>
-      <c r="AI949" s="49"/>
+      <c r="AI949" s="48"/>
+      <c r="AJ949" s="48"/>
     </row>
     <row r="950">
       <c r="AH950" s="48"/>
-      <c r="AI950" s="49"/>
+      <c r="AI950" s="48"/>
+      <c r="AJ950" s="48"/>
     </row>
     <row r="951">
       <c r="AH951" s="48"/>
-      <c r="AI951" s="49"/>
+      <c r="AI951" s="48"/>
+      <c r="AJ951" s="48"/>
     </row>
     <row r="952">
       <c r="AH952" s="48"/>
-      <c r="AI952" s="49"/>
+      <c r="AI952" s="48"/>
+      <c r="AJ952" s="48"/>
     </row>
     <row r="953">
       <c r="AH953" s="48"/>
-      <c r="AI953" s="49"/>
+      <c r="AI953" s="48"/>
+      <c r="AJ953" s="48"/>
     </row>
     <row r="954">
       <c r="AH954" s="48"/>
-      <c r="AI954" s="49"/>
+      <c r="AI954" s="48"/>
+      <c r="AJ954" s="48"/>
     </row>
     <row r="955">
       <c r="AH955" s="48"/>
-      <c r="AI955" s="49"/>
+      <c r="AI955" s="48"/>
+      <c r="AJ955" s="48"/>
     </row>
     <row r="956">
       <c r="AH956" s="48"/>
-      <c r="AI956" s="49"/>
+      <c r="AI956" s="48"/>
+      <c r="AJ956" s="48"/>
     </row>
     <row r="957">
       <c r="AH957" s="48"/>
-      <c r="AI957" s="49"/>
+      <c r="AI957" s="48"/>
+      <c r="AJ957" s="48"/>
     </row>
     <row r="958">
       <c r="AH958" s="48"/>
-      <c r="AI958" s="49"/>
+      <c r="AI958" s="48"/>
+      <c r="AJ958" s="48"/>
     </row>
     <row r="959">
       <c r="AH959" s="48"/>
-      <c r="AI959" s="49"/>
+      <c r="AI959" s="48"/>
+      <c r="AJ959" s="48"/>
     </row>
     <row r="960">
       <c r="AH960" s="48"/>
-      <c r="AI960" s="49"/>
+      <c r="AI960" s="48"/>
+      <c r="AJ960" s="48"/>
     </row>
     <row r="961">
       <c r="AH961" s="48"/>
-      <c r="AI961" s="49"/>
+      <c r="AI961" s="48"/>
+      <c r="AJ961" s="48"/>
     </row>
     <row r="962">
       <c r="AH962" s="48"/>
-      <c r="AI962" s="49"/>
+      <c r="AI962" s="48"/>
+      <c r="AJ962" s="48"/>
     </row>
     <row r="963">
       <c r="AH963" s="48"/>
-      <c r="AI963" s="49"/>
+      <c r="AI963" s="48"/>
+      <c r="AJ963" s="48"/>
     </row>
     <row r="964">
       <c r="AH964" s="48"/>
-      <c r="AI964" s="49"/>
+      <c r="AI964" s="48"/>
+      <c r="AJ964" s="48"/>
     </row>
     <row r="965">
       <c r="AH965" s="48"/>
-      <c r="AI965" s="49"/>
+      <c r="AI965" s="48"/>
+      <c r="AJ965" s="48"/>
     </row>
     <row r="966">
       <c r="AH966" s="48"/>
-      <c r="AI966" s="49"/>
+      <c r="AI966" s="48"/>
+      <c r="AJ966" s="48"/>
     </row>
     <row r="967">
       <c r="AH967" s="48"/>
-      <c r="AI967" s="49"/>
+      <c r="AI967" s="48"/>
+      <c r="AJ967" s="48"/>
     </row>
     <row r="968">
       <c r="AH968" s="48"/>
-      <c r="AI968" s="49"/>
+      <c r="AI968" s="48"/>
+      <c r="AJ968" s="48"/>
     </row>
     <row r="969">
       <c r="AH969" s="48"/>
-      <c r="AI969" s="49"/>
+      <c r="AI969" s="48"/>
+      <c r="AJ969" s="48"/>
     </row>
     <row r="970">
       <c r="AH970" s="48"/>
-      <c r="AI970" s="49"/>
+      <c r="AI970" s="48"/>
+      <c r="AJ970" s="48"/>
     </row>
     <row r="971">
       <c r="AH971" s="48"/>
-      <c r="AI971" s="49"/>
+      <c r="AI971" s="48"/>
+      <c r="AJ971" s="48"/>
     </row>
     <row r="972">
       <c r="AH972" s="48"/>
-      <c r="AI972" s="49"/>
+      <c r="AI972" s="48"/>
+      <c r="AJ972" s="48"/>
     </row>
     <row r="973">
       <c r="AH973" s="48"/>
-      <c r="AI973" s="49"/>
+      <c r="AI973" s="48"/>
+      <c r="AJ973" s="48"/>
     </row>
     <row r="974">
       <c r="AH974" s="48"/>
-      <c r="AI974" s="49"/>
+      <c r="AI974" s="48"/>
+      <c r="AJ974" s="48"/>
     </row>
     <row r="975">
       <c r="AH975" s="48"/>
-      <c r="AI975" s="49"/>
+      <c r="AI975" s="48"/>
+      <c r="AJ975" s="48"/>
     </row>
     <row r="976">
       <c r="AH976" s="48"/>
-      <c r="AI976" s="49"/>
+      <c r="AI976" s="48"/>
+      <c r="AJ976" s="48"/>
     </row>
     <row r="977">
       <c r="AH977" s="48"/>
-      <c r="AI977" s="49"/>
+      <c r="AI977" s="48"/>
+      <c r="AJ977" s="48"/>
     </row>
     <row r="978">
       <c r="AH978" s="48"/>
-      <c r="AI978" s="49"/>
+      <c r="AI978" s="48"/>
+      <c r="AJ978" s="48"/>
     </row>
     <row r="979">
       <c r="AH979" s="48"/>
-      <c r="AI979" s="49"/>
+      <c r="AI979" s="48"/>
+      <c r="AJ979" s="48"/>
     </row>
     <row r="980">
       <c r="AH980" s="48"/>
-      <c r="AI980" s="49"/>
+      <c r="AI980" s="48"/>
+      <c r="AJ980" s="48"/>
     </row>
     <row r="981">
       <c r="AH981" s="48"/>
-      <c r="AI981" s="49"/>
+      <c r="AI981" s="48"/>
+      <c r="AJ981" s="48"/>
     </row>
     <row r="982">
       <c r="AH982" s="48"/>
-      <c r="AI982" s="49"/>
+      <c r="AI982" s="48"/>
+      <c r="AJ982" s="48"/>
     </row>
     <row r="983">
       <c r="AH983" s="48"/>
-      <c r="AI983" s="49"/>
+      <c r="AI983" s="48"/>
+      <c r="AJ983" s="48"/>
     </row>
     <row r="984">
       <c r="AH984" s="48"/>
-      <c r="AI984" s="49"/>
+      <c r="AI984" s="48"/>
+      <c r="AJ984" s="48"/>
     </row>
     <row r="985">
       <c r="AH985" s="48"/>
-      <c r="AI985" s="49"/>
+      <c r="AI985" s="48"/>
+      <c r="AJ985" s="48"/>
     </row>
     <row r="986">
       <c r="AH986" s="48"/>
-      <c r="AI986" s="49"/>
+      <c r="AI986" s="48"/>
+      <c r="AJ986" s="48"/>
     </row>
     <row r="987">
       <c r="AH987" s="48"/>
-      <c r="AI987" s="49"/>
+      <c r="AI987" s="48"/>
+      <c r="AJ987" s="48"/>
     </row>
     <row r="988">
       <c r="AH988" s="48"/>
-      <c r="AI988" s="49"/>
+      <c r="AI988" s="48"/>
+      <c r="AJ988" s="48"/>
     </row>
     <row r="989">
       <c r="AH989" s="48"/>
-      <c r="AI989" s="49"/>
+      <c r="AI989" s="48"/>
+      <c r="AJ989" s="48"/>
     </row>
     <row r="990">
       <c r="AH990" s="48"/>
-      <c r="AI990" s="49"/>
+      <c r="AI990" s="48"/>
+      <c r="AJ990" s="48"/>
     </row>
     <row r="991">
       <c r="AH991" s="48"/>
-      <c r="AI991" s="49"/>
+      <c r="AI991" s="48"/>
+      <c r="AJ991" s="48"/>
     </row>
     <row r="992">
       <c r="AH992" s="48"/>
-      <c r="AI992" s="49"/>
+      <c r="AI992" s="48"/>
+      <c r="AJ992" s="48"/>
     </row>
     <row r="993">
       <c r="AH993" s="48"/>
-      <c r="AI993" s="49"/>
+      <c r="AI993" s="48"/>
+      <c r="AJ993" s="48"/>
     </row>
     <row r="994">
       <c r="AH994" s="48"/>
-      <c r="AI994" s="49"/>
+      <c r="AI994" s="48"/>
+      <c r="AJ994" s="48"/>
     </row>
     <row r="995">
       <c r="AH995" s="48"/>
-      <c r="AI995" s="49"/>
+      <c r="AI995" s="48"/>
+      <c r="AJ995" s="48"/>
     </row>
     <row r="996">
       <c r="AH996" s="48"/>
-      <c r="AI996" s="49"/>
+      <c r="AI996" s="48"/>
+      <c r="AJ996" s="48"/>
     </row>
     <row r="997">
       <c r="AH997" s="48"/>
-      <c r="AI997" s="49"/>
+      <c r="AI997" s="48"/>
+      <c r="AJ997" s="48"/>
     </row>
     <row r="998">
       <c r="AH998" s="48"/>
-      <c r="AI998" s="49"/>
+      <c r="AI998" s="48"/>
+      <c r="AJ998" s="48"/>
     </row>
     <row r="999">
       <c r="AH999" s="48"/>
-      <c r="AI999" s="49"/>
+      <c r="AI999" s="48"/>
+      <c r="AJ999" s="48"/>
     </row>
     <row r="1000">
       <c r="AH1000" s="48"/>
-      <c r="AI1000" s="49"/>
+      <c r="AI1000" s="48"/>
+      <c r="AJ1000" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
